--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9120FB-345B-6549-95A6-3C6B6EB30F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A06E1-C821-CA40-894D-29EE918FBFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="636">
   <si>
     <t>Operator</t>
   </si>
@@ -1700,6 +1701,249 @@
   </si>
   <si>
     <t>T2_t1_AMB_tile_06e</t>
+  </si>
+  <si>
+    <t>T3_t0_ELOW_blank_01a</t>
+  </si>
+  <si>
+    <t>T3_t0_ELOW_blank_01b</t>
+  </si>
+  <si>
+    <t>T3_t0_ELOW_blank_01c</t>
+  </si>
+  <si>
+    <t>T3_t0_ELOW_blank_02a</t>
+  </si>
+  <si>
+    <t>T3_t0_ELOW_blank_02b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_01a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_01b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_02a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_02b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_02c</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_03a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_03b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_01a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_01b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_04a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_04b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_05a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_05b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_05c</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_06a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_06b</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_02a</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_02b</t>
+  </si>
+  <si>
+    <t>T3_t0_LOW_blank_01a</t>
+  </si>
+  <si>
+    <t>T3_t0_LOW_blank_01b</t>
+  </si>
+  <si>
+    <t>T3_t0_LOW_blank_02a</t>
+  </si>
+  <si>
+    <t>T3_t0_LOW_blank_02b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_01a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_01b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_01c</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_02a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_02b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_02c</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_03a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_03b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_03c</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_01a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_01b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_01c</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_01d</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_04a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_04b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_05a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_05b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_06a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_06b</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_02a</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_02b</t>
+  </si>
+  <si>
+    <t>T3_t0_AMB_blank_01a</t>
+  </si>
+  <si>
+    <t>T3_t0_AMB_blank_01b</t>
+  </si>
+  <si>
+    <t>T3_t0_AMB_blank_01c</t>
+  </si>
+  <si>
+    <t>T3_t0_AMB_blank_02a</t>
+  </si>
+  <si>
+    <t>T3_t0_AMB_blank_02b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_01a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_01b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_01c</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_02a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_02c</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_02e</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_03a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_03b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_03c</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_01a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_01b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_04a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_04b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_04c</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_05a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_05b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_05c</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_06a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_06b</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_06e</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_02a</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_02b</t>
+  </si>
+  <si>
+    <t>CRM4</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_01c</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_02c</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_06c</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_04c</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_01c</t>
   </si>
 </sst>
 </file>
@@ -2183,11 +2427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L612"/>
+  <dimension ref="A1:O701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G596" sqref="G596"/>
+      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F619" sqref="F619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17566,7 +17810,7 @@
         <v>2586.2950000000001</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="15" t="s">
         <v>11</v>
       </c>
@@ -17586,7 +17830,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="15" t="s">
         <v>11</v>
       </c>
@@ -17606,7 +17850,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="15" t="s">
         <v>11</v>
       </c>
@@ -17638,7 +17882,7 @@
         <v>2678.5749999999998</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="15" t="s">
         <v>11</v>
       </c>
@@ -17656,6 +17900,1043 @@
       </c>
       <c r="F612" s="16" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A613" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B613" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D613" s="5">
+        <v>49.83</v>
+      </c>
+      <c r="E613" s="22">
+        <v>2249.41</v>
+      </c>
+      <c r="F613" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G613" s="13">
+        <f>AVERAGE(E613,E615:E616)</f>
+        <v>2249.0333333333333</v>
+      </c>
+      <c r="H613" s="18">
+        <f>STDEV(E613,E615:E616)</f>
+        <v>2.308166660649452</v>
+      </c>
+      <c r="I613" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J613" s="4">
+        <f>I613-G613</f>
+        <v>-22.593333333333248</v>
+      </c>
+      <c r="K613" s="5">
+        <f>G613+J613</f>
+        <v>2226.44</v>
+      </c>
+      <c r="L613" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A614" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B614" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C614" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614" s="5">
+        <v>50.96</v>
+      </c>
+      <c r="E614" s="14">
+        <v>2206.6</v>
+      </c>
+      <c r="F614" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A615" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B615" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615" s="5">
+        <v>48.36</v>
+      </c>
+      <c r="E615" s="22">
+        <v>2251.13</v>
+      </c>
+      <c r="F615" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A616" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B616" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C616" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616" s="15">
+        <v>49.89</v>
+      </c>
+      <c r="E616" s="5">
+        <v>2246.56</v>
+      </c>
+      <c r="F616" s="16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A617" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B617" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" s="5">
+        <v>50.33</v>
+      </c>
+      <c r="E617" s="5">
+        <v>2583.5100000000002</v>
+      </c>
+      <c r="F617" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G617" s="13">
+        <f>AVERAGE(E617:E618)</f>
+        <v>2584.4949999999999</v>
+      </c>
+      <c r="H617" s="18">
+        <f>STDEV(E617:E618)</f>
+        <v>1.3930003589373572</v>
+      </c>
+      <c r="K617" s="5">
+        <f>G617+$J$613</f>
+        <v>2561.9016666666666</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A618" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B618" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618" s="5">
+        <v>51.66</v>
+      </c>
+      <c r="E618" s="5">
+        <v>2585.48</v>
+      </c>
+      <c r="F618" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A619" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B619" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D619" s="5">
+        <v>51.24</v>
+      </c>
+      <c r="E619" s="5">
+        <v>2618.61</v>
+      </c>
+      <c r="F619" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G619" s="13">
+        <f>AVERAGE(E619:E620)</f>
+        <v>2616.0299999999997</v>
+      </c>
+      <c r="H619" s="18">
+        <f>STDEV(E619:E620)</f>
+        <v>3.6486709909228039</v>
+      </c>
+      <c r="K619" s="5">
+        <f>G619+$J$613</f>
+        <v>2593.4366666666665</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A620" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B620" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D620" s="15">
+        <v>48.02</v>
+      </c>
+      <c r="E620" s="15">
+        <v>2613.4499999999998</v>
+      </c>
+      <c r="F620" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A621" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B621" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D621" s="5">
+        <v>49.87</v>
+      </c>
+      <c r="E621" s="5">
+        <v>2632.69</v>
+      </c>
+      <c r="F621" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="G621" s="13">
+        <f>AVERAGE(E621,E623)</f>
+        <v>2634.9750000000004</v>
+      </c>
+      <c r="H621" s="18">
+        <f>STDEV(E621,E623)</f>
+        <v>3.231477990022638</v>
+      </c>
+      <c r="K621" s="5">
+        <f>G621+$J$613</f>
+        <v>2612.3816666666671</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A622" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B622" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D622" s="5">
+        <v>49.8</v>
+      </c>
+      <c r="E622" s="14">
+        <v>2652.05</v>
+      </c>
+      <c r="F622" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A623" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B623" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D623" s="5">
+        <v>49.97</v>
+      </c>
+      <c r="E623" s="5">
+        <v>2637.26</v>
+      </c>
+      <c r="F623" s="16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A624" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B624" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C624" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D624" s="5">
+        <v>51.1</v>
+      </c>
+      <c r="E624" s="5">
+        <v>2582.6799999999998</v>
+      </c>
+      <c r="F624" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="G624" s="13">
+        <f>AVERAGE(E624:E625)</f>
+        <v>2580.12</v>
+      </c>
+      <c r="H624" s="18">
+        <f>STDEV(E624:E625)</f>
+        <v>3.6203867196750461</v>
+      </c>
+      <c r="K624" s="5">
+        <f>G624+$J$613</f>
+        <v>2557.5266666666666</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A625" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B625" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D625" s="5">
+        <v>50.43</v>
+      </c>
+      <c r="E625" s="22">
+        <v>2577.56</v>
+      </c>
+      <c r="F625" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A626" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B626" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C626" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D626" s="5">
+        <v>51.6</v>
+      </c>
+      <c r="E626" s="5">
+        <v>2597.64</v>
+      </c>
+      <c r="F626" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="G626" s="13">
+        <f>AVERAGE(E626:E627)</f>
+        <v>2599.605</v>
+      </c>
+      <c r="H626" s="18">
+        <f>STDEV(E626:E627)</f>
+        <v>2.7789296500633376</v>
+      </c>
+      <c r="K626" s="5">
+        <f>G626+$J$613</f>
+        <v>2577.0116666666668</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A627" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B627" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D627" s="5">
+        <v>49.34</v>
+      </c>
+      <c r="E627" s="5">
+        <v>2601.5700000000002</v>
+      </c>
+      <c r="F627" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A628" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B628" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C628" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628" s="5">
+        <v>49.47</v>
+      </c>
+      <c r="E628" s="5">
+        <v>2610.0100000000002</v>
+      </c>
+      <c r="F628" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="G628" s="13">
+        <f>AVERAGE(E628,E630)</f>
+        <v>2611.2049999999999</v>
+      </c>
+      <c r="H628" s="18">
+        <f>STDEV(E628,E630)</f>
+        <v>1.6899852070357586</v>
+      </c>
+      <c r="K628" s="5">
+        <f>G628+$J$613</f>
+        <v>2588.6116666666667</v>
+      </c>
+      <c r="N628" s="5"/>
+      <c r="O628" s="5"/>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A629" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B629" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D629" s="5">
+        <v>50.18</v>
+      </c>
+      <c r="E629" s="14">
+        <v>2642.76</v>
+      </c>
+      <c r="F629" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="N629" s="5"/>
+      <c r="O629" s="5"/>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A630" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B630" s="31">
+        <v>45181</v>
+      </c>
+      <c r="C630" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D630" s="5">
+        <v>49.96</v>
+      </c>
+      <c r="E630" s="5">
+        <v>2612.4</v>
+      </c>
+      <c r="F630" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C631" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F631" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C632" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F632" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C633" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F633" s="16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C634" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F634" s="16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C635" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E635" s="14"/>
+      <c r="F635" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C636" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F636" s="16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C637" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F637" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C638" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F638" s="16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C639" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F639" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C640" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F640" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="641" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C641" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F641" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="642" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C642" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F642" s="16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="643" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C643" s="10"/>
+      <c r="F643" s="16"/>
+    </row>
+    <row r="644" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C644" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F644" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C645" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E645" s="14"/>
+      <c r="F645" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C646" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F646" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="647" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C647" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F647" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="648" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C648" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F648" s="16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="649" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C649" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F649" s="16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="650" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C650" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F650" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="651" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C651" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E651" s="14"/>
+      <c r="F651" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="652" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C652" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F652" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="653" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C653" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F653" s="16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="654" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C654" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F654" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="655" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C655" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E655" s="14"/>
+      <c r="F655" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="656" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C656" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F656" s="16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="657" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C657" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F657" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="658" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C658" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E658" s="14"/>
+      <c r="F658" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="659" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C659" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F659" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="660" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C660" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F660" s="16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="661" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C661" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E661" s="14"/>
+      <c r="F661" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="662" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C662" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E662" s="14"/>
+      <c r="F662" s="16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="663" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C663" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F663" s="16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="664" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C664" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E664" s="14"/>
+      <c r="F664" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C665" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F665" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C666" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F666" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="667" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C667" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F667" s="16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="668" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C668" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F668" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="669" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C669" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F669" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="670" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C670" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F670" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="671" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C671" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F671" s="16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="672" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C672" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F672" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="673" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C673" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F673" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="674" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C674" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F674" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="675" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C675" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E675" s="14"/>
+      <c r="F675" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="676" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C676" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F676" s="16" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="677" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C677" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F677" s="16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="678" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C678" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F678" s="16" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="679" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C679" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F679" s="16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="680" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C680" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F680" s="16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="681" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C681" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E681" s="14"/>
+      <c r="F681" s="16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="682" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C682" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F682" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="683" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C683" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E683" s="14"/>
+      <c r="F683" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="684" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C684" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F684" s="16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="685" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C685" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F685" s="16" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="686" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C686" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E686" s="14"/>
+      <c r="F686" s="16" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="687" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C687" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F687" s="16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="688" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C688" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F688" s="16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="689" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C689" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689" s="16" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="690" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C690" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F690" s="16" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="691" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C691" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E691" s="14"/>
+      <c r="F691" s="16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="692" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C692" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F692" s="16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="693" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C693" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F693" s="16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="694" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C694" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F694" s="16" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="695" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C695" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E695" s="14"/>
+      <c r="F695" s="16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="696" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C696" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F696" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="697" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C697" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E697" s="14"/>
+      <c r="F697" s="16" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="698" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C698" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F698" s="16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="699" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C699" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F699" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="700" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C700" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F700" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="701" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701" s="16" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -17664,4 +18945,1699 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562D9156-3083-AD42-8192-E5501E775FC4}">
+  <dimension ref="A1:F84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5">
+        <v>47.84</v>
+      </c>
+      <c r="E1" s="14">
+        <v>2289.73</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>49.84</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2235.25</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>49.74</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2230.46</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>51.05</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2715.31</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>51.15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2703.06</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>51.33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2714.93</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>49.91</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2713.86</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50.17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2710.47</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>50.84</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2603.8000000000002</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>50.31</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2605.96</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>51.51</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2699.83</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>49.63</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2712.05</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>49.62</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2701.19</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>49.51</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2692.09</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>51.95</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2685.55</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5">
+        <v>51.54</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2709.31</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50.78</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2709.18</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>51.56</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2672.65</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="31">
+        <v>45096</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <v>52.15</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2673.8</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <v>48.87</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2704.4</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <v>52.52</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2683.22</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5">
+        <v>49.36</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2699.25</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2640.94</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <v>51.34</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2636.01</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <v>50.11</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2711.66</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2712.39</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5">
+        <v>51.36</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2239.0100000000002</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>50.73</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2231.81</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>50.26</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2238.4499999999998</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>51.47</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2690.61</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5">
+        <v>50.06</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2690.75</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>50.17</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2691.62</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5">
+        <v>48.26</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2686.69</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5">
+        <v>50.08</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2557.08</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5">
+        <v>50.13</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2533.56</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5">
+        <v>50.27</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2538.44</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5">
+        <v>49.95</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2543.7600000000002</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5">
+        <v>50.02</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2532.9699999999998</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5">
+        <v>50.06</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2539.91</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5">
+        <v>50.55</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2542.6</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5">
+        <v>48.6</v>
+      </c>
+      <c r="E41" s="14">
+        <v>2526.31</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5">
+        <v>50.59</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2538.9299999999998</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5">
+        <v>50.83</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2701.73</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5">
+        <v>50.75</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2690.09</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="31">
+        <v>45097</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5">
+        <v>48.88</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2710.48</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5">
+        <v>48.6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2700.17</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5">
+        <v>50.3</v>
+      </c>
+      <c r="E47" s="14">
+        <v>2240.85</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5">
+        <v>51.28</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2233.3200000000002</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5">
+        <v>50.69</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2237.23</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5">
+        <v>48.44</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2593.87</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2597.9899999999998</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5">
+        <v>50.8</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2601.64</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5">
+        <v>51.91</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2597.6</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5">
+        <v>51.17</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2555.08</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5">
+        <v>51.28</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2561.9899999999998</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5">
+        <v>51.51</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2684.96</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="31">
+        <v>45098</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5">
+        <v>49.79</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2681.63</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5">
+        <v>49.98</v>
+      </c>
+      <c r="E58" s="14">
+        <v>2715.04</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5">
+        <v>50.43</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2692.92</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5">
+        <v>50.15</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2693.4</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5">
+        <v>50.55</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2686.54</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5">
+        <v>50.75</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2681.8</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5">
+        <v>49.37</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2538.7600000000002</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5">
+        <v>50.21</v>
+      </c>
+      <c r="E64" s="14">
+        <v>2524.25</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5">
+        <v>48.43</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2539.6799999999998</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5">
+        <v>50.41</v>
+      </c>
+      <c r="E66" s="14">
+        <v>2578.7800000000002</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5">
+        <v>49.38</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2592.5</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5">
+        <v>49.42</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2588.16</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5">
+        <v>51.38</v>
+      </c>
+      <c r="E69" s="14">
+        <v>2545.4299999999998</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5">
+        <v>51.28</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2560.7199999999998</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5">
+        <v>50.12</v>
+      </c>
+      <c r="E71" s="5">
+        <v>2556.3200000000002</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5">
+        <v>51.33</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2680.89</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5">
+        <v>51.22</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2676.85</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5">
+        <v>53.6</v>
+      </c>
+      <c r="E74" s="14">
+        <v>2626.42</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5">
+        <v>51.26</v>
+      </c>
+      <c r="E75" s="5">
+        <v>2613.58</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5">
+        <v>50.69</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2619.02</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5">
+        <v>53.95</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2543.17</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5">
+        <v>51</v>
+      </c>
+      <c r="E78" s="14">
+        <v>2532.25</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5">
+        <v>50.84</v>
+      </c>
+      <c r="E79" s="5">
+        <v>2548.73</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5">
+        <v>50.39</v>
+      </c>
+      <c r="E80" s="14">
+        <v>2552.04</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="5">
+        <v>49.68</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2593.4699999999998</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5">
+        <v>50.42</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2596.79</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5">
+        <v>51.14</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2689.54</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="31">
+        <v>45099</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5">
+        <v>50.5</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2685.28</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\3. Alkalinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A06E1-C821-CA40-894D-29EE918FBFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="636">
   <si>
     <t>Operator</t>
   </si>
@@ -1949,7 +1948,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2148,8 +2147,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2426,32 +2425,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O701"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F619" sqref="F619"/>
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K645" sqref="K645"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="12.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2556,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2592,7 +2591,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2618,7 +2617,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2643,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2679,7 +2678,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2705,7 +2704,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2766,7 +2765,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2790,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2816,7 +2815,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>2592.88</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2875,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -2911,7 +2910,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -2936,7 +2935,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>2621.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +2994,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
@@ -3020,7 +3019,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>2553.7799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3079,7 +3078,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -3104,7 +3103,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>2531.04</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -3163,7 +3162,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>2487.5749999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>2606.9649999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3305,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
@@ -3331,7 +3330,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -3398,7 +3397,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>2658.0949999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>2655.7449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>2591.3400000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>11</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>11</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>2576.5950000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>11</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>2579.6250000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>2650.0800000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>2556.6850000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>2532.8100000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>2540.77</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>2633.7750000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4104,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>2674.7000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>2650.1000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>2343.2800000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>2642.0000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>2620.7650000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>2663.0850000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>2576.9600000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>11</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>2584.4350000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +4620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>2557.5100000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>11</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>11</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>2654.3750000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>11</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>11</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>2577.4450000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
@@ -4881,7 +4880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>11</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>2554.8049999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>11</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>3002.58</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>2990.2099999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>11</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>2976.65</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>11</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>2658.28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>2641.56</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>11</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>11</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>2651.5699999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>11</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>2646.5849999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>11</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>2577.77</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>11</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>152</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>152</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>152</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>11</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>2535.7849999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>2540.9899999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>2484.7750000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>11</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>11</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>2483.7199999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>11</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>2488.9699999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>11</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>2530.96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>2465.5749999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>11</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>11</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>11</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>11</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>152</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>2488.0249999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>152</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>152</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>152</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>2545.1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>152</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>11</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6351,7 +6350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>2542.6099999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>11</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>2554.4999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>11</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>2472.7099999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>11</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>11</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>2509.61</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>11</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>2514.2399999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>11</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>2549.4999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>11</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>11</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>2483.7800000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>11</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="24" t="s">
         <v>11</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>2442.1749999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="24" t="s">
         <v>11</v>
       </c>
@@ -6908,7 +6907,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
     </row>
-    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="24" t="s">
         <v>11</v>
       </c>
@@ -6933,7 +6932,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
     </row>
-    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="24" t="s">
         <v>11</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>2454.9850000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>11</v>
       </c>
@@ -6992,7 +6991,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>11</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>11</v>
       </c>
@@ -7047,7 +7046,7 @@
       </c>
       <c r="L176" s="28"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>11</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>11</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
         <v>152</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
         <v>152</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
         <v>152</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
         <v>152</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
         <v>152</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
         <v>152</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
         <v>152</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>2575.6150000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
         <v>152</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="15" t="s">
         <v>152</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
         <v>152</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
         <v>152</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>2558.6349999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
         <v>152</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
         <v>152</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>11</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>2583.3199999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>11</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
         <v>11</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
         <v>11</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>2594.98</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>11</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
         <v>11</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>11</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="24" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="24" t="s">
         <v>11</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>2564.5749999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="24" t="s">
         <v>11</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
         <v>11</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>2552.5749999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
         <v>11</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
         <v>11</v>
       </c>
@@ -7766,7 +7765,7 @@
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
         <v>11</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
         <v>11</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>11</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
         <v>11</v>
       </c>
@@ -7905,7 +7904,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
         <v>11</v>
       </c>
@@ -7930,7 +7929,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
         <v>11</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>2558.1749999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
         <v>11</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>2557.5000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
         <v>11</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
         <v>11</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
         <v>11</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>2559.2450000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>11</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
         <v>11</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>2553.0500000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
         <v>11</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -8178,7 +8177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
         <v>11</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>2575.61</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
         <v>11</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
         <v>11</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>2561.8700000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
         <v>11</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
         <v>11</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>2596.6350000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
         <v>11</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
         <v>11</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>2574.5550000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
         <v>11</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
         <v>11</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>2572.5350000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
         <v>11</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>11</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
         <v>11</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
         <v>11</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>2567.5250000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
         <v>11</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
         <v>11</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
@@ -8627,7 +8626,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="s">
         <v>11</v>
       </c>
@@ -8652,7 +8651,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>2580.6</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
         <v>11</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
         <v>11</v>
       </c>
@@ -8756,7 +8755,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
         <v>11</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="s">
         <v>11</v>
       </c>
@@ -8818,7 +8817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
         <v>11</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="s">
         <v>11</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
         <v>11</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="s">
         <v>11</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="s">
         <v>11</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>2823.9250000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
         <v>11</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
         <v>11</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="s">
         <v>11</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>2693.895</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
         <v>11</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
         <v>11</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>2592.4700000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>11</v>
       </c>
@@ -9106,7 +9105,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
         <v>11</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
         <v>11</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>2959.9100000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
         <v>11</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="s">
         <v>11</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
         <v>11</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>2869.5400000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="s">
         <v>11</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="s">
         <v>11</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>2875.6350000000007</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
         <v>11</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="s">
         <v>11</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="s">
         <v>11</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>2867.1150000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="s">
         <v>11</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
         <v>11</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>2865.9250000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
         <v>11</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
         <v>11</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>2667.4650000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
         <v>11</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
         <v>11</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>2791.6800000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
         <v>11</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
         <v>11</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
         <v>11</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>11</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>11</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
         <v>11</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>2665.1500000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
         <v>11</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
         <v>11</v>
       </c>
@@ -9714,7 +9713,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
         <v>11</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>11</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
         <v>11</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
         <v>11</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>2683.1600000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>11</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
         <v>11</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
         <v>11</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>2767.9650000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
         <v>11</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
         <v>11</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
         <v>11</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>2664.9050000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
         <v>11</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
         <v>11</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="s">
         <v>11</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>2507.11</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
         <v>11</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="s">
         <v>11</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="s">
         <v>11</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>2560.5800000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="s">
         <v>11</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="s">
         <v>11</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="s">
         <v>11</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>2551.7550000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
         <v>11</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
         <v>11</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="s">
         <v>11</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>2608.48</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
         <v>11</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="s">
         <v>11</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="s">
         <v>11</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>2651.3050000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
         <v>11</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="s">
         <v>11</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
         <v>11</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>2616.8150000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="s">
         <v>11</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
         <v>11</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>2532.7950000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
         <v>11</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
         <v>11</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>2626.605</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
         <v>11</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
         <v>11</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>2579.8250000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="s">
         <v>11</v>
       </c>
@@ -10580,7 +10579,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="s">
         <v>11</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="s">
         <v>11</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>11</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
         <v>11</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="s">
         <v>11</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>2606.1200000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
         <v>11</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="s">
         <v>11</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>2587.3300000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
         <v>11</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
         <v>11</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="s">
         <v>11</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>2559.56</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
         <v>11</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
         <v>11</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
         <v>11</v>
       </c>
@@ -10910,7 +10909,7 @@
         <v>2584.9</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="s">
         <v>11</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="s">
         <v>11</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
         <v>11</v>
       </c>
@@ -10982,7 +10981,7 @@
         <v>2569.7350000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
         <v>11</v>
       </c>
@@ -11002,7 +11001,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
         <v>11</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v>2512.4050000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
         <v>11</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
         <v>11</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>2515.6249999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
         <v>11</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
         <v>11</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
         <v>11</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>2431.8249999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
         <v>11</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
         <v>11</v>
       </c>
@@ -11210,7 +11209,7 @@
         <v>2452.1799999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
         <v>11</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
         <v>11</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
         <v>11</v>
       </c>
@@ -11282,7 +11281,7 @@
         <v>2467.9349999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="s">
         <v>11</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
         <v>11</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
         <v>11</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>2461.3399999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="s">
         <v>11</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="s">
         <v>11</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
         <v>11</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>2464.0449999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="s">
         <v>11</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
         <v>11</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="s">
         <v>11</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>2469.2599999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="s">
         <v>11</v>
       </c>
@@ -11518,7 +11517,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="s">
         <v>11</v>
       </c>
@@ -11538,7 +11537,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="9" t="s">
         <v>11</v>
       </c>
@@ -11570,7 +11569,7 @@
         <v>2410.0949999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="9" t="s">
         <v>11</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="s">
         <v>11</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>2477.1099999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
         <v>11</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="s">
         <v>11</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
         <v>11</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>2453.3649999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="s">
         <v>11</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="s">
         <v>11</v>
       </c>
@@ -11734,7 +11733,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
         <v>11</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>2557.395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="9" t="s">
         <v>11</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="s">
         <v>11</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
         <v>11</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>2531.5349999999994</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="s">
         <v>11</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="s">
         <v>11</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>2563.7449999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
         <v>11</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
         <v>11</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="s">
         <v>11</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>2550.56</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="s">
         <v>11</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="9" t="s">
         <v>11</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>2533.7799999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="s">
         <v>11</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="s">
         <v>11</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="s">
         <v>11</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>2549.9199999999996</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="9" t="s">
         <v>11</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="9" t="s">
         <v>11</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
         <v>11</v>
       </c>
@@ -12168,7 +12167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="9" t="s">
         <v>11</v>
       </c>
@@ -12188,7 +12187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="9" t="s">
         <v>11</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="9" t="s">
         <v>11</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>2559.89</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="9" t="s">
         <v>11</v>
       </c>
@@ -12260,7 +12259,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="9" t="s">
         <v>11</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>2578.56</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="9" t="s">
         <v>11</v>
       </c>
@@ -12312,7 +12311,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="9" t="s">
         <v>11</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>2590.0049999999997</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="9" t="s">
         <v>11</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="9" t="s">
         <v>11</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>2595.8799999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="9" t="s">
         <v>11</v>
       </c>
@@ -12416,7 +12415,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="9" t="s">
         <v>11</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="9" t="s">
         <v>11</v>
       </c>
@@ -12468,7 +12467,7 @@
         <v>2559.1149999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="s">
         <v>11</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="9" t="s">
         <v>11</v>
       </c>
@@ -12508,7 +12507,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="9" t="s">
         <v>11</v>
       </c>
@@ -12540,7 +12539,7 @@
         <v>2568.17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="9" t="s">
         <v>11</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="9" t="s">
         <v>11</v>
       </c>
@@ -12592,7 +12591,7 @@
         <v>2588.2649999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="9" t="s">
         <v>11</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="9" t="s">
         <v>11</v>
       </c>
@@ -12644,7 +12643,7 @@
         <v>2512.7749999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="9" t="s">
         <v>11</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="9" t="s">
         <v>11</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="9" t="s">
         <v>11</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="9" t="s">
         <v>11</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>2508.4349999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="9" t="s">
         <v>11</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="9" t="s">
         <v>11</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="9" t="s">
         <v>11</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>2494.2750000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="9" t="s">
         <v>11</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="9" t="s">
         <v>11</v>
       </c>
@@ -12872,7 +12871,7 @@
         <v>2475.2399999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="9" t="s">
         <v>11</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="9" t="s">
         <v>11</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="9" t="s">
         <v>11</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>2486.0450000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="9" t="s">
         <v>11</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="9" t="s">
         <v>11</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="9" t="s">
         <v>11</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="9" t="s">
         <v>11</v>
       </c>
@@ -13058,7 +13057,7 @@
         <v>2513.4499999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="9" t="s">
         <v>11</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="9" t="s">
         <v>11</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>2459.2950000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="9" t="s">
         <v>11</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="9" t="s">
         <v>11</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>2465.4949999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="9" t="s">
         <v>11</v>
       </c>
@@ -13182,7 +13181,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="9" t="s">
         <v>11</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="9" t="s">
         <v>11</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>2526.6549999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="9" t="s">
         <v>11</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="9" t="s">
         <v>11</v>
       </c>
@@ -13286,7 +13285,7 @@
         <v>2520.6149999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="9" t="s">
         <v>11</v>
       </c>
@@ -13306,7 +13305,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="9" t="s">
         <v>11</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="9" t="s">
         <v>11</v>
       </c>
@@ -13358,7 +13357,7 @@
         <v>2529.79</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="9" t="s">
         <v>11</v>
       </c>
@@ -13378,7 +13377,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="9" t="s">
         <v>11</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="9" t="s">
         <v>11</v>
       </c>
@@ -13430,7 +13429,7 @@
         <v>2541.38</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="9" t="s">
         <v>11</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="9" t="s">
         <v>11</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="9" t="s">
         <v>11</v>
       </c>
@@ -13502,7 +13501,7 @@
         <v>2562.915</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="9" t="s">
         <v>11</v>
       </c>
@@ -13522,7 +13521,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="9" t="s">
         <v>11</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>2556.625</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="9" t="s">
         <v>11</v>
       </c>
@@ -13574,7 +13573,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="9" t="s">
         <v>11</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="9" t="s">
         <v>11</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="9" t="s">
         <v>11</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="9" t="s">
         <v>11</v>
       </c>
@@ -13676,7 +13675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="9" t="s">
         <v>11</v>
       </c>
@@ -13708,7 +13707,7 @@
         <v>2791.2750000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="9" t="s">
         <v>11</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="9" t="s">
         <v>11</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="9" t="s">
         <v>11</v>
       </c>
@@ -13780,7 +13779,7 @@
         <v>2788.75</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="9" t="s">
         <v>11</v>
       </c>
@@ -13800,7 +13799,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="9" t="s">
         <v>11</v>
       </c>
@@ -13820,7 +13819,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="9" t="s">
         <v>11</v>
       </c>
@@ -13852,7 +13851,7 @@
         <v>2732.9049999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="9" t="s">
         <v>11</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="9" t="s">
         <v>11</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>2772.16</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="9" t="s">
         <v>11</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="9" t="s">
         <v>152</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>2756.5550000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="9" t="s">
         <v>152</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="9" t="s">
         <v>152</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="9" t="s">
         <v>152</v>
       </c>
@@ -14028,7 +14027,7 @@
         <v>2786.5600000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="9" t="s">
         <v>152</v>
       </c>
@@ -14048,7 +14047,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="9" t="s">
         <v>152</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="9" t="s">
         <v>152</v>
       </c>
@@ -14100,7 +14099,7 @@
         <v>2807.4549999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="9" t="s">
         <v>152</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="9" t="s">
         <v>152</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="9" t="s">
         <v>152</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>2825.7666666666669</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="9" t="s">
         <v>152</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="9" t="s">
         <v>152</v>
       </c>
@@ -14212,7 +14211,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="9" t="s">
         <v>152</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>2809.13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="9" t="s">
         <v>152</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="9" t="s">
         <v>152</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="9" t="s">
         <v>152</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>2787.915</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="9" t="s">
         <v>152</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="9" t="s">
         <v>152</v>
       </c>
@@ -14356,7 +14355,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="9" t="s">
         <v>152</v>
       </c>
@@ -14398,7 +14397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="9" t="s">
         <v>152</v>
       </c>
@@ -14418,7 +14417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="9" t="s">
         <v>152</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="9" t="s">
         <v>11</v>
       </c>
@@ -14470,7 +14469,7 @@
         <v>2713.895</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="9" t="s">
         <v>11</v>
       </c>
@@ -14490,7 +14489,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="9" t="s">
         <v>11</v>
       </c>
@@ -14522,7 +14521,7 @@
         <v>2670.7849999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="9" t="s">
         <v>11</v>
       </c>
@@ -14542,7 +14541,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="9" t="s">
         <v>11</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>2638.52</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="9" t="s">
         <v>11</v>
       </c>
@@ -14594,7 +14593,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="9" t="s">
         <v>11</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="9" t="s">
         <v>11</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>2646.8199999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="9" t="s">
         <v>11</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="9" t="s">
         <v>11</v>
       </c>
@@ -14698,7 +14697,7 @@
         <v>2674.9749999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="9" t="s">
         <v>11</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="9" t="s">
         <v>11</v>
       </c>
@@ -14750,7 +14749,7 @@
         <v>2714.7750000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="9" t="s">
         <v>11</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="9" t="s">
         <v>11</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="9" t="s">
         <v>550</v>
       </c>
@@ -14810,7 +14809,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="9" t="s">
         <v>550</v>
       </c>
@@ -14852,7 +14851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="9" t="s">
         <v>550</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="9" t="s">
         <v>550</v>
       </c>
@@ -14892,7 +14891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="9" t="s">
         <v>550</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>2638.105</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="9" t="s">
         <v>550</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="9" t="s">
         <v>550</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="9" t="s">
         <v>11</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>2552.6600000000003</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="9" t="s">
         <v>11</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="9" t="s">
         <v>11</v>
       </c>
@@ -15036,7 +15035,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="9" t="s">
         <v>11</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>2585.3500000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="9" t="s">
         <v>11</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="9" t="s">
         <v>11</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>2704.7550000000006</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="9" t="s">
         <v>11</v>
       </c>
@@ -15140,7 +15139,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="9" t="s">
         <v>11</v>
       </c>
@@ -15179,7 +15178,7 @@
         <v>2226.44</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="9" t="s">
         <v>11</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="9" t="s">
         <v>11</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>2647.7850000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="9" t="s">
         <v>11</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="9" t="s">
         <v>11</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="9" t="s">
         <v>11</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>2630.1000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="9" t="s">
         <v>11</v>
       </c>
@@ -15323,7 +15322,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="9" t="s">
         <v>11</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>2550.2200000000003</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="9" t="s">
         <v>11</v>
       </c>
@@ -15375,7 +15374,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="9" t="s">
         <v>11</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>2556.7600000000007</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="9" t="s">
         <v>11</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="9" t="s">
         <v>11</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>2517.3299999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="9" t="s">
         <v>11</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" s="9" t="s">
         <v>11</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" s="9" t="s">
         <v>11</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="9" t="s">
         <v>11</v>
       </c>
@@ -15548,7 +15547,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="9" t="s">
         <v>11</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>2505.9449999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="9" t="s">
         <v>11</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="9" t="s">
         <v>11</v>
       </c>
@@ -15620,7 +15619,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="9" t="s">
         <v>11</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>2567.8449999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="9" t="s">
         <v>11</v>
       </c>
@@ -15672,7 +15671,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="9" t="s">
         <v>11</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="9" t="s">
         <v>11</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>2516.39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" s="9" t="s">
         <v>11</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" s="9" t="s">
         <v>11</v>
       </c>
@@ -15776,7 +15775,7 @@
         <v>2633.3849999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" s="9" t="s">
         <v>11</v>
       </c>
@@ -15796,7 +15795,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" s="15" t="s">
         <v>11</v>
       </c>
@@ -15838,7 +15837,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" s="15" t="s">
         <v>11</v>
       </c>
@@ -15858,7 +15857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" s="15" t="s">
         <v>11</v>
       </c>
@@ -15878,7 +15877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" s="15" t="s">
         <v>11</v>
       </c>
@@ -15910,7 +15909,7 @@
         <v>2708.7049999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" s="15" t="s">
         <v>11</v>
       </c>
@@ -15930,7 +15929,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534" s="15" t="s">
         <v>11</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535" s="15" t="s">
         <v>11</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>2705.75</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" s="15" t="s">
         <v>11</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537" s="15" t="s">
         <v>11</v>
       </c>
@@ -16034,7 +16033,7 @@
         <v>2598.4650000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" s="15" t="s">
         <v>11</v>
       </c>
@@ -16054,7 +16053,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539" s="15" t="s">
         <v>11</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>2694.0950000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" s="15" t="s">
         <v>11</v>
       </c>
@@ -16106,7 +16105,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" s="15" t="s">
         <v>11</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" s="15" t="s">
         <v>11</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>2682.4050000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" s="15" t="s">
         <v>11</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544" s="15" t="s">
         <v>11</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>2702.83</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" s="15" t="s">
         <v>11</v>
       </c>
@@ -16230,7 +16229,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" s="15" t="s">
         <v>11</v>
       </c>
@@ -16262,7 +16261,7 @@
         <v>2666.8100000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" s="15" t="s">
         <v>11</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" s="15" t="s">
         <v>11</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>2689.5349999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" s="15" t="s">
         <v>11</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" s="15" t="s">
         <v>11</v>
       </c>
@@ -16354,7 +16353,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" s="15" t="s">
         <v>11</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>2626.1850000000004</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552" s="15" t="s">
         <v>11</v>
       </c>
@@ -16406,7 +16405,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" s="15" t="s">
         <v>11</v>
       </c>
@@ -16438,7 +16437,7 @@
         <v>2699.7349999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="15" t="s">
         <v>11</v>
       </c>
@@ -16458,7 +16457,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" s="15" t="s">
         <v>11</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" s="15" t="s">
         <v>11</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" s="15" t="s">
         <v>11</v>
       </c>
@@ -16540,7 +16539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558" s="15" t="s">
         <v>11</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>2678.3900000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" s="15" t="s">
         <v>11</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" s="15" t="s">
         <v>11</v>
       </c>
@@ -16624,7 +16623,7 @@
         <v>2676.8649999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" s="15" t="s">
         <v>11</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" s="15" t="s">
         <v>11</v>
       </c>
@@ -16676,7 +16675,7 @@
         <v>2523.71</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" s="15" t="s">
         <v>11</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" s="15" t="s">
         <v>11</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" s="15" t="s">
         <v>11</v>
       </c>
@@ -16748,7 +16747,7 @@
         <v>2529.5450000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" s="15" t="s">
         <v>11</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" s="15" t="s">
         <v>11</v>
       </c>
@@ -16788,7 +16787,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" s="15" t="s">
         <v>11</v>
       </c>
@@ -16820,7 +16819,7 @@
         <v>2528.4749999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" s="15" t="s">
         <v>11</v>
       </c>
@@ -16840,7 +16839,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" s="15" t="s">
         <v>11</v>
       </c>
@@ -16860,7 +16859,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" s="15" t="s">
         <v>11</v>
       </c>
@@ -16892,7 +16891,7 @@
         <v>2688.66</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" s="15" t="s">
         <v>11</v>
       </c>
@@ -16912,7 +16911,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" s="15" t="s">
         <v>11</v>
       </c>
@@ -16932,7 +16931,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" s="15" t="s">
         <v>11</v>
       </c>
@@ -16952,7 +16951,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" s="15" t="s">
         <v>11</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576" s="15" t="s">
         <v>11</v>
       </c>
@@ -17014,7 +17013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A577" s="15" t="s">
         <v>11</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A578" s="15" t="s">
         <v>11</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>2587.0949999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A579" s="15" t="s">
         <v>11</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580" s="15" t="s">
         <v>11</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>2590.7849999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A581" s="15" t="s">
         <v>11</v>
       </c>
@@ -17138,7 +17137,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A582" s="15" t="s">
         <v>11</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A583" s="15" t="s">
         <v>11</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A584" s="15" t="s">
         <v>11</v>
       </c>
@@ -17222,7 +17221,7 @@
         <v>2674.46</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A585" s="15" t="s">
         <v>11</v>
       </c>
@@ -17242,7 +17241,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586" s="15" t="s">
         <v>11</v>
       </c>
@@ -17274,7 +17273,7 @@
         <v>2684.3249999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A587" s="15" t="s">
         <v>11</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A588" s="15" t="s">
         <v>11</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A589" s="15" t="s">
         <v>11</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>2675.335</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A590" s="15" t="s">
         <v>11</v>
       </c>
@@ -17366,7 +17365,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A591" s="15" t="s">
         <v>11</v>
       </c>
@@ -17398,7 +17397,7 @@
         <v>2530.3850000000002</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592" s="15" t="s">
         <v>11</v>
       </c>
@@ -17418,7 +17417,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A593" s="15" t="s">
         <v>11</v>
       </c>
@@ -17438,7 +17437,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A594" s="15" t="s">
         <v>11</v>
       </c>
@@ -17470,7 +17469,7 @@
         <v>2581.4949999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A595" s="15" t="s">
         <v>11</v>
       </c>
@@ -17490,7 +17489,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A596" s="15" t="s">
         <v>11</v>
       </c>
@@ -17510,7 +17509,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A597" s="15" t="s">
         <v>11</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>2549.6849999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A598" s="15" t="s">
         <v>11</v>
       </c>
@@ -17562,7 +17561,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A599" s="15" t="s">
         <v>11</v>
       </c>
@@ -17582,7 +17581,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A600" s="15" t="s">
         <v>11</v>
       </c>
@@ -17614,7 +17613,7 @@
         <v>2670.0349999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A601" s="15" t="s">
         <v>11</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A602" s="15" t="s">
         <v>11</v>
       </c>
@@ -17666,7 +17665,7 @@
         <v>2607.4650000000001</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
         <v>11</v>
       </c>
@@ -17686,7 +17685,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A604" s="15" t="s">
         <v>11</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A605" s="15" t="s">
         <v>11</v>
       </c>
@@ -17738,7 +17737,7 @@
         <v>2537.1149999999998</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A606" s="15" t="s">
         <v>11</v>
       </c>
@@ -17758,7 +17757,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A607" s="15" t="s">
         <v>11</v>
       </c>
@@ -17778,7 +17777,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A608" s="15" t="s">
         <v>11</v>
       </c>
@@ -17810,7 +17809,7 @@
         <v>2586.2950000000001</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609" s="15" t="s">
         <v>11</v>
       </c>
@@ -17830,7 +17829,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610" s="15" t="s">
         <v>11</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611" s="15" t="s">
         <v>11</v>
       </c>
@@ -17882,7 +17881,7 @@
         <v>2678.5749999999998</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612" s="15" t="s">
         <v>11</v>
       </c>
@@ -17902,7 +17901,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613" s="15" t="s">
         <v>11</v>
       </c>
@@ -17944,7 +17943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614" s="15" t="s">
         <v>11</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615" s="15" t="s">
         <v>11</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" s="15" t="s">
         <v>11</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" s="15" t="s">
         <v>11</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>2561.9016666666666</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" s="15" t="s">
         <v>11</v>
       </c>
@@ -18056,7 +18055,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619" s="15" t="s">
         <v>11</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>2593.4366666666665</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620" s="15" t="s">
         <v>11</v>
       </c>
@@ -18108,7 +18107,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621" s="15" t="s">
         <v>11</v>
       </c>
@@ -18140,7 +18139,7 @@
         <v>2612.3816666666671</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622" s="15" t="s">
         <v>11</v>
       </c>
@@ -18160,7 +18159,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623" s="15" t="s">
         <v>11</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624" s="15" t="s">
         <v>11</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>2557.5266666666666</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A625" s="15" t="s">
         <v>11</v>
       </c>
@@ -18232,7 +18231,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A626" s="15" t="s">
         <v>11</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>2577.0116666666668</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A627" s="15" t="s">
         <v>11</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A628" s="15" t="s">
         <v>11</v>
       </c>
@@ -18318,7 +18317,7 @@
       <c r="N628" s="5"/>
       <c r="O628" s="5"/>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A629" s="15" t="s">
         <v>11</v>
       </c>
@@ -18340,7 +18339,7 @@
       <c r="N629" s="5"/>
       <c r="O629" s="5"/>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A630" s="15" t="s">
         <v>11</v>
       </c>
@@ -18360,587 +18359,877 @@
         <v>635</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A631" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B631" s="31">
+        <v>45182</v>
+      </c>
       <c r="C631" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D631" s="5">
+        <v>51.1</v>
+      </c>
+      <c r="E631" s="5">
+        <v>2232.91</v>
+      </c>
       <c r="F631" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G631" s="13">
+        <f>AVERAGE(E631,E633,E634)</f>
+        <v>2229.0266666666666</v>
+      </c>
+      <c r="H631" s="18">
+        <f>STDEV(E631,E633,E634)</f>
+        <v>4.6872628828914422</v>
+      </c>
+      <c r="I631" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J631" s="4">
+        <f>I631-G631</f>
+        <v>-2.5866666666665878</v>
+      </c>
+      <c r="K631" s="5">
+        <f>G631+$J$631</f>
+        <v>2226.44</v>
+      </c>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A632" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B632" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C632" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D632" s="5">
+        <v>52.34</v>
+      </c>
+      <c r="E632" s="14">
+        <v>2241.0300000000002</v>
+      </c>
+      <c r="F632" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A633" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B633" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D633" s="5">
+        <v>54.72</v>
+      </c>
+      <c r="E633" s="5">
+        <v>2223.8200000000002</v>
+      </c>
+      <c r="F633" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A634" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B634" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C634" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D634" s="5">
+        <v>51.93</v>
+      </c>
+      <c r="E634" s="5">
+        <v>2230.35</v>
+      </c>
+      <c r="F634" s="16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A635" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B635" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D635" s="5">
+        <v>53.71</v>
+      </c>
+      <c r="E635" s="5">
+        <v>2595.98</v>
+      </c>
+      <c r="F635" s="16" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C632" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F632" s="16" t="s">
+      <c r="G635" s="13">
+        <f>AVERAGE(E635,E637)</f>
+        <v>2592.4250000000002</v>
+      </c>
+      <c r="H635" s="18">
+        <f>STDEV(E635,E637)</f>
+        <v>5.0275292142364432</v>
+      </c>
+      <c r="K635" s="5">
+        <f>G635+$J$631</f>
+        <v>2589.8383333333336</v>
+      </c>
+    </row>
+    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A636" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B636" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C636" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D636" s="5">
+        <v>50.04</v>
+      </c>
+      <c r="E636" s="14">
+        <v>2604.71</v>
+      </c>
+      <c r="F636" s="16" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C633" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F633" s="16" t="s">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A637" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B637" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D637" s="5">
+        <v>51.49</v>
+      </c>
+      <c r="E637" s="5">
+        <v>2588.87</v>
+      </c>
+      <c r="F637" s="16" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C634" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F634" s="16" t="s">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A638" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B638" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D638" s="5">
+        <v>54.67</v>
+      </c>
+      <c r="E638" s="5">
+        <v>2595.79</v>
+      </c>
+      <c r="F638" s="16" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C635" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E635" s="14"/>
-      <c r="F635" s="16" t="s">
+      <c r="G638" s="13">
+        <f>AVERAGE(E638,E640)</f>
+        <v>2594.0450000000001</v>
+      </c>
+      <c r="H638" s="18">
+        <f>STDEV(E638,E640)</f>
+        <v>2.4678026663408965</v>
+      </c>
+      <c r="K638" s="5">
+        <f>G638+$J$631</f>
+        <v>2591.4583333333335</v>
+      </c>
+    </row>
+    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A639" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B639" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D639" s="5">
+        <v>52.41</v>
+      </c>
+      <c r="E639" s="14">
+        <v>2607.23</v>
+      </c>
+      <c r="F639" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C636" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F636" s="16" t="s">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A640" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B640" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D640" s="5">
+        <v>49.5</v>
+      </c>
+      <c r="E640" s="5">
+        <v>2592.3000000000002</v>
+      </c>
+      <c r="F640" s="16" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C637" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F637" s="16" t="s">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A641" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B641" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" s="5">
+        <v>52.29</v>
+      </c>
+      <c r="E641" s="5">
+        <v>2592.75</v>
+      </c>
+      <c r="F641" s="16" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C638" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F638" s="16" t="s">
+      <c r="G641" s="13">
+        <f>AVERAGE(E642,E643)</f>
+        <v>2601.8199999999997</v>
+      </c>
+      <c r="H641" s="18">
+        <f>STDEV(E642,E643)</f>
+        <v>2.842569260369908</v>
+      </c>
+      <c r="K641" s="5">
+        <f>G641+$J$631</f>
+        <v>2599.2333333333331</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A642" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B642" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" s="5">
+        <v>52.25</v>
+      </c>
+      <c r="E642" s="5">
+        <v>2603.83</v>
+      </c>
+      <c r="F642" s="16" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C639" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F639" s="16" t="s">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A643" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B643" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" s="5">
+        <v>49.95</v>
+      </c>
+      <c r="E643" s="5">
+        <v>2599.81</v>
+      </c>
+      <c r="F643" s="16" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C640" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F640" s="16" t="s">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A644" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B644" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D644" s="5">
+        <v>50.16</v>
+      </c>
+      <c r="E644" s="5">
+        <v>2606.08</v>
+      </c>
+      <c r="F644" s="16" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C641" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F641" s="16" t="s">
+      <c r="G644" s="13">
+        <f>AVERAGE(E644,E645)</f>
+        <v>2605.5349999999999</v>
+      </c>
+      <c r="H644" s="18">
+        <f>STDEV(E644,E645)</f>
+        <v>0.77074639149343971</v>
+      </c>
+      <c r="K644" s="5">
+        <f>G644+$J$631</f>
+        <v>2602.9483333333333</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A645" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B645" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645" s="5">
+        <v>52.33</v>
+      </c>
+      <c r="E645" s="5">
+        <v>2604.9899999999998</v>
+      </c>
+      <c r="F645" s="16" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C642" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F642" s="16" t="s">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A646" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B646" s="31">
+        <v>45182</v>
+      </c>
+      <c r="C646" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" s="5">
+        <v>51.6</v>
+      </c>
+      <c r="E646" s="5">
+        <v>2594.91</v>
+      </c>
+      <c r="F646" s="16" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C643" s="10"/>
-      <c r="F643" s="16"/>
-    </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C644" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F644" s="16" t="s">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C647" s="10"/>
+      <c r="F647" s="16"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C648" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F648" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C645" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E645" s="14"/>
-      <c r="F645" s="16" t="s">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C649" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E649" s="14"/>
+      <c r="F649" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C646" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F646" s="16" t="s">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C650" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F650" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C647" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F647" s="16" t="s">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C651" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F651" s="16" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C648" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F648" s="16" t="s">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C652" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F652" s="16" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C649" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F649" s="16" t="s">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C653" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F653" s="16" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C650" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F650" s="16" t="s">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C654" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F654" s="16" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C651" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E651" s="14"/>
-      <c r="F651" s="16" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C652" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F652" s="16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C653" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F653" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C654" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F654" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C655" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E655" s="14"/>
       <c r="F655" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C656" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F656" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="657" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C657" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F657" s="16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="658" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C658" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F658" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="659" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C659" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E659" s="14"/>
+      <c r="F659" s="16" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C656" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F656" s="16" t="s">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C660" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F660" s="16" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C657" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F657" s="16" t="s">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C661" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F661" s="16" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C658" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E658" s="14"/>
-      <c r="F658" s="16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C659" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F659" s="16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C660" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F660" s="16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C661" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E661" s="14"/>
-      <c r="F661" s="16" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C662" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E662" s="14"/>
       <c r="F662" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="663" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C663" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F663" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="664" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C664" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F664" s="16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="665" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C665" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E665" s="14"/>
+      <c r="F665" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="666" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C666" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E666" s="14"/>
+      <c r="F666" s="16" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C663" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F663" s="16" t="s">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C667" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F667" s="16" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C664" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E664" s="14"/>
-      <c r="F664" s="16" t="s">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C668" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E668" s="14"/>
+      <c r="F668" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C665" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F665" s="16" t="s">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C669" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F669" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C666" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F666" s="16" t="s">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C670" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F670" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C667" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F667" s="16" t="s">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C671" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F671" s="16" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C668" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F668" s="16" t="s">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C672" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F672" s="16" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C669" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F669" s="16" t="s">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C673" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F673" s="16" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C670" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F670" s="16" t="s">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C674" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F674" s="16" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C671" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F671" s="16" t="s">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C675" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F675" s="16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C672" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F672" s="16" t="s">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C676" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F676" s="16" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C673" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F673" s="16" t="s">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C677" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F677" s="16" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C674" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F674" s="16" t="s">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C678" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F678" s="16" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C675" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E675" s="14"/>
-      <c r="F675" s="16" t="s">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C679" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E679" s="14"/>
+      <c r="F679" s="16" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C676" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F676" s="16" t="s">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C680" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F680" s="16" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C677" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F677" s="16" t="s">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C681" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F681" s="16" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C678" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F678" s="16" t="s">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C682" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F682" s="16" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C679" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F679" s="16" t="s">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C683" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F683" s="16" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C680" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F680" s="16" t="s">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C684" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F684" s="16" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C681" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E681" s="14"/>
-      <c r="F681" s="16" t="s">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C685" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E685" s="14"/>
+      <c r="F685" s="16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C682" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F682" s="16" t="s">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C686" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F686" s="16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C683" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E683" s="14"/>
-      <c r="F683" s="16" t="s">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C687" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E687" s="14"/>
+      <c r="F687" s="16" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C684" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F684" s="16" t="s">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C688" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F688" s="16" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C685" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F685" s="16" t="s">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C689" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689" s="16" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C686" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E686" s="14"/>
-      <c r="F686" s="16" t="s">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C690" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E690" s="14"/>
+      <c r="F690" s="16" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C687" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F687" s="16" t="s">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C691" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F691" s="16" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C688" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F688" s="16" t="s">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C692" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F692" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C689" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F689" s="16" t="s">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C693" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F693" s="16" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C690" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F690" s="16" t="s">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C694" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F694" s="16" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C691" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E691" s="14"/>
-      <c r="F691" s="16" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C692" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F692" s="16" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C693" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F693" s="16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C694" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F694" s="16" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C695" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E695" s="14"/>
       <c r="F695" s="16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="696" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C696" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F696" s="16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="697" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C697" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F697" s="16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="698" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C698" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F698" s="16" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="699" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C699" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E699" s="14"/>
+      <c r="F699" s="16" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C696" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F696" s="16" t="s">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C700" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F700" s="16" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C697" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E697" s="14"/>
-      <c r="F697" s="16" t="s">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E701" s="14"/>
+      <c r="F701" s="16" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C698" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F698" s="16" t="s">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C702" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F702" s="16" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C699" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F699" s="16" t="s">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C703" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F703" s="16" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C700" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F700" s="16" t="s">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C704" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F704" s="16" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C701" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F701" s="16" t="s">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C705" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F705" s="16" t="s">
         <v>629</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L554"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18948,16 +19237,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562D9156-3083-AD42-8192-E5501E775FC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="A1:F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -18977,7 +19266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -18997,7 +19286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -19017,7 +19306,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
@@ -19037,7 +19326,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -19057,7 +19346,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -19077,7 +19366,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -19097,7 +19386,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
@@ -19117,7 +19406,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -19137,7 +19426,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -19157,7 +19446,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
@@ -19177,7 +19466,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
@@ -19197,7 +19486,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
@@ -19217,7 +19506,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
@@ -19237,7 +19526,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
@@ -19257,7 +19546,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
@@ -19277,7 +19566,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>11</v>
       </c>
@@ -19297,7 +19586,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>11</v>
       </c>
@@ -19317,7 +19606,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>11</v>
       </c>
@@ -19337,7 +19626,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
@@ -19357,7 +19646,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
@@ -19377,7 +19666,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
@@ -19397,7 +19686,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
@@ -19417,7 +19706,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>11</v>
       </c>
@@ -19437,7 +19726,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>11</v>
       </c>
@@ -19457,7 +19746,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>11</v>
       </c>
@@ -19477,7 +19766,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>11</v>
       </c>
@@ -19497,7 +19786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
@@ -19517,7 +19806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>11</v>
       </c>
@@ -19537,7 +19826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>11</v>
       </c>
@@ -19557,7 +19846,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>11</v>
       </c>
@@ -19577,7 +19866,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
@@ -19597,7 +19886,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>11</v>
       </c>
@@ -19617,7 +19906,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>11</v>
       </c>
@@ -19637,7 +19926,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -19657,7 +19946,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>11</v>
       </c>
@@ -19677,7 +19966,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>11</v>
       </c>
@@ -19697,7 +19986,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>11</v>
       </c>
@@ -19717,7 +20006,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>11</v>
       </c>
@@ -19737,7 +20026,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>11</v>
       </c>
@@ -19757,7 +20046,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>11</v>
       </c>
@@ -19777,7 +20066,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>11</v>
       </c>
@@ -19797,7 +20086,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>11</v>
       </c>
@@ -19817,7 +20106,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>11</v>
       </c>
@@ -19837,7 +20126,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>11</v>
       </c>
@@ -19857,7 +20146,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>11</v>
       </c>
@@ -19877,7 +20166,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>11</v>
       </c>
@@ -19897,7 +20186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>11</v>
       </c>
@@ -19917,7 +20206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>11</v>
       </c>
@@ -19937,7 +20226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>11</v>
       </c>
@@ -19957,7 +20246,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>11</v>
       </c>
@@ -19977,7 +20266,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>11</v>
       </c>
@@ -19997,7 +20286,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>11</v>
       </c>
@@ -20017,7 +20306,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -20037,7 +20326,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>11</v>
       </c>
@@ -20057,7 +20346,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>11</v>
       </c>
@@ -20077,7 +20366,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>11</v>
       </c>
@@ -20097,7 +20386,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>11</v>
       </c>
@@ -20117,7 +20406,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>11</v>
       </c>
@@ -20137,7 +20426,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>11</v>
       </c>
@@ -20157,7 +20446,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>11</v>
       </c>
@@ -20177,7 +20466,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>11</v>
       </c>
@@ -20197,7 +20486,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>11</v>
       </c>
@@ -20217,7 +20506,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>11</v>
       </c>
@@ -20237,7 +20526,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>11</v>
       </c>
@@ -20257,7 +20546,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>11</v>
       </c>
@@ -20277,7 +20566,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>11</v>
       </c>
@@ -20297,7 +20586,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>11</v>
       </c>
@@ -20317,7 +20606,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>11</v>
       </c>
@@ -20337,7 +20626,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>11</v>
       </c>
@@ -20357,7 +20646,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>11</v>
       </c>
@@ -20377,7 +20666,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>11</v>
       </c>
@@ -20397,7 +20686,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>11</v>
       </c>
@@ -20417,7 +20706,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>11</v>
       </c>
@@ -20437,7 +20726,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>11</v>
       </c>
@@ -20457,7 +20746,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
@@ -20477,7 +20766,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>11</v>
       </c>
@@ -20497,7 +20786,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>11</v>
       </c>
@@ -20517,7 +20806,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>11</v>
       </c>
@@ -20537,7 +20826,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>11</v>
       </c>
@@ -20557,7 +20846,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>11</v>
       </c>
@@ -20577,7 +20866,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>11</v>
       </c>
@@ -20597,7 +20886,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>11</v>
       </c>
@@ -20617,7 +20906,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>11</v>
       </c>

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\3. Alkalinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0699B7B3-BC75-8745-A8C0-E39B98DD8B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="636">
   <si>
     <t>Operator</t>
   </si>
@@ -1940,12 +1939,15 @@
   </si>
   <si>
     <t>T3_t1_LOW_blank_02c</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_05d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2144,8 +2146,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2422,32 +2424,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O701"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D657" sqref="D657"/>
+      <pane ySplit="1" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J669" sqref="J669"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="12.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2553,7 +2555,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2588,7 +2590,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2614,7 +2616,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +2642,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2675,7 +2677,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2703,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +2729,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2762,7 +2764,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2787,7 +2789,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2814,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>2592.88</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2874,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -2907,7 +2909,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2934,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>2621.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +2993,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3018,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>2553.7799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3075,7 +3077,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -3100,7 +3102,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>2531.04</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -3159,7 +3161,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>2487.5749999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3220,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3243,7 +3245,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>2606.9649999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3304,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
@@ -3327,7 +3329,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -3394,7 +3396,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>2658.0949999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>2655.7449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -3498,7 +3500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>2591.3400000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>11</v>
       </c>
@@ -3570,7 +3572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>11</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>2576.5950000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>11</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>2579.6250000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>2650.0800000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>2556.6850000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
@@ -3858,7 +3860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -3878,7 +3880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -3910,7 +3912,7 @@
         <v>2532.8100000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +3964,7 @@
         <v>2540.77</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
@@ -3982,7 +3984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>2633.7750000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
@@ -4101,7 +4103,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>2674.7000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>2650.1000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>2343.2800000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>2642.0000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
@@ -4381,7 +4383,7 @@
         <v>2620.7650000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>2663.0850000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
@@ -4473,7 +4475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>2576.9600000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>11</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>2584.4350000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>11</v>
       </c>
@@ -4617,7 +4619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>2557.5100000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>11</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>11</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>2654.3750000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>11</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
@@ -4823,7 +4825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>2577.4450000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
@@ -4877,7 +4879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>11</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>2554.8049999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>11</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>3002.58</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>2990.2099999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>11</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>2976.65</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>11</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
@@ -5207,7 +5209,7 @@
         <v>2658.28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -5247,7 +5249,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>2641.56</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>11</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>2651.5699999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>11</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>2646.5849999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>11</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>2577.77</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>11</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>152</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>152</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>152</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>11</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>2535.7849999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>2540.9899999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5755,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>2484.7750000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>11</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>11</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>2483.7199999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>11</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -5915,7 +5917,7 @@
         <v>2488.9699999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>2530.96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -5989,7 +5991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>2465.5749999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>11</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>11</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>11</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>11</v>
       </c>
@@ -6137,7 +6139,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>152</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>2488.0249999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>152</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>152</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>152</v>
       </c>
@@ -6245,7 +6247,7 @@
         <v>2545.1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>152</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>11</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -6381,7 +6383,7 @@
         <v>2542.6099999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>11</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>2554.4999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>11</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>2472.7099999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>11</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>11</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>2509.61</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>11</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>11</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>2514.2399999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>11</v>
       </c>
@@ -6697,7 +6699,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>2549.4999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>11</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>11</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>2483.7800000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="24" t="s">
         <v>11</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>2442.1749999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="24" t="s">
         <v>11</v>
       </c>
@@ -6904,7 +6906,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
     </row>
-    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="24" t="s">
         <v>11</v>
       </c>
@@ -6929,7 +6931,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
     </row>
-    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="24" t="s">
         <v>11</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>2454.9850000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>11</v>
       </c>
@@ -6988,7 +6990,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>11</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>11</v>
       </c>
@@ -7043,7 +7045,7 @@
       </c>
       <c r="L176" s="28"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>11</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>11</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
         <v>152</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
         <v>152</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
         <v>152</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
         <v>152</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
         <v>152</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
         <v>152</v>
       </c>
@@ -7237,7 +7239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
         <v>152</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>2575.6150000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
         <v>152</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="15" t="s">
         <v>152</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
         <v>152</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
         <v>152</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>2558.6349999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
         <v>152</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
         <v>152</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>11</v>
       </c>
@@ -7433,7 +7435,7 @@
         <v>2583.3199999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>11</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
         <v>11</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>2594.98</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>11</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
         <v>11</v>
       </c>
@@ -7545,7 +7547,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -7577,7 +7579,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>11</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="24" t="s">
         <v>11</v>
       </c>
@@ -7617,7 +7619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="24" t="s">
         <v>11</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>2564.5749999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="24" t="s">
         <v>11</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
         <v>11</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>2552.5749999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
         <v>11</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
         <v>11</v>
       </c>
@@ -7762,7 +7764,7 @@
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
         <v>11</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
         <v>11</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>11</v>
       </c>
@@ -7876,7 +7878,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
         <v>11</v>
       </c>
@@ -7901,7 +7903,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
         <v>11</v>
       </c>
@@ -7926,7 +7928,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
         <v>11</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>2558.1749999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
         <v>11</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -8010,7 +8012,7 @@
         <v>2557.5000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
         <v>11</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
         <v>11</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
         <v>11</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>2559.2450000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>11</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
         <v>11</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>2553.0500000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
         <v>11</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -8174,7 +8176,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
         <v>11</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>2575.61</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
         <v>11</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
         <v>11</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>2561.8700000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
         <v>11</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
         <v>11</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>2596.6350000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
         <v>11</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
         <v>11</v>
       </c>
@@ -8370,7 +8372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>2574.5550000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
         <v>11</v>
       </c>
@@ -8422,7 +8424,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
         <v>11</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>2572.5350000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
         <v>11</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>11</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
         <v>11</v>
       </c>
@@ -8514,7 +8516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
         <v>11</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>2567.5250000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
         <v>11</v>
       </c>
@@ -8566,7 +8568,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
         <v>11</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
@@ -8623,7 +8625,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="s">
         <v>11</v>
       </c>
@@ -8648,7 +8650,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>2580.6</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
         <v>11</v>
       </c>
@@ -8700,7 +8702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
         <v>11</v>
       </c>
@@ -8752,7 +8754,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
         <v>11</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="s">
         <v>11</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
         <v>11</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="s">
         <v>11</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
         <v>11</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="s">
         <v>11</v>
       </c>
@@ -8906,7 +8908,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="s">
         <v>11</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>2823.9250000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
         <v>11</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
         <v>11</v>
       </c>
@@ -8978,7 +8980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="s">
         <v>11</v>
       </c>
@@ -9010,7 +9012,7 @@
         <v>2693.895</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
         <v>11</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
         <v>11</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>2592.4700000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>11</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
         <v>11</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
         <v>11</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>2959.9100000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
         <v>11</v>
       </c>
@@ -9174,7 +9176,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="s">
         <v>11</v>
       </c>
@@ -9194,7 +9196,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
         <v>11</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>2869.5400000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="s">
         <v>11</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="s">
         <v>11</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>2875.6350000000007</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
         <v>11</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="s">
         <v>11</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="s">
         <v>11</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>2867.1150000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="s">
         <v>11</v>
       </c>
@@ -9370,7 +9372,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>2865.9250000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9424,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
         <v>11</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>2667.4650000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
         <v>11</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
         <v>11</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
         <v>11</v>
       </c>
@@ -9526,7 +9528,7 @@
         <v>2791.6800000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
         <v>11</v>
       </c>
@@ -9546,7 +9548,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
         <v>11</v>
       </c>
@@ -9566,7 +9568,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
         <v>11</v>
       </c>
@@ -9598,7 +9600,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>11</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>11</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
         <v>11</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v>2665.1500000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
         <v>11</v>
       </c>
@@ -9690,7 +9692,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
         <v>11</v>
       </c>
@@ -9710,7 +9712,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
         <v>11</v>
       </c>
@@ -9752,7 +9754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>11</v>
       </c>
@@ -9772,7 +9774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
         <v>11</v>
       </c>
@@ -9792,7 +9794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
         <v>11</v>
       </c>
@@ -9824,7 +9826,7 @@
         <v>2683.1600000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>11</v>
       </c>
@@ -9844,7 +9846,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
         <v>11</v>
       </c>
@@ -9864,7 +9866,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
         <v>11</v>
       </c>
@@ -9896,7 +9898,7 @@
         <v>2767.9650000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
         <v>11</v>
       </c>
@@ -9916,7 +9918,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
         <v>11</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
         <v>11</v>
       </c>
@@ -9968,7 +9970,7 @@
         <v>2664.9050000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
         <v>11</v>
       </c>
@@ -9988,7 +9990,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
         <v>11</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="s">
         <v>11</v>
       </c>
@@ -10040,7 +10042,7 @@
         <v>2507.11</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
         <v>11</v>
       </c>
@@ -10060,7 +10062,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="s">
         <v>11</v>
       </c>
@@ -10080,7 +10082,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="s">
         <v>11</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>2560.5800000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="s">
         <v>11</v>
       </c>
@@ -10132,7 +10134,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="s">
         <v>11</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="s">
         <v>11</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>2551.7550000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
         <v>11</v>
       </c>
@@ -10204,7 +10206,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
         <v>11</v>
       </c>
@@ -10224,7 +10226,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="s">
         <v>11</v>
       </c>
@@ -10256,7 +10258,7 @@
         <v>2608.48</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
         <v>11</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="s">
         <v>11</v>
       </c>
@@ -10296,7 +10298,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="s">
         <v>11</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>2651.3050000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
         <v>11</v>
       </c>
@@ -10348,7 +10350,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="s">
         <v>11</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
         <v>11</v>
       </c>
@@ -10400,7 +10402,7 @@
         <v>2616.8150000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="s">
         <v>11</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
         <v>11</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>2532.7950000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
         <v>11</v>
       </c>
@@ -10472,7 +10474,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
         <v>11</v>
       </c>
@@ -10504,7 +10506,7 @@
         <v>2626.605</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
         <v>11</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
         <v>11</v>
       </c>
@@ -10556,7 +10558,7 @@
         <v>2579.8250000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="s">
         <v>11</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="s">
         <v>11</v>
       </c>
@@ -10596,7 +10598,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="s">
         <v>11</v>
       </c>
@@ -10638,7 +10640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>11</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
         <v>11</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="s">
         <v>11</v>
       </c>
@@ -10710,7 +10712,7 @@
         <v>2606.1200000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
         <v>11</v>
       </c>
@@ -10730,7 +10732,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="s">
         <v>11</v>
       </c>
@@ -10762,7 +10764,7 @@
         <v>2587.3300000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
         <v>11</v>
       </c>
@@ -10782,7 +10784,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
         <v>11</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="s">
         <v>11</v>
       </c>
@@ -10834,7 +10836,7 @@
         <v>2559.56</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
         <v>11</v>
       </c>
@@ -10854,7 +10856,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
         <v>11</v>
       </c>
@@ -10874,7 +10876,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
         <v>11</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>2584.9</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="s">
         <v>11</v>
       </c>
@@ -10926,7 +10928,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="s">
         <v>11</v>
       </c>
@@ -10946,7 +10948,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
         <v>11</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>2569.7350000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
         <v>11</v>
       </c>
@@ -10998,7 +11000,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
         <v>11</v>
       </c>
@@ -11030,7 +11032,7 @@
         <v>2512.4050000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
         <v>11</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
         <v>11</v>
       </c>
@@ -11082,7 +11084,7 @@
         <v>2515.6249999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
         <v>11</v>
       </c>
@@ -11102,7 +11104,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
         <v>11</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
         <v>11</v>
       </c>
@@ -11154,7 +11156,7 @@
         <v>2431.8249999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
         <v>11</v>
       </c>
@@ -11174,7 +11176,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
         <v>11</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>2452.1799999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
         <v>11</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
         <v>11</v>
       </c>
@@ -11246,7 +11248,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
         <v>11</v>
       </c>
@@ -11278,7 +11280,7 @@
         <v>2467.9349999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="s">
         <v>11</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
         <v>11</v>
       </c>
@@ -11318,7 +11320,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
         <v>11</v>
       </c>
@@ -11350,7 +11352,7 @@
         <v>2461.3399999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="s">
         <v>11</v>
       </c>
@@ -11370,7 +11372,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="s">
         <v>11</v>
       </c>
@@ -11390,7 +11392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
         <v>11</v>
       </c>
@@ -11422,7 +11424,7 @@
         <v>2464.0449999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="s">
         <v>11</v>
       </c>
@@ -11442,7 +11444,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
         <v>11</v>
       </c>
@@ -11462,7 +11464,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="s">
         <v>11</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>2469.2599999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="s">
         <v>11</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="s">
         <v>11</v>
       </c>
@@ -11534,7 +11536,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="9" t="s">
         <v>11</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>2410.0949999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="9" t="s">
         <v>11</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="s">
         <v>11</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>2477.1099999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
         <v>11</v>
       </c>
@@ -11638,7 +11640,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="s">
         <v>11</v>
       </c>
@@ -11658,7 +11660,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
         <v>11</v>
       </c>
@@ -11690,7 +11692,7 @@
         <v>2453.3649999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="s">
         <v>11</v>
       </c>
@@ -11710,7 +11712,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="s">
         <v>11</v>
       </c>
@@ -11730,7 +11732,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
         <v>11</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>2557.395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="9" t="s">
         <v>11</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="s">
         <v>11</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
         <v>11</v>
       </c>
@@ -11834,7 +11836,7 @@
         <v>2531.5349999999994</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="s">
         <v>11</v>
       </c>
@@ -11854,7 +11856,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="s">
         <v>11</v>
       </c>
@@ -11886,7 +11888,7 @@
         <v>2563.7449999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
         <v>11</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
         <v>11</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="s">
         <v>11</v>
       </c>
@@ -11958,7 +11960,7 @@
         <v>2550.56</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="s">
         <v>11</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="9" t="s">
         <v>11</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>2533.7799999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="s">
         <v>11</v>
       </c>
@@ -12030,7 +12032,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="s">
         <v>11</v>
       </c>
@@ -12050,7 +12052,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="s">
         <v>11</v>
       </c>
@@ -12082,7 +12084,7 @@
         <v>2549.9199999999996</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="9" t="s">
         <v>11</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="9" t="s">
         <v>11</v>
       </c>
@@ -12122,7 +12124,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
         <v>11</v>
       </c>
@@ -12164,7 +12166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="9" t="s">
         <v>11</v>
       </c>
@@ -12184,7 +12186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="9" t="s">
         <v>11</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="9" t="s">
         <v>11</v>
       </c>
@@ -12236,7 +12238,7 @@
         <v>2559.89</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="9" t="s">
         <v>11</v>
       </c>
@@ -12256,7 +12258,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="9" t="s">
         <v>11</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>2578.56</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="9" t="s">
         <v>11</v>
       </c>
@@ -12308,7 +12310,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="9" t="s">
         <v>11</v>
       </c>
@@ -12340,7 +12342,7 @@
         <v>2590.0049999999997</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="9" t="s">
         <v>11</v>
       </c>
@@ -12360,7 +12362,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="9" t="s">
         <v>11</v>
       </c>
@@ -12392,7 +12394,7 @@
         <v>2595.8799999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="9" t="s">
         <v>11</v>
       </c>
@@ -12412,7 +12414,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="9" t="s">
         <v>11</v>
       </c>
@@ -12432,7 +12434,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="9" t="s">
         <v>11</v>
       </c>
@@ -12464,7 +12466,7 @@
         <v>2559.1149999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="s">
         <v>11</v>
       </c>
@@ -12484,7 +12486,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="9" t="s">
         <v>11</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="9" t="s">
         <v>11</v>
       </c>
@@ -12536,7 +12538,7 @@
         <v>2568.17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="9" t="s">
         <v>11</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="9" t="s">
         <v>11</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>2588.2649999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="9" t="s">
         <v>11</v>
       </c>
@@ -12608,7 +12610,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="9" t="s">
         <v>11</v>
       </c>
@@ -12640,7 +12642,7 @@
         <v>2512.7749999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="9" t="s">
         <v>11</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="9" t="s">
         <v>11</v>
       </c>
@@ -12692,7 +12694,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="9" t="s">
         <v>11</v>
       </c>
@@ -12712,7 +12714,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="9" t="s">
         <v>11</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>2508.4349999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="9" t="s">
         <v>11</v>
       </c>
@@ -12764,7 +12766,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="9" t="s">
         <v>11</v>
       </c>
@@ -12784,7 +12786,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="9" t="s">
         <v>11</v>
       </c>
@@ -12816,7 +12818,7 @@
         <v>2494.2750000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="9" t="s">
         <v>11</v>
       </c>
@@ -12836,7 +12838,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="9" t="s">
         <v>11</v>
       </c>
@@ -12868,7 +12870,7 @@
         <v>2475.2399999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="9" t="s">
         <v>11</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="9" t="s">
         <v>11</v>
       </c>
@@ -12908,7 +12910,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="9" t="s">
         <v>11</v>
       </c>
@@ -12940,7 +12942,7 @@
         <v>2486.0450000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="9" t="s">
         <v>11</v>
       </c>
@@ -12960,7 +12962,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="9" t="s">
         <v>11</v>
       </c>
@@ -13002,7 +13004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="9" t="s">
         <v>11</v>
       </c>
@@ -13022,7 +13024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="9" t="s">
         <v>11</v>
       </c>
@@ -13054,7 +13056,7 @@
         <v>2513.4499999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="9" t="s">
         <v>11</v>
       </c>
@@ -13074,7 +13076,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="9" t="s">
         <v>11</v>
       </c>
@@ -13106,7 +13108,7 @@
         <v>2459.2950000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="9" t="s">
         <v>11</v>
       </c>
@@ -13126,7 +13128,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="9" t="s">
         <v>11</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>2465.4949999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="9" t="s">
         <v>11</v>
       </c>
@@ -13178,7 +13180,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="9" t="s">
         <v>11</v>
       </c>
@@ -13198,7 +13200,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="9" t="s">
         <v>11</v>
       </c>
@@ -13230,7 +13232,7 @@
         <v>2526.6549999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="9" t="s">
         <v>11</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="9" t="s">
         <v>11</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>2520.6149999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="9" t="s">
         <v>11</v>
       </c>
@@ -13302,7 +13304,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="9" t="s">
         <v>11</v>
       </c>
@@ -13322,7 +13324,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="9" t="s">
         <v>11</v>
       </c>
@@ -13354,7 +13356,7 @@
         <v>2529.79</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="9" t="s">
         <v>11</v>
       </c>
@@ -13374,7 +13376,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="9" t="s">
         <v>11</v>
       </c>
@@ -13394,7 +13396,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="9" t="s">
         <v>11</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>2541.38</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="9" t="s">
         <v>11</v>
       </c>
@@ -13446,7 +13448,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="9" t="s">
         <v>11</v>
       </c>
@@ -13466,7 +13468,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="9" t="s">
         <v>11</v>
       </c>
@@ -13498,7 +13500,7 @@
         <v>2562.915</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="9" t="s">
         <v>11</v>
       </c>
@@ -13518,7 +13520,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="9" t="s">
         <v>11</v>
       </c>
@@ -13550,7 +13552,7 @@
         <v>2556.625</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="9" t="s">
         <v>11</v>
       </c>
@@ -13570,7 +13572,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="9" t="s">
         <v>11</v>
       </c>
@@ -13590,7 +13592,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="9" t="s">
         <v>11</v>
       </c>
@@ -13632,7 +13634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="9" t="s">
         <v>11</v>
       </c>
@@ -13652,7 +13654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="9" t="s">
         <v>11</v>
       </c>
@@ -13672,7 +13674,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="9" t="s">
         <v>11</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>2791.2750000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="9" t="s">
         <v>11</v>
       </c>
@@ -13724,7 +13726,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="9" t="s">
         <v>11</v>
       </c>
@@ -13744,7 +13746,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="9" t="s">
         <v>11</v>
       </c>
@@ -13776,7 +13778,7 @@
         <v>2788.75</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="9" t="s">
         <v>11</v>
       </c>
@@ -13796,7 +13798,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="9" t="s">
         <v>11</v>
       </c>
@@ -13816,7 +13818,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="9" t="s">
         <v>11</v>
       </c>
@@ -13848,7 +13850,7 @@
         <v>2732.9049999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="9" t="s">
         <v>11</v>
       </c>
@@ -13868,7 +13870,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="9" t="s">
         <v>11</v>
       </c>
@@ -13900,7 +13902,7 @@
         <v>2772.16</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="9" t="s">
         <v>11</v>
       </c>
@@ -13920,7 +13922,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="9" t="s">
         <v>152</v>
       </c>
@@ -13952,7 +13954,7 @@
         <v>2756.5550000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="9" t="s">
         <v>152</v>
       </c>
@@ -13972,7 +13974,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="9" t="s">
         <v>152</v>
       </c>
@@ -13992,7 +13994,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="9" t="s">
         <v>152</v>
       </c>
@@ -14024,7 +14026,7 @@
         <v>2786.5600000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="9" t="s">
         <v>152</v>
       </c>
@@ -14044,7 +14046,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="9" t="s">
         <v>152</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="9" t="s">
         <v>152</v>
       </c>
@@ -14096,7 +14098,7 @@
         <v>2807.4549999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="9" t="s">
         <v>152</v>
       </c>
@@ -14116,7 +14118,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="9" t="s">
         <v>152</v>
       </c>
@@ -14136,7 +14138,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="9" t="s">
         <v>152</v>
       </c>
@@ -14168,7 +14170,7 @@
         <v>2825.7666666666669</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="9" t="s">
         <v>152</v>
       </c>
@@ -14188,7 +14190,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="9" t="s">
         <v>152</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="9" t="s">
         <v>152</v>
       </c>
@@ -14240,7 +14242,7 @@
         <v>2809.13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="9" t="s">
         <v>152</v>
       </c>
@@ -14260,7 +14262,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="9" t="s">
         <v>152</v>
       </c>
@@ -14280,7 +14282,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="9" t="s">
         <v>152</v>
       </c>
@@ -14312,7 +14314,7 @@
         <v>2787.915</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="9" t="s">
         <v>152</v>
       </c>
@@ -14332,7 +14334,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="9" t="s">
         <v>152</v>
       </c>
@@ -14352,7 +14354,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="9" t="s">
         <v>152</v>
       </c>
@@ -14394,7 +14396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="9" t="s">
         <v>152</v>
       </c>
@@ -14414,7 +14416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="9" t="s">
         <v>152</v>
       </c>
@@ -14434,7 +14436,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="9" t="s">
         <v>11</v>
       </c>
@@ -14466,7 +14468,7 @@
         <v>2713.895</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="9" t="s">
         <v>11</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="9" t="s">
         <v>11</v>
       </c>
@@ -14518,7 +14520,7 @@
         <v>2670.7849999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="9" t="s">
         <v>11</v>
       </c>
@@ -14538,7 +14540,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="9" t="s">
         <v>11</v>
       </c>
@@ -14570,7 +14572,7 @@
         <v>2638.52</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="9" t="s">
         <v>11</v>
       </c>
@@ -14590,7 +14592,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="9" t="s">
         <v>11</v>
       </c>
@@ -14610,7 +14612,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="9" t="s">
         <v>11</v>
       </c>
@@ -14642,7 +14644,7 @@
         <v>2646.8199999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="9" t="s">
         <v>11</v>
       </c>
@@ -14662,7 +14664,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="9" t="s">
         <v>11</v>
       </c>
@@ -14694,7 +14696,7 @@
         <v>2674.9749999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="9" t="s">
         <v>11</v>
       </c>
@@ -14714,7 +14716,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="9" t="s">
         <v>11</v>
       </c>
@@ -14746,7 +14748,7 @@
         <v>2714.7750000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="9" t="s">
         <v>11</v>
       </c>
@@ -14766,7 +14768,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="9" t="s">
         <v>11</v>
       </c>
@@ -14786,7 +14788,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="9" t="s">
         <v>549</v>
       </c>
@@ -14806,7 +14808,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="9" t="s">
         <v>549</v>
       </c>
@@ -14848,7 +14850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="9" t="s">
         <v>549</v>
       </c>
@@ -14868,7 +14870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="9" t="s">
         <v>549</v>
       </c>
@@ -14888,7 +14890,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="9" t="s">
         <v>549</v>
       </c>
@@ -14920,7 +14922,7 @@
         <v>2638.105</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="9" t="s">
         <v>549</v>
       </c>
@@ -14940,7 +14942,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="9" t="s">
         <v>549</v>
       </c>
@@ -14960,7 +14962,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="9" t="s">
         <v>11</v>
       </c>
@@ -14992,7 +14994,7 @@
         <v>2552.6600000000003</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="9" t="s">
         <v>11</v>
       </c>
@@ -15012,7 +15014,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="9" t="s">
         <v>11</v>
       </c>
@@ -15032,7 +15034,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="9" t="s">
         <v>11</v>
       </c>
@@ -15064,7 +15066,7 @@
         <v>2585.3500000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="9" t="s">
         <v>11</v>
       </c>
@@ -15084,7 +15086,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="9" t="s">
         <v>11</v>
       </c>
@@ -15116,7 +15118,7 @@
         <v>2704.7550000000006</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="9" t="s">
         <v>11</v>
       </c>
@@ -15136,7 +15138,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="9" t="s">
         <v>11</v>
       </c>
@@ -15175,7 +15177,7 @@
         <v>2226.44</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="9" t="s">
         <v>11</v>
       </c>
@@ -15195,7 +15197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="9" t="s">
         <v>11</v>
       </c>
@@ -15227,7 +15229,7 @@
         <v>2647.7850000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="9" t="s">
         <v>11</v>
       </c>
@@ -15247,7 +15249,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="9" t="s">
         <v>11</v>
       </c>
@@ -15267,7 +15269,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="9" t="s">
         <v>11</v>
       </c>
@@ -15299,7 +15301,7 @@
         <v>2630.1000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="9" t="s">
         <v>11</v>
       </c>
@@ -15319,7 +15321,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="9" t="s">
         <v>11</v>
       </c>
@@ -15351,7 +15353,7 @@
         <v>2550.2200000000003</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="9" t="s">
         <v>11</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="9" t="s">
         <v>11</v>
       </c>
@@ -15403,7 +15405,7 @@
         <v>2556.7600000000007</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="9" t="s">
         <v>11</v>
       </c>
@@ -15423,7 +15425,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="9" t="s">
         <v>11</v>
       </c>
@@ -15455,7 +15457,7 @@
         <v>2517.3299999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="9" t="s">
         <v>11</v>
       </c>
@@ -15475,7 +15477,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" s="9" t="s">
         <v>11</v>
       </c>
@@ -15504,7 +15506,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" s="9" t="s">
         <v>11</v>
       </c>
@@ -15524,7 +15526,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="9" t="s">
         <v>11</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="9" t="s">
         <v>11</v>
       </c>
@@ -15576,7 +15578,7 @@
         <v>2505.9449999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="9" t="s">
         <v>11</v>
       </c>
@@ -15596,7 +15598,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="9" t="s">
         <v>11</v>
       </c>
@@ -15616,7 +15618,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="9" t="s">
         <v>11</v>
       </c>
@@ -15648,7 +15650,7 @@
         <v>2567.8449999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="9" t="s">
         <v>11</v>
       </c>
@@ -15668,7 +15670,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="9" t="s">
         <v>11</v>
       </c>
@@ -15688,7 +15690,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="9" t="s">
         <v>11</v>
       </c>
@@ -15720,7 +15722,7 @@
         <v>2516.39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" s="9" t="s">
         <v>11</v>
       </c>
@@ -15740,7 +15742,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" s="9" t="s">
         <v>11</v>
       </c>
@@ -15772,7 +15774,7 @@
         <v>2633.3849999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" s="9" t="s">
         <v>11</v>
       </c>
@@ -15792,7 +15794,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" s="15" t="s">
         <v>11</v>
       </c>
@@ -15834,7 +15836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" s="15" t="s">
         <v>11</v>
       </c>
@@ -15854,7 +15856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" s="15" t="s">
         <v>11</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" s="15" t="s">
         <v>11</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>2708.7049999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" s="15" t="s">
         <v>11</v>
       </c>
@@ -15926,7 +15928,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534" s="15" t="s">
         <v>11</v>
       </c>
@@ -15946,7 +15948,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535" s="15" t="s">
         <v>11</v>
       </c>
@@ -15978,7 +15980,7 @@
         <v>2705.75</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" s="15" t="s">
         <v>11</v>
       </c>
@@ -15998,7 +16000,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537" s="15" t="s">
         <v>11</v>
       </c>
@@ -16030,7 +16032,7 @@
         <v>2598.4650000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" s="15" t="s">
         <v>11</v>
       </c>
@@ -16050,7 +16052,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539" s="15" t="s">
         <v>11</v>
       </c>
@@ -16082,7 +16084,7 @@
         <v>2694.0950000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" s="15" t="s">
         <v>11</v>
       </c>
@@ -16102,7 +16104,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" s="15" t="s">
         <v>11</v>
       </c>
@@ -16122,7 +16124,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" s="15" t="s">
         <v>11</v>
       </c>
@@ -16154,7 +16156,7 @@
         <v>2682.4050000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" s="15" t="s">
         <v>11</v>
       </c>
@@ -16174,7 +16176,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544" s="15" t="s">
         <v>11</v>
       </c>
@@ -16206,7 +16208,7 @@
         <v>2702.83</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" s="15" t="s">
         <v>11</v>
       </c>
@@ -16226,7 +16228,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" s="15" t="s">
         <v>11</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>2666.8100000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" s="15" t="s">
         <v>11</v>
       </c>
@@ -16278,7 +16280,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" s="15" t="s">
         <v>11</v>
       </c>
@@ -16310,7 +16312,7 @@
         <v>2689.5349999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" s="15" t="s">
         <v>11</v>
       </c>
@@ -16330,7 +16332,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" s="15" t="s">
         <v>11</v>
       </c>
@@ -16350,7 +16352,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" s="15" t="s">
         <v>11</v>
       </c>
@@ -16382,7 +16384,7 @@
         <v>2626.1850000000004</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552" s="15" t="s">
         <v>11</v>
       </c>
@@ -16402,7 +16404,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" s="15" t="s">
         <v>11</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>2699.7349999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="15" t="s">
         <v>11</v>
       </c>
@@ -16454,7 +16456,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" s="15" t="s">
         <v>11</v>
       </c>
@@ -16496,7 +16498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" s="15" t="s">
         <v>11</v>
       </c>
@@ -16516,7 +16518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" s="15" t="s">
         <v>11</v>
       </c>
@@ -16536,7 +16538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558" s="15" t="s">
         <v>11</v>
       </c>
@@ -16568,7 +16570,7 @@
         <v>2678.3900000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" s="15" t="s">
         <v>11</v>
       </c>
@@ -16588,7 +16590,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" s="15" t="s">
         <v>11</v>
       </c>
@@ -16620,7 +16622,7 @@
         <v>2676.8649999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" s="15" t="s">
         <v>11</v>
       </c>
@@ -16640,7 +16642,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" s="15" t="s">
         <v>11</v>
       </c>
@@ -16672,7 +16674,7 @@
         <v>2523.71</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" s="15" t="s">
         <v>11</v>
       </c>
@@ -16692,7 +16694,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" s="15" t="s">
         <v>11</v>
       </c>
@@ -16712,7 +16714,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" s="15" t="s">
         <v>11</v>
       </c>
@@ -16744,7 +16746,7 @@
         <v>2529.5450000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" s="15" t="s">
         <v>11</v>
       </c>
@@ -16764,7 +16766,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" s="15" t="s">
         <v>11</v>
       </c>
@@ -16784,7 +16786,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" s="15" t="s">
         <v>11</v>
       </c>
@@ -16816,7 +16818,7 @@
         <v>2528.4749999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" s="15" t="s">
         <v>11</v>
       </c>
@@ -16836,7 +16838,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" s="15" t="s">
         <v>11</v>
       </c>
@@ -16856,7 +16858,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" s="15" t="s">
         <v>11</v>
       </c>
@@ -16888,7 +16890,7 @@
         <v>2688.66</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" s="15" t="s">
         <v>11</v>
       </c>
@@ -16908,7 +16910,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" s="15" t="s">
         <v>11</v>
       </c>
@@ -16928,7 +16930,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" s="15" t="s">
         <v>11</v>
       </c>
@@ -16970,7 +16972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" s="15" t="s">
         <v>11</v>
       </c>
@@ -16990,7 +16992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576" s="15" t="s">
         <v>11</v>
       </c>
@@ -17010,7 +17012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A577" s="15" t="s">
         <v>11</v>
       </c>
@@ -17042,7 +17044,7 @@
         <v>2587.0949999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A578" s="15" t="s">
         <v>11</v>
       </c>
@@ -17062,7 +17064,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A579" s="15" t="s">
         <v>11</v>
       </c>
@@ -17094,7 +17096,7 @@
         <v>2590.7849999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580" s="15" t="s">
         <v>11</v>
       </c>
@@ -17114,7 +17116,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A581" s="15" t="s">
         <v>11</v>
       </c>
@@ -17146,7 +17148,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A582" s="15" t="s">
         <v>11</v>
       </c>
@@ -17166,7 +17168,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A583" s="15" t="s">
         <v>11</v>
       </c>
@@ -17198,7 +17200,7 @@
         <v>2674.46</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A584" s="15" t="s">
         <v>11</v>
       </c>
@@ -17218,7 +17220,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A585" s="15" t="s">
         <v>11</v>
       </c>
@@ -17250,7 +17252,7 @@
         <v>2684.3249999999998</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586" s="15" t="s">
         <v>11</v>
       </c>
@@ -17270,7 +17272,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A587" s="15" t="s">
         <v>11</v>
       </c>
@@ -17290,7 +17292,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A588" s="15" t="s">
         <v>11</v>
       </c>
@@ -17322,7 +17324,7 @@
         <v>2675.335</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A589" s="15" t="s">
         <v>11</v>
       </c>
@@ -17342,7 +17344,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A590" s="15" t="s">
         <v>11</v>
       </c>
@@ -17374,7 +17376,7 @@
         <v>2530.3850000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A591" s="15" t="s">
         <v>11</v>
       </c>
@@ -17394,7 +17396,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592" s="15" t="s">
         <v>11</v>
       </c>
@@ -17414,7 +17416,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A593" s="15" t="s">
         <v>11</v>
       </c>
@@ -17446,7 +17448,7 @@
         <v>2581.4949999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A594" s="15" t="s">
         <v>11</v>
       </c>
@@ -17466,7 +17468,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A595" s="15" t="s">
         <v>11</v>
       </c>
@@ -17486,7 +17488,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A596" s="15" t="s">
         <v>11</v>
       </c>
@@ -17518,7 +17520,7 @@
         <v>2549.6849999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A597" s="15" t="s">
         <v>11</v>
       </c>
@@ -17538,7 +17540,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A598" s="15" t="s">
         <v>11</v>
       </c>
@@ -17558,7 +17560,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A599" s="15" t="s">
         <v>11</v>
       </c>
@@ -17590,7 +17592,7 @@
         <v>2670.0349999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A600" s="15" t="s">
         <v>11</v>
       </c>
@@ -17610,7 +17612,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A601" s="15" t="s">
         <v>11</v>
       </c>
@@ -17642,7 +17644,7 @@
         <v>2607.4650000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A602" s="15" t="s">
         <v>11</v>
       </c>
@@ -17662,7 +17664,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
         <v>11</v>
       </c>
@@ -17682,7 +17684,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A604" s="15" t="s">
         <v>11</v>
       </c>
@@ -17714,7 +17716,7 @@
         <v>2537.1149999999998</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A605" s="15" t="s">
         <v>11</v>
       </c>
@@ -17734,7 +17736,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A606" s="15" t="s">
         <v>11</v>
       </c>
@@ -17754,7 +17756,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A607" s="15" t="s">
         <v>11</v>
       </c>
@@ -17786,7 +17788,7 @@
         <v>2586.2950000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A608" s="15" t="s">
         <v>11</v>
       </c>
@@ -17806,7 +17808,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609" s="15" t="s">
         <v>11</v>
       </c>
@@ -17826,7 +17828,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610" s="15" t="s">
         <v>11</v>
       </c>
@@ -17858,7 +17860,7 @@
         <v>2678.5749999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611" s="15" t="s">
         <v>11</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612" s="15" t="s">
         <v>11</v>
       </c>
@@ -17920,7 +17922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613" s="15" t="s">
         <v>11</v>
       </c>
@@ -17940,7 +17942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614" s="15" t="s">
         <v>11</v>
       </c>
@@ -17960,7 +17962,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615" s="15" t="s">
         <v>11</v>
       </c>
@@ -17992,7 +17994,7 @@
         <v>2561.9016666666666</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" s="15" t="s">
         <v>11</v>
       </c>
@@ -18012,7 +18014,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" s="15" t="s">
         <v>11</v>
       </c>
@@ -18044,7 +18046,7 @@
         <v>2593.4366666666665</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" s="15" t="s">
         <v>11</v>
       </c>
@@ -18064,7 +18066,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619" s="15" t="s">
         <v>11</v>
       </c>
@@ -18096,7 +18098,7 @@
         <v>2612.3816666666671</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620" s="15" t="s">
         <v>11</v>
       </c>
@@ -18116,7 +18118,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621" s="15" t="s">
         <v>11</v>
       </c>
@@ -18136,7 +18138,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622" s="15" t="s">
         <v>11</v>
       </c>
@@ -18168,7 +18170,7 @@
         <v>2557.5266666666666</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623" s="15" t="s">
         <v>11</v>
       </c>
@@ -18188,7 +18190,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624" s="15" t="s">
         <v>11</v>
       </c>
@@ -18220,7 +18222,7 @@
         <v>2577.0116666666668</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A625" s="15" t="s">
         <v>11</v>
       </c>
@@ -18240,7 +18242,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A626" s="15" t="s">
         <v>11</v>
       </c>
@@ -18274,7 +18276,7 @@
       <c r="N626" s="5"/>
       <c r="O626" s="5"/>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A627" s="15" t="s">
         <v>11</v>
       </c>
@@ -18296,7 +18298,7 @@
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A628" s="15" t="s">
         <v>11</v>
       </c>
@@ -18316,7 +18318,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A629" s="15" t="s">
         <v>152</v>
       </c>
@@ -18348,7 +18350,7 @@
         <v>2589.8383333333336</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A630" s="15" t="s">
         <v>152</v>
       </c>
@@ -18368,7 +18370,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A631" s="15" t="s">
         <v>152</v>
       </c>
@@ -18388,7 +18390,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A632" s="15" t="s">
         <v>152</v>
       </c>
@@ -18420,7 +18422,7 @@
         <v>2591.4583333333335</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A633" s="15" t="s">
         <v>152</v>
       </c>
@@ -18440,7 +18442,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A634" s="15" t="s">
         <v>152</v>
       </c>
@@ -18460,7 +18462,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A635" s="15" t="s">
         <v>152</v>
       </c>
@@ -18492,7 +18494,7 @@
         <v>2599.2333333333331</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A636" s="15" t="s">
         <v>152</v>
       </c>
@@ -18512,7 +18514,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A637" s="15" t="s">
         <v>152</v>
       </c>
@@ -18532,7 +18534,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A638" s="15" t="s">
         <v>152</v>
       </c>
@@ -18564,7 +18566,7 @@
         <v>2602.9483333333333</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A639" s="15" t="s">
         <v>152</v>
       </c>
@@ -18584,7 +18586,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A640" s="15" t="s">
         <v>152</v>
       </c>
@@ -18604,7 +18606,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641" s="15" t="s">
         <v>152</v>
       </c>
@@ -18646,7 +18648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642" s="15" t="s">
         <v>152</v>
       </c>
@@ -18666,7 +18668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643" s="15" t="s">
         <v>152</v>
       </c>
@@ -18686,7 +18688,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644" s="15" t="s">
         <v>11</v>
       </c>
@@ -18718,7 +18720,7 @@
         <v>2602.3283333333334</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645" s="15" t="s">
         <v>11</v>
       </c>
@@ -18738,7 +18740,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646" s="15" t="s">
         <v>11</v>
       </c>
@@ -18758,7 +18760,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647" s="15" t="s">
         <v>11</v>
       </c>
@@ -18790,7 +18792,7 @@
         <v>2612.4683333333337</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648" s="15" t="s">
         <v>11</v>
       </c>
@@ -18810,7 +18812,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649" s="15" t="s">
         <v>11</v>
       </c>
@@ -18830,7 +18832,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650" s="15" t="s">
         <v>11</v>
       </c>
@@ -18862,7 +18864,7 @@
         <v>2502.0833333333335</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651" s="15" t="s">
         <v>11</v>
       </c>
@@ -18882,7 +18884,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652" s="15" t="s">
         <v>11</v>
       </c>
@@ -18914,7 +18916,7 @@
         <v>2497.4933333333333</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653" s="15" t="s">
         <v>11</v>
       </c>
@@ -18934,7 +18936,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654" s="15" t="s">
         <v>11</v>
       </c>
@@ -18966,7 +18968,7 @@
         <v>2506.5633333333335</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655" s="15" t="s">
         <v>11</v>
       </c>
@@ -18986,7 +18988,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A656" s="15" t="s">
         <v>11</v>
       </c>
@@ -19006,7 +19008,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657" s="15" t="s">
         <v>11</v>
       </c>
@@ -19038,7 +19040,7 @@
         <v>2605.938333333333</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658" s="15" t="s">
         <v>11</v>
       </c>
@@ -19058,355 +19060,629 @@
         <v>587</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C659" s="10"/>
       <c r="F659" s="16"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A660" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B660" s="31">
+        <v>45183</v>
+      </c>
       <c r="C660" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D660" s="5">
+        <v>51.51</v>
+      </c>
+      <c r="E660" s="14">
+        <v>2220.2199999999998</v>
       </c>
       <c r="F660" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G660" s="13">
+        <f>AVERAGE(E661,E662)</f>
+        <v>2233.65</v>
+      </c>
+      <c r="H660" s="18">
+        <f>STDEV(E661,E662)</f>
+        <v>0.43840620433558231</v>
+      </c>
+      <c r="I660" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J660" s="4">
+        <f>I660-G660</f>
+        <v>-7.2100000000000364</v>
+      </c>
+      <c r="K660" s="5">
+        <f>G660+$J$660</f>
+        <v>2226.44</v>
+      </c>
+      <c r="L660" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A661" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B661" s="31">
+        <v>45183</v>
+      </c>
       <c r="C661" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D661" s="5">
+        <v>50.33</v>
+      </c>
+      <c r="E661" s="5">
+        <v>2233.34</v>
       </c>
       <c r="F661" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A662" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B662" s="31">
+        <v>45183</v>
+      </c>
       <c r="C662" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D662" s="5">
+        <v>51.66</v>
+      </c>
+      <c r="E662" s="5">
+        <v>2233.96</v>
       </c>
       <c r="F662" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A663" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B663" s="31">
+        <v>45183</v>
+      </c>
       <c r="C663" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D663" s="5">
+        <v>51.23</v>
+      </c>
+      <c r="E663" s="14">
+        <v>2541.79</v>
       </c>
       <c r="F663" s="16" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G663" s="13">
+        <f>AVERAGE(E664,E665)</f>
+        <v>2528.0649999999996</v>
+      </c>
+      <c r="H663" s="18">
+        <f>STDEV(E664,E665)</f>
+        <v>0.89802561210690246</v>
+      </c>
+      <c r="K663" s="5">
+        <f>G663+$J$660</f>
+        <v>2520.8549999999996</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A664" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B664" s="31">
+        <v>45183</v>
+      </c>
       <c r="C664" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D664" s="5">
+        <v>51.47</v>
+      </c>
+      <c r="E664" s="5">
+        <v>2528.6999999999998</v>
       </c>
       <c r="F664" s="16" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A665" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B665" s="31">
+        <v>45183</v>
+      </c>
       <c r="C665" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D665" s="5">
+        <v>51.47</v>
+      </c>
+      <c r="E665" s="5">
+        <v>2527.4299999999998</v>
       </c>
       <c r="F665" s="16" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A666" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B666" s="31">
+        <v>45183</v>
+      </c>
       <c r="C666" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D666" s="5">
+        <v>50.76</v>
+      </c>
+      <c r="E666" s="5">
+        <v>2542.09</v>
       </c>
       <c r="F666" s="16" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G666" s="13">
+        <f>AVERAGE(E669,E666)</f>
+        <v>2543.2150000000001</v>
+      </c>
+      <c r="H666" s="18">
+        <f>STDEV(E669,E666)</f>
+        <v>1.5909902576697319</v>
+      </c>
+      <c r="K666" s="5">
+        <f>G666+$J$660</f>
+        <v>2536.0050000000001</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A667" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B667" s="31">
+        <v>45183</v>
+      </c>
       <c r="C667" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D667" s="5">
+        <v>53.55</v>
+      </c>
+      <c r="E667" s="14">
+        <v>2529.9699999999998</v>
       </c>
       <c r="F667" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A668" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B668" s="31">
+        <v>45183</v>
+      </c>
       <c r="C668" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D668" s="5">
+        <v>50.37</v>
+      </c>
+      <c r="E668" s="14">
+        <v>2587.67</v>
       </c>
       <c r="F668" s="16" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A669" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B669" s="31">
+        <v>45183</v>
+      </c>
       <c r="C669" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D669" s="5">
+        <v>53.83</v>
+      </c>
+      <c r="E669" s="5">
+        <v>2544.34</v>
+      </c>
       <c r="F669" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A670" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B670" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C670" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D670" s="5">
+        <v>53.71</v>
+      </c>
+      <c r="E670" s="5">
+        <v>2540.21</v>
+      </c>
+      <c r="F670" s="16" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C670" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F670" s="16" t="s">
+      <c r="G670" s="13">
+        <f>AVERAGE(E670,E672)</f>
+        <v>2540.085</v>
+      </c>
+      <c r="H670" s="18">
+        <f>STDEV(E670,E672)</f>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="K670" s="5">
+        <f>G670+$J$660</f>
+        <v>2532.875</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A671" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B671" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D671" s="5">
+        <v>53.68</v>
+      </c>
+      <c r="E671" s="14">
+        <v>2558.08</v>
+      </c>
+      <c r="F671" s="16" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C671" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F671" s="16" t="s">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A672" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B672" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C672" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D672" s="5">
+        <v>52.03</v>
+      </c>
+      <c r="E672" s="5">
+        <v>2539.96</v>
+      </c>
+      <c r="F672" s="16" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C672" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F672" s="16" t="s">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A673" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B673" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D673" s="5">
+        <v>51.65</v>
+      </c>
+      <c r="E673" s="5">
+        <v>2647.54</v>
+      </c>
+      <c r="F673" s="16" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C673" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F673" s="16" t="s">
+      <c r="G673" s="13">
+        <f>AVERAGE(E673,E675)</f>
+        <v>2648.0349999999999</v>
+      </c>
+      <c r="H673" s="18">
+        <f>STDEV(E673,E675)</f>
+        <v>0.70003571337484927</v>
+      </c>
+      <c r="K673" s="5">
+        <f>G673+$J$660</f>
+        <v>2640.8249999999998</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A674" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B674" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C674" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D674" s="5">
+        <v>49.63</v>
+      </c>
+      <c r="E674" s="14">
+        <v>2636.63</v>
+      </c>
+      <c r="F674" s="16" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C674" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F674" s="16" t="s">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A675" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B675" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D675" s="5">
+        <v>50.34</v>
+      </c>
+      <c r="E675" s="5">
+        <v>2648.53</v>
+      </c>
+      <c r="F675" s="16" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C675" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E675" s="14"/>
-      <c r="F675" s="16" t="s">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C676" s="10"/>
+      <c r="F676" s="16"/>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C677" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E677" s="14"/>
+      <c r="F677" s="16" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C676" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F676" s="16" t="s">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C678" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F678" s="16" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C677" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F677" s="16" t="s">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C679" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F679" s="16" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C678" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F678" s="16" t="s">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C680" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F680" s="16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C679" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F679" s="16" t="s">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C681" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F681" s="16" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C680" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F680" s="16" t="s">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C682" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F682" s="16" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C681" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E681" s="14"/>
-      <c r="F681" s="16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C682" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F682" s="16" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C683" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E683" s="14"/>
       <c r="F683" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C684" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F684" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C685" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E685" s="14"/>
+      <c r="F685" s="16" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C684" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F684" s="16" t="s">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C686" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F686" s="16" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C685" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F685" s="16" t="s">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C687" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F687" s="16" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C686" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E686" s="14"/>
-      <c r="F686" s="16" t="s">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C688" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E688" s="14"/>
+      <c r="F688" s="16" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C687" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F687" s="16" t="s">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C689" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689" s="16" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C688" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F688" s="16" t="s">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C690" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F690" s="16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C689" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F689" s="16" t="s">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C691" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F691" s="16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C690" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F690" s="16" t="s">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C692" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F692" s="16" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C691" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E691" s="14"/>
-      <c r="F691" s="16" t="s">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C693" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E693" s="14"/>
+      <c r="F693" s="16" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C692" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F692" s="16" t="s">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C694" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F694" s="16" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C693" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F693" s="16" t="s">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C695" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F695" s="16" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C694" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F694" s="16" t="s">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C696" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F696" s="16" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C695" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E695" s="14"/>
-      <c r="F695" s="16" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C696" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F696" s="16" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C697" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E697" s="14"/>
       <c r="F697" s="16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="698" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C698" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F698" s="16" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="699" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C699" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E699" s="14"/>
+      <c r="F699" s="16" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C698" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F698" s="16" t="s">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C700" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F700" s="16" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C699" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F699" s="16" t="s">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701" s="16" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C700" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F700" s="16" t="s">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C702" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F702" s="16" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C701" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F701" s="16" t="s">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C703" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F703" s="16" t="s">
         <v>622</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L554"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\3. Alkalinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A7891E-0419-F342-A804-E070E3EB80AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="725">
   <si>
     <t>Operator</t>
   </si>
@@ -1830,9 +1831,6 @@
     <t>T3_t0_AMB_blank_01b</t>
   </si>
   <si>
-    <t>T3_t0_AMB_blank_01c</t>
-  </si>
-  <si>
     <t>T3_t0_AMB_blank_02a</t>
   </si>
   <si>
@@ -1845,15 +1843,9 @@
     <t>T3_t1_AMB_tile_01b</t>
   </si>
   <si>
-    <t>T3_t1_AMB_tile_01c</t>
-  </si>
-  <si>
     <t>T3_t1_AMB_tile_02a</t>
   </si>
   <si>
-    <t>T3_t1_AMB_tile_02c</t>
-  </si>
-  <si>
     <t>T3_t1_AMB_tile_02e</t>
   </si>
   <si>
@@ -1896,9 +1888,6 @@
     <t>T3_t1_AMB_tile_06b</t>
   </si>
   <si>
-    <t>T3_t1_AMB_tile_06e</t>
-  </si>
-  <si>
     <t>T3_t1_AMB_blank_02a</t>
   </si>
   <si>
@@ -1932,9 +1921,6 @@
     <t>T3_t1_LOW_tile_04c</t>
   </si>
   <si>
-    <t>T3_t1_LOW_tile_05c</t>
-  </si>
-  <si>
     <t>T3_t1_LOW_tile_06c</t>
   </si>
   <si>
@@ -1942,12 +1928,294 @@
   </si>
   <si>
     <t>T3_t1_LOW_tile_05d</t>
+  </si>
+  <si>
+    <t>T3_t0_AMB_blank_01d</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_02d</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_06c</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_03a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_03b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_04a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_04b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_04c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_05a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_05b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_05c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_06a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_06b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_06c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_LOW_blank_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t0_LOW_blank_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t0_LOW_blank_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_LOW_blank_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t0_LOW_blank_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t0_LOW_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_03a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_03b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_03c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_04a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_04b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_04c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_05a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_05b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_05c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_06a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_06b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_06c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_AMB_blank_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t0_AMB_blank_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t0_AMB_blank_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t0_AMB_blank_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_03a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_03b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_03c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_01a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_01b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_04a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_04b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_04c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_05a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_05b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_05c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_06a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_06b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_06c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_02a</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_AMB_blank_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_02b</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_ELOW_tile_03c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_tile_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_LOW_blank_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t0_AMB_blank_02c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_01c</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_blank_01c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2146,8 +2414,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2424,32 +2692,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O703"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J669" sqref="J669"/>
+      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I699" sqref="I699"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2823,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2858,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2616,7 +2884,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2642,7 +2910,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2945,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2703,7 +2971,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2729,7 +2997,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2764,7 +3032,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2789,7 +3057,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2814,7 +3082,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +3116,7 @@
         <v>2592.88</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +3142,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +3177,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -2934,7 +3202,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -2968,7 +3236,7 @@
         <v>2621.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +3261,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3286,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -3052,7 +3320,7 @@
         <v>2553.7799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3077,7 +3345,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3370,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3404,7 @@
         <v>2531.04</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3429,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -3195,7 +3463,7 @@
         <v>2487.5749999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3220,7 +3488,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3245,7 +3513,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -3279,7 +3547,7 @@
         <v>2606.9649999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
@@ -3304,7 +3572,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
@@ -3329,7 +3597,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -3371,7 +3639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -3396,7 +3664,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
@@ -3428,7 +3696,7 @@
         <v>2658.0949999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -3448,7 +3716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -3480,7 +3748,7 @@
         <v>2655.7449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -3500,7 +3768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
@@ -3520,7 +3788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -3552,7 +3820,7 @@
         <v>2591.3400000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>11</v>
       </c>
@@ -3572,7 +3840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
@@ -3612,7 +3880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>11</v>
       </c>
@@ -3644,7 +3912,7 @@
         <v>2576.5950000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
@@ -3664,7 +3932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3684,7 +3952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>11</v>
       </c>
@@ -3716,7 +3984,7 @@
         <v>2579.6250000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +4004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -3756,7 +4024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -3788,7 +4056,7 @@
         <v>2650.0800000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +4076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -3840,7 +4108,7 @@
         <v>2556.6850000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
@@ -3860,7 +4128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -3880,7 +4148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -3912,7 +4180,7 @@
         <v>2532.8100000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -3932,7 +4200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +4232,7 @@
         <v>2540.77</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
@@ -3984,7 +4252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4284,7 @@
         <v>2633.7750000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
@@ -4078,7 +4346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
@@ -4103,7 +4371,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4403,7 @@
         <v>2674.7000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
@@ -4155,7 +4423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4207,7 +4475,7 @@
         <v>2650.1000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +4495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4247,7 +4515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4279,7 +4547,7 @@
         <v>2343.2800000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -4331,7 +4599,7 @@
         <v>2642.0000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
@@ -4351,7 +4619,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
@@ -4383,7 +4651,7 @@
         <v>2620.7650000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4403,7 +4671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -4435,7 +4703,7 @@
         <v>2663.0850000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
@@ -4455,7 +4723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -4507,7 +4775,7 @@
         <v>2576.9600000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -4527,7 +4795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>11</v>
       </c>
@@ -4547,7 +4815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
@@ -4579,7 +4847,7 @@
         <v>2584.4350000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
@@ -4599,7 +4867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>11</v>
       </c>
@@ -4619,7 +4887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
@@ -4651,7 +4919,7 @@
         <v>2557.5100000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -4671,7 +4939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>11</v>
       </c>
@@ -4691,7 +4959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4991,7 @@
         <v>2654.3750000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +5011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -4785,7 +5053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>11</v>
       </c>
@@ -4805,7 +5073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +5093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
@@ -4859,7 +5127,7 @@
         <v>2577.4450000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
@@ -4879,7 +5147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>11</v>
       </c>
@@ -4899,7 +5167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +5201,7 @@
         <v>2554.8049999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>11</v>
       </c>
@@ -4953,7 +5221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +5255,7 @@
         <v>3002.58</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5275,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -5027,7 +5295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
@@ -5061,7 +5329,7 @@
         <v>2990.2099999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>11</v>
       </c>
@@ -5081,7 +5349,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
@@ -5135,7 +5403,7 @@
         <v>2976.65</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
@@ -5155,7 +5423,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>11</v>
       </c>
@@ -5175,7 +5443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
@@ -5209,7 +5477,7 @@
         <v>2658.28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
@@ -5229,7 +5497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -5249,7 +5517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -5283,7 +5551,7 @@
         <v>2641.56</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>11</v>
       </c>
@@ -5303,7 +5571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -5323,7 +5591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5625,7 @@
         <v>2651.5699999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>11</v>
       </c>
@@ -5377,7 +5645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -5411,7 +5679,7 @@
         <v>2646.5849999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -5431,7 +5699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +5719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>11</v>
       </c>
@@ -5485,7 +5753,7 @@
         <v>2577.77</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>11</v>
       </c>
@@ -5505,7 +5773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -5525,7 +5793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>152</v>
       </c>
@@ -5567,7 +5835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>152</v>
       </c>
@@ -5587,7 +5855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>152</v>
       </c>
@@ -5607,7 +5875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>11</v>
       </c>
@@ -5641,7 +5909,7 @@
         <v>2535.7849999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -5661,7 +5929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
@@ -5681,7 +5949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -5715,7 +5983,7 @@
         <v>2540.9899999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -5735,7 +6003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -5755,7 +6023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -5789,7 +6057,7 @@
         <v>2484.7750000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>11</v>
       </c>
@@ -5809,7 +6077,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>11</v>
       </c>
@@ -5843,7 +6111,7 @@
         <v>2483.7199999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -5863,7 +6131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>11</v>
       </c>
@@ -5883,7 +6151,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -5917,7 +6185,7 @@
         <v>2488.9699999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>11</v>
       </c>
@@ -5937,7 +6205,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -5971,7 +6239,7 @@
         <v>2530.96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -5991,7 +6259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +6279,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6045,7 +6313,7 @@
         <v>2465.5749999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>11</v>
       </c>
@@ -6065,7 +6333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>11</v>
       </c>
@@ -6099,7 +6367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>11</v>
       </c>
@@ -6119,7 +6387,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>11</v>
       </c>
@@ -6139,7 +6407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>152</v>
       </c>
@@ -6173,7 +6441,7 @@
         <v>2488.0249999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>152</v>
       </c>
@@ -6193,7 +6461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>152</v>
       </c>
@@ -6213,7 +6481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>152</v>
       </c>
@@ -6247,7 +6515,7 @@
         <v>2545.1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
@@ -6267,7 +6535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>152</v>
       </c>
@@ -6287,7 +6555,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>11</v>
       </c>
@@ -6329,7 +6597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6349,7 +6617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -6383,7 +6651,7 @@
         <v>2542.6099999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>11</v>
       </c>
@@ -6403,7 +6671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -6423,7 +6691,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -6457,7 +6725,7 @@
         <v>2554.4999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -6477,7 +6745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +6765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>11</v>
       </c>
@@ -6531,7 +6799,7 @@
         <v>2472.7099999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>11</v>
       </c>
@@ -6551,7 +6819,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>11</v>
       </c>
@@ -6571,7 +6839,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -6605,7 +6873,7 @@
         <v>2509.61</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>11</v>
       </c>
@@ -6625,7 +6893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
@@ -6645,7 +6913,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>11</v>
       </c>
@@ -6679,7 +6947,7 @@
         <v>2514.2399999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>11</v>
       </c>
@@ -6699,7 +6967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -6733,7 +7001,7 @@
         <v>2549.4999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -6753,7 +7021,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>11</v>
       </c>
@@ -6773,7 +7041,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>11</v>
       </c>
@@ -6807,7 +7075,7 @@
         <v>2483.7800000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -6827,7 +7095,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>11</v>
       </c>
@@ -6847,7 +7115,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="24" t="s">
         <v>11</v>
       </c>
@@ -6881,7 +7149,7 @@
         <v>2442.1749999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24" t="s">
         <v>11</v>
       </c>
@@ -6906,7 +7174,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
     </row>
-    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="24" t="s">
         <v>11</v>
       </c>
@@ -6931,7 +7199,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
     </row>
-    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24" t="s">
         <v>11</v>
       </c>
@@ -6965,7 +7233,7 @@
         <v>2454.9850000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>11</v>
       </c>
@@ -6990,7 +7258,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>11</v>
       </c>
@@ -7045,7 +7313,7 @@
       </c>
       <c r="L176" s="28"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>11</v>
       </c>
@@ -7065,7 +7333,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>11</v>
       </c>
@@ -7085,7 +7353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>152</v>
       </c>
@@ -7127,7 +7395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
         <v>152</v>
       </c>
@@ -7147,7 +7415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
         <v>152</v>
       </c>
@@ -7167,7 +7435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
         <v>152</v>
       </c>
@@ -7199,7 +7467,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
         <v>152</v>
       </c>
@@ -7219,7 +7487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
         <v>152</v>
       </c>
@@ -7239,7 +7507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
         <v>152</v>
       </c>
@@ -7271,7 +7539,7 @@
         <v>2575.6150000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>152</v>
       </c>
@@ -7291,7 +7559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>152</v>
       </c>
@@ -7311,7 +7579,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
         <v>152</v>
       </c>
@@ -7331,7 +7599,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
         <v>152</v>
       </c>
@@ -7363,7 +7631,7 @@
         <v>2558.6349999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
         <v>152</v>
       </c>
@@ -7383,7 +7651,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
         <v>152</v>
       </c>
@@ -7403,7 +7671,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>11</v>
       </c>
@@ -7435,7 +7703,7 @@
         <v>2583.3199999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>11</v>
       </c>
@@ -7455,7 +7723,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>11</v>
       </c>
@@ -7475,7 +7743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>11</v>
       </c>
@@ -7507,7 +7775,7 @@
         <v>2594.98</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>11</v>
       </c>
@@ -7527,7 +7795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>11</v>
       </c>
@@ -7547,7 +7815,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -7579,7 +7847,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>11</v>
       </c>
@@ -7599,7 +7867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="24" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +7887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="24" t="s">
         <v>11</v>
       </c>
@@ -7651,7 +7919,7 @@
         <v>2564.5749999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
         <v>11</v>
       </c>
@@ -7671,7 +7939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>11</v>
       </c>
@@ -7703,7 +7971,7 @@
         <v>2552.5749999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -7723,7 +7991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +8011,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>11</v>
       </c>
@@ -7764,7 +8032,7 @@
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>11</v>
       </c>
@@ -7806,7 +8074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -7826,7 +8094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>11</v>
       </c>
@@ -7846,7 +8114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>11</v>
       </c>
@@ -7878,7 +8146,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>11</v>
       </c>
@@ -7903,7 +8171,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>11</v>
       </c>
@@ -7928,7 +8196,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>11</v>
       </c>
@@ -7960,7 +8228,7 @@
         <v>2558.1749999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>11</v>
       </c>
@@ -7980,7 +8248,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -8012,7 +8280,7 @@
         <v>2557.5000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>11</v>
       </c>
@@ -8032,7 +8300,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>11</v>
       </c>
@@ -8052,7 +8320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>11</v>
       </c>
@@ -8084,7 +8352,7 @@
         <v>2559.2450000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>11</v>
       </c>
@@ -8104,7 +8372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>11</v>
       </c>
@@ -8136,7 +8404,7 @@
         <v>2553.0500000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>11</v>
       </c>
@@ -8156,7 +8424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -8176,7 +8444,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>11</v>
       </c>
@@ -8208,7 +8476,7 @@
         <v>2575.61</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>11</v>
       </c>
@@ -8228,7 +8496,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>11</v>
       </c>
@@ -8248,7 +8516,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -8280,7 +8548,7 @@
         <v>2561.8700000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>11</v>
       </c>
@@ -8300,7 +8568,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>11</v>
       </c>
@@ -8332,7 +8600,7 @@
         <v>2596.6350000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>11</v>
       </c>
@@ -8352,7 +8620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>11</v>
       </c>
@@ -8372,7 +8640,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -8404,7 +8672,7 @@
         <v>2574.5550000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>11</v>
       </c>
@@ -8424,7 +8692,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>11</v>
       </c>
@@ -8456,7 +8724,7 @@
         <v>2572.5350000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>11</v>
       </c>
@@ -8476,7 +8744,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>11</v>
       </c>
@@ -8496,7 +8764,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>11</v>
       </c>
@@ -8516,7 +8784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>11</v>
       </c>
@@ -8548,7 +8816,7 @@
         <v>2567.5250000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>11</v>
       </c>
@@ -8568,7 +8836,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>11</v>
       </c>
@@ -8600,7 +8868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
@@ -8625,7 +8893,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>11</v>
       </c>
@@ -8650,7 +8918,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -8682,7 +8950,7 @@
         <v>2580.6</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>11</v>
       </c>
@@ -8702,7 +8970,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -8734,7 +9002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>11</v>
       </c>
@@ -8754,7 +9022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>11</v>
       </c>
@@ -8774,7 +9042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>11</v>
       </c>
@@ -8816,7 +9084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>11</v>
       </c>
@@ -8836,7 +9104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>11</v>
       </c>
@@ -8856,7 +9124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>11</v>
       </c>
@@ -8888,7 +9156,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>11</v>
       </c>
@@ -8908,7 +9176,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>11</v>
       </c>
@@ -8940,7 +9208,7 @@
         <v>2823.9250000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>11</v>
       </c>
@@ -8960,7 +9228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>11</v>
       </c>
@@ -8980,7 +9248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>11</v>
       </c>
@@ -9012,7 +9280,7 @@
         <v>2693.895</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>11</v>
       </c>
@@ -9032,7 +9300,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
         <v>11</v>
       </c>
@@ -9052,7 +9320,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -9084,7 +9352,7 @@
         <v>2592.4700000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>11</v>
       </c>
@@ -9104,7 +9372,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>11</v>
       </c>
@@ -9124,7 +9392,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>11</v>
       </c>
@@ -9156,7 +9424,7 @@
         <v>2959.9100000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>11</v>
       </c>
@@ -9176,7 +9444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>11</v>
       </c>
@@ -9196,7 +9464,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>11</v>
       </c>
@@ -9228,7 +9496,7 @@
         <v>2869.5400000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>11</v>
       </c>
@@ -9248,7 +9516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9548,7 @@
         <v>2875.6350000000007</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>11</v>
       </c>
@@ -9300,7 +9568,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>11</v>
       </c>
@@ -9320,7 +9588,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>11</v>
       </c>
@@ -9352,7 +9620,7 @@
         <v>2867.1150000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>11</v>
       </c>
@@ -9372,7 +9640,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>11</v>
       </c>
@@ -9404,7 +9672,7 @@
         <v>2865.9250000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>11</v>
       </c>
@@ -9424,7 +9692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9724,7 @@
         <v>2667.4650000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>11</v>
       </c>
@@ -9476,7 +9744,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>11</v>
       </c>
@@ -9496,7 +9764,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>11</v>
       </c>
@@ -9528,7 +9796,7 @@
         <v>2791.6800000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>11</v>
       </c>
@@ -9548,7 +9816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>11</v>
       </c>
@@ -9568,7 +9836,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>11</v>
       </c>
@@ -9600,7 +9868,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>11</v>
       </c>
@@ -9620,7 +9888,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9908,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
         <v>11</v>
       </c>
@@ -9672,7 +9940,7 @@
         <v>2665.1500000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>11</v>
       </c>
@@ -9692,7 +9960,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>11</v>
       </c>
@@ -9712,7 +9980,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>11</v>
       </c>
@@ -9754,7 +10022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>11</v>
       </c>
@@ -9774,7 +10042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
         <v>11</v>
       </c>
@@ -9794,7 +10062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>11</v>
       </c>
@@ -9826,7 +10094,7 @@
         <v>2683.1600000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>11</v>
       </c>
@@ -9846,7 +10114,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
         <v>11</v>
       </c>
@@ -9866,7 +10134,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>11</v>
       </c>
@@ -9898,7 +10166,7 @@
         <v>2767.9650000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>11</v>
       </c>
@@ -9918,7 +10186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>11</v>
       </c>
@@ -9938,7 +10206,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>11</v>
       </c>
@@ -9970,7 +10238,7 @@
         <v>2664.9050000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>11</v>
       </c>
@@ -9990,7 +10258,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>11</v>
       </c>
@@ -10010,7 +10278,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
         <v>11</v>
       </c>
@@ -10042,7 +10310,7 @@
         <v>2507.11</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>11</v>
       </c>
@@ -10062,7 +10330,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>11</v>
       </c>
@@ -10082,7 +10350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>11</v>
       </c>
@@ -10114,7 +10382,7 @@
         <v>2560.5800000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>11</v>
       </c>
@@ -10134,7 +10402,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>11</v>
       </c>
@@ -10154,7 +10422,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>11</v>
       </c>
@@ -10186,7 +10454,7 @@
         <v>2551.7550000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>11</v>
       </c>
@@ -10206,7 +10474,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
         <v>11</v>
       </c>
@@ -10226,7 +10494,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>11</v>
       </c>
@@ -10258,7 +10526,7 @@
         <v>2608.48</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
         <v>11</v>
       </c>
@@ -10278,7 +10546,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>11</v>
       </c>
@@ -10298,7 +10566,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
         <v>11</v>
       </c>
@@ -10330,7 +10598,7 @@
         <v>2651.3050000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
         <v>11</v>
       </c>
@@ -10350,7 +10618,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
         <v>11</v>
       </c>
@@ -10370,7 +10638,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>11</v>
       </c>
@@ -10402,7 +10670,7 @@
         <v>2616.8150000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
         <v>11</v>
       </c>
@@ -10422,7 +10690,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>11</v>
       </c>
@@ -10454,7 +10722,7 @@
         <v>2532.7950000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
         <v>11</v>
       </c>
@@ -10474,7 +10742,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
         <v>11</v>
       </c>
@@ -10506,7 +10774,7 @@
         <v>2626.605</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
         <v>11</v>
       </c>
@@ -10526,7 +10794,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>11</v>
       </c>
@@ -10558,7 +10826,7 @@
         <v>2579.8250000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>11</v>
       </c>
@@ -10578,7 +10846,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>11</v>
       </c>
@@ -10598,7 +10866,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
         <v>11</v>
       </c>
@@ -10640,7 +10908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>11</v>
       </c>
@@ -10660,7 +10928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
         <v>11</v>
       </c>
@@ -10680,7 +10948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
         <v>11</v>
       </c>
@@ -10712,7 +10980,7 @@
         <v>2606.1200000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
         <v>11</v>
       </c>
@@ -10732,7 +11000,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="9" t="s">
         <v>11</v>
       </c>
@@ -10764,7 +11032,7 @@
         <v>2587.3300000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="9" t="s">
         <v>11</v>
       </c>
@@ -10784,7 +11052,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
         <v>11</v>
       </c>
@@ -10804,7 +11072,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
         <v>11</v>
       </c>
@@ -10836,7 +11104,7 @@
         <v>2559.56</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>11</v>
       </c>
@@ -10856,7 +11124,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
         <v>11</v>
       </c>
@@ -10876,7 +11144,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
         <v>11</v>
       </c>
@@ -10908,7 +11176,7 @@
         <v>2584.9</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
         <v>11</v>
       </c>
@@ -10928,7 +11196,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>11</v>
       </c>
@@ -10948,7 +11216,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>11</v>
       </c>
@@ -10980,7 +11248,7 @@
         <v>2569.7350000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
         <v>11</v>
       </c>
@@ -11000,7 +11268,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>11</v>
       </c>
@@ -11032,7 +11300,7 @@
         <v>2512.4050000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
         <v>11</v>
       </c>
@@ -11052,7 +11320,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
         <v>11</v>
       </c>
@@ -11084,7 +11352,7 @@
         <v>2515.6249999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
         <v>11</v>
       </c>
@@ -11104,7 +11372,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
         <v>11</v>
       </c>
@@ -11124,7 +11392,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
         <v>11</v>
       </c>
@@ -11156,7 +11424,7 @@
         <v>2431.8249999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="9" t="s">
         <v>11</v>
       </c>
@@ -11176,7 +11444,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>11</v>
       </c>
@@ -11208,7 +11476,7 @@
         <v>2452.1799999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="9" t="s">
         <v>11</v>
       </c>
@@ -11228,7 +11496,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>11</v>
       </c>
@@ -11248,7 +11516,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
         <v>11</v>
       </c>
@@ -11280,7 +11548,7 @@
         <v>2467.9349999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>11</v>
       </c>
@@ -11300,7 +11568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
         <v>11</v>
       </c>
@@ -11320,7 +11588,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
         <v>11</v>
       </c>
@@ -11352,7 +11620,7 @@
         <v>2461.3399999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>11</v>
       </c>
@@ -11372,7 +11640,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
         <v>11</v>
       </c>
@@ -11392,7 +11660,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
         <v>11</v>
       </c>
@@ -11424,7 +11692,7 @@
         <v>2464.0449999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
         <v>11</v>
       </c>
@@ -11444,7 +11712,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
         <v>11</v>
       </c>
@@ -11464,7 +11732,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
         <v>11</v>
       </c>
@@ -11496,7 +11764,7 @@
         <v>2469.2599999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="9" t="s">
         <v>11</v>
       </c>
@@ -11516,7 +11784,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>11</v>
       </c>
@@ -11536,7 +11804,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="9" t="s">
         <v>11</v>
       </c>
@@ -11568,7 +11836,7 @@
         <v>2410.0949999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
         <v>11</v>
       </c>
@@ -11588,7 +11856,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
         <v>11</v>
       </c>
@@ -11620,7 +11888,7 @@
         <v>2477.1099999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
         <v>11</v>
       </c>
@@ -11640,7 +11908,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
         <v>11</v>
       </c>
@@ -11660,7 +11928,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
         <v>11</v>
       </c>
@@ -11692,7 +11960,7 @@
         <v>2453.3649999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
         <v>11</v>
       </c>
@@ -11712,7 +11980,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
         <v>11</v>
       </c>
@@ -11732,7 +12000,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
         <v>11</v>
       </c>
@@ -11764,7 +12032,7 @@
         <v>2557.395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
         <v>11</v>
       </c>
@@ -11784,7 +12052,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
         <v>11</v>
       </c>
@@ -11804,7 +12072,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
         <v>11</v>
       </c>
@@ -11836,7 +12104,7 @@
         <v>2531.5349999999994</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="9" t="s">
         <v>11</v>
       </c>
@@ -11856,7 +12124,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
         <v>11</v>
       </c>
@@ -11888,7 +12156,7 @@
         <v>2563.7449999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="9" t="s">
         <v>11</v>
       </c>
@@ -11908,7 +12176,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
         <v>11</v>
       </c>
@@ -11928,7 +12196,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
         <v>11</v>
       </c>
@@ -11960,7 +12228,7 @@
         <v>2550.56</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
         <v>11</v>
       </c>
@@ -11980,7 +12248,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
         <v>11</v>
       </c>
@@ -12012,7 +12280,7 @@
         <v>2533.7799999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="9" t="s">
         <v>11</v>
       </c>
@@ -12032,7 +12300,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
         <v>11</v>
       </c>
@@ -12052,7 +12320,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>11</v>
       </c>
@@ -12084,7 +12352,7 @@
         <v>2549.9199999999996</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="9" t="s">
         <v>11</v>
       </c>
@@ -12104,7 +12372,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
         <v>11</v>
       </c>
@@ -12124,7 +12392,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="9" t="s">
         <v>11</v>
       </c>
@@ -12166,7 +12434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
         <v>11</v>
       </c>
@@ -12186,7 +12454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="9" t="s">
         <v>11</v>
       </c>
@@ -12206,7 +12474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
         <v>11</v>
       </c>
@@ -12238,7 +12506,7 @@
         <v>2559.89</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="9" t="s">
         <v>11</v>
       </c>
@@ -12258,7 +12526,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
         <v>11</v>
       </c>
@@ -12290,7 +12558,7 @@
         <v>2578.56</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="9" t="s">
         <v>11</v>
       </c>
@@ -12310,7 +12578,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
         <v>11</v>
       </c>
@@ -12342,7 +12610,7 @@
         <v>2590.0049999999997</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="9" t="s">
         <v>11</v>
       </c>
@@ -12362,7 +12630,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
         <v>11</v>
       </c>
@@ -12394,7 +12662,7 @@
         <v>2595.8799999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="9" t="s">
         <v>11</v>
       </c>
@@ -12414,7 +12682,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="9" t="s">
         <v>11</v>
       </c>
@@ -12434,7 +12702,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="9" t="s">
         <v>11</v>
       </c>
@@ -12466,7 +12734,7 @@
         <v>2559.1149999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
         <v>11</v>
       </c>
@@ -12486,7 +12754,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="9" t="s">
         <v>11</v>
       </c>
@@ -12506,7 +12774,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>11</v>
       </c>
@@ -12538,7 +12806,7 @@
         <v>2568.17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="9" t="s">
         <v>11</v>
       </c>
@@ -12558,7 +12826,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>11</v>
       </c>
@@ -12590,7 +12858,7 @@
         <v>2588.2649999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="9" t="s">
         <v>11</v>
       </c>
@@ -12610,7 +12878,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="9" t="s">
         <v>11</v>
       </c>
@@ -12642,7 +12910,7 @@
         <v>2512.7749999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="9" t="s">
         <v>11</v>
       </c>
@@ -12662,7 +12930,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
         <v>11</v>
       </c>
@@ -12694,7 +12962,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="9" t="s">
         <v>11</v>
       </c>
@@ -12714,7 +12982,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="9" t="s">
         <v>11</v>
       </c>
@@ -12746,7 +13014,7 @@
         <v>2508.4349999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="9" t="s">
         <v>11</v>
       </c>
@@ -12766,7 +13034,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="9" t="s">
         <v>11</v>
       </c>
@@ -12786,7 +13054,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="9" t="s">
         <v>11</v>
       </c>
@@ -12818,7 +13086,7 @@
         <v>2494.2750000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="9" t="s">
         <v>11</v>
       </c>
@@ -12838,7 +13106,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
         <v>11</v>
       </c>
@@ -12870,7 +13138,7 @@
         <v>2475.2399999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
         <v>11</v>
       </c>
@@ -12890,7 +13158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="9" t="s">
         <v>11</v>
       </c>
@@ -12910,7 +13178,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="9" t="s">
         <v>11</v>
       </c>
@@ -12942,7 +13210,7 @@
         <v>2486.0450000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="9" t="s">
         <v>11</v>
       </c>
@@ -12962,7 +13230,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="9" t="s">
         <v>11</v>
       </c>
@@ -13004,7 +13272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="9" t="s">
         <v>11</v>
       </c>
@@ -13024,7 +13292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>11</v>
       </c>
@@ -13056,7 +13324,7 @@
         <v>2513.4499999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>11</v>
       </c>
@@ -13076,7 +13344,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="9" t="s">
         <v>11</v>
       </c>
@@ -13108,7 +13376,7 @@
         <v>2459.2950000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
         <v>11</v>
       </c>
@@ -13128,7 +13396,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
         <v>11</v>
       </c>
@@ -13160,7 +13428,7 @@
         <v>2465.4949999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
         <v>11</v>
       </c>
@@ -13180,7 +13448,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>11</v>
       </c>
@@ -13200,7 +13468,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
         <v>11</v>
       </c>
@@ -13232,7 +13500,7 @@
         <v>2526.6549999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
         <v>11</v>
       </c>
@@ -13252,7 +13520,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
         <v>11</v>
       </c>
@@ -13284,7 +13552,7 @@
         <v>2520.6149999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
         <v>11</v>
       </c>
@@ -13304,7 +13572,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="9" t="s">
         <v>11</v>
       </c>
@@ -13324,7 +13592,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="9" t="s">
         <v>11</v>
       </c>
@@ -13356,7 +13624,7 @@
         <v>2529.79</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="9" t="s">
         <v>11</v>
       </c>
@@ -13376,7 +13644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="9" t="s">
         <v>11</v>
       </c>
@@ -13396,7 +13664,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
         <v>11</v>
       </c>
@@ -13428,7 +13696,7 @@
         <v>2541.38</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
         <v>11</v>
       </c>
@@ -13448,7 +13716,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
         <v>11</v>
       </c>
@@ -13468,7 +13736,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
         <v>11</v>
       </c>
@@ -13500,7 +13768,7 @@
         <v>2562.915</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="9" t="s">
         <v>11</v>
       </c>
@@ -13520,7 +13788,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="9" t="s">
         <v>11</v>
       </c>
@@ -13552,7 +13820,7 @@
         <v>2556.625</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="9" t="s">
         <v>11</v>
       </c>
@@ -13572,7 +13840,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="9" t="s">
         <v>11</v>
       </c>
@@ -13592,7 +13860,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
         <v>11</v>
       </c>
@@ -13634,7 +13902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
         <v>11</v>
       </c>
@@ -13654,7 +13922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="9" t="s">
         <v>11</v>
       </c>
@@ -13674,7 +13942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
         <v>11</v>
       </c>
@@ -13706,7 +13974,7 @@
         <v>2791.2750000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
         <v>11</v>
       </c>
@@ -13726,7 +13994,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
         <v>11</v>
       </c>
@@ -13746,7 +14014,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
         <v>11</v>
       </c>
@@ -13778,7 +14046,7 @@
         <v>2788.75</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
         <v>11</v>
       </c>
@@ -13798,7 +14066,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
         <v>11</v>
       </c>
@@ -13818,7 +14086,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
         <v>11</v>
       </c>
@@ -13850,7 +14118,7 @@
         <v>2732.9049999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
         <v>11</v>
       </c>
@@ -13870,7 +14138,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
         <v>11</v>
       </c>
@@ -13902,7 +14170,7 @@
         <v>2772.16</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
         <v>11</v>
       </c>
@@ -13922,7 +14190,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
         <v>152</v>
       </c>
@@ -13954,7 +14222,7 @@
         <v>2756.5550000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
         <v>152</v>
       </c>
@@ -13974,7 +14242,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
         <v>152</v>
       </c>
@@ -13994,7 +14262,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
         <v>152</v>
       </c>
@@ -14026,7 +14294,7 @@
         <v>2786.5600000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
         <v>152</v>
       </c>
@@ -14046,7 +14314,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
         <v>152</v>
       </c>
@@ -14066,7 +14334,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
         <v>152</v>
       </c>
@@ -14098,7 +14366,7 @@
         <v>2807.4549999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
         <v>152</v>
       </c>
@@ -14118,7 +14386,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
         <v>152</v>
       </c>
@@ -14138,7 +14406,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
         <v>152</v>
       </c>
@@ -14170,7 +14438,7 @@
         <v>2825.7666666666669</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
         <v>152</v>
       </c>
@@ -14190,7 +14458,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
         <v>152</v>
       </c>
@@ -14210,7 +14478,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
         <v>152</v>
       </c>
@@ -14242,7 +14510,7 @@
         <v>2809.13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
         <v>152</v>
       </c>
@@ -14262,7 +14530,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
         <v>152</v>
       </c>
@@ -14282,7 +14550,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
         <v>152</v>
       </c>
@@ -14314,7 +14582,7 @@
         <v>2787.915</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
         <v>152</v>
       </c>
@@ -14334,7 +14602,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
         <v>152</v>
       </c>
@@ -14354,7 +14622,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="9" t="s">
         <v>152</v>
       </c>
@@ -14396,7 +14664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
         <v>152</v>
       </c>
@@ -14416,7 +14684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="9" t="s">
         <v>152</v>
       </c>
@@ -14436,7 +14704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
         <v>11</v>
       </c>
@@ -14468,7 +14736,7 @@
         <v>2713.895</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="9" t="s">
         <v>11</v>
       </c>
@@ -14488,7 +14756,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
         <v>11</v>
       </c>
@@ -14520,7 +14788,7 @@
         <v>2670.7849999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="9" t="s">
         <v>11</v>
       </c>
@@ -14540,7 +14808,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
         <v>11</v>
       </c>
@@ -14572,7 +14840,7 @@
         <v>2638.52</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
         <v>11</v>
       </c>
@@ -14592,7 +14860,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
         <v>11</v>
       </c>
@@ -14612,7 +14880,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="9" t="s">
         <v>11</v>
       </c>
@@ -14644,7 +14912,7 @@
         <v>2646.8199999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
         <v>11</v>
       </c>
@@ -14664,7 +14932,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
         <v>11</v>
       </c>
@@ -14696,7 +14964,7 @@
         <v>2674.9749999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
         <v>11</v>
       </c>
@@ -14716,7 +14984,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="9" t="s">
         <v>11</v>
       </c>
@@ -14748,7 +15016,7 @@
         <v>2714.7750000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
         <v>11</v>
       </c>
@@ -14768,7 +15036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="9" t="s">
         <v>11</v>
       </c>
@@ -14788,7 +15056,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
         <v>549</v>
       </c>
@@ -14808,7 +15076,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
         <v>549</v>
       </c>
@@ -14850,7 +15118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="9" t="s">
         <v>549</v>
       </c>
@@ -14870,7 +15138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="9" t="s">
         <v>549</v>
       </c>
@@ -14890,7 +15158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
         <v>549</v>
       </c>
@@ -14922,7 +15190,7 @@
         <v>2638.105</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
         <v>549</v>
       </c>
@@ -14942,7 +15210,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="9" t="s">
         <v>549</v>
       </c>
@@ -14962,7 +15230,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>11</v>
       </c>
@@ -14994,7 +15262,7 @@
         <v>2552.6600000000003</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
         <v>11</v>
       </c>
@@ -15014,7 +15282,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
         <v>11</v>
       </c>
@@ -15034,7 +15302,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
         <v>11</v>
       </c>
@@ -15066,7 +15334,7 @@
         <v>2585.3500000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
         <v>11</v>
       </c>
@@ -15086,7 +15354,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="9" t="s">
         <v>11</v>
       </c>
@@ -15118,7 +15386,7 @@
         <v>2704.7550000000006</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>11</v>
       </c>
@@ -15138,7 +15406,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
         <v>11</v>
       </c>
@@ -15177,7 +15445,7 @@
         <v>2226.44</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>11</v>
       </c>
@@ -15197,7 +15465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
         <v>11</v>
       </c>
@@ -15229,7 +15497,7 @@
         <v>2647.7850000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
         <v>11</v>
       </c>
@@ -15249,7 +15517,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
         <v>11</v>
       </c>
@@ -15269,7 +15537,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
         <v>11</v>
       </c>
@@ -15301,7 +15569,7 @@
         <v>2630.1000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
         <v>11</v>
       </c>
@@ -15321,7 +15589,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
         <v>11</v>
       </c>
@@ -15353,7 +15621,7 @@
         <v>2550.2200000000003</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
         <v>11</v>
       </c>
@@ -15373,7 +15641,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
         <v>11</v>
       </c>
@@ -15405,7 +15673,7 @@
         <v>2556.7600000000007</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
         <v>11</v>
       </c>
@@ -15425,7 +15693,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
         <v>11</v>
       </c>
@@ -15457,7 +15725,7 @@
         <v>2517.3299999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
         <v>11</v>
       </c>
@@ -15477,7 +15745,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
         <v>11</v>
       </c>
@@ -15506,7 +15774,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
         <v>11</v>
       </c>
@@ -15526,7 +15794,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
         <v>11</v>
       </c>
@@ -15546,7 +15814,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
         <v>11</v>
       </c>
@@ -15578,7 +15846,7 @@
         <v>2505.9449999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
         <v>11</v>
       </c>
@@ -15598,7 +15866,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
         <v>11</v>
       </c>
@@ -15618,7 +15886,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
         <v>11</v>
       </c>
@@ -15650,7 +15918,7 @@
         <v>2567.8449999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
         <v>11</v>
       </c>
@@ -15670,7 +15938,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
         <v>11</v>
       </c>
@@ -15690,7 +15958,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
         <v>11</v>
       </c>
@@ -15722,7 +15990,7 @@
         <v>2516.39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
         <v>11</v>
       </c>
@@ -15742,7 +16010,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
         <v>11</v>
       </c>
@@ -15774,7 +16042,7 @@
         <v>2633.3849999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="9" t="s">
         <v>11</v>
       </c>
@@ -15794,7 +16062,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="15" t="s">
         <v>11</v>
       </c>
@@ -15836,7 +16104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="15" t="s">
         <v>11</v>
       </c>
@@ -15856,7 +16124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="15" t="s">
         <v>11</v>
       </c>
@@ -15876,7 +16144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="15" t="s">
         <v>11</v>
       </c>
@@ -15908,7 +16176,7 @@
         <v>2708.7049999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="15" t="s">
         <v>11</v>
       </c>
@@ -15928,7 +16196,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="15" t="s">
         <v>11</v>
       </c>
@@ -15948,7 +16216,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="15" t="s">
         <v>11</v>
       </c>
@@ -15980,7 +16248,7 @@
         <v>2705.75</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="15" t="s">
         <v>11</v>
       </c>
@@ -16000,7 +16268,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="15" t="s">
         <v>11</v>
       </c>
@@ -16032,7 +16300,7 @@
         <v>2598.4650000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="15" t="s">
         <v>11</v>
       </c>
@@ -16052,7 +16320,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="15" t="s">
         <v>11</v>
       </c>
@@ -16084,7 +16352,7 @@
         <v>2694.0950000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="15" t="s">
         <v>11</v>
       </c>
@@ -16104,7 +16372,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="15" t="s">
         <v>11</v>
       </c>
@@ -16124,7 +16392,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="15" t="s">
         <v>11</v>
       </c>
@@ -16156,7 +16424,7 @@
         <v>2682.4050000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="15" t="s">
         <v>11</v>
       </c>
@@ -16176,7 +16444,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="15" t="s">
         <v>11</v>
       </c>
@@ -16208,7 +16476,7 @@
         <v>2702.83</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="15" t="s">
         <v>11</v>
       </c>
@@ -16228,7 +16496,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="15" t="s">
         <v>11</v>
       </c>
@@ -16260,7 +16528,7 @@
         <v>2666.8100000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="15" t="s">
         <v>11</v>
       </c>
@@ -16280,7 +16548,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="15" t="s">
         <v>11</v>
       </c>
@@ -16312,7 +16580,7 @@
         <v>2689.5349999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="15" t="s">
         <v>11</v>
       </c>
@@ -16332,7 +16600,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="15" t="s">
         <v>11</v>
       </c>
@@ -16352,7 +16620,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="15" t="s">
         <v>11</v>
       </c>
@@ -16384,7 +16652,7 @@
         <v>2626.1850000000004</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="15" t="s">
         <v>11</v>
       </c>
@@ -16404,7 +16672,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="15" t="s">
         <v>11</v>
       </c>
@@ -16436,7 +16704,7 @@
         <v>2699.7349999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="15" t="s">
         <v>11</v>
       </c>
@@ -16456,7 +16724,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="15" t="s">
         <v>11</v>
       </c>
@@ -16498,7 +16766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="15" t="s">
         <v>11</v>
       </c>
@@ -16518,7 +16786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="15" t="s">
         <v>11</v>
       </c>
@@ -16538,7 +16806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="15" t="s">
         <v>11</v>
       </c>
@@ -16570,7 +16838,7 @@
         <v>2678.3900000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="15" t="s">
         <v>11</v>
       </c>
@@ -16590,7 +16858,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="15" t="s">
         <v>11</v>
       </c>
@@ -16622,7 +16890,7 @@
         <v>2676.8649999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="15" t="s">
         <v>11</v>
       </c>
@@ -16642,7 +16910,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="15" t="s">
         <v>11</v>
       </c>
@@ -16674,7 +16942,7 @@
         <v>2523.71</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="15" t="s">
         <v>11</v>
       </c>
@@ -16694,7 +16962,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="15" t="s">
         <v>11</v>
       </c>
@@ -16714,7 +16982,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="15" t="s">
         <v>11</v>
       </c>
@@ -16746,7 +17014,7 @@
         <v>2529.5450000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="15" t="s">
         <v>11</v>
       </c>
@@ -16766,7 +17034,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="15" t="s">
         <v>11</v>
       </c>
@@ -16786,7 +17054,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="15" t="s">
         <v>11</v>
       </c>
@@ -16818,7 +17086,7 @@
         <v>2528.4749999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="15" t="s">
         <v>11</v>
       </c>
@@ -16838,7 +17106,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="15" t="s">
         <v>11</v>
       </c>
@@ -16858,7 +17126,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="15" t="s">
         <v>11</v>
       </c>
@@ -16890,7 +17158,7 @@
         <v>2688.66</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="15" t="s">
         <v>11</v>
       </c>
@@ -16910,7 +17178,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="15" t="s">
         <v>11</v>
       </c>
@@ -16930,7 +17198,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="15" t="s">
         <v>11</v>
       </c>
@@ -16972,7 +17240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="15" t="s">
         <v>11</v>
       </c>
@@ -16992,7 +17260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="15" t="s">
         <v>11</v>
       </c>
@@ -17012,7 +17280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="15" t="s">
         <v>11</v>
       </c>
@@ -17044,7 +17312,7 @@
         <v>2587.0949999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="15" t="s">
         <v>11</v>
       </c>
@@ -17064,7 +17332,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="15" t="s">
         <v>11</v>
       </c>
@@ -17096,7 +17364,7 @@
         <v>2590.7849999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="15" t="s">
         <v>11</v>
       </c>
@@ -17116,7 +17384,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="15" t="s">
         <v>11</v>
       </c>
@@ -17148,7 +17416,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="15" t="s">
         <v>11</v>
       </c>
@@ -17168,7 +17436,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="15" t="s">
         <v>11</v>
       </c>
@@ -17200,7 +17468,7 @@
         <v>2674.46</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="15" t="s">
         <v>11</v>
       </c>
@@ -17220,7 +17488,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="15" t="s">
         <v>11</v>
       </c>
@@ -17252,7 +17520,7 @@
         <v>2684.3249999999998</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="15" t="s">
         <v>11</v>
       </c>
@@ -17272,7 +17540,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="15" t="s">
         <v>11</v>
       </c>
@@ -17292,7 +17560,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="15" t="s">
         <v>11</v>
       </c>
@@ -17324,7 +17592,7 @@
         <v>2675.335</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="15" t="s">
         <v>11</v>
       </c>
@@ -17344,7 +17612,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="15" t="s">
         <v>11</v>
       </c>
@@ -17376,7 +17644,7 @@
         <v>2530.3850000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="15" t="s">
         <v>11</v>
       </c>
@@ -17396,7 +17664,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="15" t="s">
         <v>11</v>
       </c>
@@ -17416,7 +17684,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="15" t="s">
         <v>11</v>
       </c>
@@ -17448,7 +17716,7 @@
         <v>2581.4949999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="15" t="s">
         <v>11</v>
       </c>
@@ -17468,7 +17736,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="15" t="s">
         <v>11</v>
       </c>
@@ -17488,7 +17756,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="15" t="s">
         <v>11</v>
       </c>
@@ -17520,7 +17788,7 @@
         <v>2549.6849999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="15" t="s">
         <v>11</v>
       </c>
@@ -17540,7 +17808,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="15" t="s">
         <v>11</v>
       </c>
@@ -17560,7 +17828,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="15" t="s">
         <v>11</v>
       </c>
@@ -17592,7 +17860,7 @@
         <v>2670.0349999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="15" t="s">
         <v>11</v>
       </c>
@@ -17612,7 +17880,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="15" t="s">
         <v>11</v>
       </c>
@@ -17644,7 +17912,7 @@
         <v>2607.4650000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="15" t="s">
         <v>11</v>
       </c>
@@ -17664,7 +17932,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="15" t="s">
         <v>11</v>
       </c>
@@ -17684,7 +17952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
         <v>11</v>
       </c>
@@ -17716,7 +17984,7 @@
         <v>2537.1149999999998</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="15" t="s">
         <v>11</v>
       </c>
@@ -17736,7 +18004,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="15" t="s">
         <v>11</v>
       </c>
@@ -17756,7 +18024,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="15" t="s">
         <v>11</v>
       </c>
@@ -17788,7 +18056,7 @@
         <v>2586.2950000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="15" t="s">
         <v>11</v>
       </c>
@@ -17808,7 +18076,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="15" t="s">
         <v>11</v>
       </c>
@@ -17828,7 +18096,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="15" t="s">
         <v>11</v>
       </c>
@@ -17860,7 +18128,7 @@
         <v>2678.5749999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="15" t="s">
         <v>11</v>
       </c>
@@ -17880,7 +18148,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="15" t="s">
         <v>11</v>
       </c>
@@ -17922,7 +18190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="15" t="s">
         <v>11</v>
       </c>
@@ -17942,7 +18210,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="15" t="s">
         <v>11</v>
       </c>
@@ -17959,10 +18227,10 @@
         <v>2246.56</v>
       </c>
       <c r="F614" s="16" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="15" t="s">
         <v>11</v>
       </c>
@@ -17994,7 +18262,7 @@
         <v>2561.9016666666666</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="15" t="s">
         <v>11</v>
       </c>
@@ -18014,7 +18282,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="15" t="s">
         <v>11</v>
       </c>
@@ -18046,7 +18314,7 @@
         <v>2593.4366666666665</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="15" t="s">
         <v>11</v>
       </c>
@@ -18066,7 +18334,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="15" t="s">
         <v>11</v>
       </c>
@@ -18098,7 +18366,7 @@
         <v>2612.3816666666671</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="15" t="s">
         <v>11</v>
       </c>
@@ -18118,7 +18386,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="15" t="s">
         <v>11</v>
       </c>
@@ -18135,10 +18403,10 @@
         <v>2637.26</v>
       </c>
       <c r="F621" s="16" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="15" t="s">
         <v>11</v>
       </c>
@@ -18170,7 +18438,7 @@
         <v>2557.5266666666666</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="15" t="s">
         <v>11</v>
       </c>
@@ -18190,7 +18458,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="15" t="s">
         <v>11</v>
       </c>
@@ -18222,7 +18490,7 @@
         <v>2577.0116666666668</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="15" t="s">
         <v>11</v>
       </c>
@@ -18242,7 +18510,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="15" t="s">
         <v>11</v>
       </c>
@@ -18276,7 +18544,7 @@
       <c r="N626" s="5"/>
       <c r="O626" s="5"/>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="15" t="s">
         <v>11</v>
       </c>
@@ -18298,7 +18566,7 @@
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="15" t="s">
         <v>11</v>
       </c>
@@ -18315,10 +18583,10 @@
         <v>2612.4</v>
       </c>
       <c r="F628" s="16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="15" t="s">
         <v>152</v>
       </c>
@@ -18350,7 +18618,7 @@
         <v>2589.8383333333336</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="15" t="s">
         <v>152</v>
       </c>
@@ -18370,7 +18638,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="15" t="s">
         <v>152</v>
       </c>
@@ -18387,10 +18655,10 @@
         <v>2588.87</v>
       </c>
       <c r="F631" s="16" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="15" t="s">
         <v>152</v>
       </c>
@@ -18422,7 +18690,7 @@
         <v>2591.4583333333335</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="15" t="s">
         <v>152</v>
       </c>
@@ -18442,7 +18710,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="15" t="s">
         <v>152</v>
       </c>
@@ -18462,7 +18730,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="15" t="s">
         <v>152</v>
       </c>
@@ -18494,7 +18762,7 @@
         <v>2599.2333333333331</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="15" t="s">
         <v>152</v>
       </c>
@@ -18514,7 +18782,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="15" t="s">
         <v>152</v>
       </c>
@@ -18531,10 +18799,10 @@
         <v>2599.81</v>
       </c>
       <c r="F637" s="16" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="15" t="s">
         <v>152</v>
       </c>
@@ -18566,7 +18834,7 @@
         <v>2602.9483333333333</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="15" t="s">
         <v>152</v>
       </c>
@@ -18586,7 +18854,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="15" t="s">
         <v>152</v>
       </c>
@@ -18603,10 +18871,10 @@
         <v>2594.91</v>
       </c>
       <c r="F640" s="16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="15" t="s">
         <v>152</v>
       </c>
@@ -18648,7 +18916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="15" t="s">
         <v>152</v>
       </c>
@@ -18668,7 +18936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="15" t="s">
         <v>152</v>
       </c>
@@ -18685,10 +18953,10 @@
         <v>2230.35</v>
       </c>
       <c r="F643" s="16" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="15" t="s">
         <v>11</v>
       </c>
@@ -18720,7 +18988,7 @@
         <v>2602.3283333333334</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="15" t="s">
         <v>11</v>
       </c>
@@ -18740,7 +19008,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="15" t="s">
         <v>11</v>
       </c>
@@ -18757,10 +19025,10 @@
         <v>2602.35</v>
       </c>
       <c r="F646" s="16" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" s="15" t="s">
         <v>11</v>
       </c>
@@ -18792,7 +19060,7 @@
         <v>2612.4683333333337</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" s="15" t="s">
         <v>11</v>
       </c>
@@ -18812,7 +19080,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" s="15" t="s">
         <v>11</v>
       </c>
@@ -18829,10 +19097,10 @@
         <v>2617.06</v>
       </c>
       <c r="F649" s="16" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" s="15" t="s">
         <v>11</v>
       </c>
@@ -18864,7 +19132,7 @@
         <v>2502.0833333333335</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" s="15" t="s">
         <v>11</v>
       </c>
@@ -18884,7 +19152,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652" s="15" t="s">
         <v>11</v>
       </c>
@@ -18916,7 +19184,7 @@
         <v>2497.4933333333333</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653" s="15" t="s">
         <v>11</v>
       </c>
@@ -18936,7 +19204,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654" s="15" t="s">
         <v>11</v>
       </c>
@@ -18968,7 +19236,7 @@
         <v>2506.5633333333335</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A655" s="15" t="s">
         <v>11</v>
       </c>
@@ -18988,7 +19256,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656" s="15" t="s">
         <v>11</v>
       </c>
@@ -19008,7 +19276,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657" s="15" t="s">
         <v>11</v>
       </c>
@@ -19040,7 +19308,7 @@
         <v>2605.938333333333</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658" s="15" t="s">
         <v>11</v>
       </c>
@@ -19060,11 +19328,39 @@
         <v>587</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C659" s="10"/>
-      <c r="F659" s="16"/>
-    </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A659" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B659" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" s="5">
+        <v>51.23</v>
+      </c>
+      <c r="E659" s="14">
+        <v>2541.79</v>
+      </c>
+      <c r="F659" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G659" s="13">
+        <f>AVERAGE(E660,E661)</f>
+        <v>2528.0649999999996</v>
+      </c>
+      <c r="H659" s="18">
+        <f>STDEV(E660,E661)</f>
+        <v>0.89802561210690246</v>
+      </c>
+      <c r="K659" s="5">
+        <f>G659+$J$671</f>
+        <v>2520.8549999999996</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660" s="15" t="s">
         <v>152</v>
       </c>
@@ -19075,38 +19371,16 @@
         <v>12</v>
       </c>
       <c r="D660" s="5">
-        <v>51.51</v>
-      </c>
-      <c r="E660" s="14">
-        <v>2220.2199999999998</v>
+        <v>51.47</v>
+      </c>
+      <c r="E660" s="5">
+        <v>2528.6999999999998</v>
       </c>
       <c r="F660" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G660" s="13">
-        <f>AVERAGE(E661,E662)</f>
-        <v>2233.65</v>
-      </c>
-      <c r="H660" s="18">
-        <f>STDEV(E661,E662)</f>
-        <v>0.43840620433558231</v>
-      </c>
-      <c r="I660" s="3">
-        <v>2226.44</v>
-      </c>
-      <c r="J660" s="4">
-        <f>I660-G660</f>
-        <v>-7.2100000000000364</v>
-      </c>
-      <c r="K660" s="5">
-        <f>G660+$J$660</f>
-        <v>2226.44</v>
-      </c>
-      <c r="L660" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661" s="15" t="s">
         <v>152</v>
       </c>
@@ -19117,16 +19391,16 @@
         <v>12</v>
       </c>
       <c r="D661" s="5">
-        <v>50.33</v>
+        <v>51.47</v>
       </c>
       <c r="E661" s="5">
-        <v>2233.34</v>
+        <v>2527.4299999999998</v>
       </c>
       <c r="F661" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662" s="15" t="s">
         <v>152</v>
       </c>
@@ -19137,16 +19411,28 @@
         <v>12</v>
       </c>
       <c r="D662" s="5">
-        <v>51.66</v>
+        <v>50.76</v>
       </c>
       <c r="E662" s="5">
-        <v>2233.96</v>
+        <v>2542.09</v>
       </c>
       <c r="F662" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+      <c r="G662" s="13">
+        <f>AVERAGE(E664,E662)</f>
+        <v>2543.2150000000001</v>
+      </c>
+      <c r="H662" s="18">
+        <f>STDEV(E664,E662)</f>
+        <v>1.5909902576697319</v>
+      </c>
+      <c r="K662" s="5">
+        <f>G662+$J$671</f>
+        <v>2536.0050000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663" s="15" t="s">
         <v>152</v>
       </c>
@@ -19157,28 +19443,16 @@
         <v>12</v>
       </c>
       <c r="D663" s="5">
-        <v>51.23</v>
+        <v>53.55</v>
       </c>
       <c r="E663" s="14">
-        <v>2541.79</v>
+        <v>2529.9699999999998</v>
       </c>
       <c r="F663" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G663" s="13">
-        <f>AVERAGE(E664,E665)</f>
-        <v>2528.0649999999996</v>
-      </c>
-      <c r="H663" s="18">
-        <f>STDEV(E664,E665)</f>
-        <v>0.89802561210690246</v>
-      </c>
-      <c r="K663" s="5">
-        <f>G663+$J$660</f>
-        <v>2520.8549999999996</v>
-      </c>
-    </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664" s="15" t="s">
         <v>152</v>
       </c>
@@ -19189,16 +19463,16 @@
         <v>12</v>
       </c>
       <c r="D664" s="5">
-        <v>51.47</v>
+        <v>53.83</v>
       </c>
       <c r="E664" s="5">
-        <v>2528.6999999999998</v>
+        <v>2544.34</v>
       </c>
       <c r="F664" s="16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665" s="15" t="s">
         <v>152</v>
       </c>
@@ -19209,16 +19483,28 @@
         <v>12</v>
       </c>
       <c r="D665" s="5">
-        <v>51.47</v>
+        <v>53.71</v>
       </c>
       <c r="E665" s="5">
-        <v>2527.4299999999998</v>
+        <v>2540.21</v>
       </c>
       <c r="F665" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+      <c r="G665" s="13">
+        <f>AVERAGE(E665,E667)</f>
+        <v>2540.085</v>
+      </c>
+      <c r="H665" s="18">
+        <f>STDEV(E665,E667)</f>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="K665" s="5">
+        <f>G665+$J$671</f>
+        <v>2532.875</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666" s="15" t="s">
         <v>152</v>
       </c>
@@ -19229,28 +19515,16 @@
         <v>12</v>
       </c>
       <c r="D666" s="5">
-        <v>50.76</v>
-      </c>
-      <c r="E666" s="5">
-        <v>2542.09</v>
+        <v>53.68</v>
+      </c>
+      <c r="E666" s="14">
+        <v>2558.08</v>
       </c>
       <c r="F666" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="G666" s="13">
-        <f>AVERAGE(E669,E666)</f>
-        <v>2543.2150000000001</v>
-      </c>
-      <c r="H666" s="18">
-        <f>STDEV(E669,E666)</f>
-        <v>1.5909902576697319</v>
-      </c>
-      <c r="K666" s="5">
-        <f>G666+$J$660</f>
-        <v>2536.0050000000001</v>
-      </c>
-    </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667" s="15" t="s">
         <v>152</v>
       </c>
@@ -19261,16 +19535,16 @@
         <v>12</v>
       </c>
       <c r="D667" s="5">
-        <v>53.55</v>
-      </c>
-      <c r="E667" s="14">
-        <v>2529.9699999999998</v>
+        <v>52.03</v>
+      </c>
+      <c r="E667" s="5">
+        <v>2539.96</v>
       </c>
       <c r="F667" s="16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668" s="15" t="s">
         <v>152</v>
       </c>
@@ -19281,16 +19555,28 @@
         <v>12</v>
       </c>
       <c r="D668" s="5">
-        <v>50.37</v>
-      </c>
-      <c r="E668" s="14">
-        <v>2587.67</v>
+        <v>51.65</v>
+      </c>
+      <c r="E668" s="5">
+        <v>2647.54</v>
       </c>
       <c r="F668" s="16" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="G668" s="13">
+        <f>AVERAGE(E668,E670)</f>
+        <v>2648.0349999999999</v>
+      </c>
+      <c r="H668" s="18">
+        <f>STDEV(E668,E670)</f>
+        <v>0.70003571337484927</v>
+      </c>
+      <c r="K668" s="5">
+        <f>G668+$J$671</f>
+        <v>2640.8249999999998</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669" s="15" t="s">
         <v>152</v>
       </c>
@@ -19301,16 +19587,16 @@
         <v>12</v>
       </c>
       <c r="D669" s="5">
-        <v>53.83</v>
-      </c>
-      <c r="E669" s="5">
-        <v>2544.34</v>
+        <v>49.63</v>
+      </c>
+      <c r="E669" s="14">
+        <v>2636.63</v>
       </c>
       <c r="F669" s="16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670" s="15" t="s">
         <v>152</v>
       </c>
@@ -19321,28 +19607,16 @@
         <v>12</v>
       </c>
       <c r="D670" s="5">
-        <v>53.71</v>
+        <v>50.34</v>
       </c>
       <c r="E670" s="5">
-        <v>2540.21</v>
+        <v>2648.53</v>
       </c>
       <c r="F670" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G670" s="13">
-        <f>AVERAGE(E670,E672)</f>
-        <v>2540.085</v>
-      </c>
-      <c r="H670" s="18">
-        <f>STDEV(E670,E672)</f>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="K670" s="5">
-        <f>G670+$J$660</f>
-        <v>2532.875</v>
-      </c>
-    </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671" s="15" t="s">
         <v>152</v>
       </c>
@@ -19353,16 +19627,38 @@
         <v>12</v>
       </c>
       <c r="D671" s="5">
-        <v>53.68</v>
+        <v>51.51</v>
       </c>
       <c r="E671" s="14">
-        <v>2558.08</v>
+        <v>2220.2199999999998</v>
       </c>
       <c r="F671" s="16" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G671" s="13">
+        <f>AVERAGE(E672,E673)</f>
+        <v>2233.65</v>
+      </c>
+      <c r="H671" s="18">
+        <f>STDEV(E672,E673)</f>
+        <v>0.43840620433558231</v>
+      </c>
+      <c r="I671" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J671" s="4">
+        <f>I671-G671</f>
+        <v>-7.2100000000000364</v>
+      </c>
+      <c r="K671" s="5">
+        <f>G671+$J$671</f>
+        <v>2226.44</v>
+      </c>
+      <c r="L671" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672" s="15" t="s">
         <v>152</v>
       </c>
@@ -19373,16 +19669,16 @@
         <v>12</v>
       </c>
       <c r="D672" s="5">
-        <v>52.03</v>
+        <v>50.33</v>
       </c>
       <c r="E672" s="5">
-        <v>2539.96</v>
+        <v>2233.34</v>
       </c>
       <c r="F672" s="16" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="15" t="s">
         <v>152</v>
       </c>
@@ -19393,30 +19689,18 @@
         <v>12</v>
       </c>
       <c r="D673" s="5">
-        <v>51.65</v>
+        <v>51.66</v>
       </c>
       <c r="E673" s="5">
-        <v>2647.54</v>
+        <v>2233.96</v>
       </c>
       <c r="F673" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="G673" s="13">
-        <f>AVERAGE(E673,E675)</f>
-        <v>2648.0349999999999</v>
-      </c>
-      <c r="H673" s="18">
-        <f>STDEV(E673,E675)</f>
-        <v>0.70003571337484927</v>
-      </c>
-      <c r="K673" s="5">
-        <f>G673+$J$660</f>
-        <v>2640.8249999999998</v>
-      </c>
-    </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="15" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B674" s="31">
         <v>45183</v>
@@ -19425,18 +19709,30 @@
         <v>12</v>
       </c>
       <c r="D674" s="5">
-        <v>49.63</v>
+        <v>49.66</v>
       </c>
       <c r="E674" s="14">
-        <v>2636.63</v>
+        <v>2671.32</v>
       </c>
       <c r="F674" s="16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="G674" s="13">
+        <f>AVERAGE(E675,E676)</f>
+        <v>2601.7449999999999</v>
+      </c>
+      <c r="H674" s="18">
+        <f>STDEV(E675,E676)</f>
+        <v>1.6617009357883223</v>
+      </c>
+      <c r="K674" s="5">
+        <f>G674+$J$671</f>
+        <v>2594.5349999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="15" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B675" s="31">
         <v>45183</v>
@@ -19445,244 +19741,1646 @@
         <v>12</v>
       </c>
       <c r="D675" s="5">
-        <v>50.34</v>
+        <v>49.69</v>
       </c>
       <c r="E675" s="5">
-        <v>2648.53</v>
+        <v>2602.92</v>
       </c>
       <c r="F675" s="16" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C676" s="10"/>
-      <c r="F676" s="16"/>
-    </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A676" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B676" s="31">
+        <v>45183</v>
+      </c>
+      <c r="C676" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D676" s="5">
+        <v>52.3</v>
+      </c>
+      <c r="E676" s="5">
+        <v>2600.5700000000002</v>
+      </c>
+      <c r="F676" s="16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A677" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B677" s="31">
+        <v>45183</v>
+      </c>
       <c r="C677" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E677" s="14"/>
+      <c r="D677" s="5">
+        <v>50.26</v>
+      </c>
+      <c r="E677" s="5">
+        <v>2588.17</v>
+      </c>
       <c r="F677" s="16" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="G677" s="13">
+        <f>AVERAGE(E677,E678)</f>
+        <v>2587.605</v>
+      </c>
+      <c r="H677" s="18">
+        <f>STDEV(E677,E678)</f>
+        <v>0.79903066274087586</v>
+      </c>
+      <c r="K677" s="5">
+        <f>G677+$J$671</f>
+        <v>2580.395</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A678" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B678" s="31">
+        <v>45183</v>
+      </c>
       <c r="C678" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D678" s="5">
+        <v>52.19</v>
+      </c>
+      <c r="E678" s="5">
+        <v>2587.04</v>
+      </c>
       <c r="F678" s="16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A679" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B679" s="31">
+        <v>45183</v>
+      </c>
       <c r="C679" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D679" s="5">
+        <v>49.76</v>
+      </c>
+      <c r="E679" s="5">
+        <v>2486.2399999999998</v>
+      </c>
       <c r="F679" s="16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="G679" s="13">
+        <f>AVERAGE(E679,E680)</f>
+        <v>2488.2849999999999</v>
+      </c>
+      <c r="H679" s="18">
+        <f>STDEV(E679,E680)</f>
+        <v>2.8920667350530822</v>
+      </c>
+      <c r="K679" s="5">
+        <f>G679+$J$671</f>
+        <v>2481.0749999999998</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A680" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B680" s="31">
+        <v>45183</v>
+      </c>
       <c r="C680" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D680" s="5">
+        <v>48.09</v>
+      </c>
+      <c r="E680" s="22">
+        <v>2490.33</v>
+      </c>
       <c r="F680" s="16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.35">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A681" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B681" s="31">
+        <v>45183</v>
+      </c>
       <c r="C681" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D681" s="5">
+        <v>50.31</v>
+      </c>
+      <c r="E681" s="14">
+        <v>2379.1</v>
+      </c>
       <c r="F681" s="16" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+      <c r="G681" s="13">
+        <f>AVERAGE(E682,E683)</f>
+        <v>2395.105</v>
+      </c>
+      <c r="H681" s="18">
+        <f>STDEV(E682,E683)</f>
+        <v>3.8254476862191193</v>
+      </c>
+      <c r="K681" s="5">
+        <f>G681+$J$671</f>
+        <v>2387.895</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A682" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B682" s="31">
+        <v>45183</v>
+      </c>
       <c r="C682" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D682" s="5">
+        <v>48.7</v>
+      </c>
+      <c r="E682" s="5">
+        <v>2397.81</v>
+      </c>
       <c r="F682" s="16" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A683" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B683" s="31">
+        <v>45183</v>
+      </c>
       <c r="C683" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E683" s="14"/>
+      <c r="D683" s="5">
+        <v>49.86</v>
+      </c>
+      <c r="E683" s="5">
+        <v>2392.4</v>
+      </c>
       <c r="F683" s="16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A684" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B684" s="31">
+        <v>45183</v>
+      </c>
       <c r="C684" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D684" s="5">
+        <v>48.21</v>
+      </c>
+      <c r="E684" s="14">
+        <v>2416.37</v>
+      </c>
       <c r="F684" s="16" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+      <c r="G684" s="13">
+        <f>AVERAGE(E685,E686)</f>
+        <v>2389.7550000000001</v>
+      </c>
+      <c r="H684" s="18">
+        <f>STDEV(E685,E686)</f>
+        <v>0.24748737341522731</v>
+      </c>
+      <c r="K684" s="5">
+        <f>G684+$J$671</f>
+        <v>2382.5450000000001</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A685" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B685" s="31">
+        <v>45183</v>
+      </c>
       <c r="C685" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E685" s="14"/>
+      <c r="D685" s="5">
+        <v>52.51</v>
+      </c>
+      <c r="E685" s="5">
+        <v>2389.58</v>
+      </c>
       <c r="F685" s="16" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.35">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A686" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B686" s="31">
+        <v>45183</v>
+      </c>
       <c r="C686" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D686" s="5">
+        <v>50.54</v>
+      </c>
+      <c r="E686" s="5">
+        <v>2389.9299999999998</v>
+      </c>
       <c r="F686" s="16" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A687" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B687" s="31">
+        <v>45183</v>
+      </c>
       <c r="C687" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D687" s="5">
+        <v>51.53</v>
+      </c>
+      <c r="E687" s="5">
+        <v>2617.25</v>
+      </c>
       <c r="F687" s="16" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.35">
+        <v>607</v>
+      </c>
+      <c r="G687" s="13">
+        <f>AVERAGE(E687,E688)</f>
+        <v>2618.4499999999998</v>
+      </c>
+      <c r="H687" s="18">
+        <f>STDEV(E687,E688)</f>
+        <v>1.6970562748477784</v>
+      </c>
+      <c r="K687" s="5">
+        <f>G687+$J$671</f>
+        <v>2611.2399999999998</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A688" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B688" s="31">
+        <v>45183</v>
+      </c>
       <c r="C688" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E688" s="14"/>
+      <c r="D688" s="5">
+        <v>49.05</v>
+      </c>
+      <c r="E688" s="5">
+        <v>2619.65</v>
+      </c>
       <c r="F688" s="16" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A689" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B689" s="31">
+        <v>45183</v>
+      </c>
       <c r="C689" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D689" s="5">
+        <v>51.86</v>
+      </c>
+      <c r="E689" s="22">
+        <v>2514.23</v>
+      </c>
       <c r="F689" s="16" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.35">
+        <v>609</v>
+      </c>
+      <c r="G689" s="13">
+        <f>AVERAGE(E689,E691)</f>
+        <v>2512.3000000000002</v>
+      </c>
+      <c r="H689" s="18">
+        <f>STDEV(E689,E691)</f>
+        <v>2.7294321753801634</v>
+      </c>
+      <c r="K689" s="5">
+        <f>G689+$J$671</f>
+        <v>2505.09</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A690" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B690" s="31">
+        <v>45183</v>
+      </c>
       <c r="C690" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D690" s="5">
+        <v>49.33</v>
+      </c>
+      <c r="E690" s="14">
+        <v>2529.6</v>
+      </c>
       <c r="F690" s="16" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A691" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B691" s="31">
+        <v>45183</v>
+      </c>
       <c r="C691" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D691" s="5">
+        <v>52.39</v>
+      </c>
+      <c r="E691" s="5">
+        <v>2510.37</v>
+      </c>
       <c r="F691" s="16" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A692" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B692" s="31">
+        <v>45183</v>
+      </c>
       <c r="C692" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D692" s="5">
+        <v>51.31</v>
+      </c>
+      <c r="E692" s="5">
+        <v>2459.66</v>
+      </c>
       <c r="F692" s="16" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+      <c r="G692" s="13">
+        <f>AVERAGE(E692,E694)</f>
+        <v>2457.8199999999997</v>
+      </c>
+      <c r="H692" s="18">
+        <f>STDEV(E692,E694)</f>
+        <v>2.6021529547663791</v>
+      </c>
+      <c r="K692" s="5">
+        <f>G692+$J$671</f>
+        <v>2450.6099999999997</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A693" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B693" s="31">
+        <v>45183</v>
+      </c>
       <c r="C693" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E693" s="14"/>
+      <c r="D693" s="5">
+        <v>51.67</v>
+      </c>
+      <c r="E693" s="14">
+        <v>2402.61</v>
+      </c>
       <c r="F693" s="16" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A694" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B694" s="31">
+        <v>45183</v>
+      </c>
       <c r="C694" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D694" s="5">
+        <v>50.68</v>
+      </c>
+      <c r="E694" s="5">
+        <v>2455.98</v>
+      </c>
       <c r="F694" s="16" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A695" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B695" s="31">
+        <v>45183</v>
+      </c>
       <c r="C695" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D695" s="5">
+        <v>51.58</v>
+      </c>
+      <c r="E695" s="14">
+        <v>2493.88</v>
+      </c>
       <c r="F695" s="16" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+      <c r="G695" s="13">
+        <f>AVERAGE(E697,E696)</f>
+        <v>2510.415</v>
+      </c>
+      <c r="H695" s="18">
+        <f>STDEV(E697,E696)</f>
+        <v>4.6032651455245785</v>
+      </c>
+      <c r="K695" s="5">
+        <f>G695+$J$671</f>
+        <v>2503.2049999999999</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A696" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B696" s="31">
+        <v>45183</v>
+      </c>
       <c r="C696" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D696" s="5">
+        <v>49.58</v>
+      </c>
+      <c r="E696" s="5">
+        <v>2507.16</v>
+      </c>
       <c r="F696" s="16" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A697" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B697" s="31">
+        <v>45183</v>
+      </c>
       <c r="C697" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E697" s="14"/>
+      <c r="D697" s="5">
+        <v>52.67</v>
+      </c>
+      <c r="E697" s="5">
+        <v>2513.67</v>
+      </c>
       <c r="F697" s="16" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A698" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B698" s="31">
+        <v>45183</v>
+      </c>
       <c r="C698" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D698" s="5">
+        <v>51.29</v>
+      </c>
+      <c r="E698" s="5">
+        <v>2593.69</v>
       </c>
       <c r="F698" s="16" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G698" s="13">
+        <f>AVERAGE(E698,E700)</f>
+        <v>2596.2399999999998</v>
+      </c>
+      <c r="H698" s="18">
+        <f>STDEV(E698,E700)</f>
+        <v>3.6062445840513284</v>
+      </c>
+      <c r="K698" s="5">
+        <f>G698+$J$671</f>
+        <v>2589.0299999999997</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A699" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B699" s="31">
+        <v>45183</v>
+      </c>
       <c r="C699" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E699" s="14"/>
+      <c r="D699" s="5">
+        <v>49.72</v>
+      </c>
+      <c r="E699" s="14">
+        <v>2604.7800000000002</v>
+      </c>
       <c r="F699" s="16" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A700" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B700" s="31">
+        <v>45183</v>
+      </c>
       <c r="C700" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D700" s="5">
+        <v>50.03</v>
+      </c>
+      <c r="E700" s="5">
+        <v>2598.79</v>
+      </c>
       <c r="F700" s="16" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C701" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F701" s="16" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.35">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A702" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B702" s="31">
+        <v>45184</v>
+      </c>
       <c r="C702" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E702" s="22"/>
       <c r="F702" s="16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G702" s="13" t="e">
+        <f>AVERAGE(E702:E704)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H702" s="18" t="e">
+        <f>STDEV(E702:E704)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I702" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J702" s="4" t="e">
+        <f>I702-G702</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K702" s="5" t="e">
+        <f>G702+$J$671</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L702" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A703" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B703" s="31">
+        <v>45184</v>
+      </c>
       <c r="C703" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E703" s="22"/>
       <c r="F703" s="16" t="s">
-        <v>622</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A704" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B704" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C704" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D704" s="15"/>
+      <c r="F704" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B705" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C705" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F705" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="G705" s="13"/>
+      <c r="H705" s="18"/>
+      <c r="K705" s="5"/>
+    </row>
+    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B706" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C706" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F706" s="16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B707" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C707" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F707" s="16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B708" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C708" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F708" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="G708" s="13"/>
+      <c r="H708" s="18"/>
+      <c r="K708" s="5"/>
+    </row>
+    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B709" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C709" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D709" s="15"/>
+      <c r="E709" s="15"/>
+      <c r="F709" s="16" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B710" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C710" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D710" s="15"/>
+      <c r="E710" s="15"/>
+      <c r="F710" s="16" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B711" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C711" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F711" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="G711" s="13"/>
+      <c r="H711" s="18"/>
+      <c r="K711" s="5"/>
+    </row>
+    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B712" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C712" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E712" s="14"/>
+      <c r="F712" s="16" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="713" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B713" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C713" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F713" s="16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B714" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C714" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F714" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="G714" s="13"/>
+      <c r="H714" s="18"/>
+      <c r="K714" s="5"/>
+    </row>
+    <row r="715" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B715" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C715" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E715" s="22"/>
+      <c r="F715" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B716" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C716" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E716" s="22"/>
+      <c r="F716" s="16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B717" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C717" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F717" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="G717" s="13"/>
+      <c r="H717" s="18"/>
+      <c r="K717" s="5"/>
+    </row>
+    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B718" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C718" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F718" s="16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B719" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C719" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F719" s="16" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B720" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C720" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F720" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="G720" s="13"/>
+      <c r="H720" s="18"/>
+      <c r="K720" s="5"/>
+    </row>
+    <row r="721" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B721" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C721" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E721" s="14"/>
+      <c r="F721" s="16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="722" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B722" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C722" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F722" s="16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="723" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C723" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F723" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="G723" s="13"/>
+      <c r="H723" s="18"/>
+      <c r="K723" s="5"/>
+    </row>
+    <row r="724" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C724" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E724" s="14"/>
+      <c r="F724" s="16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="725" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C725" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F725" s="16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="726" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C726" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F726" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="G726" s="13"/>
+      <c r="H726" s="18"/>
+      <c r="K726" s="5"/>
+    </row>
+    <row r="727" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C727" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E727" s="14"/>
+      <c r="F727" s="16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="728" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C728" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F728" s="16" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="729" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C729" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E729" s="14"/>
+      <c r="F729" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G729" s="13"/>
+      <c r="H729" s="18"/>
+      <c r="K729" s="5"/>
+    </row>
+    <row r="730" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C730" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F730" s="16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="731" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C731" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F731" s="16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="732" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C732" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F732" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="G732" s="13"/>
+      <c r="H732" s="18"/>
+      <c r="K732" s="5"/>
+    </row>
+    <row r="733" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C733" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F733" s="16" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="734" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C734" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E734" s="14"/>
+      <c r="F734" s="16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="735" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C735" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F735" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G735" s="13"/>
+      <c r="H735" s="18"/>
+      <c r="I735" s="3"/>
+      <c r="J735" s="4"/>
+      <c r="K735" s="5"/>
+    </row>
+    <row r="736" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C736" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F736" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C737" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F737" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="738" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C738" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E738" s="14"/>
+      <c r="F738" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="G738" s="13"/>
+      <c r="H738" s="18"/>
+      <c r="K738" s="5"/>
+    </row>
+    <row r="739" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C739" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F739" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="740" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C740" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F740" s="16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="741" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C741" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F741" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="G741" s="13"/>
+      <c r="H741" s="18"/>
+      <c r="K741" s="5"/>
+    </row>
+    <row r="742" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C742" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E742" s="14"/>
+      <c r="F742" s="16" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="743" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C743" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F743" s="16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="744" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C744" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F744" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="G744" s="13"/>
+      <c r="H744" s="18"/>
+      <c r="K744" s="5"/>
+    </row>
+    <row r="745" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C745" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F745" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="746" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C746" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F746" s="16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="747" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C747" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F747" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="G747" s="13"/>
+      <c r="H747" s="18"/>
+      <c r="K747" s="5"/>
+    </row>
+    <row r="748" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C748" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F748" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="749" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C749" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F749" s="16" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="750" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C750" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D750" s="15"/>
+      <c r="E750" s="14"/>
+      <c r="F750" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="G750" s="13"/>
+      <c r="H750" s="18"/>
+      <c r="K750" s="5"/>
+    </row>
+    <row r="751" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C751" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F751" s="16" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="752" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C752" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F752" s="16" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="753" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C753" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F753" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="G753" s="13"/>
+      <c r="H753" s="18"/>
+      <c r="K753" s="5"/>
+    </row>
+    <row r="754" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C754" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E754" s="22"/>
+      <c r="F754" s="16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="755" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C755" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E755" s="22"/>
+      <c r="F755" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="756" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C756" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E756" s="14"/>
+      <c r="F756" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="G756" s="13"/>
+      <c r="H756" s="18"/>
+      <c r="K756" s="5"/>
+    </row>
+    <row r="757" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C757" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F757" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="758" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C758" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F758" s="16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="759" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C759" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F759" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="G759" s="13"/>
+      <c r="H759" s="18"/>
+      <c r="K759" s="5"/>
+    </row>
+    <row r="760" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C760" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E760" s="14"/>
+      <c r="F760" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="761" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C761" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E761" s="14"/>
+      <c r="F761" s="16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="762" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C762" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F762" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="G762" s="13"/>
+      <c r="H762" s="18"/>
+      <c r="K762" s="5"/>
+    </row>
+    <row r="763" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C763" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E763" s="14"/>
+      <c r="F763" s="16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="764" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C764" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F764" s="16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="765" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C765" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F765" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="G765" s="13"/>
+      <c r="H765" s="18"/>
+      <c r="K765" s="5"/>
+    </row>
+    <row r="766" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C766" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E766" s="14"/>
+      <c r="F766" s="16" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="767" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C767" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F767" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="768" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C768" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E768" s="14"/>
+      <c r="F768" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G768" s="13"/>
+      <c r="H768" s="18"/>
+      <c r="I768" s="3"/>
+      <c r="J768" s="4"/>
+      <c r="K768" s="5"/>
+    </row>
+    <row r="769" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C769" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F769" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C770" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F770" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="771" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C771" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E771" s="14"/>
+      <c r="F771" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="G771" s="13"/>
+      <c r="H771" s="18"/>
+      <c r="K771" s="5"/>
+    </row>
+    <row r="772" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C772" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F772" s="16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="773" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C773" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F773" s="16" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="774" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C774" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F774" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="G774" s="13"/>
+      <c r="H774" s="18"/>
+      <c r="K774" s="5"/>
+    </row>
+    <row r="775" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C775" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F775" s="16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="776" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C776" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F776" s="16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="777" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C777" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F777" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="G777" s="13"/>
+      <c r="H777" s="18"/>
+      <c r="K777" s="5"/>
+    </row>
+    <row r="778" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C778" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E778" s="22"/>
+      <c r="F778" s="16" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="779" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C779" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E779" s="22"/>
+      <c r="F779" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="780" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C780" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E780" s="14"/>
+      <c r="F780" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="G780" s="13"/>
+      <c r="H780" s="18"/>
+      <c r="K780" s="5"/>
+    </row>
+    <row r="781" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C781" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F781" s="16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="782" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C782" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F782" s="16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="783" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C783" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E783" s="14"/>
+      <c r="F783" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="G783" s="13"/>
+      <c r="H783" s="18"/>
+      <c r="K783" s="5"/>
+    </row>
+    <row r="784" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C784" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F784" s="16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="785" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C785" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F785" s="16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="786" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C786" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F786" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="G786" s="13"/>
+      <c r="H786" s="18"/>
+      <c r="K786" s="5"/>
+    </row>
+    <row r="787" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C787" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F787" s="16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="788" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C788" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F788" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="789" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C789" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E789" s="22"/>
+      <c r="F789" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="G789" s="13"/>
+      <c r="H789" s="18"/>
+      <c r="K789" s="5"/>
+    </row>
+    <row r="790" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C790" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F790" s="16" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="791" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C791" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F791" s="16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="792" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C792" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F792" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="G792" s="13"/>
+      <c r="H792" s="18"/>
+      <c r="K792" s="5"/>
+    </row>
+    <row r="793" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C793" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E793" s="22"/>
+      <c r="F793" s="16" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="794" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C794" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F794" s="16" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="795" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C795" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E795" s="14"/>
+      <c r="F795" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="G795" s="13"/>
+      <c r="H795" s="18"/>
+      <c r="K795" s="5"/>
+    </row>
+    <row r="796" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C796" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F796" s="16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="797" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C797" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F797" s="16" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="798" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C798" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F798" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="G798" s="13"/>
+      <c r="H798" s="18"/>
+      <c r="K798" s="5"/>
+    </row>
+    <row r="799" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C799" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F799" s="16" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="800" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C800" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F800" s="16" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L554"/>
+  <autoFilter ref="A1:L554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\3. Alkalinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A7891E-0419-F342-A804-E070E3EB80AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2215,7 +2214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2414,8 +2413,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2692,32 +2691,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I699" sqref="I699"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K703" sqref="K703"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="12.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2823,7 +2822,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +2857,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2883,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +2909,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2945,7 +2944,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2971,7 +2970,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +2996,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3032,7 +3031,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +3081,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>2592.88</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3142,7 +3141,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -3177,7 +3176,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3201,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>2621.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
@@ -3286,7 +3285,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>2553.7799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3344,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -3370,7 +3369,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>2531.04</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -3429,7 +3428,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>2487.5749999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3488,7 +3487,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3513,7 +3512,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>2606.9649999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
@@ -3572,7 +3571,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
@@ -3597,7 +3596,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -3664,7 +3663,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>2658.0949999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>2655.7449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>2591.3400000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>11</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>11</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>2576.5950000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>11</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>2579.6250000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>2650.0800000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>2556.6850000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>2532.8100000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>2540.77</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>2633.7750000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
@@ -4371,7 +4370,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>2674.7000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>2650.1000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>2343.2800000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>2642.0000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>2620.7650000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>2663.0850000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>2576.9600000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>11</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>2584.4350000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>11</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>2557.5100000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>11</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>11</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>2654.3750000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>11</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>11</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>2577.4450000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>11</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>2554.8049999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>3002.58</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>2990.2099999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>11</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>2976.65</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>11</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>2658.28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>2641.56</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>11</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>11</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>2651.5699999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>11</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>2646.5849999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>2577.77</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>11</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>152</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>152</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>152</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>11</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>2535.7849999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>2540.9899999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -6023,7 +6022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>2484.7750000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>11</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>11</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>2483.7199999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>2488.9699999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>11</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -6239,7 +6238,7 @@
         <v>2530.96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>2465.5749999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>11</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>11</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>11</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>11</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>152</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>2488.0249999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>152</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>152</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>152</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>2545.1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>152</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>11</v>
       </c>
@@ -6597,7 +6596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>2542.6099999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>11</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>2554.4999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>11</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>2472.7099999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>11</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>11</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>2509.61</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>11</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>11</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>2514.2399999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>11</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>2549.4999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>11</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>11</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>2483.7800000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>11</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="24" t="s">
         <v>11</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>2442.1749999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="24" t="s">
         <v>11</v>
       </c>
@@ -7174,7 +7173,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
     </row>
-    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="24" t="s">
         <v>11</v>
       </c>
@@ -7199,7 +7198,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
     </row>
-    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="24" t="s">
         <v>11</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>2454.9850000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>11</v>
       </c>
@@ -7258,7 +7257,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>11</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>11</v>
       </c>
@@ -7313,7 +7312,7 @@
       </c>
       <c r="L176" s="28"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>11</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>11</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
         <v>152</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
         <v>152</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
         <v>152</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
         <v>152</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
         <v>152</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
         <v>152</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
         <v>152</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>2575.6150000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
         <v>152</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="15" t="s">
         <v>152</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
         <v>152</v>
       </c>
@@ -7599,7 +7598,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
         <v>152</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>2558.6349999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
         <v>152</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
         <v>152</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>11</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>2583.3199999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>11</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
         <v>11</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>2594.98</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>11</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
         <v>11</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>11</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="24" t="s">
         <v>11</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="24" t="s">
         <v>11</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>2564.5749999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="24" t="s">
         <v>11</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>2552.5749999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
         <v>11</v>
       </c>
@@ -8011,7 +8010,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
         <v>11</v>
       </c>
@@ -8032,7 +8031,7 @@
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
         <v>11</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
         <v>11</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>11</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
         <v>11</v>
       </c>
@@ -8171,7 +8170,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
         <v>11</v>
       </c>
@@ -8196,7 +8195,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
         <v>11</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>2558.1749999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
         <v>11</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>2557.5000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
         <v>11</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
         <v>11</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
         <v>11</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>2559.2450000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>11</v>
       </c>
@@ -8372,7 +8371,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
         <v>11</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>2553.0500000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
         <v>11</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
         <v>11</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>2575.61</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
         <v>11</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
         <v>11</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>2561.8700000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
         <v>11</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
         <v>11</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>2596.6350000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
         <v>11</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
         <v>11</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -8672,7 +8671,7 @@
         <v>2574.5550000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
         <v>11</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="s">
         <v>11</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>2572.5350000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
         <v>11</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>11</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
         <v>11</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
         <v>11</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>2567.5250000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
         <v>11</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
         <v>11</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
@@ -8893,7 +8892,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="s">
         <v>11</v>
       </c>
@@ -8918,7 +8917,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>2580.6</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
         <v>11</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
         <v>11</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
         <v>11</v>
       </c>
@@ -9042,7 +9041,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="s">
         <v>11</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
         <v>11</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="s">
         <v>11</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
         <v>11</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="s">
         <v>11</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="s">
         <v>11</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>2823.9250000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
         <v>11</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
         <v>11</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>2693.895</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
         <v>11</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
         <v>11</v>
       </c>
@@ -9320,7 +9319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>2592.4700000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>11</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
         <v>11</v>
       </c>
@@ -9392,7 +9391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
         <v>11</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>2959.9100000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
         <v>11</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="s">
         <v>11</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
         <v>11</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>2869.5400000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="s">
         <v>11</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="s">
         <v>11</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>2875.6350000000007</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
         <v>11</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="s">
         <v>11</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="s">
         <v>11</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>2867.1150000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
         <v>11</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>2865.9250000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
         <v>11</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
         <v>11</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>2667.4650000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
         <v>11</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
         <v>11</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
         <v>11</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>2791.6800000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
         <v>11</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
         <v>11</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
         <v>11</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>11</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>11</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
         <v>11</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>2665.1500000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
         <v>11</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
         <v>11</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
         <v>11</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>11</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
         <v>11</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
         <v>11</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>2683.1600000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>11</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
         <v>11</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
         <v>11</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>2767.9650000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
         <v>11</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
         <v>11</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
         <v>11</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>2664.9050000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
         <v>11</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
         <v>11</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="s">
         <v>11</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>2507.11</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
         <v>11</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="s">
         <v>11</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="s">
         <v>11</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>2560.5800000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="s">
         <v>11</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="s">
         <v>11</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="s">
         <v>11</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>2551.7550000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
         <v>11</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
         <v>11</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="s">
         <v>11</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>2608.48</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
         <v>11</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="s">
         <v>11</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="s">
         <v>11</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>2651.3050000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
         <v>11</v>
       </c>
@@ -10618,7 +10617,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="s">
         <v>11</v>
       </c>
@@ -10638,7 +10637,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
         <v>11</v>
       </c>
@@ -10670,7 +10669,7 @@
         <v>2616.8150000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="s">
         <v>11</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
         <v>11</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>2532.7950000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
         <v>11</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
         <v>11</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>2626.605</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
         <v>11</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
         <v>11</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>2579.8250000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="s">
         <v>11</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="s">
         <v>11</v>
       </c>
@@ -10866,7 +10865,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="s">
         <v>11</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>11</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
         <v>11</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="s">
         <v>11</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>2606.1200000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
         <v>11</v>
       </c>
@@ -11000,7 +10999,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="s">
         <v>11</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>2587.3300000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
         <v>11</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
         <v>11</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="s">
         <v>11</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>2559.56</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
         <v>11</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
         <v>11</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
         <v>11</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>2584.9</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="s">
         <v>11</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="s">
         <v>11</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
         <v>11</v>
       </c>
@@ -11248,7 +11247,7 @@
         <v>2569.7350000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
         <v>11</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
         <v>11</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>2512.4050000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
         <v>11</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
         <v>11</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>2515.6249999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
         <v>11</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
         <v>11</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
         <v>11</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>2431.8249999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
         <v>11</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
         <v>11</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>2452.1799999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
         <v>11</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
         <v>11</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
         <v>11</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>2467.9349999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="s">
         <v>11</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
         <v>11</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
         <v>11</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>2461.3399999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="s">
         <v>11</v>
       </c>
@@ -11640,7 +11639,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="s">
         <v>11</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
         <v>11</v>
       </c>
@@ -11692,7 +11691,7 @@
         <v>2464.0449999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="s">
         <v>11</v>
       </c>
@@ -11712,7 +11711,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
         <v>11</v>
       </c>
@@ -11732,7 +11731,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="s">
         <v>11</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>2469.2599999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="s">
         <v>11</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="s">
         <v>11</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="9" t="s">
         <v>11</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>2410.0949999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="9" t="s">
         <v>11</v>
       </c>
@@ -11856,7 +11855,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="s">
         <v>11</v>
       </c>
@@ -11888,7 +11887,7 @@
         <v>2477.1099999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
         <v>11</v>
       </c>
@@ -11908,7 +11907,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="s">
         <v>11</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
         <v>11</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>2453.3649999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="s">
         <v>11</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="s">
         <v>11</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
         <v>11</v>
       </c>
@@ -12032,7 +12031,7 @@
         <v>2557.395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="9" t="s">
         <v>11</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="s">
         <v>11</v>
       </c>
@@ -12072,7 +12071,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
         <v>11</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>2531.5349999999994</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="s">
         <v>11</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="s">
         <v>11</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>2563.7449999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
         <v>11</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
         <v>11</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="s">
         <v>11</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>2550.56</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="s">
         <v>11</v>
       </c>
@@ -12248,7 +12247,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="9" t="s">
         <v>11</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>2533.7799999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="s">
         <v>11</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="s">
         <v>11</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="s">
         <v>11</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>2549.9199999999996</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="9" t="s">
         <v>11</v>
       </c>
@@ -12372,7 +12371,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="9" t="s">
         <v>11</v>
       </c>
@@ -12392,7 +12391,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
         <v>11</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="9" t="s">
         <v>11</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="9" t="s">
         <v>11</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="9" t="s">
         <v>11</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>2559.89</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="9" t="s">
         <v>11</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="9" t="s">
         <v>11</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>2578.56</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="9" t="s">
         <v>11</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="9" t="s">
         <v>11</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>2590.0049999999997</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="9" t="s">
         <v>11</v>
       </c>
@@ -12630,7 +12629,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="9" t="s">
         <v>11</v>
       </c>
@@ -12662,7 +12661,7 @@
         <v>2595.8799999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="9" t="s">
         <v>11</v>
       </c>
@@ -12682,7 +12681,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="9" t="s">
         <v>11</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="9" t="s">
         <v>11</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>2559.1149999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="s">
         <v>11</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="9" t="s">
         <v>11</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="9" t="s">
         <v>11</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>2568.17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="9" t="s">
         <v>11</v>
       </c>
@@ -12826,7 +12825,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="9" t="s">
         <v>11</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>2588.2649999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="9" t="s">
         <v>11</v>
       </c>
@@ -12878,7 +12877,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="9" t="s">
         <v>11</v>
       </c>
@@ -12910,7 +12909,7 @@
         <v>2512.7749999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="9" t="s">
         <v>11</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="9" t="s">
         <v>11</v>
       </c>
@@ -12962,7 +12961,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="9" t="s">
         <v>11</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="9" t="s">
         <v>11</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>2508.4349999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="9" t="s">
         <v>11</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="9" t="s">
         <v>11</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="9" t="s">
         <v>11</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>2494.2750000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="9" t="s">
         <v>11</v>
       </c>
@@ -13106,7 +13105,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="9" t="s">
         <v>11</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>2475.2399999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="9" t="s">
         <v>11</v>
       </c>
@@ -13158,7 +13157,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="9" t="s">
         <v>11</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="9" t="s">
         <v>11</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>2486.0450000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="9" t="s">
         <v>11</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="9" t="s">
         <v>11</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="9" t="s">
         <v>11</v>
       </c>
@@ -13292,7 +13291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="9" t="s">
         <v>11</v>
       </c>
@@ -13324,7 +13323,7 @@
         <v>2513.4499999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="9" t="s">
         <v>11</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="9" t="s">
         <v>11</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>2459.2950000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="9" t="s">
         <v>11</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="9" t="s">
         <v>11</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>2465.4949999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="9" t="s">
         <v>11</v>
       </c>
@@ -13448,7 +13447,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="9" t="s">
         <v>11</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="9" t="s">
         <v>11</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>2526.6549999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="9" t="s">
         <v>11</v>
       </c>
@@ -13520,7 +13519,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="9" t="s">
         <v>11</v>
       </c>
@@ -13552,7 +13551,7 @@
         <v>2520.6149999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="9" t="s">
         <v>11</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="9" t="s">
         <v>11</v>
       </c>
@@ -13592,7 +13591,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="9" t="s">
         <v>11</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>2529.79</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="9" t="s">
         <v>11</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="9" t="s">
         <v>11</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="9" t="s">
         <v>11</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>2541.38</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="9" t="s">
         <v>11</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="9" t="s">
         <v>11</v>
       </c>
@@ -13736,7 +13735,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="9" t="s">
         <v>11</v>
       </c>
@@ -13768,7 +13767,7 @@
         <v>2562.915</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="9" t="s">
         <v>11</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="9" t="s">
         <v>11</v>
       </c>
@@ -13820,7 +13819,7 @@
         <v>2556.625</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="9" t="s">
         <v>11</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="9" t="s">
         <v>11</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="9" t="s">
         <v>11</v>
       </c>
@@ -13902,7 +13901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="9" t="s">
         <v>11</v>
       </c>
@@ -13922,7 +13921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="9" t="s">
         <v>11</v>
       </c>
@@ -13942,7 +13941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="9" t="s">
         <v>11</v>
       </c>
@@ -13974,7 +13973,7 @@
         <v>2791.2750000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="9" t="s">
         <v>11</v>
       </c>
@@ -13994,7 +13993,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="9" t="s">
         <v>11</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="9" t="s">
         <v>11</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>2788.75</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="9" t="s">
         <v>11</v>
       </c>
@@ -14066,7 +14065,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="9" t="s">
         <v>11</v>
       </c>
@@ -14086,7 +14085,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="9" t="s">
         <v>11</v>
       </c>
@@ -14118,7 +14117,7 @@
         <v>2732.9049999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="9" t="s">
         <v>11</v>
       </c>
@@ -14138,7 +14137,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="9" t="s">
         <v>11</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>2772.16</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="9" t="s">
         <v>11</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="9" t="s">
         <v>152</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>2756.5550000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="9" t="s">
         <v>152</v>
       </c>
@@ -14242,7 +14241,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="9" t="s">
         <v>152</v>
       </c>
@@ -14262,7 +14261,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="9" t="s">
         <v>152</v>
       </c>
@@ -14294,7 +14293,7 @@
         <v>2786.5600000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="9" t="s">
         <v>152</v>
       </c>
@@ -14314,7 +14313,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="9" t="s">
         <v>152</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="9" t="s">
         <v>152</v>
       </c>
@@ -14366,7 +14365,7 @@
         <v>2807.4549999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="9" t="s">
         <v>152</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="9" t="s">
         <v>152</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="9" t="s">
         <v>152</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>2825.7666666666669</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="9" t="s">
         <v>152</v>
       </c>
@@ -14458,7 +14457,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="9" t="s">
         <v>152</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="9" t="s">
         <v>152</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>2809.13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="9" t="s">
         <v>152</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="9" t="s">
         <v>152</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="9" t="s">
         <v>152</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>2787.915</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="9" t="s">
         <v>152</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="9" t="s">
         <v>152</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="9" t="s">
         <v>152</v>
       </c>
@@ -14664,7 +14663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="9" t="s">
         <v>152</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="9" t="s">
         <v>152</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="9" t="s">
         <v>11</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>2713.895</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="9" t="s">
         <v>11</v>
       </c>
@@ -14756,7 +14755,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="9" t="s">
         <v>11</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>2670.7849999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="9" t="s">
         <v>11</v>
       </c>
@@ -14808,7 +14807,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="9" t="s">
         <v>11</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>2638.52</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="9" t="s">
         <v>11</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="9" t="s">
         <v>11</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="9" t="s">
         <v>11</v>
       </c>
@@ -14912,7 +14911,7 @@
         <v>2646.8199999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="9" t="s">
         <v>11</v>
       </c>
@@ -14932,7 +14931,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="9" t="s">
         <v>11</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>2674.9749999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="9" t="s">
         <v>11</v>
       </c>
@@ -14984,7 +14983,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="9" t="s">
         <v>11</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>2714.7750000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="9" t="s">
         <v>11</v>
       </c>
@@ -15036,7 +15035,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="9" t="s">
         <v>11</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="9" t="s">
         <v>549</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="9" t="s">
         <v>549</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="9" t="s">
         <v>549</v>
       </c>
@@ -15138,7 +15137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="9" t="s">
         <v>549</v>
       </c>
@@ -15158,7 +15157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="9" t="s">
         <v>549</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>2638.105</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="9" t="s">
         <v>549</v>
       </c>
@@ -15210,7 +15209,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="9" t="s">
         <v>549</v>
       </c>
@@ -15230,7 +15229,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="9" t="s">
         <v>11</v>
       </c>
@@ -15262,7 +15261,7 @@
         <v>2552.6600000000003</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="9" t="s">
         <v>11</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="9" t="s">
         <v>11</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="9" t="s">
         <v>11</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>2585.3500000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="9" t="s">
         <v>11</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="9" t="s">
         <v>11</v>
       </c>
@@ -15386,7 +15385,7 @@
         <v>2704.7550000000006</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="9" t="s">
         <v>11</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="9" t="s">
         <v>11</v>
       </c>
@@ -15445,7 +15444,7 @@
         <v>2226.44</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="9" t="s">
         <v>11</v>
       </c>
@@ -15465,7 +15464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="9" t="s">
         <v>11</v>
       </c>
@@ -15497,7 +15496,7 @@
         <v>2647.7850000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="9" t="s">
         <v>11</v>
       </c>
@@ -15517,7 +15516,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="9" t="s">
         <v>11</v>
       </c>
@@ -15537,7 +15536,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="9" t="s">
         <v>11</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>2630.1000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="9" t="s">
         <v>11</v>
       </c>
@@ -15589,7 +15588,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="9" t="s">
         <v>11</v>
       </c>
@@ -15621,7 +15620,7 @@
         <v>2550.2200000000003</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="9" t="s">
         <v>11</v>
       </c>
@@ -15641,7 +15640,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="9" t="s">
         <v>11</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>2556.7600000000007</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="9" t="s">
         <v>11</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="9" t="s">
         <v>11</v>
       </c>
@@ -15725,7 +15724,7 @@
         <v>2517.3299999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="9" t="s">
         <v>11</v>
       </c>
@@ -15745,7 +15744,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" s="9" t="s">
         <v>11</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" s="9" t="s">
         <v>11</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="9" t="s">
         <v>11</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="9" t="s">
         <v>11</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>2505.9449999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="9" t="s">
         <v>11</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="9" t="s">
         <v>11</v>
       </c>
@@ -15886,7 +15885,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="9" t="s">
         <v>11</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>2567.8449999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="9" t="s">
         <v>11</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="9" t="s">
         <v>11</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="9" t="s">
         <v>11</v>
       </c>
@@ -15990,7 +15989,7 @@
         <v>2516.39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" s="9" t="s">
         <v>11</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" s="9" t="s">
         <v>11</v>
       </c>
@@ -16042,7 +16041,7 @@
         <v>2633.3849999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" s="9" t="s">
         <v>11</v>
       </c>
@@ -16062,7 +16061,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" s="15" t="s">
         <v>11</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" s="15" t="s">
         <v>11</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" s="15" t="s">
         <v>11</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" s="15" t="s">
         <v>11</v>
       </c>
@@ -16176,7 +16175,7 @@
         <v>2708.7049999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" s="15" t="s">
         <v>11</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534" s="15" t="s">
         <v>11</v>
       </c>
@@ -16216,7 +16215,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535" s="15" t="s">
         <v>11</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>2705.75</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" s="15" t="s">
         <v>11</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537" s="15" t="s">
         <v>11</v>
       </c>
@@ -16300,7 +16299,7 @@
         <v>2598.4650000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" s="15" t="s">
         <v>11</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539" s="15" t="s">
         <v>11</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>2694.0950000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" s="15" t="s">
         <v>11</v>
       </c>
@@ -16372,7 +16371,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" s="15" t="s">
         <v>11</v>
       </c>
@@ -16392,7 +16391,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" s="15" t="s">
         <v>11</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>2682.4050000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" s="15" t="s">
         <v>11</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544" s="15" t="s">
         <v>11</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>2702.83</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" s="15" t="s">
         <v>11</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" s="15" t="s">
         <v>11</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>2666.8100000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" s="15" t="s">
         <v>11</v>
       </c>
@@ -16548,7 +16547,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" s="15" t="s">
         <v>11</v>
       </c>
@@ -16580,7 +16579,7 @@
         <v>2689.5349999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" s="15" t="s">
         <v>11</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" s="15" t="s">
         <v>11</v>
       </c>
@@ -16620,7 +16619,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" s="15" t="s">
         <v>11</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>2626.1850000000004</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552" s="15" t="s">
         <v>11</v>
       </c>
@@ -16672,7 +16671,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" s="15" t="s">
         <v>11</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>2699.7349999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="15" t="s">
         <v>11</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" s="15" t="s">
         <v>11</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" s="15" t="s">
         <v>11</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" s="15" t="s">
         <v>11</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558" s="15" t="s">
         <v>11</v>
       </c>
@@ -16838,7 +16837,7 @@
         <v>2678.3900000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" s="15" t="s">
         <v>11</v>
       </c>
@@ -16858,7 +16857,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" s="15" t="s">
         <v>11</v>
       </c>
@@ -16890,7 +16889,7 @@
         <v>2676.8649999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" s="15" t="s">
         <v>11</v>
       </c>
@@ -16910,7 +16909,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" s="15" t="s">
         <v>11</v>
       </c>
@@ -16942,7 +16941,7 @@
         <v>2523.71</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" s="15" t="s">
         <v>11</v>
       </c>
@@ -16962,7 +16961,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" s="15" t="s">
         <v>11</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" s="15" t="s">
         <v>11</v>
       </c>
@@ -17014,7 +17013,7 @@
         <v>2529.5450000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" s="15" t="s">
         <v>11</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" s="15" t="s">
         <v>11</v>
       </c>
@@ -17054,7 +17053,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" s="15" t="s">
         <v>11</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>2528.4749999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" s="15" t="s">
         <v>11</v>
       </c>
@@ -17106,7 +17105,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" s="15" t="s">
         <v>11</v>
       </c>
@@ -17126,7 +17125,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" s="15" t="s">
         <v>11</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>2688.66</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" s="15" t="s">
         <v>11</v>
       </c>
@@ -17178,7 +17177,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" s="15" t="s">
         <v>11</v>
       </c>
@@ -17198,7 +17197,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" s="15" t="s">
         <v>11</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" s="15" t="s">
         <v>11</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576" s="15" t="s">
         <v>11</v>
       </c>
@@ -17280,7 +17279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A577" s="15" t="s">
         <v>11</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>2587.0949999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A578" s="15" t="s">
         <v>11</v>
       </c>
@@ -17332,7 +17331,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A579" s="15" t="s">
         <v>11</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>2590.7849999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580" s="15" t="s">
         <v>11</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A581" s="15" t="s">
         <v>11</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A582" s="15" t="s">
         <v>11</v>
       </c>
@@ -17436,7 +17435,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A583" s="15" t="s">
         <v>11</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>2674.46</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A584" s="15" t="s">
         <v>11</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A585" s="15" t="s">
         <v>11</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>2684.3249999999998</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586" s="15" t="s">
         <v>11</v>
       </c>
@@ -17540,7 +17539,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A587" s="15" t="s">
         <v>11</v>
       </c>
@@ -17560,7 +17559,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A588" s="15" t="s">
         <v>11</v>
       </c>
@@ -17592,7 +17591,7 @@
         <v>2675.335</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A589" s="15" t="s">
         <v>11</v>
       </c>
@@ -17612,7 +17611,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A590" s="15" t="s">
         <v>11</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>2530.3850000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A591" s="15" t="s">
         <v>11</v>
       </c>
@@ -17664,7 +17663,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592" s="15" t="s">
         <v>11</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A593" s="15" t="s">
         <v>11</v>
       </c>
@@ -17716,7 +17715,7 @@
         <v>2581.4949999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A594" s="15" t="s">
         <v>11</v>
       </c>
@@ -17736,7 +17735,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A595" s="15" t="s">
         <v>11</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A596" s="15" t="s">
         <v>11</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>2549.6849999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A597" s="15" t="s">
         <v>11</v>
       </c>
@@ -17808,7 +17807,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A598" s="15" t="s">
         <v>11</v>
       </c>
@@ -17828,7 +17827,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A599" s="15" t="s">
         <v>11</v>
       </c>
@@ -17860,7 +17859,7 @@
         <v>2670.0349999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A600" s="15" t="s">
         <v>11</v>
       </c>
@@ -17880,7 +17879,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A601" s="15" t="s">
         <v>11</v>
       </c>
@@ -17912,7 +17911,7 @@
         <v>2607.4650000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A602" s="15" t="s">
         <v>11</v>
       </c>
@@ -17932,7 +17931,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
         <v>11</v>
       </c>
@@ -17952,7 +17951,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A604" s="15" t="s">
         <v>11</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>2537.1149999999998</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A605" s="15" t="s">
         <v>11</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A606" s="15" t="s">
         <v>11</v>
       </c>
@@ -18024,7 +18023,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A607" s="15" t="s">
         <v>11</v>
       </c>
@@ -18056,7 +18055,7 @@
         <v>2586.2950000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A608" s="15" t="s">
         <v>11</v>
       </c>
@@ -18076,7 +18075,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609" s="15" t="s">
         <v>11</v>
       </c>
@@ -18096,7 +18095,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610" s="15" t="s">
         <v>11</v>
       </c>
@@ -18128,7 +18127,7 @@
         <v>2678.5749999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611" s="15" t="s">
         <v>11</v>
       </c>
@@ -18148,7 +18147,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612" s="15" t="s">
         <v>11</v>
       </c>
@@ -18190,7 +18189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613" s="15" t="s">
         <v>11</v>
       </c>
@@ -18210,7 +18209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614" s="15" t="s">
         <v>11</v>
       </c>
@@ -18230,7 +18229,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615" s="15" t="s">
         <v>11</v>
       </c>
@@ -18262,7 +18261,7 @@
         <v>2561.9016666666666</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" s="15" t="s">
         <v>11</v>
       </c>
@@ -18282,7 +18281,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" s="15" t="s">
         <v>11</v>
       </c>
@@ -18314,7 +18313,7 @@
         <v>2593.4366666666665</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" s="15" t="s">
         <v>11</v>
       </c>
@@ -18334,7 +18333,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619" s="15" t="s">
         <v>11</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>2612.3816666666671</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620" s="15" t="s">
         <v>11</v>
       </c>
@@ -18386,7 +18385,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621" s="15" t="s">
         <v>11</v>
       </c>
@@ -18406,7 +18405,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622" s="15" t="s">
         <v>11</v>
       </c>
@@ -18438,7 +18437,7 @@
         <v>2557.5266666666666</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623" s="15" t="s">
         <v>11</v>
       </c>
@@ -18458,7 +18457,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624" s="15" t="s">
         <v>11</v>
       </c>
@@ -18490,7 +18489,7 @@
         <v>2577.0116666666668</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A625" s="15" t="s">
         <v>11</v>
       </c>
@@ -18510,7 +18509,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A626" s="15" t="s">
         <v>11</v>
       </c>
@@ -18544,7 +18543,7 @@
       <c r="N626" s="5"/>
       <c r="O626" s="5"/>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A627" s="15" t="s">
         <v>11</v>
       </c>
@@ -18566,7 +18565,7 @@
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A628" s="15" t="s">
         <v>11</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A629" s="15" t="s">
         <v>152</v>
       </c>
@@ -18618,7 +18617,7 @@
         <v>2589.8383333333336</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A630" s="15" t="s">
         <v>152</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A631" s="15" t="s">
         <v>152</v>
       </c>
@@ -18658,7 +18657,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A632" s="15" t="s">
         <v>152</v>
       </c>
@@ -18690,7 +18689,7 @@
         <v>2591.4583333333335</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A633" s="15" t="s">
         <v>152</v>
       </c>
@@ -18710,7 +18709,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A634" s="15" t="s">
         <v>152</v>
       </c>
@@ -18730,7 +18729,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A635" s="15" t="s">
         <v>152</v>
       </c>
@@ -18762,7 +18761,7 @@
         <v>2599.2333333333331</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A636" s="15" t="s">
         <v>152</v>
       </c>
@@ -18782,7 +18781,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A637" s="15" t="s">
         <v>152</v>
       </c>
@@ -18802,7 +18801,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A638" s="15" t="s">
         <v>152</v>
       </c>
@@ -18834,7 +18833,7 @@
         <v>2602.9483333333333</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A639" s="15" t="s">
         <v>152</v>
       </c>
@@ -18854,7 +18853,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A640" s="15" t="s">
         <v>152</v>
       </c>
@@ -18874,7 +18873,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641" s="15" t="s">
         <v>152</v>
       </c>
@@ -18916,7 +18915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642" s="15" t="s">
         <v>152</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643" s="15" t="s">
         <v>152</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644" s="15" t="s">
         <v>11</v>
       </c>
@@ -18988,7 +18987,7 @@
         <v>2602.3283333333334</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645" s="15" t="s">
         <v>11</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646" s="15" t="s">
         <v>11</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647" s="15" t="s">
         <v>11</v>
       </c>
@@ -19060,7 +19059,7 @@
         <v>2612.4683333333337</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648" s="15" t="s">
         <v>11</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649" s="15" t="s">
         <v>11</v>
       </c>
@@ -19100,7 +19099,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650" s="15" t="s">
         <v>11</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>2502.0833333333335</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651" s="15" t="s">
         <v>11</v>
       </c>
@@ -19152,7 +19151,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652" s="15" t="s">
         <v>11</v>
       </c>
@@ -19184,7 +19183,7 @@
         <v>2497.4933333333333</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653" s="15" t="s">
         <v>11</v>
       </c>
@@ -19204,7 +19203,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654" s="15" t="s">
         <v>11</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>2506.5633333333335</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655" s="15" t="s">
         <v>11</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A656" s="15" t="s">
         <v>11</v>
       </c>
@@ -19276,7 +19275,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657" s="15" t="s">
         <v>11</v>
       </c>
@@ -19308,7 +19307,7 @@
         <v>2605.938333333333</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658" s="15" t="s">
         <v>11</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A659" s="15" t="s">
         <v>152</v>
       </c>
@@ -19360,7 +19359,7 @@
         <v>2520.8549999999996</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A660" s="15" t="s">
         <v>152</v>
       </c>
@@ -19380,7 +19379,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A661" s="15" t="s">
         <v>152</v>
       </c>
@@ -19400,7 +19399,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662" s="15" t="s">
         <v>152</v>
       </c>
@@ -19432,7 +19431,7 @@
         <v>2536.0050000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663" s="15" t="s">
         <v>152</v>
       </c>
@@ -19452,7 +19451,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A664" s="15" t="s">
         <v>152</v>
       </c>
@@ -19472,7 +19471,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A665" s="15" t="s">
         <v>152</v>
       </c>
@@ -19504,7 +19503,7 @@
         <v>2532.875</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A666" s="15" t="s">
         <v>152</v>
       </c>
@@ -19524,7 +19523,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A667" s="15" t="s">
         <v>152</v>
       </c>
@@ -19544,7 +19543,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A668" s="15" t="s">
         <v>152</v>
       </c>
@@ -19576,7 +19575,7 @@
         <v>2640.8249999999998</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A669" s="15" t="s">
         <v>152</v>
       </c>
@@ -19596,7 +19595,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670" s="15" t="s">
         <v>152</v>
       </c>
@@ -19616,7 +19615,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A671" s="15" t="s">
         <v>152</v>
       </c>
@@ -19658,7 +19657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672" s="15" t="s">
         <v>152</v>
       </c>
@@ -19678,7 +19677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A673" s="15" t="s">
         <v>152</v>
       </c>
@@ -19698,7 +19697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A674" s="15" t="s">
         <v>11</v>
       </c>
@@ -19730,7 +19729,7 @@
         <v>2594.5349999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A675" s="15" t="s">
         <v>11</v>
       </c>
@@ -19750,7 +19749,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A676" s="15" t="s">
         <v>11</v>
       </c>
@@ -19770,7 +19769,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A677" s="15" t="s">
         <v>11</v>
       </c>
@@ -19802,7 +19801,7 @@
         <v>2580.395</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A678" s="15" t="s">
         <v>11</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A679" s="15" t="s">
         <v>11</v>
       </c>
@@ -19854,7 +19853,7 @@
         <v>2481.0749999999998</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A680" s="15" t="s">
         <v>11</v>
       </c>
@@ -19874,7 +19873,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A681" s="15" t="s">
         <v>11</v>
       </c>
@@ -19906,7 +19905,7 @@
         <v>2387.895</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A682" s="15" t="s">
         <v>11</v>
       </c>
@@ -19926,7 +19925,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A683" s="15" t="s">
         <v>11</v>
       </c>
@@ -19946,7 +19945,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A684" s="15" t="s">
         <v>11</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>2382.5450000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A685" s="15" t="s">
         <v>11</v>
       </c>
@@ -19998,7 +19997,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A686" s="15" t="s">
         <v>11</v>
       </c>
@@ -20018,7 +20017,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A687" s="15" t="s">
         <v>11</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>2611.2399999999998</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A688" s="15" t="s">
         <v>11</v>
       </c>
@@ -20070,7 +20069,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A689" s="15" t="s">
         <v>11</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>2505.09</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A690" s="15" t="s">
         <v>11</v>
       </c>
@@ -20122,7 +20121,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691" s="15" t="s">
         <v>11</v>
       </c>
@@ -20142,7 +20141,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692" s="15" t="s">
         <v>11</v>
       </c>
@@ -20174,7 +20173,7 @@
         <v>2450.6099999999997</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A693" s="15" t="s">
         <v>11</v>
       </c>
@@ -20194,7 +20193,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694" s="15" t="s">
         <v>11</v>
       </c>
@@ -20214,7 +20213,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A695" s="15" t="s">
         <v>11</v>
       </c>
@@ -20246,7 +20245,7 @@
         <v>2503.2049999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A696" s="15" t="s">
         <v>11</v>
       </c>
@@ -20266,7 +20265,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697" s="15" t="s">
         <v>11</v>
       </c>
@@ -20286,7 +20285,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A698" s="15" t="s">
         <v>11</v>
       </c>
@@ -20318,7 +20317,7 @@
         <v>2589.0299999999997</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A699" s="15" t="s">
         <v>11</v>
       </c>
@@ -20338,7 +20337,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700" s="15" t="s">
         <v>11</v>
       </c>
@@ -20358,7 +20357,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702" s="15" t="s">
         <v>152</v>
       </c>
@@ -20368,34 +20367,39 @@
       <c r="C702" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E702" s="22"/>
+      <c r="D702" s="5">
+        <v>51.15</v>
+      </c>
+      <c r="E702" s="22">
+        <v>2235.36</v>
+      </c>
       <c r="F702" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G702" s="13" t="e">
-        <f>AVERAGE(E702:E704)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H702" s="18" t="e">
-        <f>STDEV(E702:E704)</f>
-        <v>#DIV/0!</v>
+      <c r="G702" s="13">
+        <f>AVERAGE(E702:E703)</f>
+        <v>2235.1149999999998</v>
+      </c>
+      <c r="H702" s="18">
+        <f>STDEV(E702:E703)</f>
+        <v>0.34648232278157548</v>
       </c>
       <c r="I702" s="3">
         <v>2226.44</v>
       </c>
-      <c r="J702" s="4" t="e">
+      <c r="J702" s="4">
         <f>I702-G702</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K702" s="5" t="e">
+        <v>-8.6749999999997272</v>
+      </c>
+      <c r="K702" s="5">
         <f>G702+$J$671</f>
-        <v>#DIV/0!</v>
+        <v>2227.9049999999997</v>
       </c>
       <c r="L702" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A703" s="15" t="s">
         <v>152</v>
       </c>
@@ -20405,12 +20409,17 @@
       <c r="C703" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E703" s="22"/>
+      <c r="D703" s="5">
+        <v>49.83</v>
+      </c>
+      <c r="E703" s="22">
+        <v>2234.87</v>
+      </c>
       <c r="F703" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A704" s="15" t="s">
         <v>152</v>
       </c>
@@ -20420,12 +20429,17 @@
       <c r="C704" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D704" s="15"/>
+      <c r="D704" s="15">
+        <v>50.7</v>
+      </c>
+      <c r="E704" s="5">
+        <v>2215.9899999999998</v>
+      </c>
       <c r="F704" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B705" s="31">
         <v>45184</v>
       </c>
@@ -20439,7 +20453,7 @@
       <c r="H705" s="18"/>
       <c r="K705" s="5"/>
     </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B706" s="31">
         <v>45184</v>
       </c>
@@ -20450,7 +20464,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B707" s="31">
         <v>45184</v>
       </c>
@@ -20461,7 +20475,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B708" s="31">
         <v>45184</v>
       </c>
@@ -20475,7 +20489,7 @@
       <c r="H708" s="18"/>
       <c r="K708" s="5"/>
     </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B709" s="31">
         <v>45184</v>
       </c>
@@ -20488,7 +20502,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B710" s="31">
         <v>45184</v>
       </c>
@@ -20501,7 +20515,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B711" s="31">
         <v>45184</v>
       </c>
@@ -20515,7 +20529,7 @@
       <c r="H711" s="18"/>
       <c r="K711" s="5"/>
     </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B712" s="31">
         <v>45184</v>
       </c>
@@ -20527,7 +20541,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B713" s="31">
         <v>45184</v>
       </c>
@@ -20538,7 +20552,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B714" s="31">
         <v>45184</v>
       </c>
@@ -20552,7 +20566,7 @@
       <c r="H714" s="18"/>
       <c r="K714" s="5"/>
     </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B715" s="31">
         <v>45184</v>
       </c>
@@ -20564,7 +20578,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B716" s="31">
         <v>45184</v>
       </c>
@@ -20576,7 +20590,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B717" s="31">
         <v>45184</v>
       </c>
@@ -20590,7 +20604,7 @@
       <c r="H717" s="18"/>
       <c r="K717" s="5"/>
     </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B718" s="31">
         <v>45184</v>
       </c>
@@ -20601,7 +20615,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B719" s="31">
         <v>45184</v>
       </c>
@@ -20612,7 +20626,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B720" s="31">
         <v>45184</v>
       </c>
@@ -20626,7 +20640,7 @@
       <c r="H720" s="18"/>
       <c r="K720" s="5"/>
     </row>
-    <row r="721" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B721" s="31">
         <v>45184</v>
       </c>
@@ -20638,7 +20652,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="722" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B722" s="31">
         <v>45184</v>
       </c>
@@ -20649,7 +20663,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="723" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C723" s="10" t="s">
         <v>12</v>
       </c>
@@ -20660,7 +20674,7 @@
       <c r="H723" s="18"/>
       <c r="K723" s="5"/>
     </row>
-    <row r="724" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C724" s="10" t="s">
         <v>12</v>
       </c>
@@ -20669,7 +20683,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="725" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C725" s="10" t="s">
         <v>12</v>
       </c>
@@ -20677,7 +20691,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="726" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C726" s="10" t="s">
         <v>12</v>
       </c>
@@ -20688,7 +20702,7 @@
       <c r="H726" s="18"/>
       <c r="K726" s="5"/>
     </row>
-    <row r="727" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C727" s="10" t="s">
         <v>12</v>
       </c>
@@ -20697,7 +20711,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="728" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C728" s="10" t="s">
         <v>12</v>
       </c>
@@ -20705,7 +20719,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="729" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C729" s="10" t="s">
         <v>12</v>
       </c>
@@ -20717,7 +20731,7 @@
       <c r="H729" s="18"/>
       <c r="K729" s="5"/>
     </row>
-    <row r="730" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C730" s="10" t="s">
         <v>12</v>
       </c>
@@ -20725,7 +20739,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="731" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C731" s="10" t="s">
         <v>12</v>
       </c>
@@ -20733,7 +20747,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="732" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C732" s="10" t="s">
         <v>12</v>
       </c>
@@ -20744,7 +20758,7 @@
       <c r="H732" s="18"/>
       <c r="K732" s="5"/>
     </row>
-    <row r="733" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C733" s="10" t="s">
         <v>12</v>
       </c>
@@ -20752,7 +20766,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="734" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C734" s="10" t="s">
         <v>12</v>
       </c>
@@ -20761,7 +20775,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="735" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C735" s="10" t="s">
         <v>12</v>
       </c>
@@ -20774,7 +20788,7 @@
       <c r="J735" s="4"/>
       <c r="K735" s="5"/>
     </row>
-    <row r="736" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C736" s="10" t="s">
         <v>12</v>
       </c>
@@ -20782,7 +20796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="737" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C737" s="10" t="s">
         <v>12</v>
       </c>
@@ -20790,7 +20804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="738" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C738" s="10" t="s">
         <v>12</v>
       </c>
@@ -20802,7 +20816,7 @@
       <c r="H738" s="18"/>
       <c r="K738" s="5"/>
     </row>
-    <row r="739" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C739" s="10" t="s">
         <v>12</v>
       </c>
@@ -20810,7 +20824,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="740" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C740" s="10" t="s">
         <v>12</v>
       </c>
@@ -20818,7 +20832,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="741" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C741" s="10" t="s">
         <v>12</v>
       </c>
@@ -20829,7 +20843,7 @@
       <c r="H741" s="18"/>
       <c r="K741" s="5"/>
     </row>
-    <row r="742" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C742" s="10" t="s">
         <v>12</v>
       </c>
@@ -20838,7 +20852,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="743" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C743" s="10" t="s">
         <v>12</v>
       </c>
@@ -20846,7 +20860,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="744" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C744" s="10" t="s">
         <v>12</v>
       </c>
@@ -20857,7 +20871,7 @@
       <c r="H744" s="18"/>
       <c r="K744" s="5"/>
     </row>
-    <row r="745" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C745" s="10" t="s">
         <v>12</v>
       </c>
@@ -20865,7 +20879,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="746" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C746" s="10" t="s">
         <v>12</v>
       </c>
@@ -20873,7 +20887,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="747" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C747" s="10" t="s">
         <v>12</v>
       </c>
@@ -20884,7 +20898,7 @@
       <c r="H747" s="18"/>
       <c r="K747" s="5"/>
     </row>
-    <row r="748" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C748" s="10" t="s">
         <v>12</v>
       </c>
@@ -20892,7 +20906,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="749" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C749" s="10" t="s">
         <v>12</v>
       </c>
@@ -20900,7 +20914,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="750" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C750" s="10" t="s">
         <v>12</v>
       </c>
@@ -20913,7 +20927,7 @@
       <c r="H750" s="18"/>
       <c r="K750" s="5"/>
     </row>
-    <row r="751" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C751" s="10" t="s">
         <v>12</v>
       </c>
@@ -20921,7 +20935,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="752" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C752" s="10" t="s">
         <v>12</v>
       </c>
@@ -20929,7 +20943,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="753" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C753" s="10" t="s">
         <v>12</v>
       </c>
@@ -20940,7 +20954,7 @@
       <c r="H753" s="18"/>
       <c r="K753" s="5"/>
     </row>
-    <row r="754" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C754" s="10" t="s">
         <v>12</v>
       </c>
@@ -20949,7 +20963,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="755" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C755" s="10" t="s">
         <v>12</v>
       </c>
@@ -20958,7 +20972,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="756" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C756" s="10" t="s">
         <v>12</v>
       </c>
@@ -20970,7 +20984,7 @@
       <c r="H756" s="18"/>
       <c r="K756" s="5"/>
     </row>
-    <row r="757" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C757" s="10" t="s">
         <v>12</v>
       </c>
@@ -20978,7 +20992,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="758" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C758" s="10" t="s">
         <v>12</v>
       </c>
@@ -20986,7 +21000,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="759" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C759" s="10" t="s">
         <v>12</v>
       </c>
@@ -20997,7 +21011,7 @@
       <c r="H759" s="18"/>
       <c r="K759" s="5"/>
     </row>
-    <row r="760" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C760" s="10" t="s">
         <v>12</v>
       </c>
@@ -21006,7 +21020,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="761" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C761" s="10" t="s">
         <v>12</v>
       </c>
@@ -21015,7 +21029,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="762" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C762" s="10" t="s">
         <v>12</v>
       </c>
@@ -21026,7 +21040,7 @@
       <c r="H762" s="18"/>
       <c r="K762" s="5"/>
     </row>
-    <row r="763" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C763" s="10" t="s">
         <v>12</v>
       </c>
@@ -21035,7 +21049,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="764" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C764" s="10" t="s">
         <v>12</v>
       </c>
@@ -21043,7 +21057,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="765" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C765" s="10" t="s">
         <v>12</v>
       </c>
@@ -21054,7 +21068,7 @@
       <c r="H765" s="18"/>
       <c r="K765" s="5"/>
     </row>
-    <row r="766" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C766" s="10" t="s">
         <v>12</v>
       </c>
@@ -21063,7 +21077,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="767" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C767" s="10" t="s">
         <v>12</v>
       </c>
@@ -21071,7 +21085,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="768" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C768" s="10" t="s">
         <v>12</v>
       </c>
@@ -21085,7 +21099,7 @@
       <c r="J768" s="4"/>
       <c r="K768" s="5"/>
     </row>
-    <row r="769" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C769" s="10" t="s">
         <v>12</v>
       </c>
@@ -21093,7 +21107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C770" s="10" t="s">
         <v>12</v>
       </c>
@@ -21101,7 +21115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="771" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C771" s="10" t="s">
         <v>12</v>
       </c>
@@ -21113,7 +21127,7 @@
       <c r="H771" s="18"/>
       <c r="K771" s="5"/>
     </row>
-    <row r="772" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C772" s="10" t="s">
         <v>12</v>
       </c>
@@ -21121,7 +21135,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="773" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C773" s="10" t="s">
         <v>12</v>
       </c>
@@ -21129,7 +21143,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="774" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C774" s="10" t="s">
         <v>12</v>
       </c>
@@ -21140,7 +21154,7 @@
       <c r="H774" s="18"/>
       <c r="K774" s="5"/>
     </row>
-    <row r="775" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C775" s="10" t="s">
         <v>12</v>
       </c>
@@ -21148,7 +21162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="776" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C776" s="10" t="s">
         <v>12</v>
       </c>
@@ -21156,7 +21170,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="777" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C777" s="10" t="s">
         <v>12</v>
       </c>
@@ -21167,7 +21181,7 @@
       <c r="H777" s="18"/>
       <c r="K777" s="5"/>
     </row>
-    <row r="778" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C778" s="10" t="s">
         <v>12</v>
       </c>
@@ -21176,7 +21190,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="779" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C779" s="10" t="s">
         <v>12</v>
       </c>
@@ -21185,7 +21199,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="780" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C780" s="10" t="s">
         <v>12</v>
       </c>
@@ -21197,7 +21211,7 @@
       <c r="H780" s="18"/>
       <c r="K780" s="5"/>
     </row>
-    <row r="781" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C781" s="10" t="s">
         <v>12</v>
       </c>
@@ -21205,7 +21219,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="782" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C782" s="10" t="s">
         <v>12</v>
       </c>
@@ -21213,7 +21227,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="783" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C783" s="10" t="s">
         <v>12</v>
       </c>
@@ -21225,7 +21239,7 @@
       <c r="H783" s="18"/>
       <c r="K783" s="5"/>
     </row>
-    <row r="784" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C784" s="10" t="s">
         <v>12</v>
       </c>
@@ -21233,7 +21247,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="785" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C785" s="10" t="s">
         <v>12</v>
       </c>
@@ -21241,7 +21255,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="786" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C786" s="10" t="s">
         <v>12</v>
       </c>
@@ -21252,7 +21266,7 @@
       <c r="H786" s="18"/>
       <c r="K786" s="5"/>
     </row>
-    <row r="787" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C787" s="10" t="s">
         <v>12</v>
       </c>
@@ -21260,7 +21274,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="788" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C788" s="10" t="s">
         <v>12</v>
       </c>
@@ -21268,7 +21282,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="789" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C789" s="10" t="s">
         <v>12</v>
       </c>
@@ -21280,7 +21294,7 @@
       <c r="H789" s="18"/>
       <c r="K789" s="5"/>
     </row>
-    <row r="790" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C790" s="10" t="s">
         <v>12</v>
       </c>
@@ -21288,7 +21302,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="791" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C791" s="10" t="s">
         <v>12</v>
       </c>
@@ -21296,7 +21310,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="792" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C792" s="10" t="s">
         <v>12</v>
       </c>
@@ -21307,7 +21321,7 @@
       <c r="H792" s="18"/>
       <c r="K792" s="5"/>
     </row>
-    <row r="793" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C793" s="10" t="s">
         <v>12</v>
       </c>
@@ -21316,7 +21330,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="794" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C794" s="10" t="s">
         <v>12</v>
       </c>
@@ -21324,7 +21338,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="795" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C795" s="10" t="s">
         <v>12</v>
       </c>
@@ -21336,7 +21350,7 @@
       <c r="H795" s="18"/>
       <c r="K795" s="5"/>
     </row>
-    <row r="796" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C796" s="10" t="s">
         <v>12</v>
       </c>
@@ -21344,7 +21358,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="797" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C797" s="10" t="s">
         <v>12</v>
       </c>
@@ -21352,7 +21366,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="798" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C798" s="10" t="s">
         <v>12</v>
       </c>
@@ -21363,7 +21377,7 @@
       <c r="H798" s="18"/>
       <c r="K798" s="5"/>
     </row>
-    <row r="799" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C799" s="10" t="s">
         <v>12</v>
       </c>
@@ -21371,7 +21385,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="800" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C800" s="10" t="s">
         <v>12</v>
       </c>
@@ -21380,7 +21394,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L554"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\3. Alkalinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA70DC62-98B2-0D42-BF30-0685B2D984F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="725">
   <si>
     <t>Operator</t>
   </si>
@@ -2214,7 +2215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2413,8 +2414,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2691,32 +2692,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O800"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O798"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K703" sqref="K703"/>
+      <pane ySplit="1" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H725" sqref="H725"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2822,7 +2823,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2858,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2883,7 +2884,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +2910,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +2945,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2996,7 +2997,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3032,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3057,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -3081,7 +3082,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>2592.88</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3142,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -3176,7 +3177,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -3201,7 +3202,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>2621.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -3260,7 +3261,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>2553.7799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3344,7 +3345,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>2531.04</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
@@ -3428,7 +3429,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>2487.5749999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3488,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>2606.9649999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
@@ -3571,7 +3572,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +3597,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3664,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>2658.0949999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>2655.7449999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>2591.3400000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>11</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>2576.5950000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>11</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>2579.6250000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>2650.0800000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>2556.6850000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>2532.8100000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>2540.77</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>2633.7750000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>11</v>
       </c>
@@ -4370,7 +4371,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>2674.7000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>2650.1000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>2343.2800000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>2642.0000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>2620.7650000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>2663.0850000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>2576.9600000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>2584.4350000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>11</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>11</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>2557.5100000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>11</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>11</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>2654.3750000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>11</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>11</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>2577.4450000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>11</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>2554.8049999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>3002.58</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>11</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>2990.2099999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>11</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>2976.65</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>11</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>2658.28</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>2641.56</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>11</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>11</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>2651.5699999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>11</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>2646.5849999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>11</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>2577.77</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>11</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>152</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>152</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>152</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>11</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>2535.7849999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>2540.9899999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>2484.7750000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>11</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>11</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>2483.7199999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>11</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>2488.9699999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>11</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>2530.96</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>2465.5749999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>11</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>11</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>11</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>11</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>152</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>2488.0249999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>152</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>152</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>152</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>2545.1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>152</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>2542.6099999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>11</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>2554.4999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>11</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>2472.7099999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>11</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>11</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>2509.61</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>11</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>11</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>2514.2399999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>11</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>2549.4999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>11</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>11</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>2483.7800000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>11</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="24" t="s">
         <v>11</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>2442.1749999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24" t="s">
         <v>11</v>
       </c>
@@ -7173,7 +7174,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
     </row>
-    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="24" t="s">
         <v>11</v>
       </c>
@@ -7198,7 +7199,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
     </row>
-    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24" t="s">
         <v>11</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>2454.9850000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>11</v>
       </c>
@@ -7257,7 +7258,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>11</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>11</v>
       </c>
@@ -7312,7 +7313,7 @@
       </c>
       <c r="L176" s="28"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>11</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>11</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>152</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
         <v>152</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
         <v>152</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
         <v>152</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
         <v>152</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
         <v>152</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
         <v>152</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>2575.6150000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>152</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>152</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
         <v>152</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
         <v>152</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>2558.6349999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
         <v>152</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
         <v>152</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>11</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>2583.3199999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>11</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>11</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>11</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>2594.98</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>11</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>11</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>11</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="24" t="s">
         <v>11</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="24" t="s">
         <v>11</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>2564.5749999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
         <v>11</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>11</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>2552.5749999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>11</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>11</v>
       </c>
@@ -8031,7 +8032,7 @@
       </c>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>11</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>11</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>11</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>11</v>
       </c>
@@ -8170,7 +8171,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>11</v>
       </c>
@@ -8195,7 +8196,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>11</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>2558.1749999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>11</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>2557.5000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>11</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>11</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>11</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>2559.2450000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>11</v>
       </c>
@@ -8371,7 +8372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>11</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>2553.0500000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>11</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>11</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>2575.61</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>11</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>11</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>2561.8700000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>11</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>11</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>2596.6350000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>11</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>11</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>2574.5550000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>11</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>2572.5350000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>11</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>11</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>11</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>11</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>2567.5250000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8836,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>11</v>
       </c>
@@ -8867,7 +8868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>11</v>
       </c>
@@ -8892,7 +8893,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8918,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>2580.6</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>11</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>11</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>11</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>11</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>11</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>11</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="9" t="s">
         <v>11</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>11</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="9" t="s">
         <v>11</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>11</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>2823.9250000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>11</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>11</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="9" t="s">
         <v>11</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>2693.895</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="9" t="s">
         <v>11</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="9" t="s">
         <v>11</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="9" t="s">
         <v>11</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>2592.4700000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="9" t="s">
         <v>11</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>11</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
         <v>11</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>2959.9100000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>11</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>11</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>11</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>2869.5400000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>11</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>11</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>2875.6350000000007</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>11</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>11</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>11</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>2867.1150000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>11</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>11</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>2865.9250000000006</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>11</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>11</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>2667.4650000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>11</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>11</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>11</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>2791.6800000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>11</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>11</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>11</v>
       </c>
@@ -9867,7 +9868,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>11</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
         <v>11</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
         <v>11</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>2665.1500000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>11</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>11</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>11</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>11</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
         <v>11</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>11</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>2683.1600000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>11</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
         <v>11</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>11</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>2767.9650000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>11</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>11</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>11</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>2664.9050000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>11</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="9" t="s">
         <v>11</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
         <v>11</v>
       </c>
@@ -10309,7 +10310,7 @@
         <v>2507.11</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="9" t="s">
         <v>11</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>11</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="9" t="s">
         <v>11</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>2560.5800000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>11</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>11</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>11</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>2551.7550000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>11</v>
       </c>
@@ -10473,7 +10474,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
         <v>11</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>11</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>2608.48</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
         <v>11</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
         <v>11</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
         <v>11</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>2651.3050000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="9" t="s">
         <v>11</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
         <v>11</v>
       </c>
@@ -10637,7 +10638,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="9" t="s">
         <v>11</v>
       </c>
@@ -10669,7 +10670,7 @@
         <v>2616.8150000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
         <v>11</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="9" t="s">
         <v>11</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>2532.7950000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
         <v>11</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="9" t="s">
         <v>11</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>2626.605</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
         <v>11</v>
       </c>
@@ -10793,7 +10794,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="9" t="s">
         <v>11</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>2579.8250000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>11</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>11</v>
       </c>
@@ -10865,7 +10866,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="9" t="s">
         <v>11</v>
       </c>
@@ -10907,7 +10908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>11</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
         <v>11</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
         <v>11</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>2606.1200000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="9" t="s">
         <v>11</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="9" t="s">
         <v>11</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>2587.3300000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="9" t="s">
         <v>11</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="9" t="s">
         <v>11</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="9" t="s">
         <v>11</v>
       </c>
@@ -11103,7 +11104,7 @@
         <v>2559.56</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="9" t="s">
         <v>11</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="9" t="s">
         <v>11</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="9" t="s">
         <v>11</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>2584.9</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
         <v>11</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>11</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>11</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>2569.7350000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="9" t="s">
         <v>11</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>11</v>
       </c>
@@ -11299,7 +11300,7 @@
         <v>2512.4050000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
         <v>11</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
         <v>11</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>2515.6249999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="9" t="s">
         <v>11</v>
       </c>
@@ -11371,7 +11372,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="9" t="s">
         <v>11</v>
       </c>
@@ -11391,7 +11392,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="9" t="s">
         <v>11</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>2431.8249999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="9" t="s">
         <v>11</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>11</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>2452.1799999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="9" t="s">
         <v>11</v>
       </c>
@@ -11495,7 +11496,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
         <v>11</v>
       </c>
@@ -11515,7 +11516,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
         <v>11</v>
       </c>
@@ -11547,7 +11548,7 @@
         <v>2467.9349999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
         <v>11</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
         <v>11</v>
       </c>
@@ -11587,7 +11588,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
         <v>11</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>2461.3399999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>11</v>
       </c>
@@ -11639,7 +11640,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
         <v>11</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
         <v>11</v>
       </c>
@@ -11691,7 +11692,7 @@
         <v>2464.0449999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
         <v>11</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
         <v>11</v>
       </c>
@@ -11731,7 +11732,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
         <v>11</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>2469.2599999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="9" t="s">
         <v>11</v>
       </c>
@@ -11783,7 +11784,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>11</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="9" t="s">
         <v>11</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>2410.0949999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
         <v>11</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="9" t="s">
         <v>11</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>2477.1099999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
         <v>11</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="9" t="s">
         <v>11</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
         <v>11</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>2453.3649999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
         <v>11</v>
       </c>
@@ -11979,7 +11980,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
         <v>11</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="9" t="s">
         <v>11</v>
       </c>
@@ -12031,7 +12032,7 @@
         <v>2557.395</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
         <v>11</v>
       </c>
@@ -12051,7 +12052,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
         <v>11</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
         <v>11</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>2531.5349999999994</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="9" t="s">
         <v>11</v>
       </c>
@@ -12123,7 +12124,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
         <v>11</v>
       </c>
@@ -12155,7 +12156,7 @@
         <v>2563.7449999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="9" t="s">
         <v>11</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="9" t="s">
         <v>11</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="9" t="s">
         <v>11</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>2550.56</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="9" t="s">
         <v>11</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="9" t="s">
         <v>11</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>2533.7799999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="9" t="s">
         <v>11</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
         <v>11</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>11</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>2549.9199999999996</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="9" t="s">
         <v>11</v>
       </c>
@@ -12371,7 +12372,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="9" t="s">
         <v>11</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="9" t="s">
         <v>11</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="9" t="s">
         <v>11</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="9" t="s">
         <v>11</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="9" t="s">
         <v>11</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>2559.89</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="9" t="s">
         <v>11</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="9" t="s">
         <v>11</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>2578.56</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="9" t="s">
         <v>11</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="9" t="s">
         <v>11</v>
       </c>
@@ -12609,7 +12610,7 @@
         <v>2590.0049999999997</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="9" t="s">
         <v>11</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="9" t="s">
         <v>11</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>2595.8799999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="9" t="s">
         <v>11</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="9" t="s">
         <v>11</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="9" t="s">
         <v>11</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>2559.1149999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="9" t="s">
         <v>11</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="9" t="s">
         <v>11</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>11</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>2568.17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="9" t="s">
         <v>11</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="9" t="s">
         <v>11</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>2588.2649999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="9" t="s">
         <v>11</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="9" t="s">
         <v>11</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>2512.7749999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="9" t="s">
         <v>11</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="9" t="s">
         <v>11</v>
       </c>
@@ -12961,7 +12962,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="9" t="s">
         <v>11</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="9" t="s">
         <v>11</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>2508.4349999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="9" t="s">
         <v>11</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="9" t="s">
         <v>11</v>
       </c>
@@ -13053,7 +13054,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="9" t="s">
         <v>11</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>2494.2750000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="9" t="s">
         <v>11</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
         <v>11</v>
       </c>
@@ -13137,7 +13138,7 @@
         <v>2475.2399999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
         <v>11</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="9" t="s">
         <v>11</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="9" t="s">
         <v>11</v>
       </c>
@@ -13209,7 +13210,7 @@
         <v>2486.0450000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="9" t="s">
         <v>11</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="9" t="s">
         <v>11</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="9" t="s">
         <v>11</v>
       </c>
@@ -13291,7 +13292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>11</v>
       </c>
@@ -13323,7 +13324,7 @@
         <v>2513.4499999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>11</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="9" t="s">
         <v>11</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>2459.2950000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
         <v>11</v>
       </c>
@@ -13395,7 +13396,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
         <v>11</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>2465.4949999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
         <v>11</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>11</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
         <v>11</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>2526.6549999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
         <v>11</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
         <v>11</v>
       </c>
@@ -13551,7 +13552,7 @@
         <v>2520.6149999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
         <v>11</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="9" t="s">
         <v>11</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="9" t="s">
         <v>11</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>2529.79</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="9" t="s">
         <v>11</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="9" t="s">
         <v>11</v>
       </c>
@@ -13663,7 +13664,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
         <v>11</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>2541.38</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
         <v>11</v>
       </c>
@@ -13715,7 +13716,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
         <v>11</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
         <v>11</v>
       </c>
@@ -13767,7 +13768,7 @@
         <v>2562.915</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="9" t="s">
         <v>11</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="9" t="s">
         <v>11</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>2556.625</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="9" t="s">
         <v>11</v>
       </c>
@@ -13839,7 +13840,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="9" t="s">
         <v>11</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
         <v>11</v>
       </c>
@@ -13901,7 +13902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
         <v>11</v>
       </c>
@@ -13921,7 +13922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="9" t="s">
         <v>11</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
         <v>11</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>2791.2750000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
         <v>11</v>
       </c>
@@ -13993,7 +13994,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
         <v>11</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
         <v>11</v>
       </c>
@@ -14045,7 +14046,7 @@
         <v>2788.75</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
         <v>11</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
         <v>11</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
         <v>11</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>2732.9049999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
         <v>11</v>
       </c>
@@ -14137,7 +14138,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
         <v>11</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>2772.16</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
         <v>11</v>
       </c>
@@ -14189,7 +14190,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
         <v>152</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>2756.5550000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
         <v>152</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
         <v>152</v>
       </c>
@@ -14261,7 +14262,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
         <v>152</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>2786.5600000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
         <v>152</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
         <v>152</v>
       </c>
@@ -14333,7 +14334,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
         <v>152</v>
       </c>
@@ -14365,7 +14366,7 @@
         <v>2807.4549999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
         <v>152</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
         <v>152</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
         <v>152</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>2825.7666666666669</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
         <v>152</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
         <v>152</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
         <v>152</v>
       </c>
@@ -14509,7 +14510,7 @@
         <v>2809.13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
         <v>152</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
         <v>152</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
         <v>152</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>2787.915</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
         <v>152</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
         <v>152</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="9" t="s">
         <v>152</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
         <v>152</v>
       </c>
@@ -14683,7 +14684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="9" t="s">
         <v>152</v>
       </c>
@@ -14703,7 +14704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
         <v>11</v>
       </c>
@@ -14735,7 +14736,7 @@
         <v>2713.895</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="9" t="s">
         <v>11</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
         <v>11</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>2670.7849999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="9" t="s">
         <v>11</v>
       </c>
@@ -14807,7 +14808,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
         <v>11</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>2638.52</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
         <v>11</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
         <v>11</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="9" t="s">
         <v>11</v>
       </c>
@@ -14911,7 +14912,7 @@
         <v>2646.8199999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
         <v>11</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
         <v>11</v>
       </c>
@@ -14963,7 +14964,7 @@
         <v>2674.9749999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
         <v>11</v>
       </c>
@@ -14983,7 +14984,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="9" t="s">
         <v>11</v>
       </c>
@@ -15015,7 +15016,7 @@
         <v>2714.7750000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
         <v>11</v>
       </c>
@@ -15035,7 +15036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="9" t="s">
         <v>11</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
         <v>549</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
         <v>549</v>
       </c>
@@ -15117,7 +15118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="9" t="s">
         <v>549</v>
       </c>
@@ -15137,7 +15138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="9" t="s">
         <v>549</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
         <v>549</v>
       </c>
@@ -15189,7 +15190,7 @@
         <v>2638.105</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
         <v>549</v>
       </c>
@@ -15209,7 +15210,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="9" t="s">
         <v>549</v>
       </c>
@@ -15229,7 +15230,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>11</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>2552.6600000000003</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
         <v>11</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
         <v>11</v>
       </c>
@@ -15301,7 +15302,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
         <v>11</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>2585.3500000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
         <v>11</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="9" t="s">
         <v>11</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>2704.7550000000006</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
         <v>11</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
         <v>11</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>2226.44</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
         <v>11</v>
       </c>
@@ -15464,7 +15465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
         <v>11</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>2647.7850000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
         <v>11</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
         <v>11</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
         <v>11</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>2630.1000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
         <v>11</v>
       </c>
@@ -15588,7 +15589,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
         <v>11</v>
       </c>
@@ -15620,7 +15621,7 @@
         <v>2550.2200000000003</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
         <v>11</v>
       </c>
@@ -15640,7 +15641,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
         <v>11</v>
       </c>
@@ -15672,7 +15673,7 @@
         <v>2556.7600000000007</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
         <v>11</v>
       </c>
@@ -15692,7 +15693,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
         <v>11</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>2517.3299999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
         <v>11</v>
       </c>
@@ -15744,7 +15745,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
         <v>11</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
         <v>11</v>
       </c>
@@ -15793,7 +15794,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
         <v>11</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
         <v>11</v>
       </c>
@@ -15845,7 +15846,7 @@
         <v>2505.9449999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
         <v>11</v>
       </c>
@@ -15865,7 +15866,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
         <v>11</v>
       </c>
@@ -15885,7 +15886,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
         <v>11</v>
       </c>
@@ -15917,7 +15918,7 @@
         <v>2567.8449999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
         <v>11</v>
       </c>
@@ -15937,7 +15938,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
         <v>11</v>
       </c>
@@ -15957,7 +15958,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
         <v>11</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>2516.39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
         <v>11</v>
       </c>
@@ -16009,7 +16010,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
         <v>11</v>
       </c>
@@ -16041,7 +16042,7 @@
         <v>2633.3849999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="9" t="s">
         <v>11</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="15" t="s">
         <v>11</v>
       </c>
@@ -16103,7 +16104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="15" t="s">
         <v>11</v>
       </c>
@@ -16123,7 +16124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="15" t="s">
         <v>11</v>
       </c>
@@ -16143,7 +16144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="15" t="s">
         <v>11</v>
       </c>
@@ -16175,7 +16176,7 @@
         <v>2708.7049999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="15" t="s">
         <v>11</v>
       </c>
@@ -16195,7 +16196,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="15" t="s">
         <v>11</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="15" t="s">
         <v>11</v>
       </c>
@@ -16247,7 +16248,7 @@
         <v>2705.75</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="15" t="s">
         <v>11</v>
       </c>
@@ -16267,7 +16268,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="15" t="s">
         <v>11</v>
       </c>
@@ -16299,7 +16300,7 @@
         <v>2598.4650000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="15" t="s">
         <v>11</v>
       </c>
@@ -16319,7 +16320,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="15" t="s">
         <v>11</v>
       </c>
@@ -16351,7 +16352,7 @@
         <v>2694.0950000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="15" t="s">
         <v>11</v>
       </c>
@@ -16371,7 +16372,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="15" t="s">
         <v>11</v>
       </c>
@@ -16391,7 +16392,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="15" t="s">
         <v>11</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>2682.4050000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="15" t="s">
         <v>11</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="15" t="s">
         <v>11</v>
       </c>
@@ -16475,7 +16476,7 @@
         <v>2702.83</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="15" t="s">
         <v>11</v>
       </c>
@@ -16495,7 +16496,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="15" t="s">
         <v>11</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>2666.8100000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="15" t="s">
         <v>11</v>
       </c>
@@ -16547,7 +16548,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="15" t="s">
         <v>11</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>2689.5349999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="15" t="s">
         <v>11</v>
       </c>
@@ -16599,7 +16600,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="15" t="s">
         <v>11</v>
       </c>
@@ -16619,7 +16620,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="15" t="s">
         <v>11</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>2626.1850000000004</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="15" t="s">
         <v>11</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="15" t="s">
         <v>11</v>
       </c>
@@ -16703,7 +16704,7 @@
         <v>2699.7349999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="15" t="s">
         <v>11</v>
       </c>
@@ -16723,7 +16724,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="15" t="s">
         <v>11</v>
       </c>
@@ -16765,7 +16766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="15" t="s">
         <v>11</v>
       </c>
@@ -16785,7 +16786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="15" t="s">
         <v>11</v>
       </c>
@@ -16805,7 +16806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="15" t="s">
         <v>11</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>2678.3900000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="15" t="s">
         <v>11</v>
       </c>
@@ -16857,7 +16858,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="15" t="s">
         <v>11</v>
       </c>
@@ -16889,7 +16890,7 @@
         <v>2676.8649999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="15" t="s">
         <v>11</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="15" t="s">
         <v>11</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>2523.71</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="15" t="s">
         <v>11</v>
       </c>
@@ -16961,7 +16962,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="15" t="s">
         <v>11</v>
       </c>
@@ -16981,7 +16982,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="15" t="s">
         <v>11</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>2529.5450000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="15" t="s">
         <v>11</v>
       </c>
@@ -17033,7 +17034,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="15" t="s">
         <v>11</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="15" t="s">
         <v>11</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>2528.4749999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="15" t="s">
         <v>11</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="15" t="s">
         <v>11</v>
       </c>
@@ -17125,7 +17126,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="15" t="s">
         <v>11</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>2688.66</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="15" t="s">
         <v>11</v>
       </c>
@@ -17177,7 +17178,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="15" t="s">
         <v>11</v>
       </c>
@@ -17197,7 +17198,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="15" t="s">
         <v>11</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="15" t="s">
         <v>11</v>
       </c>
@@ -17259,7 +17260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="15" t="s">
         <v>11</v>
       </c>
@@ -17279,7 +17280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="15" t="s">
         <v>11</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>2587.0949999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="15" t="s">
         <v>11</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="15" t="s">
         <v>11</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>2590.7849999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="15" t="s">
         <v>11</v>
       </c>
@@ -17383,7 +17384,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="15" t="s">
         <v>11</v>
       </c>
@@ -17415,7 +17416,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="15" t="s">
         <v>11</v>
       </c>
@@ -17435,7 +17436,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="15" t="s">
         <v>11</v>
       </c>
@@ -17467,7 +17468,7 @@
         <v>2674.46</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="15" t="s">
         <v>11</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="15" t="s">
         <v>11</v>
       </c>
@@ -17519,7 +17520,7 @@
         <v>2684.3249999999998</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="15" t="s">
         <v>11</v>
       </c>
@@ -17539,7 +17540,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="15" t="s">
         <v>11</v>
       </c>
@@ -17559,7 +17560,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="15" t="s">
         <v>11</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>2675.335</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="15" t="s">
         <v>11</v>
       </c>
@@ -17611,7 +17612,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="15" t="s">
         <v>11</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>2530.3850000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="15" t="s">
         <v>11</v>
       </c>
@@ -17663,7 +17664,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="15" t="s">
         <v>11</v>
       </c>
@@ -17683,7 +17684,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="15" t="s">
         <v>11</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>2581.4949999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="15" t="s">
         <v>11</v>
       </c>
@@ -17735,7 +17736,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="15" t="s">
         <v>11</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="15" t="s">
         <v>11</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>2549.6849999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="15" t="s">
         <v>11</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="15" t="s">
         <v>11</v>
       </c>
@@ -17827,7 +17828,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="15" t="s">
         <v>11</v>
       </c>
@@ -17859,7 +17860,7 @@
         <v>2670.0349999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="15" t="s">
         <v>11</v>
       </c>
@@ -17879,7 +17880,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="15" t="s">
         <v>11</v>
       </c>
@@ -17911,7 +17912,7 @@
         <v>2607.4650000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="15" t="s">
         <v>11</v>
       </c>
@@ -17931,7 +17932,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="15" t="s">
         <v>11</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
         <v>11</v>
       </c>
@@ -17983,7 +17984,7 @@
         <v>2537.1149999999998</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="15" t="s">
         <v>11</v>
       </c>
@@ -18003,7 +18004,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="15" t="s">
         <v>11</v>
       </c>
@@ -18023,7 +18024,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="15" t="s">
         <v>11</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>2586.2950000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="15" t="s">
         <v>11</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="15" t="s">
         <v>11</v>
       </c>
@@ -18095,7 +18096,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="15" t="s">
         <v>11</v>
       </c>
@@ -18127,7 +18128,7 @@
         <v>2678.5749999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="15" t="s">
         <v>11</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="15" t="s">
         <v>11</v>
       </c>
@@ -18189,7 +18190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="15" t="s">
         <v>11</v>
       </c>
@@ -18209,7 +18210,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="15" t="s">
         <v>11</v>
       </c>
@@ -18229,7 +18230,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="15" t="s">
         <v>11</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>2561.9016666666666</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="15" t="s">
         <v>11</v>
       </c>
@@ -18281,7 +18282,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="15" t="s">
         <v>11</v>
       </c>
@@ -18313,7 +18314,7 @@
         <v>2593.4366666666665</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="15" t="s">
         <v>11</v>
       </c>
@@ -18333,7 +18334,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="15" t="s">
         <v>11</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>2612.3816666666671</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="15" t="s">
         <v>11</v>
       </c>
@@ -18385,7 +18386,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="15" t="s">
         <v>11</v>
       </c>
@@ -18405,7 +18406,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="15" t="s">
         <v>11</v>
       </c>
@@ -18437,7 +18438,7 @@
         <v>2557.5266666666666</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="15" t="s">
         <v>11</v>
       </c>
@@ -18457,7 +18458,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="15" t="s">
         <v>11</v>
       </c>
@@ -18489,7 +18490,7 @@
         <v>2577.0116666666668</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="15" t="s">
         <v>11</v>
       </c>
@@ -18509,7 +18510,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="15" t="s">
         <v>11</v>
       </c>
@@ -18543,7 +18544,7 @@
       <c r="N626" s="5"/>
       <c r="O626" s="5"/>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="15" t="s">
         <v>11</v>
       </c>
@@ -18565,7 +18566,7 @@
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="15" t="s">
         <v>11</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="15" t="s">
         <v>152</v>
       </c>
@@ -18617,7 +18618,7 @@
         <v>2589.8383333333336</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="15" t="s">
         <v>152</v>
       </c>
@@ -18637,7 +18638,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="15" t="s">
         <v>152</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="15" t="s">
         <v>152</v>
       </c>
@@ -18689,7 +18690,7 @@
         <v>2591.4583333333335</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="15" t="s">
         <v>152</v>
       </c>
@@ -18709,7 +18710,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="15" t="s">
         <v>152</v>
       </c>
@@ -18729,7 +18730,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="15" t="s">
         <v>152</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>2599.2333333333331</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="15" t="s">
         <v>152</v>
       </c>
@@ -18781,7 +18782,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="15" t="s">
         <v>152</v>
       </c>
@@ -18801,7 +18802,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="15" t="s">
         <v>152</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>2602.9483333333333</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="15" t="s">
         <v>152</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="15" t="s">
         <v>152</v>
       </c>
@@ -18873,7 +18874,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="15" t="s">
         <v>152</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="15" t="s">
         <v>152</v>
       </c>
@@ -18935,7 +18936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="15" t="s">
         <v>152</v>
       </c>
@@ -18955,7 +18956,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="15" t="s">
         <v>11</v>
       </c>
@@ -18987,7 +18988,7 @@
         <v>2602.3283333333334</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="15" t="s">
         <v>11</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="15" t="s">
         <v>11</v>
       </c>
@@ -19027,7 +19028,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" s="15" t="s">
         <v>11</v>
       </c>
@@ -19059,7 +19060,7 @@
         <v>2612.4683333333337</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" s="15" t="s">
         <v>11</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" s="15" t="s">
         <v>11</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" s="15" t="s">
         <v>11</v>
       </c>
@@ -19131,7 +19132,7 @@
         <v>2502.0833333333335</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" s="15" t="s">
         <v>11</v>
       </c>
@@ -19151,7 +19152,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652" s="15" t="s">
         <v>11</v>
       </c>
@@ -19183,7 +19184,7 @@
         <v>2497.4933333333333</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653" s="15" t="s">
         <v>11</v>
       </c>
@@ -19203,7 +19204,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654" s="15" t="s">
         <v>11</v>
       </c>
@@ -19235,7 +19236,7 @@
         <v>2506.5633333333335</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A655" s="15" t="s">
         <v>11</v>
       </c>
@@ -19255,7 +19256,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656" s="15" t="s">
         <v>11</v>
       </c>
@@ -19275,7 +19276,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657" s="15" t="s">
         <v>11</v>
       </c>
@@ -19307,7 +19308,7 @@
         <v>2605.938333333333</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658" s="15" t="s">
         <v>11</v>
       </c>
@@ -19327,7 +19328,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A659" s="15" t="s">
         <v>152</v>
       </c>
@@ -19359,7 +19360,7 @@
         <v>2520.8549999999996</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660" s="15" t="s">
         <v>152</v>
       </c>
@@ -19379,7 +19380,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661" s="15" t="s">
         <v>152</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662" s="15" t="s">
         <v>152</v>
       </c>
@@ -19431,7 +19432,7 @@
         <v>2536.0050000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663" s="15" t="s">
         <v>152</v>
       </c>
@@ -19451,7 +19452,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664" s="15" t="s">
         <v>152</v>
       </c>
@@ -19471,7 +19472,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665" s="15" t="s">
         <v>152</v>
       </c>
@@ -19503,7 +19504,7 @@
         <v>2532.875</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666" s="15" t="s">
         <v>152</v>
       </c>
@@ -19523,7 +19524,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667" s="15" t="s">
         <v>152</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668" s="15" t="s">
         <v>152</v>
       </c>
@@ -19575,7 +19576,7 @@
         <v>2640.8249999999998</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669" s="15" t="s">
         <v>152</v>
       </c>
@@ -19595,7 +19596,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670" s="15" t="s">
         <v>152</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671" s="15" t="s">
         <v>152</v>
       </c>
@@ -19657,7 +19658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672" s="15" t="s">
         <v>152</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="15" t="s">
         <v>152</v>
       </c>
@@ -19697,7 +19698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="15" t="s">
         <v>11</v>
       </c>
@@ -19729,7 +19730,7 @@
         <v>2594.5349999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="15" t="s">
         <v>11</v>
       </c>
@@ -19749,7 +19750,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" s="15" t="s">
         <v>11</v>
       </c>
@@ -19769,7 +19770,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="15" t="s">
         <v>11</v>
       </c>
@@ -19801,7 +19802,7 @@
         <v>2580.395</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" s="15" t="s">
         <v>11</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" s="15" t="s">
         <v>11</v>
       </c>
@@ -19853,7 +19854,7 @@
         <v>2481.0749999999998</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" s="15" t="s">
         <v>11</v>
       </c>
@@ -19873,7 +19874,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" s="15" t="s">
         <v>11</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>2387.895</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" s="15" t="s">
         <v>11</v>
       </c>
@@ -19925,7 +19926,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" s="15" t="s">
         <v>11</v>
       </c>
@@ -19945,7 +19946,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" s="15" t="s">
         <v>11</v>
       </c>
@@ -19977,7 +19978,7 @@
         <v>2382.5450000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" s="15" t="s">
         <v>11</v>
       </c>
@@ -19997,7 +19998,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" s="15" t="s">
         <v>11</v>
       </c>
@@ -20017,7 +20018,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" s="15" t="s">
         <v>11</v>
       </c>
@@ -20049,7 +20050,7 @@
         <v>2611.2399999999998</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="15" t="s">
         <v>11</v>
       </c>
@@ -20069,7 +20070,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A689" s="15" t="s">
         <v>11</v>
       </c>
@@ -20101,7 +20102,7 @@
         <v>2505.09</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A690" s="15" t="s">
         <v>11</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A691" s="15" t="s">
         <v>11</v>
       </c>
@@ -20141,7 +20142,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A692" s="15" t="s">
         <v>11</v>
       </c>
@@ -20173,7 +20174,7 @@
         <v>2450.6099999999997</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A693" s="15" t="s">
         <v>11</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A694" s="15" t="s">
         <v>11</v>
       </c>
@@ -20213,7 +20214,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A695" s="15" t="s">
         <v>11</v>
       </c>
@@ -20245,7 +20246,7 @@
         <v>2503.2049999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A696" s="15" t="s">
         <v>11</v>
       </c>
@@ -20265,7 +20266,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A697" s="15" t="s">
         <v>11</v>
       </c>
@@ -20285,7 +20286,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698" s="15" t="s">
         <v>11</v>
       </c>
@@ -20317,7 +20318,7 @@
         <v>2589.0299999999997</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699" s="15" t="s">
         <v>11</v>
       </c>
@@ -20337,7 +20338,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A700" s="15" t="s">
         <v>11</v>
       </c>
@@ -20357,7 +20358,49 @@
         <v>634</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A701" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B701" s="31">
+        <v>45184</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D701" s="5">
+        <v>51.15</v>
+      </c>
+      <c r="E701" s="22">
+        <v>2235.36</v>
+      </c>
+      <c r="F701" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G701" s="13">
+        <f>AVERAGE(E701:E702)</f>
+        <v>2235.1149999999998</v>
+      </c>
+      <c r="H701" s="18">
+        <f>STDEV(E701:E702)</f>
+        <v>0.34648232278157548</v>
+      </c>
+      <c r="I701" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J701" s="4">
+        <f>I701-G701</f>
+        <v>-8.6749999999997272</v>
+      </c>
+      <c r="K701" s="5">
+        <f>G701+$J$671</f>
+        <v>2227.9049999999997</v>
+      </c>
+      <c r="L701" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A702" s="15" t="s">
         <v>152</v>
       </c>
@@ -20368,40 +20411,18 @@
         <v>12</v>
       </c>
       <c r="D702" s="5">
-        <v>51.15</v>
+        <v>49.83</v>
       </c>
       <c r="E702" s="22">
-        <v>2235.36</v>
+        <v>2234.87</v>
       </c>
       <c r="F702" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G702" s="13">
-        <f>AVERAGE(E702:E703)</f>
-        <v>2235.1149999999998</v>
-      </c>
-      <c r="H702" s="18">
-        <f>STDEV(E702:E703)</f>
-        <v>0.34648232278157548</v>
-      </c>
-      <c r="I702" s="3">
-        <v>2226.44</v>
-      </c>
-      <c r="J702" s="4">
-        <f>I702-G702</f>
-        <v>-8.6749999999997272</v>
-      </c>
-      <c r="K702" s="5">
-        <f>G702+$J$671</f>
-        <v>2227.9049999999997</v>
-      </c>
-      <c r="L702" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A703" s="15" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B703" s="31">
         <v>45184</v>
@@ -20410,18 +20431,27 @@
         <v>12</v>
       </c>
       <c r="D703" s="5">
-        <v>49.83</v>
-      </c>
-      <c r="E703" s="22">
-        <v>2234.87</v>
+        <v>51.39</v>
       </c>
       <c r="F703" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+      <c r="G703" s="13" t="e">
+        <f>AVERAGE(E703,E705)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H703" s="18" t="e">
+        <f>STDEV(E703,E705)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K703" s="5" t="e">
+        <f>G703+$J$701</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A704" s="15" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B704" s="31">
         <v>45184</v>
@@ -20429,93 +20459,140 @@
       <c r="C704" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D704" s="15">
-        <v>50.7</v>
-      </c>
-      <c r="E704" s="5">
-        <v>2215.9899999999998</v>
+      <c r="D704" s="5">
+        <v>48.98</v>
       </c>
       <c r="F704" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A705" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B705" s="31">
         <v>45184</v>
       </c>
       <c r="C705" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D705" s="5">
+        <v>51.35</v>
+      </c>
       <c r="F705" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="G705" s="13"/>
-      <c r="H705" s="18"/>
-      <c r="K705" s="5"/>
-    </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A706" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B706" s="31">
         <v>45184</v>
       </c>
       <c r="C706" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D706" s="5">
+        <v>51.29</v>
+      </c>
       <c r="F706" s="16" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.35">
+        <v>637</v>
+      </c>
+      <c r="G706" s="13" t="e">
+        <f>AVERAGE(E706,E708)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H706" s="18" t="e">
+        <f>STDEV(E706,E708)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K706" s="5" t="e">
+        <f>G706+$J$701</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A707" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B707" s="31">
         <v>45184</v>
       </c>
       <c r="C707" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D707" s="15">
+        <v>49.67</v>
+      </c>
+      <c r="E707" s="15"/>
       <c r="F707" s="16" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A708" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B708" s="31">
         <v>45184</v>
       </c>
       <c r="C708" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D708" s="15">
+        <v>51.18</v>
+      </c>
+      <c r="E708" s="15"/>
       <c r="F708" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="G708" s="13"/>
-      <c r="H708" s="18"/>
-      <c r="K708" s="5"/>
-    </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A709" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B709" s="31">
         <v>45184</v>
       </c>
       <c r="C709" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D709" s="15"/>
-      <c r="E709" s="15"/>
       <c r="F709" s="16" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+      <c r="G709" s="13" t="e">
+        <f>AVERAGE(E709,E711)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H709" s="18" t="e">
+        <f>STDEV(E709,E711)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K709" s="5" t="e">
+        <f>G709+$J$701</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A710" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B710" s="31">
         <v>45184</v>
       </c>
       <c r="C710" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D710" s="15"/>
-      <c r="E710" s="15"/>
+      <c r="E710" s="14"/>
       <c r="F710" s="16" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A711" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B711" s="31">
         <v>45184</v>
       </c>
@@ -20523,74 +20600,109 @@
         <v>12</v>
       </c>
       <c r="F711" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="G711" s="13"/>
-      <c r="H711" s="18"/>
-      <c r="K711" s="5"/>
-    </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A712" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B712" s="31">
         <v>45184</v>
       </c>
       <c r="C712" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E712" s="14"/>
       <c r="F712" s="16" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+      <c r="G712" s="13" t="e">
+        <f>AVERAGE(E712,E714)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H712" s="18" t="e">
+        <f>STDEV(E712,E714)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K712" s="5" t="e">
+        <f>G712+$J$701</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A713" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B713" s="31">
         <v>45184</v>
       </c>
       <c r="C713" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E713" s="22"/>
       <c r="F713" s="16" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A714" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B714" s="31">
         <v>45184</v>
       </c>
       <c r="C714" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E714" s="22"/>
       <c r="F714" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="G714" s="13"/>
-      <c r="H714" s="18"/>
-      <c r="K714" s="5"/>
-    </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A715" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B715" s="31">
         <v>45184</v>
       </c>
       <c r="C715" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E715" s="22"/>
       <c r="F715" s="16" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+      <c r="G715" s="13" t="e">
+        <f>AVERAGE(E715,E717)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H715" s="18" t="e">
+        <f>STDEV(E715,E717)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K715" s="5" t="e">
+        <f>G715+$J$701</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A716" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B716" s="31">
         <v>45184</v>
       </c>
       <c r="C716" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E716" s="22"/>
       <c r="F716" s="16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A717" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B717" s="31">
         <v>45184</v>
       </c>
@@ -20598,13 +20710,13 @@
         <v>12</v>
       </c>
       <c r="F717" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="G717" s="13"/>
-      <c r="H717" s="18"/>
-      <c r="K717" s="5"/>
-    </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A718" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B718" s="31">
         <v>45184</v>
       </c>
@@ -20612,21 +20724,40 @@
         <v>12</v>
       </c>
       <c r="F718" s="16" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+      <c r="G718" s="13" t="e">
+        <f>AVERAGE(E718,E720)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H718" s="18" t="e">
+        <f>STDEV(E718,E720)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K718" s="5" t="e">
+        <f>G718+$J$701</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A719" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B719" s="31">
         <v>45184</v>
       </c>
       <c r="C719" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E719" s="14"/>
       <c r="F719" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A720" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="B720" s="31">
         <v>45184</v>
       </c>
@@ -20634,767 +20765,741 @@
         <v>12</v>
       </c>
       <c r="F720" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G720" s="13"/>
-      <c r="H720" s="18"/>
-      <c r="K720" s="5"/>
-    </row>
-    <row r="721" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B721" s="31">
-        <v>45184</v>
-      </c>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="721" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C721" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E721" s="14"/>
       <c r="F721" s="16" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="722" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B722" s="31">
-        <v>45184</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G721" s="13"/>
+      <c r="H721" s="18"/>
+      <c r="K721" s="5"/>
+    </row>
+    <row r="722" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C722" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E722" s="14"/>
       <c r="F722" s="16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="723" spans="2:11" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="723" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C723" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F723" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="G723" s="13"/>
-      <c r="H723" s="18"/>
-      <c r="K723" s="5"/>
-    </row>
-    <row r="724" spans="2:11" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="724" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C724" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E724" s="14"/>
       <c r="F724" s="16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="725" spans="2:11" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+      <c r="G724" s="13"/>
+      <c r="H724" s="18"/>
+      <c r="K724" s="5"/>
+    </row>
+    <row r="725" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C725" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E725" s="14"/>
       <c r="F725" s="16" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="726" spans="2:11" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="726" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C726" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F726" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="G726" s="13"/>
-      <c r="H726" s="18"/>
-      <c r="K726" s="5"/>
-    </row>
-    <row r="727" spans="2:11" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="727" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C727" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E727" s="14"/>
       <c r="F727" s="16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="728" spans="2:11" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+      <c r="G727" s="13"/>
+      <c r="H727" s="18"/>
+      <c r="K727" s="5"/>
+    </row>
+    <row r="728" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C728" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F728" s="16" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="729" spans="2:11" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="729" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C729" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E729" s="14"/>
       <c r="F729" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G729" s="13"/>
-      <c r="H729" s="18"/>
-      <c r="K729" s="5"/>
-    </row>
-    <row r="730" spans="2:11" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="730" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C730" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F730" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="731" spans="2:11" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+      <c r="G730" s="13"/>
+      <c r="H730" s="18"/>
+      <c r="K730" s="5"/>
+    </row>
+    <row r="731" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C731" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F731" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="732" spans="2:11" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="732" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C732" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E732" s="14"/>
       <c r="F732" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="G732" s="13"/>
-      <c r="H732" s="18"/>
-      <c r="K732" s="5"/>
-    </row>
-    <row r="733" spans="2:11" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="733" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C733" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F733" s="16" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="734" spans="2:11" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G733" s="13"/>
+      <c r="H733" s="18"/>
+      <c r="I733" s="3"/>
+      <c r="J733" s="4"/>
+      <c r="K733" s="5"/>
+    </row>
+    <row r="734" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C734" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E734" s="14"/>
       <c r="F734" s="16" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="735" spans="2:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C735" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F735" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G735" s="13"/>
-      <c r="H735" s="18"/>
-      <c r="I735" s="3"/>
-      <c r="J735" s="4"/>
-      <c r="K735" s="5"/>
-    </row>
-    <row r="736" spans="2:11" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="736" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C736" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E736" s="14"/>
       <c r="F736" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="737" spans="3:11" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+      <c r="G736" s="13"/>
+      <c r="H736" s="18"/>
+      <c r="K736" s="5"/>
+    </row>
+    <row r="737" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C737" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F737" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="738" spans="3:11" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="738" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C738" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E738" s="14"/>
       <c r="F738" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="G738" s="13"/>
-      <c r="H738" s="18"/>
-      <c r="K738" s="5"/>
-    </row>
-    <row r="739" spans="3:11" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="739" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C739" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F739" s="16" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="740" spans="3:11" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+      <c r="G739" s="13"/>
+      <c r="H739" s="18"/>
+      <c r="K739" s="5"/>
+    </row>
+    <row r="740" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C740" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E740" s="14"/>
       <c r="F740" s="16" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="741" spans="3:11" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="741" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C741" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F741" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="G741" s="13"/>
-      <c r="H741" s="18"/>
-      <c r="K741" s="5"/>
-    </row>
-    <row r="742" spans="3:11" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="742" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C742" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E742" s="14"/>
       <c r="F742" s="16" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="743" spans="3:11" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+      <c r="G742" s="13"/>
+      <c r="H742" s="18"/>
+      <c r="K742" s="5"/>
+    </row>
+    <row r="743" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C743" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F743" s="16" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="744" spans="3:11" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="744" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C744" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F744" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="G744" s="13"/>
-      <c r="H744" s="18"/>
-      <c r="K744" s="5"/>
-    </row>
-    <row r="745" spans="3:11" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="745" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C745" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F745" s="16" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="746" spans="3:11" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+      <c r="G745" s="13"/>
+      <c r="H745" s="18"/>
+      <c r="K745" s="5"/>
+    </row>
+    <row r="746" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C746" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F746" s="16" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="747" spans="3:11" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="747" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C747" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F747" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G747" s="13"/>
-      <c r="H747" s="18"/>
-      <c r="K747" s="5"/>
-    </row>
-    <row r="748" spans="3:11" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="748" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C748" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D748" s="15"/>
+      <c r="E748" s="14"/>
       <c r="F748" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="749" spans="3:11" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+      <c r="G748" s="13"/>
+      <c r="H748" s="18"/>
+      <c r="K748" s="5"/>
+    </row>
+    <row r="749" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C749" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F749" s="16" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="750" spans="3:11" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="750" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C750" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D750" s="15"/>
-      <c r="E750" s="14"/>
       <c r="F750" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="G750" s="13"/>
-      <c r="H750" s="18"/>
-      <c r="K750" s="5"/>
-    </row>
-    <row r="751" spans="3:11" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="751" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C751" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F751" s="16" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="752" spans="3:11" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+      <c r="G751" s="13"/>
+      <c r="H751" s="18"/>
+      <c r="K751" s="5"/>
+    </row>
+    <row r="752" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C752" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E752" s="22"/>
       <c r="F752" s="16" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="753" spans="3:11" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="753" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C753" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E753" s="22"/>
       <c r="F753" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="G753" s="13"/>
-      <c r="H753" s="18"/>
-      <c r="K753" s="5"/>
-    </row>
-    <row r="754" spans="3:11" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="754" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C754" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E754" s="22"/>
+      <c r="E754" s="14"/>
       <c r="F754" s="16" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="755" spans="3:11" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+      <c r="G754" s="13"/>
+      <c r="H754" s="18"/>
+      <c r="K754" s="5"/>
+    </row>
+    <row r="755" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C755" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E755" s="22"/>
       <c r="F755" s="16" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="756" spans="3:11" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="756" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C756" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E756" s="14"/>
       <c r="F756" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="G756" s="13"/>
-      <c r="H756" s="18"/>
-      <c r="K756" s="5"/>
-    </row>
-    <row r="757" spans="3:11" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="757" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C757" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F757" s="16" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="758" spans="3:11" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+      <c r="G757" s="13"/>
+      <c r="H757" s="18"/>
+      <c r="K757" s="5"/>
+    </row>
+    <row r="758" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C758" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E758" s="14"/>
       <c r="F758" s="16" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="759" spans="3:11" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="759" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C759" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E759" s="14"/>
       <c r="F759" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="G759" s="13"/>
-      <c r="H759" s="18"/>
-      <c r="K759" s="5"/>
-    </row>
-    <row r="760" spans="3:11" x14ac:dyDescent="0.35">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="760" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C760" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E760" s="14"/>
       <c r="F760" s="16" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="761" spans="3:11" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+      <c r="G760" s="13"/>
+      <c r="H760" s="18"/>
+      <c r="K760" s="5"/>
+    </row>
+    <row r="761" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C761" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E761" s="14"/>
       <c r="F761" s="16" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="762" spans="3:11" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="762" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C762" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F762" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G762" s="13"/>
-      <c r="H762" s="18"/>
-      <c r="K762" s="5"/>
-    </row>
-    <row r="763" spans="3:11" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="763" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C763" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E763" s="14"/>
       <c r="F763" s="16" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="764" spans="3:11" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+      <c r="G763" s="13"/>
+      <c r="H763" s="18"/>
+      <c r="K763" s="5"/>
+    </row>
+    <row r="764" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C764" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E764" s="14"/>
       <c r="F764" s="16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="765" spans="3:11" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="765" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C765" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F765" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="G765" s="13"/>
-      <c r="H765" s="18"/>
-      <c r="K765" s="5"/>
-    </row>
-    <row r="766" spans="3:11" x14ac:dyDescent="0.35">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="766" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C766" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E766" s="14"/>
       <c r="F766" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="767" spans="3:11" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G766" s="13"/>
+      <c r="H766" s="18"/>
+      <c r="I766" s="3"/>
+      <c r="J766" s="4"/>
+      <c r="K766" s="5"/>
+    </row>
+    <row r="767" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C767" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F767" s="16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="768" spans="3:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C768" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E768" s="14"/>
       <c r="F768" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G768" s="13"/>
-      <c r="H768" s="18"/>
-      <c r="I768" s="3"/>
-      <c r="J768" s="4"/>
-      <c r="K768" s="5"/>
-    </row>
-    <row r="769" spans="3:11" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="769" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C769" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E769" s="14"/>
       <c r="F769" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="770" spans="3:11" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+      <c r="G769" s="13"/>
+      <c r="H769" s="18"/>
+      <c r="K769" s="5"/>
+    </row>
+    <row r="770" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C770" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F770" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="771" spans="3:11" x14ac:dyDescent="0.35">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="771" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C771" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E771" s="14"/>
       <c r="F771" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="G771" s="13"/>
-      <c r="H771" s="18"/>
-      <c r="K771" s="5"/>
-    </row>
-    <row r="772" spans="3:11" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="772" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C772" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F772" s="16" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="773" spans="3:11" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+      <c r="G772" s="13"/>
+      <c r="H772" s="18"/>
+      <c r="K772" s="5"/>
+    </row>
+    <row r="773" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C773" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F773" s="16" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="774" spans="3:11" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="774" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C774" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F774" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="G774" s="13"/>
-      <c r="H774" s="18"/>
-      <c r="K774" s="5"/>
-    </row>
-    <row r="775" spans="3:11" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="775" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C775" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F775" s="16" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="776" spans="3:11" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+      <c r="G775" s="13"/>
+      <c r="H775" s="18"/>
+      <c r="K775" s="5"/>
+    </row>
+    <row r="776" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C776" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E776" s="22"/>
       <c r="F776" s="16" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="777" spans="3:11" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="777" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C777" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E777" s="22"/>
       <c r="F777" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="G777" s="13"/>
-      <c r="H777" s="18"/>
-      <c r="K777" s="5"/>
-    </row>
-    <row r="778" spans="3:11" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="778" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C778" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E778" s="22"/>
+      <c r="E778" s="14"/>
       <c r="F778" s="16" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="779" spans="3:11" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+      <c r="G778" s="13"/>
+      <c r="H778" s="18"/>
+      <c r="K778" s="5"/>
+    </row>
+    <row r="779" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C779" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E779" s="22"/>
       <c r="F779" s="16" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="780" spans="3:11" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="780" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C780" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E780" s="14"/>
       <c r="F780" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="G780" s="13"/>
-      <c r="H780" s="18"/>
-      <c r="K780" s="5"/>
-    </row>
-    <row r="781" spans="3:11" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="781" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C781" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E781" s="14"/>
       <c r="F781" s="16" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="782" spans="3:11" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="G781" s="13"/>
+      <c r="H781" s="18"/>
+      <c r="K781" s="5"/>
+    </row>
+    <row r="782" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C782" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F782" s="16" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="783" spans="3:11" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="783" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C783" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E783" s="14"/>
       <c r="F783" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="G783" s="13"/>
-      <c r="H783" s="18"/>
-      <c r="K783" s="5"/>
-    </row>
-    <row r="784" spans="3:11" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="784" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C784" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F784" s="16" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="785" spans="3:11" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+      <c r="G784" s="13"/>
+      <c r="H784" s="18"/>
+      <c r="K784" s="5"/>
+    </row>
+    <row r="785" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C785" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F785" s="16" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="786" spans="3:11" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="786" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C786" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F786" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="G786" s="13"/>
-      <c r="H786" s="18"/>
-      <c r="K786" s="5"/>
-    </row>
-    <row r="787" spans="3:11" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="787" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C787" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E787" s="22"/>
       <c r="F787" s="16" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="788" spans="3:11" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="G787" s="13"/>
+      <c r="H787" s="18"/>
+      <c r="K787" s="5"/>
+    </row>
+    <row r="788" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C788" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F788" s="16" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="789" spans="3:11" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="789" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C789" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E789" s="22"/>
       <c r="F789" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="G789" s="13"/>
-      <c r="H789" s="18"/>
-      <c r="K789" s="5"/>
-    </row>
-    <row r="790" spans="3:11" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="790" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C790" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F790" s="16" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="791" spans="3:11" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+      <c r="G790" s="13"/>
+      <c r="H790" s="18"/>
+      <c r="K790" s="5"/>
+    </row>
+    <row r="791" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C791" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E791" s="22"/>
       <c r="F791" s="16" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="792" spans="3:11" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="792" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C792" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F792" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="G792" s="13"/>
-      <c r="H792" s="18"/>
-      <c r="K792" s="5"/>
-    </row>
-    <row r="793" spans="3:11" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="793" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C793" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E793" s="22"/>
+      <c r="E793" s="14"/>
       <c r="F793" s="16" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="794" spans="3:11" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="G793" s="13"/>
+      <c r="H793" s="18"/>
+      <c r="K793" s="5"/>
+    </row>
+    <row r="794" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C794" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F794" s="16" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="795" spans="3:11" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="795" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C795" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E795" s="14"/>
       <c r="F795" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="G795" s="13"/>
-      <c r="H795" s="18"/>
-      <c r="K795" s="5"/>
-    </row>
-    <row r="796" spans="3:11" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="796" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C796" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F796" s="16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="797" spans="3:11" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+      <c r="G796" s="13"/>
+      <c r="H796" s="18"/>
+      <c r="K796" s="5"/>
+    </row>
+    <row r="797" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C797" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F797" s="16" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="798" spans="3:11" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="798" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C798" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F798" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="G798" s="13"/>
-      <c r="H798" s="18"/>
-      <c r="K798" s="5"/>
-    </row>
-    <row r="799" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C799" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F799" s="16" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="800" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C800" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F800" s="16" t="s">
         <v>711</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L554"/>
+  <autoFilter ref="A1:L554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA70DC62-98B2-0D42-BF30-0685B2D984F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED9756-49A2-DB49-9DBB-B26A37BC228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="722">
   <si>
     <t>Operator</t>
   </si>
@@ -2104,9 +2105,6 @@
     <t>Tn2_t0_AMB_blank_01a</t>
   </si>
   <si>
-    <t>Tn2_t0_AMB_blank_01b</t>
-  </si>
-  <si>
     <t>Tn2_t0_AMB_blank_02a</t>
   </si>
   <si>
@@ -2152,9 +2150,6 @@
     <t>Tn2_t1_AMB_tile_05b</t>
   </si>
   <si>
-    <t>Tn2_t1_AMB_tile_05c</t>
-  </si>
-  <si>
     <t>Tn2_t1_AMB_tile_06a</t>
   </si>
   <si>
@@ -2179,9 +2174,6 @@
     <t>Tn2_t1_AMB_tile_02b</t>
   </si>
   <si>
-    <t>Tn2_t1_AMB_tile_02c</t>
-  </si>
-  <si>
     <t>Tn2_t0_ELOW_blank_01c</t>
   </si>
   <si>
@@ -2209,7 +2201,7 @@
     <t>Tn2_t1_AMB_tile_01c</t>
   </si>
   <si>
-    <t>Tn2_t1_AMB_blank_01c</t>
+    <t>Tn2_t0_AMB_blank_01d</t>
   </si>
 </sst>
 </file>
@@ -2693,11 +2685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O798"/>
+  <dimension ref="A1:O797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H725" sqref="H725"/>
+      <selection pane="bottomLeft" activeCell="I720" sqref="I720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20433,20 +20425,23 @@
       <c r="D703" s="5">
         <v>51.39</v>
       </c>
+      <c r="E703" s="14">
+        <v>2715.38</v>
+      </c>
       <c r="F703" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="G703" s="13" t="e">
-        <f>AVERAGE(E703,E705)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H703" s="18" t="e">
-        <f>STDEV(E703,E705)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K703" s="5" t="e">
+        <v>688</v>
+      </c>
+      <c r="G703" s="13">
+        <f>AVERAGE(E704,E705)</f>
+        <v>2612.2950000000001</v>
+      </c>
+      <c r="H703" s="18">
+        <f>STDEV(E704,E705)</f>
+        <v>4.4477016536633585</v>
+      </c>
+      <c r="K703" s="5">
         <f>G703+$J$701</f>
-        <v>#DIV/0!</v>
+        <v>2603.6200000000003</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.2">
@@ -20460,10 +20455,13 @@
         <v>12</v>
       </c>
       <c r="D704" s="5">
-        <v>48.98</v>
+        <v>51.35</v>
+      </c>
+      <c r="E704" s="15">
+        <v>2609.15</v>
       </c>
       <c r="F704" s="16" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.2">
@@ -20477,10 +20475,13 @@
         <v>12</v>
       </c>
       <c r="D705" s="5">
-        <v>51.35</v>
+        <v>51.27</v>
+      </c>
+      <c r="E705" s="15">
+        <v>2615.44</v>
       </c>
       <c r="F705" s="16" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.2">
@@ -20496,20 +20497,23 @@
       <c r="D706" s="5">
         <v>51.29</v>
       </c>
+      <c r="E706" s="5">
+        <v>2589.64</v>
+      </c>
       <c r="F706" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="G706" s="13" t="e">
+        <v>689</v>
+      </c>
+      <c r="G706" s="13">
         <f>AVERAGE(E706,E708)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H706" s="18" t="e">
+        <v>2588.8649999999998</v>
+      </c>
+      <c r="H706" s="18">
         <f>STDEV(E706,E708)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K706" s="5" t="e">
+        <v>1.0960155108389558</v>
+      </c>
+      <c r="K706" s="5">
         <f>G706+$J$701</f>
-        <v>#DIV/0!</v>
+        <v>2580.19</v>
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.2">
@@ -20525,9 +20529,11 @@
       <c r="D707" s="15">
         <v>49.67</v>
       </c>
-      <c r="E707" s="15"/>
+      <c r="E707" s="14">
+        <v>2501.0700000000002</v>
+      </c>
       <c r="F707" s="16" t="s">
-        <v>638</v>
+        <v>690</v>
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.2">
@@ -20543,9 +20549,11 @@
       <c r="D708" s="15">
         <v>51.18</v>
       </c>
-      <c r="E708" s="15"/>
+      <c r="E708" s="15">
+        <v>2588.09</v>
+      </c>
       <c r="F708" s="16" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.2">
@@ -20558,20 +20566,26 @@
       <c r="C709" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D709" s="5">
+        <v>52.15</v>
+      </c>
+      <c r="E709" s="5">
+        <v>2364.96</v>
+      </c>
       <c r="F709" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="G709" s="13" t="e">
+        <v>691</v>
+      </c>
+      <c r="G709" s="13">
         <f>AVERAGE(E709,E711)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H709" s="18" t="e">
+        <v>2368.1800000000003</v>
+      </c>
+      <c r="H709" s="18">
         <f>STDEV(E709,E711)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K709" s="5" t="e">
+        <v>4.5537676708414043</v>
+      </c>
+      <c r="K709" s="5">
         <f>G709+$J$701</f>
-        <v>#DIV/0!</v>
+        <v>2359.5050000000006</v>
       </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.2">
@@ -20584,9 +20598,14 @@
       <c r="C710" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E710" s="14"/>
+      <c r="D710" s="5">
+        <v>52.69</v>
+      </c>
+      <c r="E710" s="14">
+        <v>2349.0700000000002</v>
+      </c>
       <c r="F710" s="16" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.2">
@@ -20599,8 +20618,14 @@
       <c r="C711" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D711" s="5">
+        <v>52.12</v>
+      </c>
+      <c r="E711" s="5">
+        <v>2371.4</v>
+      </c>
       <c r="F711" s="16" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.2">
@@ -20613,20 +20638,26 @@
       <c r="C712" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D712" s="5">
+        <v>51.79</v>
+      </c>
+      <c r="E712" s="5">
+        <v>2489.98</v>
+      </c>
       <c r="F712" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="G712" s="13" t="e">
-        <f>AVERAGE(E712,E714)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H712" s="18" t="e">
-        <f>STDEV(E712,E714)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K712" s="5" t="e">
+        <v>693</v>
+      </c>
+      <c r="G712" s="13">
+        <f>AVERAGE(E712,E713)</f>
+        <v>2491.92</v>
+      </c>
+      <c r="H712" s="18">
+        <f>STDEV(E712,E713)</f>
+        <v>2.7435743110038815</v>
+      </c>
+      <c r="K712" s="5">
         <f>G712+$J$701</f>
-        <v>#DIV/0!</v>
+        <v>2483.2450000000003</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.2">
@@ -20639,9 +20670,14 @@
       <c r="C713" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E713" s="22"/>
+      <c r="D713" s="5">
+        <v>51.94</v>
+      </c>
+      <c r="E713" s="22">
+        <v>2493.86</v>
+      </c>
       <c r="F713" s="16" t="s">
-        <v>643</v>
+        <v>711</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.2">
@@ -20654,9 +20690,26 @@
       <c r="C714" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E714" s="22"/>
+      <c r="D714" s="5">
+        <v>50.71</v>
+      </c>
+      <c r="E714" s="14">
+        <v>2435.52</v>
+      </c>
       <c r="F714" s="16" t="s">
-        <v>717</v>
+        <v>694</v>
+      </c>
+      <c r="G714" s="13">
+        <f>AVERAGE(E715,E716)</f>
+        <v>2460.7049999999999</v>
+      </c>
+      <c r="H714" s="18">
+        <f>STDEV(E715,E716)</f>
+        <v>4.1082903986938026</v>
+      </c>
+      <c r="K714" s="5">
+        <f>G714+$J$701</f>
+        <v>2452.0300000000002</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.2">
@@ -20669,20 +20722,14 @@
       <c r="C715" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D715" s="5">
+        <v>48.64</v>
+      </c>
+      <c r="E715" s="5">
+        <v>2463.61</v>
+      </c>
       <c r="F715" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="G715" s="13" t="e">
-        <f>AVERAGE(E715,E717)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H715" s="18" t="e">
-        <f>STDEV(E715,E717)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K715" s="5" t="e">
-        <f>G715+$J$701</f>
-        <v>#DIV/0!</v>
+        <v>695</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.2">
@@ -20695,8 +20742,14 @@
       <c r="C716" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D716" s="5">
+        <v>52.78</v>
+      </c>
+      <c r="E716" s="5">
+        <v>2457.8000000000002</v>
+      </c>
       <c r="F716" s="16" t="s">
-        <v>645</v>
+        <v>696</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.2">
@@ -20709,8 +20762,26 @@
       <c r="C717" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D717" s="5">
+        <v>48.85</v>
+      </c>
+      <c r="E717" s="5">
+        <v>2611.8200000000002</v>
+      </c>
       <c r="F717" s="16" t="s">
-        <v>718</v>
+        <v>697</v>
+      </c>
+      <c r="G717" s="13">
+        <f>AVERAGE(E717,E718)</f>
+        <v>2610.1350000000002</v>
+      </c>
+      <c r="H717" s="18">
+        <f>STDEV(E717,E718)</f>
+        <v>2.3829498525989097</v>
+      </c>
+      <c r="K717" s="5">
+        <f>G717+$J$701</f>
+        <v>2601.4600000000005</v>
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.2">
@@ -20723,20 +20794,14 @@
       <c r="C718" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D718" s="5">
+        <v>49.36</v>
+      </c>
+      <c r="E718" s="22">
+        <v>2608.4499999999998</v>
+      </c>
       <c r="F718" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G718" s="13" t="e">
-        <f>AVERAGE(E718,E720)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H718" s="18" t="e">
-        <f>STDEV(E718,E720)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K718" s="5" t="e">
-        <f>G718+$J$701</f>
-        <v>#DIV/0!</v>
+        <v>698</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.2">
@@ -20749,9 +20814,26 @@
       <c r="C719" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E719" s="14"/>
+      <c r="D719" s="5">
+        <v>51.24</v>
+      </c>
+      <c r="E719" s="14">
+        <v>2371.92</v>
+      </c>
       <c r="F719" s="16" t="s">
-        <v>647</v>
+        <v>699</v>
+      </c>
+      <c r="G719" s="13">
+        <f>AVERAGE(E721,E720)</f>
+        <v>2394.6499999999996</v>
+      </c>
+      <c r="H719" s="18">
+        <f>STDEV(E721,E720)</f>
+        <v>0.96166522241379471</v>
+      </c>
+      <c r="K719" s="5">
+        <f>G719+$J$701</f>
+        <v>2385.9749999999999</v>
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.2">
@@ -20764,177 +20846,224 @@
       <c r="C720" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D720" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="E720" s="22">
+        <v>2393.9699999999998</v>
+      </c>
       <c r="F720" s="16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="721" spans="3:11" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A721" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B721" s="31">
+        <v>45184</v>
+      </c>
       <c r="C721" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D721" s="5">
+        <v>52.06</v>
+      </c>
+      <c r="E721" s="5">
+        <v>2395.33</v>
+      </c>
       <c r="F721" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="G721" s="13"/>
-      <c r="H721" s="18"/>
-      <c r="K721" s="5"/>
-    </row>
-    <row r="722" spans="3:11" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A722" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B722" s="31">
+        <v>45184</v>
+      </c>
       <c r="C722" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E722" s="14"/>
+      <c r="D722" s="5">
+        <v>48.67</v>
+      </c>
+      <c r="E722" s="5">
+        <v>2488.85</v>
+      </c>
       <c r="F722" s="16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="723" spans="3:11" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+      <c r="G722" s="13">
+        <f>AVERAGE(E722,E723)</f>
+        <v>2486.7849999999999</v>
+      </c>
+      <c r="H722" s="18">
+        <f>STDEV(E722,E723)</f>
+        <v>2.9203510063005185</v>
+      </c>
+      <c r="K722" s="5">
+        <f>G722+$J$701</f>
+        <v>2478.11</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A723" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B723" s="31">
+        <v>45184</v>
+      </c>
       <c r="C723" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D723" s="5">
+        <v>52.42</v>
+      </c>
+      <c r="E723" s="22">
+        <v>2484.7199999999998</v>
+      </c>
       <c r="F723" s="16" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="724" spans="3:11" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C724" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E724" s="14"/>
       <c r="F724" s="16" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="G724" s="13"/>
       <c r="H724" s="18"/>
       <c r="K724" s="5"/>
     </row>
-    <row r="725" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C725" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E725" s="14"/>
       <c r="F725" s="16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="726" spans="3:11" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C726" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F726" s="16" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="727" spans="3:11" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C727" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E727" s="14"/>
       <c r="F727" s="16" t="s">
-        <v>655</v>
+        <v>707</v>
       </c>
       <c r="G727" s="13"/>
       <c r="H727" s="18"/>
       <c r="K727" s="5"/>
     </row>
-    <row r="728" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C728" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F728" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="729" spans="3:11" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C729" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E729" s="14"/>
       <c r="F729" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="730" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C730" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F730" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="G730" s="13"/>
-      <c r="H730" s="18"/>
-      <c r="K730" s="5"/>
-    </row>
-    <row r="731" spans="3:11" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C730" s="10"/>
+      <c r="E730" s="14"/>
+      <c r="F730" s="16"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C731" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F731" s="16" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="732" spans="3:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G731" s="13"/>
+      <c r="H731" s="18"/>
+      <c r="I731" s="3"/>
+      <c r="J731" s="4"/>
+      <c r="K731" s="5"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C732" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E732" s="14"/>
       <c r="F732" s="16" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="733" spans="3:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C733" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F733" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G733" s="13"/>
-      <c r="H733" s="18"/>
-      <c r="I733" s="3"/>
-      <c r="J733" s="4"/>
-      <c r="K733" s="5"/>
-    </row>
-    <row r="734" spans="3:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C734" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E734" s="14"/>
       <c r="F734" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="735" spans="3:11" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+      <c r="G734" s="13"/>
+      <c r="H734" s="18"/>
+      <c r="K734" s="5"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C735" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F735" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="736" spans="3:11" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C736" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E736" s="14"/>
       <c r="F736" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="G736" s="13"/>
-      <c r="H736" s="18"/>
-      <c r="K736" s="5"/>
+        <v>663</v>
+      </c>
     </row>
     <row r="737" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C737" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F737" s="16" t="s">
-        <v>662</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="G737" s="13"/>
+      <c r="H737" s="18"/>
+      <c r="K737" s="5"/>
     </row>
     <row r="738" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C738" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E738" s="14"/>
       <c r="F738" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="739" spans="3:11" x14ac:dyDescent="0.2">
@@ -20942,27 +21071,26 @@
         <v>12</v>
       </c>
       <c r="F739" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="G739" s="13"/>
-      <c r="H739" s="18"/>
-      <c r="K739" s="5"/>
+        <v>666</v>
+      </c>
     </row>
     <row r="740" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C740" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E740" s="14"/>
       <c r="F740" s="16" t="s">
-        <v>665</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="G740" s="13"/>
+      <c r="H740" s="18"/>
+      <c r="K740" s="5"/>
     </row>
     <row r="741" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C741" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F741" s="16" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="742" spans="3:11" x14ac:dyDescent="0.2">
@@ -20970,26 +21098,26 @@
         <v>12</v>
       </c>
       <c r="F742" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="G742" s="13"/>
-      <c r="H742" s="18"/>
-      <c r="K742" s="5"/>
+        <v>716</v>
+      </c>
     </row>
     <row r="743" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C743" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F743" s="16" t="s">
-        <v>668</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="G743" s="13"/>
+      <c r="H743" s="18"/>
+      <c r="K743" s="5"/>
     </row>
     <row r="744" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C744" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F744" s="16" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
     </row>
     <row r="745" spans="3:11" x14ac:dyDescent="0.2">
@@ -20997,133 +21125,134 @@
         <v>12</v>
       </c>
       <c r="F745" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G745" s="13"/>
-      <c r="H745" s="18"/>
-      <c r="K745" s="5"/>
+        <v>717</v>
+      </c>
     </row>
     <row r="746" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C746" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D746" s="15"/>
+      <c r="E746" s="14"/>
       <c r="F746" s="16" t="s">
-        <v>670</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="G746" s="13"/>
+      <c r="H746" s="18"/>
+      <c r="K746" s="5"/>
     </row>
     <row r="747" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C747" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F747" s="16" t="s">
-        <v>720</v>
+        <v>672</v>
       </c>
     </row>
     <row r="748" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C748" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D748" s="15"/>
-      <c r="E748" s="14"/>
       <c r="F748" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="G748" s="13"/>
-      <c r="H748" s="18"/>
-      <c r="K748" s="5"/>
+        <v>673</v>
+      </c>
     </row>
     <row r="749" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C749" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F749" s="16" t="s">
-        <v>672</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="G749" s="13"/>
+      <c r="H749" s="18"/>
+      <c r="K749" s="5"/>
     </row>
     <row r="750" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C750" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E750" s="22"/>
       <c r="F750" s="16" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="751" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C751" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E751" s="22"/>
       <c r="F751" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="G751" s="13"/>
-      <c r="H751" s="18"/>
-      <c r="K751" s="5"/>
+        <v>718</v>
+      </c>
     </row>
     <row r="752" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C752" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E752" s="22"/>
+      <c r="E752" s="14"/>
       <c r="F752" s="16" t="s">
-        <v>675</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="G752" s="13"/>
+      <c r="H752" s="18"/>
+      <c r="K752" s="5"/>
     </row>
     <row r="753" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C753" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E753" s="22"/>
       <c r="F753" s="16" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
     </row>
     <row r="754" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C754" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E754" s="14"/>
       <c r="F754" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="G754" s="13"/>
-      <c r="H754" s="18"/>
-      <c r="K754" s="5"/>
+        <v>678</v>
+      </c>
     </row>
     <row r="755" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C755" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F755" s="16" t="s">
-        <v>677</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="G755" s="13"/>
+      <c r="H755" s="18"/>
+      <c r="K755" s="5"/>
     </row>
     <row r="756" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C756" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E756" s="14"/>
       <c r="F756" s="16" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="757" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C757" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E757" s="14"/>
       <c r="F757" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="G757" s="13"/>
-      <c r="H757" s="18"/>
-      <c r="K757" s="5"/>
+        <v>681</v>
+      </c>
     </row>
     <row r="758" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C758" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E758" s="14"/>
       <c r="F758" s="16" t="s">
-        <v>680</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="G758" s="13"/>
+      <c r="H758" s="18"/>
+      <c r="K758" s="5"/>
     </row>
     <row r="759" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C759" s="10" t="s">
@@ -21131,7 +21260,7 @@
       </c>
       <c r="E759" s="14"/>
       <c r="F759" s="16" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="760" spans="3:11" x14ac:dyDescent="0.2">
@@ -21139,27 +21268,27 @@
         <v>12</v>
       </c>
       <c r="F760" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G760" s="13"/>
-      <c r="H760" s="18"/>
-      <c r="K760" s="5"/>
+        <v>684</v>
+      </c>
     </row>
     <row r="761" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C761" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E761" s="14"/>
       <c r="F761" s="16" t="s">
-        <v>683</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="G761" s="13"/>
+      <c r="H761" s="18"/>
+      <c r="K761" s="5"/>
     </row>
     <row r="762" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C762" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E762" s="14"/>
       <c r="F762" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="763" spans="3:11" x14ac:dyDescent="0.2">
@@ -21167,77 +21296,69 @@
         <v>12</v>
       </c>
       <c r="F763" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="G763" s="13"/>
-      <c r="H763" s="18"/>
-      <c r="K763" s="5"/>
+        <v>687</v>
+      </c>
     </row>
     <row r="764" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C764" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E764" s="14"/>
-      <c r="F764" s="16" t="s">
-        <v>686</v>
-      </c>
+      <c r="C764" s="10"/>
+      <c r="F764" s="16"/>
     </row>
     <row r="765" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C765" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E765" s="14"/>
       <c r="F765" s="16" t="s">
-        <v>687</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G765" s="13"/>
+      <c r="H765" s="18"/>
+      <c r="I765" s="3"/>
+      <c r="J765" s="4"/>
+      <c r="K765" s="5"/>
     </row>
     <row r="766" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C766" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E766" s="14"/>
       <c r="F766" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G766" s="13"/>
-      <c r="H766" s="18"/>
-      <c r="I766" s="3"/>
-      <c r="J766" s="4"/>
-      <c r="K766" s="5"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="767" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C767" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F767" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="768" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C768" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E768" s="14"/>
       <c r="F768" s="16" t="s">
-        <v>96</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G768" s="13"/>
+      <c r="H768" s="18"/>
+      <c r="K768" s="5"/>
     </row>
     <row r="769" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C769" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E769" s="14"/>
       <c r="F769" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="G769" s="13"/>
-      <c r="H769" s="18"/>
-      <c r="K769" s="5"/>
+        <v>636</v>
+      </c>
     </row>
     <row r="770" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C770" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F770" s="16" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
     </row>
     <row r="771" spans="3:11" x14ac:dyDescent="0.2">
@@ -21245,26 +21366,26 @@
         <v>12</v>
       </c>
       <c r="F771" s="16" t="s">
-        <v>712</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G771" s="13"/>
+      <c r="H771" s="18"/>
+      <c r="K771" s="5"/>
     </row>
     <row r="772" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C772" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F772" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="G772" s="13"/>
-      <c r="H772" s="18"/>
-      <c r="K772" s="5"/>
+        <v>638</v>
+      </c>
     </row>
     <row r="773" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C773" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F773" s="16" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
     </row>
     <row r="774" spans="3:11" x14ac:dyDescent="0.2">
@@ -21272,19 +21393,20 @@
         <v>12</v>
       </c>
       <c r="F774" s="16" t="s">
-        <v>722</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G774" s="13"/>
+      <c r="H774" s="18"/>
+      <c r="K774" s="5"/>
     </row>
     <row r="775" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C775" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E775" s="22"/>
       <c r="F775" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="G775" s="13"/>
-      <c r="H775" s="18"/>
-      <c r="K775" s="5"/>
+        <v>640</v>
+      </c>
     </row>
     <row r="776" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C776" s="10" t="s">
@@ -21292,64 +21414,63 @@
       </c>
       <c r="E776" s="22"/>
       <c r="F776" s="16" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
     </row>
     <row r="777" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C777" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E777" s="22"/>
+      <c r="E777" s="14"/>
       <c r="F777" s="16" t="s">
-        <v>723</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="G777" s="13"/>
+      <c r="H777" s="18"/>
+      <c r="K777" s="5"/>
     </row>
     <row r="778" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C778" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E778" s="14"/>
       <c r="F778" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="G778" s="13"/>
-      <c r="H778" s="18"/>
-      <c r="K778" s="5"/>
+        <v>643</v>
+      </c>
     </row>
     <row r="779" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C779" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F779" s="16" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="780" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C780" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E780" s="14"/>
       <c r="F780" s="16" t="s">
-        <v>714</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="G780" s="13"/>
+      <c r="H780" s="18"/>
+      <c r="K780" s="5"/>
     </row>
     <row r="781" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C781" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E781" s="14"/>
       <c r="F781" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="G781" s="13"/>
-      <c r="H781" s="18"/>
-      <c r="K781" s="5"/>
+        <v>645</v>
+      </c>
     </row>
     <row r="782" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C782" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F782" s="16" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
     </row>
     <row r="783" spans="3:11" x14ac:dyDescent="0.2">
@@ -21357,54 +21478,54 @@
         <v>12</v>
       </c>
       <c r="F783" s="16" t="s">
-        <v>697</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="G783" s="13"/>
+      <c r="H783" s="18"/>
+      <c r="K783" s="5"/>
     </row>
     <row r="784" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C784" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F784" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="G784" s="13"/>
-      <c r="H784" s="18"/>
-      <c r="K784" s="5"/>
+        <v>647</v>
+      </c>
     </row>
     <row r="785" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C785" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F785" s="16" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
     </row>
     <row r="786" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C786" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E786" s="22"/>
       <c r="F786" s="16" t="s">
-        <v>724</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G786" s="13"/>
+      <c r="H786" s="18"/>
+      <c r="K786" s="5"/>
     </row>
     <row r="787" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C787" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E787" s="22"/>
       <c r="F787" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="G787" s="13"/>
-      <c r="H787" s="18"/>
-      <c r="K787" s="5"/>
+        <v>650</v>
+      </c>
     </row>
     <row r="788" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C788" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F788" s="16" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
     </row>
     <row r="789" spans="3:11" x14ac:dyDescent="0.2">
@@ -21412,55 +21533,55 @@
         <v>12</v>
       </c>
       <c r="F789" s="16" t="s">
-        <v>702</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G789" s="13"/>
+      <c r="H789" s="18"/>
+      <c r="K789" s="5"/>
     </row>
     <row r="790" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C790" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E790" s="22"/>
       <c r="F790" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="G790" s="13"/>
-      <c r="H790" s="18"/>
-      <c r="K790" s="5"/>
+        <v>653</v>
+      </c>
     </row>
     <row r="791" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C791" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E791" s="22"/>
       <c r="F791" s="16" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
     </row>
     <row r="792" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C792" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E792" s="14"/>
       <c r="F792" s="16" t="s">
-        <v>705</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G792" s="13"/>
+      <c r="H792" s="18"/>
+      <c r="K792" s="5"/>
     </row>
     <row r="793" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C793" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E793" s="14"/>
       <c r="F793" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="G793" s="13"/>
-      <c r="H793" s="18"/>
-      <c r="K793" s="5"/>
+        <v>656</v>
+      </c>
     </row>
     <row r="794" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C794" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F794" s="16" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
     </row>
     <row r="795" spans="3:11" x14ac:dyDescent="0.2">
@@ -21468,34 +21589,26 @@
         <v>12</v>
       </c>
       <c r="F795" s="16" t="s">
-        <v>708</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="G795" s="13"/>
+      <c r="H795" s="18"/>
+      <c r="K795" s="5"/>
     </row>
     <row r="796" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C796" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F796" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="G796" s="13"/>
-      <c r="H796" s="18"/>
-      <c r="K796" s="5"/>
+        <v>659</v>
+      </c>
     </row>
     <row r="797" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C797" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F797" s="16" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="798" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C798" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F798" s="16" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -21504,4 +21617,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B14A51-CC14-F946-BA50-CDA43BED1F3D}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED9756-49A2-DB49-9DBB-B26A37BC228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD92B2-D6C2-9C40-ACDF-7C77D76DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="722">
   <si>
     <t>Operator</t>
   </si>
@@ -2150,12 +2150,6 @@
     <t>Tn2_t1_AMB_tile_05b</t>
   </si>
   <si>
-    <t>Tn2_t1_AMB_tile_06a</t>
-  </si>
-  <si>
-    <t>Tn2_t1_AMB_tile_06b</t>
-  </si>
-  <si>
     <t>Tn2_t1_AMB_tile_06c</t>
   </si>
   <si>
@@ -2202,6 +2196,12 @@
   </si>
   <si>
     <t>Tn2_t0_AMB_blank_01d</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_06d</t>
+  </si>
+  <si>
+    <t>Tn2_t1_AMB_tile_06e</t>
   </si>
 </sst>
 </file>
@@ -2685,11 +2685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O797"/>
+  <dimension ref="A1:O796"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I720" sqref="I720"/>
+      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C733" sqref="C733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20461,7 +20461,7 @@
         <v>2609.15</v>
       </c>
       <c r="F704" s="16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.2">
@@ -20481,7 +20481,7 @@
         <v>2615.44</v>
       </c>
       <c r="F705" s="16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.2">
@@ -20553,7 +20553,7 @@
         <v>2588.09</v>
       </c>
       <c r="F708" s="16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.2">
@@ -20625,7 +20625,7 @@
         <v>2371.4</v>
       </c>
       <c r="F711" s="16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.2">
@@ -20677,7 +20677,7 @@
         <v>2493.86</v>
       </c>
       <c r="F713" s="16" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.2">
@@ -20929,113 +20929,204 @@
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A724" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B724" s="31">
+        <v>45185</v>
+      </c>
       <c r="C724" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E724" s="14"/>
+      <c r="D724" s="5">
+        <v>51.31</v>
+      </c>
+      <c r="E724" s="14">
+        <v>2407.86</v>
+      </c>
       <c r="F724" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="G724" s="13"/>
-      <c r="H724" s="18"/>
-      <c r="K724" s="5"/>
+      <c r="G724" s="13">
+        <f>AVERAGE(E725:E726)</f>
+        <v>2476.2849999999999</v>
+      </c>
+      <c r="H724" s="18">
+        <f>STDEV(E725:E726)</f>
+        <v>3.6274577874870659</v>
+      </c>
+      <c r="K724" s="5">
+        <f>G724+$J$701</f>
+        <v>2467.61</v>
+      </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A725" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B725" s="31">
+        <v>45185</v>
+      </c>
       <c r="C725" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D725" s="5">
+        <v>50.51</v>
+      </c>
+      <c r="E725" s="5">
+        <v>2473.7199999999998</v>
+      </c>
       <c r="F725" s="16" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A726" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B726" s="31">
+        <v>45185</v>
+      </c>
+      <c r="C726" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D726" s="5">
+        <v>47.98</v>
+      </c>
+      <c r="E726" s="5">
+        <v>2478.85</v>
+      </c>
+      <c r="F726" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A727" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B727" s="31">
+        <v>45185</v>
+      </c>
+      <c r="C727" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D727" s="5">
+        <v>50.07</v>
+      </c>
+      <c r="E727" s="5">
+        <v>2599.69</v>
+      </c>
+      <c r="F727" s="16" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C726" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F726" s="16" t="s">
+      <c r="G727" s="13">
+        <f>AVERAGE(E727,E729)</f>
+        <v>2598.8000000000002</v>
+      </c>
+      <c r="H727" s="18">
+        <f>STDEV(E727,E729)</f>
+        <v>1.2586500705121961</v>
+      </c>
+      <c r="K727" s="5">
+        <f>G727+$J$701</f>
+        <v>2590.1250000000005</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A728" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B728" s="31">
+        <v>45185</v>
+      </c>
+      <c r="C728" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D728" s="5">
+        <v>48.69</v>
+      </c>
+      <c r="E728" s="14">
+        <v>2614.36</v>
+      </c>
+      <c r="F728" s="16" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C727" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F727" s="16" t="s">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A729" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B729" s="31">
+        <v>45185</v>
+      </c>
+      <c r="C729" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D729" s="5">
+        <v>49.71</v>
+      </c>
+      <c r="E729" s="5">
+        <v>2597.91</v>
+      </c>
+      <c r="F729" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="G727" s="13"/>
-      <c r="H727" s="18"/>
-      <c r="K727" s="5"/>
-    </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C728" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F728" s="16" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C729" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E729" s="14"/>
-      <c r="F729" s="16" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C730" s="10"/>
-      <c r="E730" s="14"/>
-      <c r="F730" s="16"/>
+      <c r="C730" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F730" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G730" s="13"/>
+      <c r="H730" s="18"/>
+      <c r="I730" s="3"/>
+      <c r="J730" s="4"/>
+      <c r="K730" s="5"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C731" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F731" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G731" s="13"/>
-      <c r="H731" s="18"/>
-      <c r="I731" s="3"/>
-      <c r="J731" s="4"/>
-      <c r="K731" s="5"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C732" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F732" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C733" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E733" s="14"/>
       <c r="F733" s="16" t="s">
-        <v>96</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="G733" s="13"/>
+      <c r="H733" s="18"/>
+      <c r="K733" s="5"/>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C734" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E734" s="14"/>
       <c r="F734" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="G734" s="13"/>
-      <c r="H734" s="18"/>
-      <c r="K734" s="5"/>
+        <v>662</v>
+      </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C735" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F735" s="16" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.2">
@@ -21043,27 +21134,27 @@
         <v>12</v>
       </c>
       <c r="F736" s="16" t="s">
-        <v>663</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="G736" s="13"/>
+      <c r="H736" s="18"/>
+      <c r="K736" s="5"/>
     </row>
     <row r="737" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C737" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E737" s="14"/>
       <c r="F737" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="G737" s="13"/>
-      <c r="H737" s="18"/>
-      <c r="K737" s="5"/>
+        <v>665</v>
+      </c>
     </row>
     <row r="738" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C738" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E738" s="14"/>
       <c r="F738" s="16" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="739" spans="3:11" x14ac:dyDescent="0.2">
@@ -21071,26 +21162,26 @@
         <v>12</v>
       </c>
       <c r="F739" s="16" t="s">
-        <v>666</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="G739" s="13"/>
+      <c r="H739" s="18"/>
+      <c r="K739" s="5"/>
     </row>
     <row r="740" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C740" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F740" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="G740" s="13"/>
-      <c r="H740" s="18"/>
-      <c r="K740" s="5"/>
+        <v>668</v>
+      </c>
     </row>
     <row r="741" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C741" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F741" s="16" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
     </row>
     <row r="742" spans="3:11" x14ac:dyDescent="0.2">
@@ -21098,55 +21189,55 @@
         <v>12</v>
       </c>
       <c r="F742" s="16" t="s">
-        <v>716</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="G742" s="13"/>
+      <c r="H742" s="18"/>
+      <c r="K742" s="5"/>
     </row>
     <row r="743" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C743" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F743" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G743" s="13"/>
-      <c r="H743" s="18"/>
-      <c r="K743" s="5"/>
+        <v>670</v>
+      </c>
     </row>
     <row r="744" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C744" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F744" s="16" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
     </row>
     <row r="745" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C745" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D745" s="15"/>
+      <c r="E745" s="14"/>
       <c r="F745" s="16" t="s">
-        <v>717</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="G745" s="13"/>
+      <c r="H745" s="18"/>
+      <c r="K745" s="5"/>
     </row>
     <row r="746" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C746" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D746" s="15"/>
-      <c r="E746" s="14"/>
       <c r="F746" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="G746" s="13"/>
-      <c r="H746" s="18"/>
-      <c r="K746" s="5"/>
+        <v>672</v>
+      </c>
     </row>
     <row r="747" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C747" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F747" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="748" spans="3:11" x14ac:dyDescent="0.2">
@@ -21154,19 +21245,20 @@
         <v>12</v>
       </c>
       <c r="F748" s="16" t="s">
-        <v>673</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="G748" s="13"/>
+      <c r="H748" s="18"/>
+      <c r="K748" s="5"/>
     </row>
     <row r="749" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C749" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E749" s="22"/>
       <c r="F749" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="G749" s="13"/>
-      <c r="H749" s="18"/>
-      <c r="K749" s="5"/>
+        <v>675</v>
+      </c>
     </row>
     <row r="750" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C750" s="10" t="s">
@@ -21174,36 +21266,35 @@
       </c>
       <c r="E750" s="22"/>
       <c r="F750" s="16" t="s">
-        <v>675</v>
+        <v>716</v>
       </c>
     </row>
     <row r="751" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C751" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E751" s="22"/>
+      <c r="E751" s="14"/>
       <c r="F751" s="16" t="s">
-        <v>718</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="G751" s="13"/>
+      <c r="H751" s="18"/>
+      <c r="K751" s="5"/>
     </row>
     <row r="752" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C752" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E752" s="14"/>
       <c r="F752" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="G752" s="13"/>
-      <c r="H752" s="18"/>
-      <c r="K752" s="5"/>
+        <v>677</v>
+      </c>
     </row>
     <row r="753" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C753" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F753" s="16" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="754" spans="3:11" x14ac:dyDescent="0.2">
@@ -21211,19 +21302,20 @@
         <v>12</v>
       </c>
       <c r="F754" s="16" t="s">
-        <v>678</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="G754" s="13"/>
+      <c r="H754" s="18"/>
+      <c r="K754" s="5"/>
     </row>
     <row r="755" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C755" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E755" s="14"/>
       <c r="F755" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="G755" s="13"/>
-      <c r="H755" s="18"/>
-      <c r="K755" s="5"/>
+        <v>680</v>
+      </c>
     </row>
     <row r="756" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C756" s="10" t="s">
@@ -21231,36 +21323,35 @@
       </c>
       <c r="E756" s="14"/>
       <c r="F756" s="16" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="757" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C757" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E757" s="14"/>
       <c r="F757" s="16" t="s">
-        <v>681</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="G757" s="13"/>
+      <c r="H757" s="18"/>
+      <c r="K757" s="5"/>
     </row>
     <row r="758" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C758" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E758" s="14"/>
       <c r="F758" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G758" s="13"/>
-      <c r="H758" s="18"/>
-      <c r="K758" s="5"/>
+        <v>683</v>
+      </c>
     </row>
     <row r="759" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C759" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E759" s="14"/>
       <c r="F759" s="16" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="760" spans="3:11" x14ac:dyDescent="0.2">
@@ -21268,89 +21359,89 @@
         <v>12</v>
       </c>
       <c r="F760" s="16" t="s">
-        <v>684</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="G760" s="13"/>
+      <c r="H760" s="18"/>
+      <c r="K760" s="5"/>
     </row>
     <row r="761" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C761" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E761" s="14"/>
       <c r="F761" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="G761" s="13"/>
-      <c r="H761" s="18"/>
-      <c r="K761" s="5"/>
+        <v>686</v>
+      </c>
     </row>
     <row r="762" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C762" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E762" s="14"/>
       <c r="F762" s="16" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="763" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C763" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F763" s="16" t="s">
-        <v>687</v>
-      </c>
+      <c r="C763" s="10"/>
+      <c r="F763" s="16"/>
     </row>
     <row r="764" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C764" s="10"/>
-      <c r="F764" s="16"/>
+      <c r="C764" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E764" s="14"/>
+      <c r="F764" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G764" s="13"/>
+      <c r="H764" s="18"/>
+      <c r="I764" s="3"/>
+      <c r="J764" s="4"/>
+      <c r="K764" s="5"/>
     </row>
     <row r="765" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C765" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E765" s="14"/>
       <c r="F765" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G765" s="13"/>
-      <c r="H765" s="18"/>
-      <c r="I765" s="3"/>
-      <c r="J765" s="4"/>
-      <c r="K765" s="5"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="766" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C766" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F766" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="767" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C767" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E767" s="14"/>
       <c r="F767" s="16" t="s">
-        <v>96</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G767" s="13"/>
+      <c r="H767" s="18"/>
+      <c r="K767" s="5"/>
     </row>
     <row r="768" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C768" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E768" s="14"/>
       <c r="F768" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="G768" s="13"/>
-      <c r="H768" s="18"/>
-      <c r="K768" s="5"/>
+        <v>636</v>
+      </c>
     </row>
     <row r="769" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C769" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F769" s="16" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
     </row>
     <row r="770" spans="3:11" x14ac:dyDescent="0.2">
@@ -21358,26 +21449,26 @@
         <v>12</v>
       </c>
       <c r="F770" s="16" t="s">
-        <v>712</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G770" s="13"/>
+      <c r="H770" s="18"/>
+      <c r="K770" s="5"/>
     </row>
     <row r="771" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C771" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F771" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="G771" s="13"/>
-      <c r="H771" s="18"/>
-      <c r="K771" s="5"/>
+        <v>638</v>
+      </c>
     </row>
     <row r="772" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C772" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F772" s="16" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
     </row>
     <row r="773" spans="3:11" x14ac:dyDescent="0.2">
@@ -21385,19 +21476,20 @@
         <v>12</v>
       </c>
       <c r="F773" s="16" t="s">
-        <v>713</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G773" s="13"/>
+      <c r="H773" s="18"/>
+      <c r="K773" s="5"/>
     </row>
     <row r="774" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C774" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E774" s="22"/>
       <c r="F774" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="G774" s="13"/>
-      <c r="H774" s="18"/>
-      <c r="K774" s="5"/>
+        <v>640</v>
+      </c>
     </row>
     <row r="775" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C775" s="10" t="s">
@@ -21405,64 +21497,63 @@
       </c>
       <c r="E775" s="22"/>
       <c r="F775" s="16" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="776" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C776" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E776" s="22"/>
+      <c r="E776" s="14"/>
       <c r="F776" s="16" t="s">
-        <v>641</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="G776" s="13"/>
+      <c r="H776" s="18"/>
+      <c r="K776" s="5"/>
     </row>
     <row r="777" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C777" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E777" s="14"/>
       <c r="F777" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="G777" s="13"/>
-      <c r="H777" s="18"/>
-      <c r="K777" s="5"/>
+        <v>643</v>
+      </c>
     </row>
     <row r="778" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C778" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F778" s="16" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
     </row>
     <row r="779" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C779" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E779" s="14"/>
       <c r="F779" s="16" t="s">
-        <v>714</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="G779" s="13"/>
+      <c r="H779" s="18"/>
+      <c r="K779" s="5"/>
     </row>
     <row r="780" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C780" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E780" s="14"/>
       <c r="F780" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="G780" s="13"/>
-      <c r="H780" s="18"/>
-      <c r="K780" s="5"/>
+        <v>645</v>
+      </c>
     </row>
     <row r="781" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C781" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F781" s="16" t="s">
-        <v>645</v>
+        <v>713</v>
       </c>
     </row>
     <row r="782" spans="3:11" x14ac:dyDescent="0.2">
@@ -21470,54 +21561,54 @@
         <v>12</v>
       </c>
       <c r="F782" s="16" t="s">
-        <v>715</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="G782" s="13"/>
+      <c r="H782" s="18"/>
+      <c r="K782" s="5"/>
     </row>
     <row r="783" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C783" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F783" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G783" s="13"/>
-      <c r="H783" s="18"/>
-      <c r="K783" s="5"/>
+        <v>647</v>
+      </c>
     </row>
     <row r="784" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C784" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F784" s="16" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="785" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C785" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E785" s="22"/>
       <c r="F785" s="16" t="s">
-        <v>648</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G785" s="13"/>
+      <c r="H785" s="18"/>
+      <c r="K785" s="5"/>
     </row>
     <row r="786" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C786" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E786" s="22"/>
       <c r="F786" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="G786" s="13"/>
-      <c r="H786" s="18"/>
-      <c r="K786" s="5"/>
+        <v>650</v>
+      </c>
     </row>
     <row r="787" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C787" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F787" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="788" spans="3:11" x14ac:dyDescent="0.2">
@@ -21525,55 +21616,55 @@
         <v>12</v>
       </c>
       <c r="F788" s="16" t="s">
-        <v>651</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G788" s="13"/>
+      <c r="H788" s="18"/>
+      <c r="K788" s="5"/>
     </row>
     <row r="789" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C789" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E789" s="22"/>
       <c r="F789" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="G789" s="13"/>
-      <c r="H789" s="18"/>
-      <c r="K789" s="5"/>
+        <v>653</v>
+      </c>
     </row>
     <row r="790" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C790" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E790" s="22"/>
       <c r="F790" s="16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="791" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C791" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E791" s="14"/>
       <c r="F791" s="16" t="s">
-        <v>654</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G791" s="13"/>
+      <c r="H791" s="18"/>
+      <c r="K791" s="5"/>
     </row>
     <row r="792" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C792" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E792" s="14"/>
       <c r="F792" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G792" s="13"/>
-      <c r="H792" s="18"/>
-      <c r="K792" s="5"/>
+        <v>656</v>
+      </c>
     </row>
     <row r="793" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C793" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F793" s="16" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="794" spans="3:11" x14ac:dyDescent="0.2">
@@ -21581,33 +21672,25 @@
         <v>12</v>
       </c>
       <c r="F794" s="16" t="s">
-        <v>657</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="G794" s="13"/>
+      <c r="H794" s="18"/>
+      <c r="K794" s="5"/>
     </row>
     <row r="795" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C795" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F795" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="G795" s="13"/>
-      <c r="H795" s="18"/>
-      <c r="K795" s="5"/>
+        <v>659</v>
+      </c>
     </row>
     <row r="796" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C796" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F796" s="16" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="797" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C797" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F797" s="16" t="s">
         <v>660</v>
       </c>
     </row>
@@ -21656,7 +21739,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -21671,7 +21754,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -21701,7 +21784,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -21716,7 +21799,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD92B2-D6C2-9C40-ACDF-7C77D76DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451E739-B9A0-6F4A-822F-AD02E297016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="717">
   <si>
     <t>Operator</t>
   </si>
@@ -2027,9 +2027,6 @@
     <t>Tn2_t0_LOW_blank_01b</t>
   </si>
   <si>
-    <t>Tn2_t0_LOW_blank_01c</t>
-  </si>
-  <si>
     <t>Tn2_t0_LOW_blank_02a</t>
   </si>
   <si>
@@ -2057,9 +2054,6 @@
     <t>Tn2_t1_LOW_tile_03b</t>
   </si>
   <si>
-    <t>Tn2_t1_LOW_tile_03c</t>
-  </si>
-  <si>
     <t>Tn2_t1_LOW_blank_01a</t>
   </si>
   <si>
@@ -2072,9 +2066,6 @@
     <t>Tn2_t1_LOW_tile_04b</t>
   </si>
   <si>
-    <t>Tn2_t1_LOW_tile_04c</t>
-  </si>
-  <si>
     <t>Tn2_t1_LOW_tile_05a</t>
   </si>
   <si>
@@ -2090,9 +2081,6 @@
     <t>Tn2_t1_LOW_tile_06b</t>
   </si>
   <si>
-    <t>Tn2_t1_LOW_tile_06c</t>
-  </si>
-  <si>
     <t>Tn2_t1_LOW_blank_02a</t>
   </si>
   <si>
@@ -2184,9 +2172,6 @@
   </si>
   <si>
     <t>Tn2_t1_LOW_tile_02c</t>
-  </si>
-  <si>
-    <t>Tn2_t1_LOW_blank_01c</t>
   </si>
   <si>
     <t>Tn2_t0_AMB_blank_02c</t>
@@ -2685,11 +2670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O796"/>
+  <dimension ref="A1:O791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C733" sqref="C733"/>
+      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F747" sqref="F747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20385,8 +20370,8 @@
         <v>-8.6749999999997272</v>
       </c>
       <c r="K701" s="5">
-        <f>G701+$J$671</f>
-        <v>2227.9049999999997</v>
+        <f>G701+$J$701</f>
+        <v>2226.44</v>
       </c>
       <c r="L701" s="2" t="s">
         <v>94</v>
@@ -20429,7 +20414,7 @@
         <v>2715.38</v>
       </c>
       <c r="F703" s="16" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G703" s="13">
         <f>AVERAGE(E704,E705)</f>
@@ -20461,7 +20446,7 @@
         <v>2609.15</v>
       </c>
       <c r="F704" s="16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.2">
@@ -20481,7 +20466,7 @@
         <v>2615.44</v>
       </c>
       <c r="F705" s="16" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.2">
@@ -20501,7 +20486,7 @@
         <v>2589.64</v>
       </c>
       <c r="F706" s="16" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G706" s="13">
         <f>AVERAGE(E706,E708)</f>
@@ -20533,7 +20518,7 @@
         <v>2501.0700000000002</v>
       </c>
       <c r="F707" s="16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.2">
@@ -20553,7 +20538,7 @@
         <v>2588.09</v>
       </c>
       <c r="F708" s="16" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.2">
@@ -20573,7 +20558,7 @@
         <v>2364.96</v>
       </c>
       <c r="F709" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G709" s="13">
         <f>AVERAGE(E709,E711)</f>
@@ -20605,7 +20590,7 @@
         <v>2349.0700000000002</v>
       </c>
       <c r="F710" s="16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.2">
@@ -20625,7 +20610,7 @@
         <v>2371.4</v>
       </c>
       <c r="F711" s="16" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.2">
@@ -20645,7 +20630,7 @@
         <v>2489.98</v>
       </c>
       <c r="F712" s="16" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G712" s="13">
         <f>AVERAGE(E712,E713)</f>
@@ -20677,7 +20662,7 @@
         <v>2493.86</v>
       </c>
       <c r="F713" s="16" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.2">
@@ -20697,7 +20682,7 @@
         <v>2435.52</v>
       </c>
       <c r="F714" s="16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G714" s="13">
         <f>AVERAGE(E715,E716)</f>
@@ -20729,7 +20714,7 @@
         <v>2463.61</v>
       </c>
       <c r="F715" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.2">
@@ -20749,7 +20734,7 @@
         <v>2457.8000000000002</v>
       </c>
       <c r="F716" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.2">
@@ -20769,7 +20754,7 @@
         <v>2611.8200000000002</v>
       </c>
       <c r="F717" s="16" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G717" s="13">
         <f>AVERAGE(E717,E718)</f>
@@ -20801,7 +20786,7 @@
         <v>2608.4499999999998</v>
       </c>
       <c r="F718" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.2">
@@ -20821,7 +20806,7 @@
         <v>2371.92</v>
       </c>
       <c r="F719" s="16" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G719" s="13">
         <f>AVERAGE(E721,E720)</f>
@@ -20853,10 +20838,10 @@
         <v>2393.9699999999998</v>
       </c>
       <c r="F720" s="16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A721" s="15" t="s">
         <v>11</v>
       </c>
@@ -20873,10 +20858,10 @@
         <v>2395.33</v>
       </c>
       <c r="F721" s="16" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A722" s="15" t="s">
         <v>11</v>
       </c>
@@ -20893,7 +20878,7 @@
         <v>2488.85</v>
       </c>
       <c r="F722" s="16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G722" s="13">
         <f>AVERAGE(E722,E723)</f>
@@ -20908,7 +20893,7 @@
         <v>2478.11</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A723" s="15" t="s">
         <v>11</v>
       </c>
@@ -20925,10 +20910,10 @@
         <v>2484.7199999999998</v>
       </c>
       <c r="F723" s="16" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A724" s="15" t="s">
         <v>11</v>
       </c>
@@ -20945,7 +20930,7 @@
         <v>2407.86</v>
       </c>
       <c r="F724" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G724" s="13">
         <f>AVERAGE(E725:E726)</f>
@@ -20960,7 +20945,7 @@
         <v>2467.61</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A725" s="15" t="s">
         <v>11</v>
       </c>
@@ -20977,10 +20962,10 @@
         <v>2473.7199999999998</v>
       </c>
       <c r="F725" s="16" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A726" s="15" t="s">
         <v>11</v>
       </c>
@@ -20997,10 +20982,10 @@
         <v>2478.85</v>
       </c>
       <c r="F726" s="16" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A727" s="15" t="s">
         <v>11</v>
       </c>
@@ -21017,7 +21002,7 @@
         <v>2599.69</v>
       </c>
       <c r="F727" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G727" s="13">
         <f>AVERAGE(E727,E729)</f>
@@ -21032,7 +21017,7 @@
         <v>2590.1250000000005</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A728" s="15" t="s">
         <v>11</v>
       </c>
@@ -21049,10 +21034,10 @@
         <v>2614.36</v>
       </c>
       <c r="F728" s="16" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A729" s="15" t="s">
         <v>11</v>
       </c>
@@ -21069,406 +21054,847 @@
         <v>2597.91</v>
       </c>
       <c r="F729" s="16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A730" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B730" s="31">
+        <v>45187</v>
+      </c>
       <c r="C730" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D730" s="5">
+        <v>51.06</v>
+      </c>
+      <c r="E730" s="5">
+        <v>2269.87</v>
       </c>
       <c r="F730" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G730" s="13"/>
-      <c r="H730" s="18"/>
-      <c r="I730" s="3"/>
-      <c r="J730" s="4"/>
-      <c r="K730" s="5"/>
-    </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G730" s="13">
+        <f>AVERAGE(E731:E732)</f>
+        <v>2293.1800000000003</v>
+      </c>
+      <c r="H730" s="18">
+        <f>STDEV(E731:E732)</f>
+        <v>0.21213203435577133</v>
+      </c>
+      <c r="I730" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J730" s="4">
+        <f>I730-G730</f>
+        <v>-66.740000000000236</v>
+      </c>
+      <c r="K730" s="5">
+        <f>G730+$J$730</f>
+        <v>2226.44</v>
+      </c>
+      <c r="L730" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A731" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B731" s="31">
+        <v>45187</v>
+      </c>
       <c r="C731" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D731" s="5">
+        <v>50.82</v>
+      </c>
+      <c r="E731" s="5">
+        <v>2293.33</v>
       </c>
       <c r="F731" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A732" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B732" s="31">
+        <v>45187</v>
+      </c>
       <c r="C732" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D732" s="5">
+        <v>51.18</v>
+      </c>
+      <c r="E732" s="5">
+        <v>2293.0300000000002</v>
       </c>
       <c r="F732" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A733" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B733" s="31">
+        <v>45187</v>
+      </c>
       <c r="C733" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E733" s="14"/>
+      <c r="D733" s="5">
+        <v>50.93</v>
+      </c>
+      <c r="E733" s="22">
+        <v>2609.02</v>
+      </c>
       <c r="F733" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="G733" s="13"/>
-      <c r="H733" s="18"/>
-      <c r="K733" s="5"/>
-    </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G733" s="13">
+        <f>AVERAGE(E733,E734)</f>
+        <v>2608.71</v>
+      </c>
+      <c r="H733" s="18">
+        <f>STDEV(E734,E733)</f>
+        <v>0.43840620433558231</v>
+      </c>
+      <c r="K733" s="5">
+        <f>G733+$J$730</f>
+        <v>2541.9699999999998</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A734" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B734" s="31">
+        <v>45187</v>
+      </c>
       <c r="C734" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D734" s="5">
+        <v>51.44</v>
+      </c>
+      <c r="E734" s="5">
+        <v>2608.4</v>
       </c>
       <c r="F734" s="16" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A735" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B735" s="31">
+        <v>45187</v>
+      </c>
       <c r="C735" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D735" s="5">
+        <v>50.48</v>
+      </c>
+      <c r="E735" s="5">
+        <v>2590.27</v>
       </c>
       <c r="F735" s="16" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G735" s="13">
+        <f>AVERAGE(E735,E737)</f>
+        <v>2588.73</v>
+      </c>
+      <c r="H735" s="18">
+        <f>STDEV(E735,E737)</f>
+        <v>2.1778888860545149</v>
+      </c>
+      <c r="K735" s="5">
+        <f>G735+$J$730</f>
+        <v>2521.9899999999998</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A736" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B736" s="31">
+        <v>45187</v>
+      </c>
       <c r="C736" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D736" s="5">
+        <v>49.27</v>
+      </c>
+      <c r="E736" s="14">
+        <v>2610.87</v>
       </c>
       <c r="F736" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="G736" s="13"/>
-      <c r="H736" s="18"/>
-      <c r="K736" s="5"/>
-    </row>
-    <row r="737" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A737" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B737" s="31">
+        <v>45187</v>
+      </c>
       <c r="C737" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E737" s="14"/>
+      <c r="D737" s="5">
+        <v>50.94</v>
+      </c>
+      <c r="E737" s="5">
+        <v>2587.19</v>
+      </c>
       <c r="F737" s="16" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="738" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A738" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B738" s="31">
+        <v>45187</v>
+      </c>
       <c r="C738" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D738" s="5">
+        <v>50.02</v>
+      </c>
+      <c r="E738" s="14">
+        <v>2519.91</v>
       </c>
       <c r="F738" s="16" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="739" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G738" s="13">
+        <f>AVERAGE(E739,E740)</f>
+        <v>2490.125</v>
+      </c>
+      <c r="H738" s="18">
+        <f>STDEV(E739,E740)</f>
+        <v>1.067731239591841</v>
+      </c>
+      <c r="K738" s="5">
+        <f>G738+$J$730</f>
+        <v>2423.3849999999998</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A739" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B739" s="31">
+        <v>45187</v>
+      </c>
       <c r="C739" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D739" s="5">
+        <v>49.27</v>
+      </c>
+      <c r="E739" s="5">
+        <v>2490.88</v>
       </c>
       <c r="F739" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="G739" s="13"/>
-      <c r="H739" s="18"/>
-      <c r="K739" s="5"/>
-    </row>
-    <row r="740" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A740" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B740" s="31">
+        <v>45187</v>
+      </c>
       <c r="C740" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D740" s="5">
+        <v>52.01</v>
+      </c>
+      <c r="E740" s="5">
+        <v>2489.37</v>
+      </c>
       <c r="F740" s="16" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A741" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B741" s="31">
+        <v>45187</v>
+      </c>
+      <c r="C741" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D741" s="5">
+        <v>48.71</v>
+      </c>
+      <c r="E741" s="14">
+        <v>2480.14</v>
+      </c>
+      <c r="F741" s="16" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="741" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C741" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F741" s="16" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="742" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G741" s="13">
+        <f>AVERAGE(E742,E743)</f>
+        <v>2440.41</v>
+      </c>
+      <c r="H741" s="18">
+        <f>STDEV(E742,E743)</f>
+        <v>1.6122034611054699</v>
+      </c>
+      <c r="K741" s="5">
+        <f>G741+$J$730</f>
+        <v>2373.6699999999996</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A742" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B742" s="31">
+        <v>45187</v>
+      </c>
       <c r="C742" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D742" s="5">
+        <v>51.46</v>
+      </c>
+      <c r="E742" s="5">
+        <v>2439.27</v>
       </c>
       <c r="F742" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="G742" s="13"/>
-      <c r="H742" s="18"/>
-      <c r="K742" s="5"/>
-    </row>
-    <row r="743" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A743" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B743" s="31">
+        <v>45187</v>
+      </c>
       <c r="C743" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D743" s="5">
+        <v>50.55</v>
+      </c>
+      <c r="E743" s="5">
+        <v>2441.5500000000002</v>
+      </c>
       <c r="F743" s="16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A744" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B744" s="31">
+        <v>45187</v>
+      </c>
+      <c r="C744" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D744" s="15">
+        <v>50.07</v>
+      </c>
+      <c r="E744" s="5">
+        <v>2458.62</v>
+      </c>
+      <c r="F744" s="16" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="744" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C744" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F744" s="16" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="745" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G744" s="13">
+        <f>AVERAGE(E745,E744)</f>
+        <v>2456.12</v>
+      </c>
+      <c r="H744" s="18">
+        <f>STDEV(E745,E744)</f>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="K744" s="5">
+        <f>G744+$J$730</f>
+        <v>2389.3799999999997</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A745" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B745" s="31">
+        <v>45187</v>
+      </c>
       <c r="C745" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D745" s="15"/>
-      <c r="E745" s="14"/>
+      <c r="D745" s="5">
+        <v>49.38</v>
+      </c>
+      <c r="E745" s="5">
+        <v>2453.62</v>
+      </c>
       <c r="F745" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="G745" s="13"/>
-      <c r="H745" s="18"/>
-      <c r="K745" s="5"/>
-    </row>
-    <row r="746" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A746" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B746" s="31">
+        <v>45187</v>
+      </c>
       <c r="C746" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D746" s="5">
+        <v>51.64</v>
+      </c>
+      <c r="E746" s="5">
+        <v>2614.89</v>
       </c>
       <c r="F746" s="16" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="747" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G746" s="13">
+        <f>AVERAGE(E747,E746)</f>
+        <v>2613.9299999999998</v>
+      </c>
+      <c r="H746" s="18">
+        <f>STDEV(E747,E746)</f>
+        <v>1.3576450198782226</v>
+      </c>
+      <c r="K746" s="5">
+        <f>G746+$J$730</f>
+        <v>2547.1899999999996</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A747" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B747" s="31">
+        <v>45187</v>
+      </c>
       <c r="C747" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D747" s="5">
+        <v>52.3</v>
+      </c>
+      <c r="E747" s="22">
+        <v>2612.9699999999998</v>
       </c>
       <c r="F747" s="16" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="748" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A748" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B748" s="31">
+        <v>45187</v>
+      </c>
       <c r="C748" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="D748" s="5">
+        <v>50.69</v>
+      </c>
+      <c r="E748" s="22">
+        <v>2492.29</v>
       </c>
       <c r="F748" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="G748" s="13"/>
-      <c r="H748" s="18"/>
-      <c r="K748" s="5"/>
-    </row>
-    <row r="749" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G748" s="13">
+        <f>AVERAGE(E749,E748)</f>
+        <v>2492.9899999999998</v>
+      </c>
+      <c r="H748" s="18">
+        <f>STDEV(E749,E748)</f>
+        <v>0.98994949366123086</v>
+      </c>
+      <c r="K748" s="5">
+        <f>G748+$J$730</f>
+        <v>2426.2499999999995</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A749" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B749" s="31">
+        <v>45187</v>
+      </c>
       <c r="C749" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E749" s="22"/>
+      <c r="D749" s="5">
+        <v>49.9</v>
+      </c>
+      <c r="E749" s="5">
+        <v>2493.69</v>
+      </c>
       <c r="F749" s="16" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="750" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A750" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B750" s="31">
+        <v>45187</v>
+      </c>
       <c r="C750" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E750" s="22"/>
+      <c r="D750" s="5">
+        <v>52.89</v>
+      </c>
+      <c r="E750" s="14">
+        <v>2493.7199999999998</v>
+      </c>
       <c r="F750" s="16" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="751" spans="3:11" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="G750" s="13">
+        <f>AVERAGE(E751,E752)</f>
+        <v>2507.56</v>
+      </c>
+      <c r="H750" s="18">
+        <f>STDEV(E751,E752)</f>
+        <v>1.9940411229458583</v>
+      </c>
+      <c r="K750" s="5">
+        <f>G750+$J$730</f>
+        <v>2440.8199999999997</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A751" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B751" s="31">
+        <v>45187</v>
+      </c>
       <c r="C751" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E751" s="14"/>
+      <c r="D751" s="5">
+        <v>50.05</v>
+      </c>
+      <c r="E751" s="22">
+        <v>2508.9699999999998</v>
+      </c>
       <c r="F751" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="G751" s="13"/>
-      <c r="H751" s="18"/>
-      <c r="K751" s="5"/>
-    </row>
-    <row r="752" spans="3:11" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A752" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B752" s="31">
+        <v>45187</v>
+      </c>
       <c r="C752" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D752" s="5">
+        <v>50.41</v>
+      </c>
+      <c r="E752" s="22">
+        <v>2506.15</v>
+      </c>
       <c r="F752" s="16" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="753" spans="3:11" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A753" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B753" s="31">
+        <v>45187</v>
+      </c>
       <c r="C753" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D753" s="5">
+        <v>48.81</v>
+      </c>
+      <c r="E753" s="5">
+        <v>2473.63</v>
+      </c>
       <c r="F753" s="16" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="754" spans="3:11" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+      <c r="G753" s="13">
+        <f>AVERAGE(E754,E753)</f>
+        <v>2474.7150000000001</v>
+      </c>
+      <c r="H753" s="18">
+        <f>STDEV(E754,E753)</f>
+        <v>1.5344217151748596</v>
+      </c>
+      <c r="K753" s="5">
+        <f>G753+$J$730</f>
+        <v>2407.9749999999999</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A754" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B754" s="31">
+        <v>45187</v>
+      </c>
       <c r="C754" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D754" s="5">
+        <v>51.69</v>
+      </c>
+      <c r="E754" s="22">
+        <v>2475.8000000000002</v>
+      </c>
       <c r="F754" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="G754" s="13"/>
-      <c r="H754" s="18"/>
-      <c r="K754" s="5"/>
-    </row>
-    <row r="755" spans="3:11" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A755" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B755" s="31">
+        <v>45187</v>
+      </c>
       <c r="C755" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E755" s="14"/>
+      <c r="D755" s="5">
+        <v>51.7</v>
+      </c>
+      <c r="E755" s="5">
+        <v>2585.2199999999998</v>
+      </c>
       <c r="F755" s="16" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="756" spans="3:11" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+      <c r="G755" s="13">
+        <f>AVERAGE(E757,E755)</f>
+        <v>2587.84</v>
+      </c>
+      <c r="H755" s="18">
+        <f>STDEV(E757,E755)</f>
+        <v>3.7052395334176764</v>
+      </c>
+      <c r="K755" s="5">
+        <f>G755+$J$730</f>
+        <v>2521.1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A756" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B756" s="31">
+        <v>45187</v>
+      </c>
       <c r="C756" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E756" s="14"/>
+      <c r="D756" s="5">
+        <v>49.19</v>
+      </c>
+      <c r="E756" s="14">
+        <v>2636.55</v>
+      </c>
       <c r="F756" s="16" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="757" spans="3:11" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A757" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B757" s="31">
+        <v>45187</v>
+      </c>
       <c r="C757" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D757" s="5">
+        <v>50.55</v>
+      </c>
+      <c r="E757" s="5">
+        <v>2590.46</v>
+      </c>
       <c r="F757" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G757" s="13"/>
-      <c r="H757" s="18"/>
-      <c r="K757" s="5"/>
-    </row>
-    <row r="758" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C758" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E758" s="14"/>
-      <c r="F758" s="16" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="759" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C758" s="10"/>
+      <c r="F758" s="16"/>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C759" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E759" s="14"/>
       <c r="F759" s="16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="760" spans="3:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G759" s="13"/>
+      <c r="H759" s="18"/>
+      <c r="I759" s="3"/>
+      <c r="J759" s="4"/>
+      <c r="K759" s="5"/>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C760" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F760" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="G760" s="13"/>
-      <c r="H760" s="18"/>
-      <c r="K760" s="5"/>
-    </row>
-    <row r="761" spans="3:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C761" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E761" s="14"/>
       <c r="F761" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="762" spans="3:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C762" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E762" s="14"/>
       <c r="F762" s="16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="763" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C763" s="10"/>
-      <c r="F763" s="16"/>
-    </row>
-    <row r="764" spans="3:11" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G762" s="13"/>
+      <c r="H762" s="18"/>
+      <c r="K762" s="5"/>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C763" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F763" s="16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C764" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E764" s="14"/>
       <c r="F764" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G764" s="13"/>
-      <c r="H764" s="18"/>
-      <c r="I764" s="3"/>
-      <c r="J764" s="4"/>
-      <c r="K764" s="5"/>
-    </row>
-    <row r="765" spans="3:11" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C765" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F765" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="766" spans="3:11" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="G765" s="13"/>
+      <c r="H765" s="18"/>
+      <c r="K765" s="5"/>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C766" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F766" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="767" spans="3:11" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C767" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E767" s="14"/>
       <c r="F767" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="G767" s="13"/>
-      <c r="H767" s="18"/>
-      <c r="K767" s="5"/>
-    </row>
-    <row r="768" spans="3:11" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C768" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F768" s="16" t="s">
-        <v>636</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G768" s="13"/>
+      <c r="H768" s="18"/>
+      <c r="K768" s="5"/>
     </row>
     <row r="769" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C769" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E769" s="22"/>
       <c r="F769" s="16" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
     </row>
     <row r="770" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C770" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E770" s="22"/>
       <c r="F770" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="G770" s="13"/>
-      <c r="H770" s="18"/>
-      <c r="K770" s="5"/>
+        <v>641</v>
+      </c>
     </row>
     <row r="771" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C771" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E771" s="14"/>
       <c r="F771" s="16" t="s">
-        <v>638</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="G771" s="13"/>
+      <c r="H771" s="18"/>
+      <c r="K771" s="5"/>
     </row>
     <row r="772" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C772" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F772" s="16" t="s">
-        <v>711</v>
+        <v>643</v>
       </c>
     </row>
     <row r="773" spans="3:11" x14ac:dyDescent="0.2">
@@ -21476,84 +21902,82 @@
         <v>12</v>
       </c>
       <c r="F773" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="G773" s="13"/>
-      <c r="H773" s="18"/>
-      <c r="K773" s="5"/>
+        <v>708</v>
+      </c>
     </row>
     <row r="774" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C774" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E774" s="22"/>
+      <c r="E774" s="14"/>
       <c r="F774" s="16" t="s">
-        <v>640</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="G774" s="13"/>
+      <c r="H774" s="18"/>
+      <c r="K774" s="5"/>
     </row>
     <row r="775" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C775" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E775" s="22"/>
       <c r="F775" s="16" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="776" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C776" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E776" s="14"/>
       <c r="F776" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="G776" s="13"/>
-      <c r="H776" s="18"/>
-      <c r="K776" s="5"/>
+        <v>709</v>
+      </c>
     </row>
     <row r="777" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C777" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F777" s="16" t="s">
-        <v>643</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="G777" s="13"/>
+      <c r="H777" s="18"/>
+      <c r="K777" s="5"/>
     </row>
     <row r="778" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C778" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F778" s="16" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
     </row>
     <row r="779" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C779" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E779" s="14"/>
       <c r="F779" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="G779" s="13"/>
-      <c r="H779" s="18"/>
-      <c r="K779" s="5"/>
+        <v>648</v>
+      </c>
     </row>
     <row r="780" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C780" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E780" s="22"/>
       <c r="F780" s="16" t="s">
-        <v>645</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G780" s="13"/>
+      <c r="H780" s="18"/>
+      <c r="K780" s="5"/>
     </row>
     <row r="781" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C781" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F781" s="16" t="s">
-        <v>713</v>
+        <v>650</v>
       </c>
     </row>
     <row r="782" spans="3:11" x14ac:dyDescent="0.2">
@@ -21561,54 +21985,55 @@
         <v>12</v>
       </c>
       <c r="F782" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G782" s="13"/>
-      <c r="H782" s="18"/>
-      <c r="K782" s="5"/>
+        <v>651</v>
+      </c>
     </row>
     <row r="783" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C783" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F783" s="16" t="s">
-        <v>647</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="G783" s="13"/>
+      <c r="H783" s="18"/>
+      <c r="K783" s="5"/>
     </row>
     <row r="784" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C784" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E784" s="22"/>
       <c r="F784" s="16" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="785" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C785" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E785" s="22"/>
       <c r="F785" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="G785" s="13"/>
-      <c r="H785" s="18"/>
-      <c r="K785" s="5"/>
+        <v>654</v>
+      </c>
     </row>
     <row r="786" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C786" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E786" s="14"/>
       <c r="F786" s="16" t="s">
-        <v>650</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="G786" s="13"/>
+      <c r="H786" s="18"/>
+      <c r="K786" s="5"/>
     </row>
     <row r="787" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C787" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F787" s="16" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="788" spans="3:11" x14ac:dyDescent="0.2">
@@ -21616,81 +22041,33 @@
         <v>12</v>
       </c>
       <c r="F788" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="G788" s="13"/>
-      <c r="H788" s="18"/>
-      <c r="K788" s="5"/>
+        <v>657</v>
+      </c>
     </row>
     <row r="789" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C789" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E789" s="22"/>
       <c r="F789" s="16" t="s">
-        <v>653</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="G789" s="13"/>
+      <c r="H789" s="18"/>
+      <c r="K789" s="5"/>
     </row>
     <row r="790" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C790" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F790" s="16" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="791" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C791" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E791" s="14"/>
       <c r="F791" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G791" s="13"/>
-      <c r="H791" s="18"/>
-      <c r="K791" s="5"/>
-    </row>
-    <row r="792" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C792" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F792" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="793" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C793" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F793" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="794" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C794" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F794" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="G794" s="13"/>
-      <c r="H794" s="18"/>
-      <c r="K794" s="5"/>
-    </row>
-    <row r="795" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C795" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F795" s="16" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="796" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C796" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F796" s="16" t="s">
         <v>660</v>
       </c>
     </row>
@@ -21739,7 +22116,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -21754,7 +22131,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -21784,7 +22161,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -21799,7 +22176,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451E739-B9A0-6F4A-822F-AD02E297016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF4E22-877E-6A48-8EC8-4DEB72238232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="718">
   <si>
     <t>Operator</t>
   </si>
@@ -2187,6 +2187,9 @@
   </si>
   <si>
     <t>Tn2_t1_AMB_tile_06e</t>
+  </si>
+  <si>
+    <t>Tn2_t0_ELOW_blank_01d</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2388,6 +2391,15 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2670,11 +2682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O791"/>
+  <dimension ref="A1:O788"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F747" sqref="F747"/>
+      <pane ySplit="1" topLeftCell="A756" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M783" sqref="M783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21635,7 +21647,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A753" s="15" t="s">
         <v>11</v>
       </c>
@@ -21667,7 +21679,7 @@
         <v>2407.9749999999999</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A754" s="15" t="s">
         <v>11</v>
       </c>
@@ -21687,7 +21699,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A755" s="15" t="s">
         <v>11</v>
       </c>
@@ -21719,7 +21731,7 @@
         <v>2521.1</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A756" s="15" t="s">
         <v>11</v>
       </c>
@@ -21739,7 +21751,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A757" s="15" t="s">
         <v>11</v>
       </c>
@@ -21759,315 +21771,767 @@
         <v>683</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C758" s="10"/>
-      <c r="F758" s="16"/>
-    </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A758" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B758" s="31">
+        <v>45189</v>
+      </c>
+      <c r="C758" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D758" s="5">
+        <v>49.38</v>
+      </c>
+      <c r="E758" s="5">
+        <v>2235.1</v>
+      </c>
+      <c r="F758" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G758" s="13">
+        <f>AVERAGE(E758:E759)</f>
+        <v>2232.3850000000002</v>
+      </c>
+      <c r="H758" s="18">
+        <f>STDEV(E758:E759)</f>
+        <v>3.8395898218428375</v>
+      </c>
+      <c r="I758" s="3">
+        <v>2226.44</v>
+      </c>
+      <c r="J758" s="4">
+        <f>I758-G758</f>
+        <v>-5.9450000000001637</v>
+      </c>
+      <c r="K758" s="5">
+        <f>G758+$J$730</f>
+        <v>2165.645</v>
+      </c>
+      <c r="L758" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A759" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B759" s="31">
+        <v>45189</v>
+      </c>
       <c r="C759" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E759" s="14"/>
+      <c r="D759" s="5">
+        <v>50.16</v>
+      </c>
+      <c r="E759" s="22">
+        <v>2229.67</v>
+      </c>
       <c r="F759" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G759" s="13"/>
-      <c r="H759" s="18"/>
-      <c r="I759" s="3"/>
-      <c r="J759" s="4"/>
-      <c r="K759" s="5"/>
-    </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C760" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F760" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A760" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B760" s="34">
+        <v>45189</v>
+      </c>
+      <c r="C760" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D760" s="26">
+        <v>49.81</v>
+      </c>
+      <c r="E760" s="36">
+        <v>2671.65</v>
+      </c>
+      <c r="F760" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="G760" s="13">
+        <f>AVERAGE(E760,E762)</f>
+        <v>2674.855</v>
+      </c>
+      <c r="H760" s="18">
+        <f>STDEV(E762,E760)</f>
+        <v>4.5325544674056664</v>
+      </c>
+      <c r="I760" s="29"/>
+      <c r="J760" s="29"/>
+      <c r="K760" s="26">
+        <f>G760+$J$758</f>
+        <v>2668.91</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A761" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B761" s="31">
+        <v>45189</v>
+      </c>
       <c r="C761" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D761" s="5">
+        <v>51.26</v>
+      </c>
+      <c r="E761" s="14">
+        <v>2637.11</v>
+      </c>
       <c r="F761" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A762" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B762" s="31">
+        <v>45189</v>
+      </c>
       <c r="C762" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E762" s="14"/>
+      <c r="D762" s="5">
+        <v>49.15</v>
+      </c>
+      <c r="E762" s="22">
+        <v>2678.06</v>
+      </c>
       <c r="F762" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="G762" s="13"/>
-      <c r="H762" s="18"/>
-      <c r="K762" s="5"/>
-    </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A763" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B763" s="31">
+        <v>45189</v>
+      </c>
       <c r="C763" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D763" s="5">
+        <v>50.44</v>
+      </c>
+      <c r="E763" s="5">
+        <v>2623.03</v>
+      </c>
       <c r="F763" s="16" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="G763" s="13">
+        <f>AVERAGE(E763:E765)</f>
+        <v>2619.9</v>
+      </c>
+      <c r="H763" s="18">
+        <f>STDEV(E763:E765)</f>
+        <v>3.3775582896524523</v>
+      </c>
+      <c r="K763" s="5">
+        <f>G763+$J$758</f>
+        <v>2613.9549999999999</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A764" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B764" s="31">
+        <v>45189</v>
+      </c>
       <c r="C764" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D764" s="5">
+        <v>51.07</v>
+      </c>
+      <c r="E764" s="5">
+        <v>2620.35</v>
+      </c>
       <c r="F764" s="16" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A765" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B765" s="31">
+        <v>45189</v>
+      </c>
       <c r="C765" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D765" s="5">
+        <v>49.98</v>
+      </c>
+      <c r="E765" s="5">
+        <v>2616.3200000000002</v>
+      </c>
       <c r="F765" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="G765" s="13"/>
-      <c r="H765" s="18"/>
-      <c r="K765" s="5"/>
-    </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A766" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B766" s="31">
+        <v>45189</v>
+      </c>
       <c r="C766" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D766" s="5">
+        <v>48.64</v>
+      </c>
+      <c r="E766" s="5">
+        <v>2640.62</v>
+      </c>
       <c r="F766" s="16" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G766" s="13">
+        <f>AVERAGE(E767:E768)</f>
+        <v>2620.875</v>
+      </c>
+      <c r="H766" s="18">
+        <f>STDEV(E767:E768)</f>
+        <v>4.0234375849511723</v>
+      </c>
+      <c r="K766" s="5">
+        <f>G766+$J$758</f>
+        <v>2614.9299999999998</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A767" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B767" s="31">
+        <v>45189</v>
+      </c>
       <c r="C767" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D767" s="5">
+        <v>49.1</v>
+      </c>
+      <c r="E767" s="22">
+        <v>2618.0300000000002</v>
+      </c>
       <c r="F767" s="16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A768" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B768" s="31">
+        <v>45189</v>
+      </c>
       <c r="C768" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D768" s="5">
+        <v>51.16</v>
+      </c>
+      <c r="E768" s="22">
+        <v>2623.72</v>
+      </c>
       <c r="F768" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="G768" s="13"/>
-      <c r="H768" s="18"/>
-      <c r="K768" s="5"/>
-    </row>
-    <row r="769" spans="3:11" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A769" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B769" s="31">
+        <v>45189</v>
+      </c>
       <c r="C769" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E769" s="22"/>
+      <c r="D769" s="5">
+        <v>50.75</v>
+      </c>
+      <c r="E769" s="22">
+        <v>2621.71</v>
+      </c>
       <c r="F769" s="16" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="770" spans="3:11" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+      <c r="G769" s="13">
+        <f>AVERAGE(E769,E771)</f>
+        <v>2624.335</v>
+      </c>
+      <c r="H769" s="18">
+        <f>STDEV(E769,E771)</f>
+        <v>3.7123106012293743</v>
+      </c>
+      <c r="K769" s="5">
+        <f>G769+$J$758</f>
+        <v>2618.39</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A770" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B770" s="31">
+        <v>45189</v>
+      </c>
       <c r="C770" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E770" s="22"/>
+      <c r="D770" s="5">
+        <v>51.77</v>
+      </c>
+      <c r="E770" s="14">
+        <v>2640.87</v>
+      </c>
       <c r="F770" s="16" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="771" spans="3:11" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A771" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B771" s="31">
+        <v>45189</v>
+      </c>
       <c r="C771" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E771" s="14"/>
+      <c r="D771" s="5">
+        <v>51.85</v>
+      </c>
+      <c r="E771" s="5">
+        <v>2626.96</v>
+      </c>
       <c r="F771" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="G771" s="13"/>
-      <c r="H771" s="18"/>
-      <c r="K771" s="5"/>
-    </row>
-    <row r="772" spans="3:11" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A772" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B772" s="31">
+        <v>45189</v>
+      </c>
       <c r="C772" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D772" s="5">
+        <v>50.57</v>
+      </c>
+      <c r="E772" s="22">
+        <v>2632.38</v>
+      </c>
       <c r="F772" s="16" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="773" spans="3:11" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="G772" s="13">
+        <f>AVERAGE(E772:E773)</f>
+        <v>2630.7</v>
+      </c>
+      <c r="H772" s="18">
+        <f>STDEV(E772:E773)</f>
+        <v>2.3758787847868899</v>
+      </c>
+      <c r="K772" s="5">
+        <f>G772+$J$758</f>
+        <v>2624.7549999999997</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A773" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B773" s="31">
+        <v>45189</v>
+      </c>
       <c r="C773" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D773" s="5">
+        <v>50.43</v>
+      </c>
+      <c r="E773" s="5">
+        <v>2629.02</v>
+      </c>
       <c r="F773" s="16" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="774" spans="3:11" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A774" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B774" s="31">
+        <v>45189</v>
+      </c>
       <c r="C774" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E774" s="14"/>
+      <c r="D774" s="5">
+        <v>49.42</v>
+      </c>
+      <c r="E774" s="14">
+        <v>2690.53</v>
+      </c>
       <c r="F774" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="G774" s="13"/>
-      <c r="H774" s="18"/>
-      <c r="K774" s="5"/>
-    </row>
-    <row r="775" spans="3:11" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+      <c r="G774" s="13">
+        <f>AVERAGE(E775:E776)</f>
+        <v>2681.2</v>
+      </c>
+      <c r="H774" s="18">
+        <f>STDEV(E775:E776)</f>
+        <v>2.7011479041327271</v>
+      </c>
+      <c r="K774" s="5">
+        <f>G774+$J$758</f>
+        <v>2675.2549999999997</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A775" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B775" s="31">
+        <v>45189</v>
+      </c>
       <c r="C775" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D775" s="5">
+        <v>52.25</v>
+      </c>
+      <c r="E775" s="5">
+        <v>2679.29</v>
+      </c>
       <c r="F775" s="16" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="776" spans="3:11" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A776" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B776" s="31">
+        <v>45189</v>
+      </c>
       <c r="C776" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D776" s="5">
+        <v>50.9</v>
+      </c>
+      <c r="E776" s="5">
+        <v>2683.11</v>
+      </c>
       <c r="F776" s="16" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="777" spans="3:11" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A777" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B777" s="31">
+        <v>45189</v>
+      </c>
       <c r="C777" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D777" s="5">
+        <v>50.2</v>
+      </c>
+      <c r="E777" s="14">
+        <v>2561.77</v>
+      </c>
       <c r="F777" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G777" s="13"/>
-      <c r="H777" s="18"/>
-      <c r="K777" s="5"/>
-    </row>
-    <row r="778" spans="3:11" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+      <c r="G777" s="13">
+        <f>AVERAGE(E778:E779)</f>
+        <v>2578.25</v>
+      </c>
+      <c r="H777" s="18">
+        <f>STDEV(E778:E779)</f>
+        <v>1.9516147160750255</v>
+      </c>
+      <c r="K777" s="5">
+        <f>G777+$J$758</f>
+        <v>2572.3049999999998</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A778" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B778" s="31">
+        <v>45189</v>
+      </c>
       <c r="C778" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D778" s="5">
+        <v>49.54</v>
+      </c>
+      <c r="E778" s="5">
+        <v>2576.87</v>
+      </c>
       <c r="F778" s="16" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="779" spans="3:11" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A779" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B779" s="31">
+        <v>45189</v>
+      </c>
       <c r="C779" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D779" s="5">
+        <v>49.66</v>
+      </c>
+      <c r="E779" s="5">
+        <v>2579.63</v>
+      </c>
       <c r="F779" s="16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="780" spans="3:11" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A780" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B780" s="31">
+        <v>45189</v>
+      </c>
       <c r="C780" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E780" s="22"/>
+      <c r="D780" s="5">
+        <v>49.04</v>
+      </c>
+      <c r="E780" s="14">
+        <v>2610.11</v>
+      </c>
       <c r="F780" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="G780" s="13"/>
-      <c r="H780" s="18"/>
-      <c r="K780" s="5"/>
-    </row>
-    <row r="781" spans="3:11" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+      <c r="G780" s="13">
+        <f>AVERAGE(E781:E782)</f>
+        <v>2590.04</v>
+      </c>
+      <c r="H780" s="18">
+        <f>STDEV(E781:E782)</f>
+        <v>3.5638181771801736</v>
+      </c>
+      <c r="K780" s="5">
+        <f>G780+$J$758</f>
+        <v>2584.0949999999998</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A781" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B781" s="31">
+        <v>45189</v>
+      </c>
       <c r="C781" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D781" s="5">
+        <v>50.15</v>
+      </c>
+      <c r="E781" s="22">
+        <v>2587.52</v>
+      </c>
       <c r="F781" s="16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="782" spans="3:11" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A782" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B782" s="31">
+        <v>45189</v>
+      </c>
       <c r="C782" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D782" s="5">
+        <v>49.28</v>
+      </c>
+      <c r="E782" s="5">
+        <v>2592.56</v>
+      </c>
       <c r="F782" s="16" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="783" spans="3:11" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A783" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B783" s="31">
+        <v>45189</v>
+      </c>
       <c r="C783" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D783" s="5">
+        <v>48.87</v>
+      </c>
+      <c r="E783" s="14">
+        <v>2625.69</v>
+      </c>
       <c r="F783" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="G783" s="13"/>
-      <c r="H783" s="18"/>
-      <c r="K783" s="5"/>
-    </row>
-    <row r="784" spans="3:11" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+      <c r="G783" s="13">
+        <f>AVERAGE(E784:E785)</f>
+        <v>2606.58</v>
+      </c>
+      <c r="H783" s="18">
+        <f>STDEV(E784:E785)</f>
+        <v>2.4465894629054801</v>
+      </c>
+      <c r="K783" s="5">
+        <f>G783+$J$758</f>
+        <v>2600.6349999999998</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A784" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B784" s="31">
+        <v>45189</v>
+      </c>
       <c r="C784" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E784" s="22"/>
+      <c r="D784" s="5">
+        <v>49.84</v>
+      </c>
+      <c r="E784" s="5">
+        <v>2608.31</v>
+      </c>
       <c r="F784" s="16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="785" spans="3:11" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A785" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B785" s="31">
+        <v>45189</v>
+      </c>
       <c r="C785" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D785" s="5">
+        <v>51.2</v>
+      </c>
+      <c r="E785" s="5">
+        <v>2604.85</v>
+      </c>
       <c r="F785" s="16" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="786" spans="3:11" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A786" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B786" s="31">
+        <v>45189</v>
+      </c>
       <c r="C786" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E786" s="14"/>
+      <c r="D786" s="5">
+        <v>51.97</v>
+      </c>
+      <c r="E786" s="5">
+        <v>2653.44</v>
+      </c>
       <c r="F786" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G786" s="13"/>
-      <c r="H786" s="18"/>
-      <c r="K786" s="5"/>
-    </row>
-    <row r="787" spans="3:11" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+      <c r="G786" s="13">
+        <f>AVERAGE(E786,E788)</f>
+        <v>2656.2849999999999</v>
+      </c>
+      <c r="H786" s="18">
+        <f>STDEV(E786,E788)</f>
+        <v>4.0234375849514938</v>
+      </c>
+      <c r="K786" s="5">
+        <f>G786+$J$758</f>
+        <v>2650.3399999999997</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A787" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B787" s="31">
+        <v>45189</v>
+      </c>
       <c r="C787" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D787" s="5">
+        <v>48.93</v>
+      </c>
+      <c r="E787" s="14">
+        <v>2667.65</v>
+      </c>
       <c r="F787" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="788" spans="3:11" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A788" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B788" s="31">
+        <v>45189</v>
+      </c>
       <c r="C788" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D788" s="5">
+        <v>50.07</v>
+      </c>
+      <c r="E788" s="5">
+        <v>2659.13</v>
+      </c>
       <c r="F788" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="789" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C789" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F789" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="G789" s="13"/>
-      <c r="H789" s="18"/>
-      <c r="K789" s="5"/>
-    </row>
-    <row r="790" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C790" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F790" s="16" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="791" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C791" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F791" s="16" t="s">
         <v>660</v>
       </c>
     </row>

--- a/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
+++ b/Data/3. Alkalinity/Alkalinity_BenthFun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/3. Alkalinity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF4E22-877E-6A48-8EC8-4DEB72238232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38CDBA-EED5-0C40-A34E-2E807BFCC830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$554</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$788</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="741">
   <si>
     <t>Operator</t>
   </si>
@@ -500,18 +500,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>T1_t1_LOW_tile_01c</t>
-  </si>
-  <si>
-    <t>T1_t1_LOW_tile_04c</t>
-  </si>
-  <si>
-    <t>T1_t1_LOW_blank_02d</t>
-  </si>
-  <si>
-    <t>T1_t1_LOW_tile_06d</t>
-  </si>
-  <si>
     <t>PI_t1_ELOW_T0a</t>
   </si>
   <si>
@@ -2156,18 +2144,12 @@
     <t>Tn2_t1_AMB_tile_02b</t>
   </si>
   <si>
-    <t>Tn2_t0_ELOW_blank_01c</t>
-  </si>
-  <si>
     <t>Tn2_t0_ELOW_blank_02c</t>
   </si>
   <si>
     <t>Tn2_t1_ELOW_tile_02c</t>
   </si>
   <si>
-    <t>Tn2_t1_ELOW_tile_03c</t>
-  </si>
-  <si>
     <t>Tn2_t1_LOW_tile_01c</t>
   </si>
   <si>
@@ -2190,6 +2172,93 @@
   </si>
   <si>
     <t>Tn2_t0_ELOW_blank_01d</t>
+  </si>
+  <si>
+    <t>T1_t0_AMB_blank_01a</t>
+  </si>
+  <si>
+    <t>T1_t0_AMB_blank_01b</t>
+  </si>
+  <si>
+    <t>T1_t0_AMB_blank_01c</t>
+  </si>
+  <si>
+    <t>T1_t0_AMB_blank_02a</t>
+  </si>
+  <si>
+    <t>T1_t0_AMB_blank_02b</t>
+  </si>
+  <si>
+    <t>T1_t0_AMB_blank_02c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_01a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_01b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_01c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_02a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_02b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_02c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_03a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_03b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_01a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_01b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_01c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_04a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_04b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_04c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_05a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_05b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_05c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_06a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_06b</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_tile_06d</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_02a</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_02c</t>
+  </si>
+  <si>
+    <t>T1_t1_AMB_blank_02d</t>
   </si>
 </sst>
 </file>
@@ -2685,8 +2754,8 @@
   <dimension ref="A1:O788"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A756" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M783" sqref="M783"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6341,19 +6410,19 @@
       <c r="F139" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H139" s="18" t="s">
-        <v>153</v>
+      <c r="G139" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H139" s="13">
+        <v>999999999</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="5" t="s">
-        <v>153</v>
+      <c r="K139" s="13">
+        <v>999999999</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6623,7 +6692,7 @@
         <v>2573.58</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>125</v>
+        <v>712</v>
       </c>
       <c r="G150" s="13">
         <f>AVERAGE(E151:E152)</f>
@@ -6657,7 +6726,7 @@
         <v>2557.25</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>126</v>
+        <v>713</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -6677,7 +6746,7 @@
         <v>2561.87</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>127</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -6697,7 +6766,7 @@
         <v>2571.7600000000002</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>128</v>
+        <v>715</v>
       </c>
       <c r="G153" s="13">
         <f>AVERAGE(E153,E155)</f>
@@ -6731,7 +6800,7 @@
         <v>2641.36</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>129</v>
+        <v>716</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -6751,7 +6820,7 @@
         <v>2571.14</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>150</v>
+        <v>717</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -6771,7 +6840,7 @@
         <v>2509.6999999999998</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>130</v>
+        <v>718</v>
       </c>
       <c r="G156" s="13">
         <f>AVERAGE(E157:E158)</f>
@@ -6805,7 +6874,7 @@
         <v>2491.7600000000002</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>131</v>
+        <v>719</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -6825,7 +6894,7 @@
         <v>2487.56</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>154</v>
+        <v>720</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -6845,7 +6914,7 @@
         <v>2526.11</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>132</v>
+        <v>721</v>
       </c>
       <c r="G159" s="13">
         <f>AVERAGE(E159,E161)</f>
@@ -6879,7 +6948,7 @@
         <v>2520.5100000000002</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>133</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -6899,7 +6968,7 @@
         <v>2527.0100000000002</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>134</v>
+        <v>723</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -6919,7 +6988,7 @@
         <v>2523.5</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>135</v>
+        <v>724</v>
       </c>
       <c r="G162" s="13">
         <f>AVERAGE(E162:E163)</f>
@@ -6953,7 +7022,7 @@
         <v>2519.21</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>136</v>
+        <v>725</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -6973,7 +7042,7 @@
         <v>2573.4699999999998</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>137</v>
+        <v>726</v>
       </c>
       <c r="G164" s="13">
         <f>AVERAGE(E164,E166)</f>
@@ -7007,7 +7076,7 @@
         <v>2568.59</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>138</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -7027,7 +7096,7 @@
         <v>2574.83</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>139</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -7047,7 +7116,7 @@
         <v>2499.33</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>140</v>
+        <v>729</v>
       </c>
       <c r="G167" s="13">
         <f>AVERAGE(E168:E169)</f>
@@ -7081,7 +7150,7 @@
         <v>2510.73</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>141</v>
+        <v>730</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -7101,7 +7170,7 @@
         <v>2506.13</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>155</v>
+        <v>731</v>
       </c>
     </row>
     <row r="170" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -7121,7 +7190,7 @@
         <v>2464.9499999999998</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>142</v>
+        <v>732</v>
       </c>
       <c r="G170" s="13">
         <f>AVERAGE(E170:E171)</f>
@@ -7155,7 +7224,7 @@
         <v>2468.6999999999998</v>
       </c>
       <c r="F171" s="27" t="s">
-        <v>143</v>
+        <v>733</v>
       </c>
       <c r="G171" s="29"/>
       <c r="H171" s="29"/>
@@ -7180,7 +7249,7 @@
         <v>2431.39</v>
       </c>
       <c r="F172" s="27" t="s">
-        <v>151</v>
+        <v>734</v>
       </c>
       <c r="G172" s="29"/>
       <c r="H172" s="29"/>
@@ -7205,7 +7274,7 @@
         <v>2513.27</v>
       </c>
       <c r="F173" s="27" t="s">
-        <v>144</v>
+        <v>735</v>
       </c>
       <c r="G173" s="13">
         <f>AVERAGE(E174,E175)</f>
@@ -7239,7 +7308,7 @@
         <v>2480.12</v>
       </c>
       <c r="F174" s="23" t="s">
-        <v>145</v>
+        <v>736</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -7264,7 +7333,7 @@
         <v>2479.15</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>157</v>
+        <v>737</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -7284,7 +7353,7 @@
         <v>2554.25</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>147</v>
+        <v>738</v>
       </c>
       <c r="G176" s="13">
         <f>AVERAGE(E177:E178)</f>
@@ -7319,7 +7388,7 @@
         <v>2572.44</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>149</v>
+        <v>739</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -7339,7 +7408,7 @@
         <v>2566.77</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>156</v>
+        <v>740</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -7441,19 +7510,19 @@
         <v>153</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H182" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="G182" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H182" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K182" s="13">
+        <v>999999999</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -7473,7 +7542,7 @@
         <v>153</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -7493,7 +7562,7 @@
         <v>153</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -7513,7 +7582,7 @@
         <v>2615.17</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G185" s="13">
         <f>AVERAGE(E187:E188)</f>
@@ -7545,7 +7614,7 @@
         <v>2627.78</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -7565,7 +7634,7 @@
         <v>2582.0700000000002</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -7585,7 +7654,7 @@
         <v>2586.8000000000002</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -7605,7 +7674,7 @@
         <v>2619.5100000000002</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G189" s="13">
         <f>AVERAGE(E190:E191)</f>
@@ -7637,7 +7706,7 @@
         <v>2569.2199999999998</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -7657,7 +7726,7 @@
         <v>2565.69</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -7677,7 +7746,7 @@
         <v>2591.6</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G192" s="13">
         <f>AVERAGE(E192,E194)</f>
@@ -7709,7 +7778,7 @@
         <v>2584.85</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -7729,7 +7798,7 @@
         <v>2592.6799999999998</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -7749,7 +7818,7 @@
         <v>2607.3000000000002</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G195" s="13">
         <f>AVERAGE(E195,E197)</f>
@@ -7781,7 +7850,7 @@
         <v>2591.3200000000002</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -7801,7 +7870,7 @@
         <v>2600.3000000000002</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -7821,19 +7890,19 @@
         <v>153</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K198" s="5" t="s">
-        <v>153</v>
+        <v>169</v>
+      </c>
+      <c r="G198" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H198" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K198" s="13">
+        <v>999999999</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -7853,7 +7922,7 @@
         <v>153</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -7873,7 +7942,7 @@
         <v>153</v>
       </c>
       <c r="F200" s="32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -7893,7 +7962,7 @@
         <v>2570.9</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G201" s="13">
         <f>AVERAGE(E201:E202)</f>
@@ -7925,7 +7994,7 @@
         <v>2575.89</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -7945,7 +8014,7 @@
         <v>2586.64</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G203" s="13">
         <f>AVERAGE(E205:E206)</f>
@@ -7977,7 +8046,7 @@
         <v>2576.13</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -7997,7 +8066,7 @@
         <v>2561.21</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -8017,7 +8086,7 @@
         <v>2561.58</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J206" s="5"/>
     </row>
@@ -8120,19 +8189,19 @@
         <v>153</v>
       </c>
       <c r="F210" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H210" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>153</v>
+        <v>228</v>
+      </c>
+      <c r="G210" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H210" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K210" s="13">
+        <v>999999999</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -8152,7 +8221,7 @@
         <v>153</v>
       </c>
       <c r="F211" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -8177,7 +8246,7 @@
         <v>153</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -8202,7 +8271,7 @@
         <v>2568.9899999999998</v>
       </c>
       <c r="F213" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G213" s="13">
         <f>AVERAGE(E213:E214)</f>
@@ -8234,7 +8303,7 @@
         <v>2569.14</v>
       </c>
       <c r="F214" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -8254,7 +8323,7 @@
         <v>2573.29</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G215" s="13">
         <f>AVERAGE(E216:E217)</f>
@@ -8286,7 +8355,7 @@
         <v>2564.59</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -8306,7 +8375,7 @@
         <v>2572.19</v>
       </c>
       <c r="F217" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -8326,7 +8395,7 @@
         <v>2569.29</v>
       </c>
       <c r="F218" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G218" s="13">
         <f>AVERAGE(E218:E219)</f>
@@ -8358,7 +8427,7 @@
         <v>2570.98</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -8378,7 +8447,7 @@
         <v>2578.58</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G220" s="13">
         <f>AVERAGE(E221:E222)</f>
@@ -8410,7 +8479,7 @@
         <v>2562.52</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -8430,7 +8499,7 @@
         <v>2565.36</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -8450,7 +8519,7 @@
         <v>2587.7399999999998</v>
       </c>
       <c r="F223" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G223" s="13">
         <f>AVERAGE(E223,E225)</f>
@@ -8482,7 +8551,7 @@
         <v>2575.98</v>
       </c>
       <c r="F224" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -8502,7 +8571,7 @@
         <v>2585.2600000000002</v>
       </c>
       <c r="F225" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -8522,7 +8591,7 @@
         <v>2571.42</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G226" s="13">
         <f>AVERAGE(E226:E227)</f>
@@ -8554,7 +8623,7 @@
         <v>2574.1</v>
       </c>
       <c r="F227" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -8574,7 +8643,7 @@
         <v>2589.33</v>
       </c>
       <c r="F228" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G228" s="13">
         <f>AVERAGE(E229:E230)</f>
@@ -8606,7 +8675,7 @@
         <v>2604.0500000000002</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -8626,7 +8695,7 @@
         <v>2611</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -8646,7 +8715,7 @@
         <v>2587.63</v>
       </c>
       <c r="F231" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G231" s="13">
         <f>AVERAGE(E231:E232)</f>
@@ -8678,7 +8747,7 @@
         <v>2583.2600000000002</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -8698,7 +8767,7 @@
         <v>3171.62</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G233" s="13">
         <f>AVERAGE(E234,E236)</f>
@@ -8730,7 +8799,7 @@
         <v>2583.4899999999998</v>
       </c>
       <c r="F234" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -8750,7 +8819,7 @@
         <v>2598.48</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -8770,7 +8839,7 @@
         <v>2583.36</v>
       </c>
       <c r="F236" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -8790,7 +8859,7 @@
         <v>2576</v>
       </c>
       <c r="F237" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G237" s="13">
         <f>AVERAGE(E237:E238)</f>
@@ -8822,7 +8891,7 @@
         <v>2580.83</v>
       </c>
       <c r="F238" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -8842,19 +8911,19 @@
         <v>153</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K239" s="5" t="s">
-        <v>153</v>
+        <v>222</v>
+      </c>
+      <c r="G239" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H239" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K239" s="13">
+        <v>999999999</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -8874,7 +8943,7 @@
         <v>153</v>
       </c>
       <c r="F240" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -8899,7 +8968,7 @@
         <v>153</v>
       </c>
       <c r="F241" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -8924,7 +8993,7 @@
         <v>2593.9299999999998</v>
       </c>
       <c r="F242" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G242" s="13">
         <f>AVERAGE(E242:E243)</f>
@@ -8956,7 +9025,7 @@
         <v>2589.0500000000002</v>
       </c>
       <c r="F243" s="32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -8976,19 +9045,19 @@
         <v>153</v>
       </c>
       <c r="F244" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K244" s="5" t="s">
-        <v>153</v>
+        <v>207</v>
+      </c>
+      <c r="G244" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H244" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K244" s="13">
+        <v>999999999</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -9008,7 +9077,7 @@
         <v>153</v>
       </c>
       <c r="F245" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -9028,7 +9097,7 @@
         <v>153</v>
       </c>
       <c r="F246" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -9130,7 +9199,7 @@
         <v>2690.49</v>
       </c>
       <c r="F250" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G250" s="13">
         <f>AVERAGE(E250:E251)</f>
@@ -9162,7 +9231,7 @@
         <v>2691.29</v>
       </c>
       <c r="F251" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -9182,7 +9251,7 @@
         <v>2851.54</v>
       </c>
       <c r="F252" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G252" s="13">
         <f>AVERAGE(E253:E254)</f>
@@ -9214,7 +9283,7 @@
         <v>2837.88</v>
       </c>
       <c r="F253" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -9234,7 +9303,7 @@
         <v>2831.75</v>
       </c>
       <c r="F254" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -9254,7 +9323,7 @@
         <v>2690.59</v>
       </c>
       <c r="F255" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G255" s="13">
         <f>AVERAGE(E256:E257)</f>
@@ -9286,7 +9355,7 @@
         <v>2702.43</v>
       </c>
       <c r="F256" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
@@ -9306,7 +9375,7 @@
         <v>2706.45</v>
       </c>
       <c r="F257" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -9326,7 +9395,7 @@
         <v>2605.6</v>
       </c>
       <c r="F258" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G258" s="13">
         <f>AVERAGE(E258,E260)</f>
@@ -9358,7 +9427,7 @@
         <v>2623.87</v>
       </c>
       <c r="F259" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
@@ -9378,7 +9447,7 @@
         <v>2600.4299999999998</v>
       </c>
       <c r="F260" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
@@ -9398,7 +9467,7 @@
         <v>3045.93</v>
       </c>
       <c r="F261" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G261" s="13">
         <f>AVERAGE(E262:E263)</f>
@@ -9430,7 +9499,7 @@
         <v>2972.09</v>
       </c>
       <c r="F262" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
@@ -9450,7 +9519,7 @@
         <v>2968.82</v>
       </c>
       <c r="F263" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
@@ -9470,7 +9539,7 @@
         <v>2879.28</v>
       </c>
       <c r="F264" s="32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G264" s="13">
         <f>AVERAGE(E264:E265)</f>
@@ -9502,7 +9571,7 @@
         <v>2880.89</v>
       </c>
       <c r="F265" s="32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -9522,7 +9591,7 @@
         <v>2725.15</v>
       </c>
       <c r="F266" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G266" s="13">
         <f>AVERAGE(E267,E268)</f>
@@ -9554,7 +9623,7 @@
         <v>2882.71</v>
       </c>
       <c r="F267" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -9574,7 +9643,7 @@
         <v>2889.65</v>
       </c>
       <c r="F268" s="32" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -9594,7 +9663,7 @@
         <v>2879.81</v>
       </c>
       <c r="F269" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G269" s="13">
         <f>AVERAGE(E269:E270)</f>
@@ -9626,7 +9695,7 @@
         <v>2875.51</v>
       </c>
       <c r="F270" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -9646,7 +9715,7 @@
         <v>2876.26</v>
       </c>
       <c r="F271" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G271" s="13">
         <f>AVERAGE(E271:E272)</f>
@@ -9678,7 +9747,7 @@
         <v>2876.68</v>
       </c>
       <c r="F272" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -9698,7 +9767,7 @@
         <v>2687.18</v>
       </c>
       <c r="F273" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G273" s="13">
         <f>AVERAGE(E274:E275)</f>
@@ -9730,7 +9799,7 @@
         <v>2678.4</v>
       </c>
       <c r="F274" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -9750,7 +9819,7 @@
         <v>2677.62</v>
       </c>
       <c r="F275" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -9770,7 +9839,7 @@
         <v>2825.04</v>
       </c>
       <c r="F276" s="32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G276" s="13">
         <f>AVERAGE(E277:E278)</f>
@@ -9802,7 +9871,7 @@
         <v>2799.75</v>
       </c>
       <c r="F277" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -9822,7 +9891,7 @@
         <v>2804.7</v>
       </c>
       <c r="F278" s="33" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -9842,19 +9911,19 @@
         <v>153</v>
       </c>
       <c r="F279" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="G279" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H279" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="K279" s="5" t="s">
-        <v>153</v>
+        <v>244</v>
+      </c>
+      <c r="G279" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H279" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K279" s="13">
+        <v>999999999</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -9874,7 +9943,7 @@
         <v>153</v>
       </c>
       <c r="F280" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -9894,7 +9963,7 @@
         <v>153</v>
       </c>
       <c r="F281" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -9914,7 +9983,7 @@
         <v>2648.96</v>
       </c>
       <c r="F282" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G282" s="13">
         <f>AVERAGE(E283:E284)</f>
@@ -9946,7 +10015,7 @@
         <v>2672.88</v>
       </c>
       <c r="F283" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -9966,7 +10035,7 @@
         <v>2678.51</v>
       </c>
       <c r="F284" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -10068,7 +10137,7 @@
         <v>2675.99</v>
       </c>
       <c r="F288" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G288" s="13">
         <f>AVERAGE(E288,E290)</f>
@@ -10100,7 +10169,7 @@
         <v>2689.84</v>
       </c>
       <c r="F289" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -10120,7 +10189,7 @@
         <v>2681.44</v>
       </c>
       <c r="F290" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -10140,7 +10209,7 @@
         <v>2763.97</v>
       </c>
       <c r="F291" s="32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G291" s="13">
         <f>AVERAGE(E291,E293)</f>
@@ -10172,7 +10241,7 @@
         <v>2775.93</v>
       </c>
       <c r="F292" s="32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -10192,7 +10261,7 @@
         <v>2763.07</v>
       </c>
       <c r="F293" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -10212,7 +10281,7 @@
         <v>2677.87</v>
       </c>
       <c r="F294" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G294" s="13">
         <f>AVERAGE(E295:E296)</f>
@@ -10244,7 +10313,7 @@
         <v>2660.78</v>
       </c>
       <c r="F295" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -10264,7 +10333,7 @@
         <v>2660.14</v>
       </c>
       <c r="F296" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
@@ -10284,7 +10353,7 @@
         <v>2519.1799999999998</v>
       </c>
       <c r="F297" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G297" s="13">
         <f>AVERAGE(E298:E299)</f>
@@ -10316,7 +10385,7 @@
         <v>2502.86</v>
       </c>
       <c r="F298" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
@@ -10336,7 +10405,7 @@
         <v>2502.4699999999998</v>
       </c>
       <c r="F299" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
@@ -10356,7 +10425,7 @@
         <v>2568.89</v>
       </c>
       <c r="F300" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G300" s="13">
         <f>AVERAGE(E301:E302)</f>
@@ -10388,7 +10457,7 @@
         <v>2555.4899999999998</v>
       </c>
       <c r="F301" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
@@ -10408,7 +10477,7 @@
         <v>2556.7800000000002</v>
       </c>
       <c r="F302" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
@@ -10428,7 +10497,7 @@
         <v>2560.79</v>
       </c>
       <c r="F303" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G303" s="13">
         <f>AVERAGE(E304,E305)</f>
@@ -10460,7 +10529,7 @@
         <v>2545.98</v>
       </c>
       <c r="F304" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
@@ -10480,7 +10549,7 @@
         <v>2548.64</v>
       </c>
       <c r="F305" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
@@ -10500,7 +10569,7 @@
         <v>2585.0100000000002</v>
       </c>
       <c r="F306" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G306" s="13">
         <f>AVERAGE(E307:E308)</f>
@@ -10532,7 +10601,7 @@
         <v>2603.9899999999998</v>
       </c>
       <c r="F307" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
@@ -10552,7 +10621,7 @@
         <v>2604.08</v>
       </c>
       <c r="F308" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
@@ -10572,7 +10641,7 @@
         <v>2658.15</v>
       </c>
       <c r="F309" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G309" s="13">
         <f>AVERAGE(E310:E311)</f>
@@ -10604,7 +10673,7 @@
         <v>2645.19</v>
       </c>
       <c r="F310" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
@@ -10624,7 +10693,7 @@
         <v>2648.53</v>
       </c>
       <c r="F311" s="32" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
@@ -10644,7 +10713,7 @@
         <v>2614.2199999999998</v>
       </c>
       <c r="F312" s="32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G312" s="13">
         <f>AVERAGE(E312:E313)</f>
@@ -10676,7 +10745,7 @@
         <v>2610.52</v>
       </c>
       <c r="F313" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
@@ -10696,7 +10765,7 @@
         <v>2530.13</v>
       </c>
       <c r="F314" s="32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G314" s="13">
         <f>AVERAGE(E314:E315)</f>
@@ -10728,7 +10797,7 @@
         <v>2526.5700000000002</v>
       </c>
       <c r="F315" s="32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
@@ -10748,7 +10817,7 @@
         <v>2623.15</v>
       </c>
       <c r="F316" s="32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G316" s="13">
         <f>AVERAGE(E316:E317)</f>
@@ -10780,7 +10849,7 @@
         <v>2621.17</v>
       </c>
       <c r="F317" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -10800,7 +10869,7 @@
         <v>2585.75</v>
       </c>
       <c r="F318" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G318" s="13">
         <f>AVERAGE(E319:E320)</f>
@@ -10832,7 +10901,7 @@
         <v>2572.38</v>
       </c>
       <c r="F319" s="32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
@@ -10852,7 +10921,7 @@
         <v>2578.38</v>
       </c>
       <c r="F320" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -10954,7 +11023,7 @@
         <v>2601.0100000000002</v>
       </c>
       <c r="F324" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G324" s="13">
         <f>AVERAGE(E324:E325)</f>
@@ -10986,7 +11055,7 @@
         <v>2602.34</v>
       </c>
       <c r="F325" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -11006,7 +11075,7 @@
         <v>2534.11</v>
       </c>
       <c r="F326" s="32" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G326" s="18">
         <f>AVERAGE(E327:E328)</f>
@@ -11038,7 +11107,7 @@
         <v>2582.9499999999998</v>
       </c>
       <c r="F327" s="32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -11058,7 +11127,7 @@
         <v>2582.8200000000002</v>
       </c>
       <c r="F328" s="32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -11078,7 +11147,7 @@
         <v>2562.94</v>
       </c>
       <c r="F329" s="32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G329" s="13">
         <f>AVERAGE(E329:E330)</f>
@@ -11110,7 +11179,7 @@
         <v>2547.29</v>
       </c>
       <c r="F330" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -11130,7 +11199,7 @@
         <v>2567.14</v>
       </c>
       <c r="F331" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -11150,7 +11219,7 @@
         <v>2589.9299999999998</v>
       </c>
       <c r="F332" s="32" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G332" s="13">
         <f>AVERAGE(E333:E334)</f>
@@ -11182,7 +11251,7 @@
         <v>2581.4299999999998</v>
       </c>
       <c r="F333" s="32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -11202,7 +11271,7 @@
         <v>2579.48</v>
       </c>
       <c r="F334" s="32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -11222,7 +11291,7 @@
         <v>2583.7800000000002</v>
       </c>
       <c r="F335" s="32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G335" s="13">
         <f>AVERAGE(E335:E336)</f>
@@ -11254,7 +11323,7 @@
         <v>2579.42</v>
       </c>
       <c r="F336" s="32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -11274,7 +11343,7 @@
         <v>2526.5100000000002</v>
       </c>
       <c r="F337" s="32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G337" s="13">
         <f>AVERAGE(E337:E338)</f>
@@ -11306,7 +11375,7 @@
         <v>2522.0300000000002</v>
       </c>
       <c r="F338" s="32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -11326,7 +11395,7 @@
         <v>2528.85</v>
       </c>
       <c r="F339" s="32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G339" s="13">
         <f>AVERAGE(E339,E341)</f>
@@ -11358,7 +11427,7 @@
         <v>2487.25</v>
       </c>
       <c r="F340" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -11378,7 +11447,7 @@
         <v>2526.13</v>
       </c>
       <c r="F341" s="32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
@@ -11398,7 +11467,7 @@
         <v>2442.25</v>
       </c>
       <c r="F342" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G342" s="13">
         <f>AVERAGE(E342:E343)</f>
@@ -11430,7 +11499,7 @@
         <v>2445.13</v>
       </c>
       <c r="F343" s="32" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
@@ -11450,7 +11519,7 @@
         <v>2465.79</v>
       </c>
       <c r="F344" s="32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G344" s="13">
         <f>AVERAGE(E344,E346)</f>
@@ -11482,7 +11551,7 @@
         <v>2473.2600000000002</v>
       </c>
       <c r="F345" s="32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
@@ -11502,7 +11571,7 @@
         <v>2462.3000000000002</v>
       </c>
       <c r="F346" s="32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
@@ -11522,7 +11591,7 @@
         <v>2592.0100000000002</v>
       </c>
       <c r="F347" s="32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G347" s="13">
         <f>AVERAGE(E348,E349)</f>
@@ -11554,7 +11623,7 @@
         <v>2477.5100000000002</v>
       </c>
       <c r="F348" s="32" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
@@ -11574,7 +11643,7 @@
         <v>2482.09</v>
       </c>
       <c r="F349" s="32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
@@ -11594,7 +11663,7 @@
         <v>2471.12</v>
       </c>
       <c r="F350" s="32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G350" s="13">
         <f>AVERAGE(E350,E352)</f>
@@ -11626,7 +11695,7 @@
         <v>2442.16</v>
       </c>
       <c r="F351" s="32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
@@ -11646,7 +11715,7 @@
         <v>2475.29</v>
       </c>
       <c r="F352" s="33" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
@@ -11666,7 +11735,7 @@
         <v>2497.66</v>
       </c>
       <c r="F353" s="32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G353" s="13">
         <f>AVERAGE(E354:E355)</f>
@@ -11698,7 +11767,7 @@
         <v>2474.7800000000002</v>
       </c>
       <c r="F354" s="32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
@@ -11718,7 +11787,7 @@
         <v>2477.04</v>
       </c>
       <c r="F355" s="32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
@@ -11738,7 +11807,7 @@
         <v>2478.58</v>
       </c>
       <c r="F356" s="32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G356" s="13">
         <f>AVERAGE(E356,E358)</f>
@@ -11770,7 +11839,7 @@
         <v>2462.1799999999998</v>
       </c>
       <c r="F357" s="32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
@@ -11790,7 +11859,7 @@
         <v>2483.67</v>
       </c>
       <c r="F358" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
@@ -11810,7 +11879,7 @@
         <v>2419.6799999999998</v>
       </c>
       <c r="F359" s="32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G359" s="13">
         <f>AVERAGE(E359:E360)</f>
@@ -11842,7 +11911,7 @@
         <v>2424.2399999999998</v>
       </c>
       <c r="F360" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
@@ -11862,7 +11931,7 @@
         <v>2487.91</v>
       </c>
       <c r="F361" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G361" s="13">
         <f>AVERAGE(E361,E363)</f>
@@ -11894,7 +11963,7 @@
         <v>2498.6999999999998</v>
       </c>
       <c r="F362" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
@@ -11914,7 +11983,7 @@
         <v>2490.04</v>
       </c>
       <c r="F363" s="32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
@@ -11934,7 +12003,7 @@
         <v>2472.96</v>
       </c>
       <c r="F364" s="32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G364" s="13">
         <f>AVERAGE(E365:E366)</f>
@@ -11966,7 +12035,7 @@
         <v>2463.35</v>
       </c>
       <c r="F365" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
@@ -11986,7 +12055,7 @@
         <v>2467.11</v>
       </c>
       <c r="F366" s="32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
@@ -12006,7 +12075,7 @@
         <v>2557.1799999999998</v>
       </c>
       <c r="F367" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G367" s="13">
         <f>AVERAGE(E367,E369)</f>
@@ -12038,7 +12107,7 @@
         <v>2569.42</v>
       </c>
       <c r="F368" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -12058,7 +12127,7 @@
         <v>2551.59</v>
       </c>
       <c r="F369" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -12078,7 +12147,7 @@
         <v>2526.6799999999998</v>
       </c>
       <c r="F370" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G370" s="13">
         <f>AVERAGE(E370:E371)</f>
@@ -12110,7 +12179,7 @@
         <v>2530.37</v>
       </c>
       <c r="F371" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -12130,7 +12199,7 @@
         <v>2551.3000000000002</v>
       </c>
       <c r="F372" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G372" s="13">
         <f>AVERAGE(E373:E374)</f>
@@ -12162,7 +12231,7 @@
         <v>2559.5300000000002</v>
       </c>
       <c r="F373" s="32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -12182,7 +12251,7 @@
         <v>2561.94</v>
       </c>
       <c r="F374" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -12202,7 +12271,7 @@
         <v>2550.35</v>
       </c>
       <c r="F375" s="32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G375" s="13">
         <f>AVERAGE(E376:E376)</f>
@@ -12234,7 +12303,7 @@
         <v>2547.5500000000002</v>
       </c>
       <c r="F376" s="32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -12254,7 +12323,7 @@
         <v>153</v>
       </c>
       <c r="F377" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G377" s="13">
         <f>AVERAGE(E378:E379)</f>
@@ -12286,7 +12355,7 @@
         <v>2529.86</v>
       </c>
       <c r="F378" s="32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -12306,7 +12375,7 @@
         <v>2531.6799999999998</v>
       </c>
       <c r="F379" s="32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -12326,7 +12395,7 @@
         <v>2544.84</v>
       </c>
       <c r="F380" s="32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G380" s="13">
         <f>AVERAGE(E380,E382)</f>
@@ -12358,7 +12427,7 @@
         <v>2560.81</v>
       </c>
       <c r="F381" s="32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -12378,7 +12447,7 @@
         <v>2548.98</v>
       </c>
       <c r="F382" s="32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -12480,7 +12549,7 @@
         <v>2556.63</v>
       </c>
       <c r="F386" s="32" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G386" s="13">
         <f>AVERAGE(E386:E387)</f>
@@ -12512,7 +12581,7 @@
         <v>2557.13</v>
       </c>
       <c r="F387" s="32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
@@ -12532,7 +12601,7 @@
         <v>2576.39</v>
       </c>
       <c r="F388" s="32" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G388" s="13">
         <f>AVERAGE(E388:E389)</f>
@@ -12564,7 +12633,7 @@
         <v>2574.71</v>
       </c>
       <c r="F389" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
@@ -12584,7 +12653,7 @@
         <v>2584.3000000000002</v>
       </c>
       <c r="F390" s="32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G390" s="13">
         <f>AVERAGE(E390:E391)</f>
@@ -12616,7 +12685,7 @@
         <v>2589.69</v>
       </c>
       <c r="F391" s="32" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -12636,7 +12705,7 @@
         <v>2580.5300000000002</v>
       </c>
       <c r="F392" s="32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G392" s="13">
         <f>AVERAGE(E393:E394)</f>
@@ -12668,7 +12737,7 @@
         <v>2595.87</v>
       </c>
       <c r="F393" s="32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
@@ -12688,7 +12757,7 @@
         <v>2589.87</v>
       </c>
       <c r="F394" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
@@ -12708,7 +12777,7 @@
         <v>2539.8200000000002</v>
       </c>
       <c r="F395" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G395" s="13">
         <f>AVERAGE(E396:E397)</f>
@@ -12740,7 +12809,7 @@
         <v>2555.23</v>
       </c>
       <c r="F396" s="32" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
@@ -12760,7 +12829,7 @@
         <v>2556.98</v>
       </c>
       <c r="F397" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
@@ -12780,7 +12849,7 @@
         <v>2573.62</v>
       </c>
       <c r="F398" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G398" s="13">
         <f>AVERAGE(E398:E399)</f>
@@ -12812,7 +12881,7 @@
         <v>2569.81</v>
       </c>
       <c r="F399" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
@@ -12832,7 +12901,7 @@
         <v>2594.35</v>
       </c>
       <c r="F400" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G400" s="13">
         <f>AVERAGE(E400:E401)</f>
@@ -12864,7 +12933,7 @@
         <v>2589.27</v>
       </c>
       <c r="F401" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -12884,7 +12953,7 @@
         <v>2514.4699999999998</v>
       </c>
       <c r="F402" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G402" s="13">
         <f>AVERAGE(E402:E403)</f>
@@ -12916,7 +12985,7 @@
         <v>2518.17</v>
       </c>
       <c r="F403" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -12936,7 +13005,7 @@
         <v>2490.7600000000002</v>
       </c>
       <c r="F404" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G404" s="13">
         <f>AVERAGE(E404:E405)</f>
@@ -12968,7 +13037,7 @@
         <v>2486.33</v>
       </c>
       <c r="F405" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -12988,7 +13057,7 @@
         <v>2513.06</v>
       </c>
       <c r="F406" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G406" s="13">
         <f>AVERAGE(E406,E408)</f>
@@ -13020,7 +13089,7 @@
         <v>2533.81</v>
       </c>
       <c r="F407" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -13040,7 +13109,7 @@
         <v>2510.9</v>
       </c>
       <c r="F408" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -13060,7 +13129,7 @@
         <v>2499.86</v>
       </c>
       <c r="F409" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G409" s="13">
         <f>AVERAGE(E409:E410)</f>
@@ -13092,7 +13161,7 @@
         <v>2495.7800000000002</v>
       </c>
       <c r="F410" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -13112,7 +13181,7 @@
         <v>2479.17</v>
       </c>
       <c r="F411" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G411" s="13">
         <f>AVERAGE(E411,E413)</f>
@@ -13144,7 +13213,7 @@
         <v>2468.9299999999998</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -13164,7 +13233,7 @@
         <v>2478.4</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -13184,7 +13253,7 @@
         <v>2491.2600000000002</v>
       </c>
       <c r="F414" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G414" s="13">
         <f>AVERAGE(E414:E415)</f>
@@ -13216,7 +13285,7 @@
         <v>2487.92</v>
       </c>
       <c r="F415" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -13298,7 +13367,7 @@
         <v>2515.06</v>
       </c>
       <c r="F418" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G418" s="13">
         <f>AVERAGE(E418:E419)</f>
@@ -13330,7 +13399,7 @@
         <v>2518.9299999999998</v>
       </c>
       <c r="F419" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
@@ -13350,7 +13419,7 @@
         <v>2466.9699999999998</v>
       </c>
       <c r="F420" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G420" s="13">
         <f>AVERAGE(E421:E421)</f>
@@ -13382,7 +13451,7 @@
         <v>2462.84</v>
       </c>
       <c r="F421" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
@@ -13402,7 +13471,7 @@
         <v>2482.7199999999998</v>
       </c>
       <c r="F422" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G422" s="13">
         <f>AVERAGE(E423,E424)</f>
@@ -13434,7 +13503,7 @@
         <v>2469.6999999999998</v>
       </c>
       <c r="F423" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
@@ -13454,7 +13523,7 @@
         <v>2468.38</v>
       </c>
       <c r="F424" s="32" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
@@ -13474,7 +13543,7 @@
         <v>2531.21</v>
       </c>
       <c r="F425" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G425" s="13">
         <f>AVERAGE(E425:E426)</f>
@@ -13506,7 +13575,7 @@
         <v>2529.19</v>
       </c>
       <c r="F426" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
@@ -13526,7 +13595,7 @@
         <v>2532.96</v>
       </c>
       <c r="F427" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G427" s="13">
         <f>AVERAGE(E428:E429)</f>
@@ -13558,7 +13627,7 @@
         <v>2523.61</v>
       </c>
       <c r="F428" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
@@ -13578,7 +13647,7 @@
         <v>2524.71</v>
       </c>
       <c r="F429" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
@@ -13598,7 +13667,7 @@
         <v>2520.41</v>
       </c>
       <c r="F430" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G430" s="13">
         <f>AVERAGE(E431:E432)</f>
@@ -13630,7 +13699,7 @@
         <v>2535.83</v>
       </c>
       <c r="F431" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
@@ -13650,7 +13719,7 @@
         <v>2530.84</v>
       </c>
       <c r="F432" s="32" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
@@ -13670,7 +13739,7 @@
         <v>2534.2199999999998</v>
       </c>
       <c r="F433" s="32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G433" s="13">
         <f>AVERAGE(E434:E435)</f>
@@ -13702,7 +13771,7 @@
         <v>2542.75</v>
       </c>
       <c r="F434" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
@@ -13722,7 +13791,7 @@
         <v>2547.1</v>
       </c>
       <c r="F435" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
@@ -13742,7 +13811,7 @@
         <v>2569.34</v>
       </c>
       <c r="F436" s="32" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G436" s="13">
         <f>AVERAGE(E436:E437)</f>
@@ -13774,7 +13843,7 @@
         <v>2563.58</v>
       </c>
       <c r="F437" s="32" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
@@ -13794,7 +13863,7 @@
         <v>2561.7600000000002</v>
       </c>
       <c r="F438" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G438" s="13">
         <f>AVERAGE(E438,E440)</f>
@@ -13826,7 +13895,7 @@
         <v>2571.4699999999998</v>
       </c>
       <c r="F439" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
@@ -13846,7 +13915,7 @@
         <v>2558.58</v>
       </c>
       <c r="F440" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
@@ -13948,7 +14017,7 @@
         <v>2797.88</v>
       </c>
       <c r="F444" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G444" s="13">
         <f>AVERAGE(E444,E446)</f>
@@ -13980,7 +14049,7 @@
         <v>2892.7</v>
       </c>
       <c r="F445" s="16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
@@ -14000,7 +14069,7 @@
         <v>2791.76</v>
       </c>
       <c r="F446" s="16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
@@ -14020,7 +14089,7 @@
         <v>2776.09</v>
       </c>
       <c r="F447" s="16" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G447" s="13">
         <f>AVERAGE(E448,E449)</f>
@@ -14052,7 +14121,7 @@
         <v>2789.47</v>
       </c>
       <c r="F448" s="16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
@@ -14072,7 +14141,7 @@
         <v>2795.12</v>
       </c>
       <c r="F449" s="16" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
@@ -14092,7 +14161,7 @@
         <v>2738.11</v>
       </c>
       <c r="F450" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G450" s="13">
         <f>AVERAGE(E451,E450)</f>
@@ -14124,7 +14193,7 @@
         <v>2734.79</v>
       </c>
       <c r="F451" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
@@ -14144,7 +14213,7 @@
         <v>2773.66</v>
       </c>
       <c r="F452" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G452" s="13">
         <f>AVERAGE(E452:E453)</f>
@@ -14176,7 +14245,7 @@
         <v>2777.75</v>
       </c>
       <c r="F453" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
@@ -14196,7 +14265,7 @@
         <v>2759.05</v>
       </c>
       <c r="F454" s="16" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G454" s="13">
         <f>AVERAGE(E455,E456)</f>
@@ -14228,7 +14297,7 @@
         <v>2764.51</v>
       </c>
       <c r="F455" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
@@ -14248,7 +14317,7 @@
         <v>2767.18</v>
       </c>
       <c r="F456" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
@@ -14268,7 +14337,7 @@
         <v>2799.11</v>
       </c>
       <c r="F457" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G457" s="13">
         <f>AVERAGE(E457,E459)</f>
@@ -14300,7 +14369,7 @@
         <v>2776.97</v>
       </c>
       <c r="F458" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
@@ -14320,7 +14389,7 @@
         <v>2792.59</v>
       </c>
       <c r="F459" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
@@ -14340,7 +14409,7 @@
         <v>2820.28</v>
       </c>
       <c r="F460" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G460" s="13">
         <f>AVERAGE(E460,E462)</f>
@@ -14372,7 +14441,7 @@
         <v>2805.14</v>
       </c>
       <c r="F461" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
@@ -14392,7 +14461,7 @@
         <v>2813.21</v>
       </c>
       <c r="F462" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
@@ -14412,7 +14481,7 @@
         <v>2834.96</v>
       </c>
       <c r="F463" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G463" s="13">
         <f>AVERAGE(E463,E464,E465)</f>
@@ -14444,7 +14513,7 @@
         <v>2830.66</v>
       </c>
       <c r="F464" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
@@ -14464,7 +14533,7 @@
         <v>2839.55</v>
       </c>
       <c r="F465" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
@@ -14484,7 +14553,7 @@
         <v>2817.37</v>
       </c>
       <c r="F466" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G466" s="13">
         <f>AVERAGE(E466,E468)</f>
@@ -14516,7 +14585,7 @@
         <v>2802.53</v>
       </c>
       <c r="F467" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
@@ -14536,7 +14605,7 @@
         <v>2819.47</v>
       </c>
       <c r="F468" s="16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
@@ -14556,7 +14625,7 @@
         <v>2796.16</v>
       </c>
       <c r="F469" s="16" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G469" s="13">
         <f>AVERAGE(E469,E471)</f>
@@ -14588,7 +14657,7 @@
         <v>2788.74</v>
       </c>
       <c r="F470" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
@@ -14608,7 +14677,7 @@
         <v>2798.25</v>
       </c>
       <c r="F471" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
@@ -14710,7 +14779,7 @@
         <v>2724.69</v>
       </c>
       <c r="F475" s="16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G475" s="13">
         <f>AVERAGE(E475:E476)</f>
@@ -14742,7 +14811,7 @@
         <v>2721.68</v>
       </c>
       <c r="F476" s="16" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
@@ -14762,7 +14831,7 @@
         <v>2703.56</v>
       </c>
       <c r="F477" s="16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G477" s="13">
         <f>AVERAGE(E477,E479)</f>
@@ -14794,7 +14863,7 @@
         <v>2697.86</v>
       </c>
       <c r="F478" s="16" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
@@ -14814,7 +14883,7 @@
         <v>2656.59</v>
       </c>
       <c r="F479" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G479" s="13">
         <f>AVERAGE(E480,E481)</f>
@@ -14846,7 +14915,7 @@
         <v>2647.23</v>
       </c>
       <c r="F480" s="16" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
@@ -14866,7 +14935,7 @@
         <v>2648.39</v>
       </c>
       <c r="F481" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
@@ -14886,7 +14955,7 @@
         <v>2656.91</v>
       </c>
       <c r="F482" s="16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G482" s="13">
         <f>AVERAGE(E482,E483)</f>
@@ -14918,7 +14987,7 @@
         <v>2655.31</v>
       </c>
       <c r="F483" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
@@ -14938,7 +15007,7 @@
         <v>2684.74</v>
       </c>
       <c r="F484" s="16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G484" s="13">
         <f>AVERAGE(E484,E485)</f>
@@ -14970,7 +15039,7 @@
         <v>2683.79</v>
       </c>
       <c r="F485" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
@@ -14990,7 +15059,7 @@
         <v>2735.14</v>
       </c>
       <c r="F486" s="16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G486" s="13">
         <f>AVERAGE(E487,E489)</f>
@@ -15022,7 +15091,7 @@
         <v>2723.29</v>
       </c>
       <c r="F487" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
@@ -15042,12 +15111,12 @@
         <v>2558.9699999999998</v>
       </c>
       <c r="F488" s="16" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B489" s="31">
         <v>45092</v>
@@ -15062,12 +15131,12 @@
         <v>2724.84</v>
       </c>
       <c r="F489" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B490" s="31">
         <v>45092</v>
@@ -15109,7 +15178,7 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B491" s="31">
         <v>45092</v>
@@ -15129,7 +15198,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B492" s="31">
         <v>45092</v>
@@ -15149,7 +15218,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B493" s="31">
         <v>45092</v>
@@ -15164,7 +15233,7 @@
         <v>2646.16</v>
       </c>
       <c r="F493" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G493" s="13">
         <f>AVERAGE(E493:E494)</f>
@@ -15181,7 +15250,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B494" s="31">
         <v>45092</v>
@@ -15196,12 +15265,12 @@
         <v>2650.56</v>
       </c>
       <c r="F494" s="16" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B495" s="31">
         <v>45092</v>
@@ -15216,7 +15285,7 @@
         <v>2665.89</v>
       </c>
       <c r="F495" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
@@ -15236,7 +15305,7 @@
         <v>2623.61</v>
       </c>
       <c r="F496" s="16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G496" s="13">
         <f>AVERAGE(E497:E498)</f>
@@ -15268,7 +15337,7 @@
         <v>2563.8200000000002</v>
       </c>
       <c r="F497" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
@@ -15288,7 +15357,7 @@
         <v>2562.0100000000002</v>
       </c>
       <c r="F498" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
@@ -15308,7 +15377,7 @@
         <v>2596.41</v>
       </c>
       <c r="F499" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G499" s="13">
         <f>AVERAGE(E499:E500)</f>
@@ -15340,7 +15409,7 @@
         <v>2594.8000000000002</v>
       </c>
       <c r="F500" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
@@ -15360,7 +15429,7 @@
         <v>2716.89</v>
       </c>
       <c r="F501" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G501" s="13">
         <f>AVERAGE(E501:E502)</f>
@@ -15392,7 +15461,7 @@
         <v>2713.13</v>
       </c>
       <c r="F502" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
@@ -15471,7 +15540,7 @@
         <v>2667.86</v>
       </c>
       <c r="F505" s="16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G505" s="13">
         <f>AVERAGE(E506:E507)</f>
@@ -15503,7 +15572,7 @@
         <v>2656.65</v>
       </c>
       <c r="F506" s="16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
@@ -15523,7 +15592,7 @@
         <v>2659.43</v>
       </c>
       <c r="F507" s="16" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
@@ -15543,7 +15612,7 @@
         <v>2642.93</v>
       </c>
       <c r="F508" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G508" s="13">
         <f>AVERAGE(E508:E509)</f>
@@ -15575,7 +15644,7 @@
         <v>2637.78</v>
       </c>
       <c r="F509" s="16" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
@@ -15595,7 +15664,7 @@
         <v>2563.23</v>
       </c>
       <c r="F510" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G510" s="13">
         <f>AVERAGE(E510:E511)</f>
@@ -15627,7 +15696,7 @@
         <v>2557.7199999999998</v>
       </c>
       <c r="F511" s="16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
@@ -15647,7 +15716,7 @@
         <v>2567.5</v>
       </c>
       <c r="F512" s="16" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G512" s="13">
         <f>AVERAGE(E512:E513)</f>
@@ -15679,7 +15748,7 @@
         <v>2566.5300000000002</v>
       </c>
       <c r="F513" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
@@ -15699,7 +15768,7 @@
         <v>2517.75</v>
       </c>
       <c r="F514" s="16" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G514" s="13">
         <f>AVERAGE(E514:E515)</f>
@@ -15731,7 +15800,7 @@
         <v>2517.06</v>
       </c>
       <c r="F515" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
@@ -15751,16 +15820,16 @@
         <v>153</v>
       </c>
       <c r="F516" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="G516" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H516" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="K516" s="5" t="s">
-        <v>153</v>
+        <v>444</v>
+      </c>
+      <c r="G516" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="H516" s="13">
+        <v>999999999</v>
+      </c>
+      <c r="K516" s="13">
+        <v>999999999</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
@@ -15780,7 +15849,7 @@
         <v>153</v>
       </c>
       <c r="F517" s="16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
@@ -15800,7 +15869,7 @@
         <v>153</v>
       </c>
       <c r="F518" s="16" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
@@ -15820,7 +15889,7 @@
         <v>2507.29</v>
       </c>
       <c r="F519" s="16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G519" s="13">
         <f>AVERAGE(E519,E521)</f>
@@ -15852,7 +15921,7 @@
         <v>2496.6</v>
       </c>
       <c r="F520" s="16" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
@@ -15872,7 +15941,7 @@
         <v>2504.75</v>
       </c>
       <c r="F521" s="16" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.2">
@@ -15892,7 +15961,7 @@
         <v>2568.86</v>
       </c>
       <c r="F522" s="16" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G522" s="13">
         <f>AVERAGE(E522,E524)</f>
@@ -15924,7 +15993,7 @@
         <v>2558.5700000000002</v>
       </c>
       <c r="F523" s="16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
@@ -15944,7 +16013,7 @@
         <v>2566.98</v>
       </c>
       <c r="F524" s="16" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.2">
@@ -15964,7 +16033,7 @@
         <v>2515.42</v>
       </c>
       <c r="F525" s="16" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G525" s="13">
         <f>AVERAGE(E525:E526)</f>
@@ -15996,7 +16065,7 @@
         <v>2517.5100000000002</v>
       </c>
       <c r="F526" s="16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
@@ -16016,7 +16085,7 @@
         <v>2632.19</v>
       </c>
       <c r="F527" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G527" s="13">
         <f>AVERAGE(E527:E528)</f>
@@ -16048,7 +16117,7 @@
         <v>2634.73</v>
       </c>
       <c r="F528" s="16" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
@@ -16150,7 +16219,7 @@
         <v>2715.31</v>
       </c>
       <c r="F532" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G532" s="13">
         <f>AVERAGE(E532,E534)</f>
@@ -16182,7 +16251,7 @@
         <v>2703.06</v>
       </c>
       <c r="F533" s="16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
@@ -16202,7 +16271,7 @@
         <v>2714.93</v>
       </c>
       <c r="F534" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
@@ -16222,7 +16291,7 @@
         <v>2713.86</v>
       </c>
       <c r="F535" s="16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G535" s="13">
         <f>AVERAGE(E535:E536)</f>
@@ -16254,7 +16323,7 @@
         <v>2710.47</v>
       </c>
       <c r="F536" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.2">
@@ -16274,7 +16343,7 @@
         <v>2603.8000000000002</v>
       </c>
       <c r="F537" s="16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G537" s="13">
         <f>AVERAGE(E537:E538)</f>
@@ -16306,7 +16375,7 @@
         <v>2605.96</v>
       </c>
       <c r="F538" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.2">
@@ -16326,7 +16395,7 @@
         <v>2699.83</v>
       </c>
       <c r="F539" s="16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G539" s="13">
         <f>AVERAGE(E539,E541)</f>
@@ -16358,7 +16427,7 @@
         <v>2712.05</v>
       </c>
       <c r="F540" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.2">
@@ -16378,7 +16447,7 @@
         <v>2701.19</v>
       </c>
       <c r="F541" s="16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.2">
@@ -16398,7 +16467,7 @@
         <v>2692.09</v>
       </c>
       <c r="F542" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G542" s="13">
         <f>AVERAGE(E542:E543)</f>
@@ -16430,7 +16499,7 @@
         <v>2685.55</v>
       </c>
       <c r="F543" s="16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.2">
@@ -16450,7 +16519,7 @@
         <v>2709.31</v>
       </c>
       <c r="F544" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G544" s="13">
         <f>AVERAGE(E544:E545)</f>
@@ -16482,7 +16551,7 @@
         <v>2709.18</v>
       </c>
       <c r="F545" s="16" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.2">
@@ -16502,7 +16571,7 @@
         <v>2672.65</v>
       </c>
       <c r="F546" s="16" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G546" s="13">
         <f>AVERAGE(E546:E547)</f>
@@ -16534,7 +16603,7 @@
         <v>2673.8</v>
       </c>
       <c r="F547" s="16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.2">
@@ -16554,7 +16623,7 @@
         <v>2704.4</v>
       </c>
       <c r="F548" s="16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G548" s="13">
         <f>AVERAGE(E548,E550)</f>
@@ -16586,7 +16655,7 @@
         <v>2683.22</v>
       </c>
       <c r="F549" s="16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.2">
@@ -16606,7 +16675,7 @@
         <v>2699.25</v>
       </c>
       <c r="F550" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
@@ -16626,7 +16695,7 @@
         <v>2640.94</v>
       </c>
       <c r="F551" s="16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G551" s="13">
         <f>AVERAGE(E551:E552)</f>
@@ -16658,7 +16727,7 @@
         <v>2636.01</v>
       </c>
       <c r="F552" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.2">
@@ -16678,7 +16747,7 @@
         <v>2711.66</v>
       </c>
       <c r="F553" s="16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G553" s="13">
         <f>AVERAGE(E553:E554)</f>
@@ -16710,7 +16779,7 @@
         <v>2712.39</v>
       </c>
       <c r="F554" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.2">
@@ -16812,7 +16881,7 @@
         <v>2690.61</v>
       </c>
       <c r="F558" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G558" s="13">
         <f>AVERAGE(E558:E559)</f>
@@ -16844,7 +16913,7 @@
         <v>2690.75</v>
       </c>
       <c r="F559" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.2">
@@ -16864,7 +16933,7 @@
         <v>2691.62</v>
       </c>
       <c r="F560" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G560" s="13">
         <f>AVERAGE(E560:E561)</f>
@@ -16896,7 +16965,7 @@
         <v>2686.69</v>
       </c>
       <c r="F561" s="16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.2">
@@ -16916,7 +16985,7 @@
         <v>2557.08</v>
       </c>
       <c r="F562" s="16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G562" s="13">
         <f>AVERAGE(E563:E564)</f>
@@ -16948,7 +17017,7 @@
         <v>2533.56</v>
       </c>
       <c r="F563" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.2">
@@ -16968,7 +17037,7 @@
         <v>2538.44</v>
       </c>
       <c r="F564" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.2">
@@ -16988,7 +17057,7 @@
         <v>2543.7600000000002</v>
       </c>
       <c r="F565" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G565" s="13">
         <f>AVERAGE(E565,E567)</f>
@@ -17020,7 +17089,7 @@
         <v>2532.9699999999998</v>
       </c>
       <c r="F566" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.2">
@@ -17040,7 +17109,7 @@
         <v>2539.91</v>
       </c>
       <c r="F567" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.2">
@@ -17060,7 +17129,7 @@
         <v>2542.6</v>
       </c>
       <c r="F568" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G568" s="13">
         <f>AVERAGE(E568,E570)</f>
@@ -17092,7 +17161,7 @@
         <v>2526.31</v>
       </c>
       <c r="F569" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.2">
@@ -17112,7 +17181,7 @@
         <v>2538.9299999999998</v>
       </c>
       <c r="F570" s="16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.2">
@@ -17132,7 +17201,7 @@
         <v>2701.73</v>
       </c>
       <c r="F571" s="16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G571" s="13">
         <f>AVERAGE(E571,E573)</f>
@@ -17164,7 +17233,7 @@
         <v>2690.09</v>
       </c>
       <c r="F572" s="16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
@@ -17184,7 +17253,7 @@
         <v>2700.17</v>
       </c>
       <c r="F573" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
@@ -17286,7 +17355,7 @@
         <v>2593.87</v>
       </c>
       <c r="F577" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G577" s="13">
         <f>AVERAGE(E577:E578)</f>
@@ -17318,7 +17387,7 @@
         <v>2597.9899999999998</v>
       </c>
       <c r="F578" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.2">
@@ -17338,7 +17407,7 @@
         <v>2601.64</v>
       </c>
       <c r="F579" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G579" s="13">
         <f>AVERAGE(E579:E580)</f>
@@ -17370,7 +17439,7 @@
         <v>2597.6</v>
       </c>
       <c r="F580" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.2">
@@ -17390,7 +17459,7 @@
         <v>2555.08</v>
       </c>
       <c r="F581" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G581" s="13">
         <f>AVERAGE(E581:E582)</f>
@@ -17422,7 +17491,7 @@
         <v>2561.9899999999998</v>
       </c>
       <c r="F582" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.2">
@@ -17442,7 +17511,7 @@
         <v>2684.96</v>
       </c>
       <c r="F583" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G583" s="13">
         <f>AVERAGE(E583:E584)</f>
@@ -17474,7 +17543,7 @@
         <v>2681.63</v>
       </c>
       <c r="F584" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.2">
@@ -17494,7 +17563,7 @@
         <v>2715.04</v>
       </c>
       <c r="F585" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G585" s="13">
         <f>AVERAGE(E586:E587)</f>
@@ -17526,7 +17595,7 @@
         <v>2692.92</v>
       </c>
       <c r="F586" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.2">
@@ -17546,7 +17615,7 @@
         <v>2693.4</v>
       </c>
       <c r="F587" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.2">
@@ -17566,7 +17635,7 @@
         <v>2686.54</v>
       </c>
       <c r="F588" s="16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G588" s="13">
         <f>AVERAGE(E588:E589)</f>
@@ -17598,7 +17667,7 @@
         <v>2681.8</v>
       </c>
       <c r="F589" s="16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.2">
@@ -17618,7 +17687,7 @@
         <v>2538.7600000000002</v>
       </c>
       <c r="F590" s="16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G590" s="13">
         <f>AVERAGE(E590,E592)</f>
@@ -17650,7 +17719,7 @@
         <v>2524.25</v>
       </c>
       <c r="F591" s="16" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.2">
@@ -17670,7 +17739,7 @@
         <v>2539.6799999999998</v>
       </c>
       <c r="F592" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.2">
@@ -17690,7 +17759,7 @@
         <v>2578.7800000000002</v>
       </c>
       <c r="F593" s="16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G593" s="13">
         <f>AVERAGE(E594:E595)</f>
@@ -17722,7 +17791,7 @@
         <v>2592.5</v>
       </c>
       <c r="F594" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.2">
@@ -17742,7 +17811,7 @@
         <v>2588.16</v>
       </c>
       <c r="F595" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.2">
@@ -17762,7 +17831,7 @@
         <v>2545.4299999999998</v>
       </c>
       <c r="F596" s="16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G596" s="13">
         <f>AVERAGE(E597:E598)</f>
@@ -17794,7 +17863,7 @@
         <v>2560.7199999999998</v>
       </c>
       <c r="F597" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.2">
@@ -17814,7 +17883,7 @@
         <v>2556.3200000000002</v>
       </c>
       <c r="F598" s="16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.2">
@@ -17834,7 +17903,7 @@
         <v>2680.89</v>
       </c>
       <c r="F599" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G599" s="13">
         <f>AVERAGE(E599:E600)</f>
@@ -17866,7 +17935,7 @@
         <v>2676.85</v>
       </c>
       <c r="F600" s="16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.2">
@@ -17886,7 +17955,7 @@
         <v>2626.42</v>
       </c>
       <c r="F601" s="16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G601" s="13">
         <f>AVERAGE(E602:E603)</f>
@@ -17918,7 +17987,7 @@
         <v>2613.58</v>
       </c>
       <c r="F602" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.2">
@@ -17938,7 +18007,7 @@
         <v>2619.02</v>
       </c>
       <c r="F603" s="16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.2">
@@ -17958,7 +18027,7 @@
         <v>2543.17</v>
       </c>
       <c r="F604" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G604" s="13">
         <f>AVERAGE(E604,E606)</f>
@@ -17990,7 +18059,7 @@
         <v>2532.25</v>
       </c>
       <c r="F605" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.2">
@@ -18010,7 +18079,7 @@
         <v>2548.73</v>
       </c>
       <c r="F606" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.2">
@@ -18030,7 +18099,7 @@
         <v>2552.04</v>
       </c>
       <c r="F607" s="16" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G607" s="13">
         <f>AVERAGE(E608:E609)</f>
@@ -18062,7 +18131,7 @@
         <v>2593.4699999999998</v>
       </c>
       <c r="F608" s="16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.2">
@@ -18082,7 +18151,7 @@
         <v>2596.79</v>
       </c>
       <c r="F609" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.2">
@@ -18102,7 +18171,7 @@
         <v>2689.54</v>
       </c>
       <c r="F610" s="16" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G610" s="13">
         <f>AVERAGE(E610:E611)</f>
@@ -18134,7 +18203,7 @@
         <v>2685.28</v>
       </c>
       <c r="F611" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.2">
@@ -18216,7 +18285,7 @@
         <v>2246.56</v>
       </c>
       <c r="F614" s="16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.2">
@@ -18236,7 +18305,7 @@
         <v>2583.5100000000002</v>
       </c>
       <c r="F615" s="16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G615" s="13">
         <f>AVERAGE(E615:E616)</f>
@@ -18268,7 +18337,7 @@
         <v>2585.48</v>
       </c>
       <c r="F616" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.2">
@@ -18288,7 +18357,7 @@
         <v>2618.61</v>
       </c>
       <c r="F617" s="16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G617" s="13">
         <f>AVERAGE(E617:E618)</f>
@@ -18320,7 +18389,7 @@
         <v>2613.4499999999998</v>
       </c>
       <c r="F618" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.2">
@@ -18340,7 +18409,7 @@
         <v>2632.69</v>
       </c>
       <c r="F619" s="16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G619" s="13">
         <f>AVERAGE(E619,E621)</f>
@@ -18372,7 +18441,7 @@
         <v>2652.05</v>
       </c>
       <c r="F620" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.2">
@@ -18392,7 +18461,7 @@
         <v>2637.26</v>
       </c>
       <c r="F621" s="16" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.2">
@@ -18412,7 +18481,7 @@
         <v>2582.6799999999998</v>
       </c>
       <c r="F622" s="16" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G622" s="13">
         <f>AVERAGE(E622:E623)</f>
@@ -18444,7 +18513,7 @@
         <v>2577.56</v>
       </c>
       <c r="F623" s="16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.2">
@@ -18464,7 +18533,7 @@
         <v>2597.64</v>
       </c>
       <c r="F624" s="16" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G624" s="13">
         <f>AVERAGE(E624:E625)</f>
@@ -18496,7 +18565,7 @@
         <v>2601.5700000000002</v>
       </c>
       <c r="F625" s="16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="626" spans="1:15" x14ac:dyDescent="0.2">
@@ -18516,7 +18585,7 @@
         <v>2610.0100000000002</v>
       </c>
       <c r="F626" s="16" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G626" s="13">
         <f>AVERAGE(E626,E628)</f>
@@ -18550,7 +18619,7 @@
         <v>2642.76</v>
       </c>
       <c r="F627" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
@@ -18572,7 +18641,7 @@
         <v>2612.4</v>
       </c>
       <c r="F628" s="16" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="629" spans="1:15" x14ac:dyDescent="0.2">
@@ -18592,7 +18661,7 @@
         <v>2595.98</v>
       </c>
       <c r="F629" s="16" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G629" s="13">
         <f>AVERAGE(E629,E631)</f>
@@ -18624,7 +18693,7 @@
         <v>2604.71</v>
       </c>
       <c r="F630" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="631" spans="1:15" x14ac:dyDescent="0.2">
@@ -18644,7 +18713,7 @@
         <v>2588.87</v>
       </c>
       <c r="F631" s="16" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="632" spans="1:15" x14ac:dyDescent="0.2">
@@ -18664,7 +18733,7 @@
         <v>2595.79</v>
       </c>
       <c r="F632" s="16" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G632" s="13">
         <f>AVERAGE(E632,E634)</f>
@@ -18696,7 +18765,7 @@
         <v>2607.23</v>
       </c>
       <c r="F633" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="634" spans="1:15" x14ac:dyDescent="0.2">
@@ -18716,7 +18785,7 @@
         <v>2592.3000000000002</v>
       </c>
       <c r="F634" s="16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="635" spans="1:15" x14ac:dyDescent="0.2">
@@ -18736,7 +18805,7 @@
         <v>2592.75</v>
       </c>
       <c r="F635" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G635" s="13">
         <f>AVERAGE(E636,E637)</f>
@@ -18768,7 +18837,7 @@
         <v>2603.83</v>
       </c>
       <c r="F636" s="16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="637" spans="1:15" x14ac:dyDescent="0.2">
@@ -18788,7 +18857,7 @@
         <v>2599.81</v>
       </c>
       <c r="F637" s="16" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.2">
@@ -18808,7 +18877,7 @@
         <v>2606.08</v>
       </c>
       <c r="F638" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G638" s="13">
         <f>AVERAGE(E638,E639)</f>
@@ -18840,7 +18909,7 @@
         <v>2604.9899999999998</v>
       </c>
       <c r="F639" s="16" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="640" spans="1:15" x14ac:dyDescent="0.2">
@@ -18860,7 +18929,7 @@
         <v>2594.91</v>
       </c>
       <c r="F640" s="16" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.2">
@@ -18942,7 +19011,7 @@
         <v>2230.35</v>
       </c>
       <c r="F643" s="16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.2">
@@ -18962,7 +19031,7 @@
         <v>2625.94</v>
       </c>
       <c r="F644" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G644" s="13">
         <f>AVERAGE(E645,E646)</f>
@@ -18994,7 +19063,7 @@
         <v>2607.48</v>
       </c>
       <c r="F645" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.2">
@@ -19014,7 +19083,7 @@
         <v>2602.35</v>
       </c>
       <c r="F646" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.2">
@@ -19034,7 +19103,7 @@
         <v>2613.0500000000002</v>
       </c>
       <c r="F647" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G647" s="13">
         <f>AVERAGE(E647,E649)</f>
@@ -19066,7 +19135,7 @@
         <v>2602.4299999999998</v>
       </c>
       <c r="F648" s="16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
@@ -19086,7 +19155,7 @@
         <v>2617.06</v>
       </c>
       <c r="F649" s="16" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.2">
@@ -19106,7 +19175,7 @@
         <v>2510.23</v>
       </c>
       <c r="F650" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G650" s="13">
         <f>AVERAGE(E651,E652)</f>
@@ -19138,7 +19207,7 @@
         <v>2506.5</v>
       </c>
       <c r="F651" s="16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.2">
@@ -19158,7 +19227,7 @@
         <v>2502.84</v>
       </c>
       <c r="F652" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G652" s="13">
         <f>AVERAGE(E652:E653)</f>
@@ -19190,7 +19259,7 @@
         <v>2497.3200000000002</v>
       </c>
       <c r="F653" s="16" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.2">
@@ -19210,7 +19279,7 @@
         <v>2489.41</v>
       </c>
       <c r="F654" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G654" s="13">
         <f>AVERAGE(E655,E656)</f>
@@ -19242,7 +19311,7 @@
         <v>2510.96</v>
       </c>
       <c r="F655" s="16" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.2">
@@ -19262,7 +19331,7 @@
         <v>2507.34</v>
       </c>
       <c r="F656" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.2">
@@ -19282,7 +19351,7 @@
         <v>2605.37</v>
       </c>
       <c r="F657" s="16" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G657" s="13">
         <f>AVERAGE(E658,E657)</f>
@@ -19314,7 +19383,7 @@
         <v>2611.6799999999998</v>
       </c>
       <c r="F658" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.2">
@@ -19334,7 +19403,7 @@
         <v>2541.79</v>
       </c>
       <c r="F659" s="16" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G659" s="13">
         <f>AVERAGE(E660,E661)</f>
@@ -19366,7 +19435,7 @@
         <v>2528.6999999999998</v>
       </c>
       <c r="F660" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.2">
@@ -19386,7 +19455,7 @@
         <v>2527.4299999999998</v>
       </c>
       <c r="F661" s="16" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.2">
@@ -19406,7 +19475,7 @@
         <v>2542.09</v>
       </c>
       <c r="F662" s="16" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G662" s="13">
         <f>AVERAGE(E664,E662)</f>
@@ -19438,7 +19507,7 @@
         <v>2529.9699999999998</v>
       </c>
       <c r="F663" s="16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.2">
@@ -19458,7 +19527,7 @@
         <v>2544.34</v>
       </c>
       <c r="F664" s="16" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.2">
@@ -19478,7 +19547,7 @@
         <v>2540.21</v>
       </c>
       <c r="F665" s="16" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G665" s="13">
         <f>AVERAGE(E665,E667)</f>
@@ -19510,7 +19579,7 @@
         <v>2558.08</v>
       </c>
       <c r="F666" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.2">
@@ -19530,7 +19599,7 @@
         <v>2539.96</v>
       </c>
       <c r="F667" s="16" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.2">
@@ -19550,7 +19619,7 @@
         <v>2647.54</v>
       </c>
       <c r="F668" s="16" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G668" s="13">
         <f>AVERAGE(E668,E670)</f>
@@ -19582,7 +19651,7 @@
         <v>2636.63</v>
       </c>
       <c r="F669" s="16" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.2">
@@ -19602,7 +19671,7 @@
         <v>2648.53</v>
       </c>
       <c r="F670" s="16" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.2">
@@ -19704,7 +19773,7 @@
         <v>2671.32</v>
       </c>
       <c r="F674" s="16" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G674" s="13">
         <f>AVERAGE(E675,E676)</f>
@@ -19736,7 +19805,7 @@
         <v>2602.92</v>
       </c>
       <c r="F675" s="16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.2">
@@ -19756,7 +19825,7 @@
         <v>2600.5700000000002</v>
       </c>
       <c r="F676" s="16" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.2">
@@ -19776,7 +19845,7 @@
         <v>2588.17</v>
       </c>
       <c r="F677" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G677" s="13">
         <f>AVERAGE(E677,E678)</f>
@@ -19808,7 +19877,7 @@
         <v>2587.04</v>
       </c>
       <c r="F678" s="16" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.2">
@@ -19828,7 +19897,7 @@
         <v>2486.2399999999998</v>
       </c>
       <c r="F679" s="16" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G679" s="13">
         <f>AVERAGE(E679,E680)</f>
@@ -19860,7 +19929,7 @@
         <v>2490.33</v>
       </c>
       <c r="F680" s="16" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.2">
@@ -19880,7 +19949,7 @@
         <v>2379.1</v>
       </c>
       <c r="F681" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G681" s="13">
         <f>AVERAGE(E682,E683)</f>
@@ -19912,7 +19981,7 @@
         <v>2397.81</v>
       </c>
       <c r="F682" s="16" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.2">
@@ -19932,7 +20001,7 @@
         <v>2392.4</v>
       </c>
       <c r="F683" s="16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.2">
@@ -19952,7 +20021,7 @@
         <v>2416.37</v>
       </c>
       <c r="F684" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G684" s="13">
         <f>AVERAGE(E685,E686)</f>
@@ -19984,7 +20053,7 @@
         <v>2389.58</v>
       </c>
       <c r="F685" s="16" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.2">
@@ -20004,7 +20073,7 @@
         <v>2389.9299999999998</v>
       </c>
       <c r="F686" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.2">
@@ -20024,7 +20093,7 @@
         <v>2617.25</v>
       </c>
       <c r="F687" s="16" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G687" s="13">
         <f>AVERAGE(E687,E688)</f>
@@ -20056,7 +20125,7 @@
         <v>2619.65</v>
       </c>
       <c r="F688" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.2">
@@ -20076,7 +20145,7 @@
         <v>2514.23</v>
       </c>
       <c r="F689" s="16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G689" s="13">
         <f>AVERAGE(E689,E691)</f>
@@ -20108,7 +20177,7 @@
         <v>2529.6</v>
       </c>
       <c r="F690" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.2">
@@ -20128,7 +20197,7 @@
         <v>2510.37</v>
       </c>
       <c r="F691" s="16" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.2">
@@ -20148,7 +20217,7 @@
         <v>2459.66</v>
       </c>
       <c r="F692" s="16" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G692" s="13">
         <f>AVERAGE(E692,E694)</f>
@@ -20180,7 +20249,7 @@
         <v>2402.61</v>
       </c>
       <c r="F693" s="16" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
@@ -20200,7 +20269,7 @@
         <v>2455.98</v>
       </c>
       <c r="F694" s="16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
@@ -20220,7 +20289,7 @@
         <v>2493.88</v>
       </c>
       <c r="F695" s="16" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G695" s="13">
         <f>AVERAGE(E697,E696)</f>
@@ -20252,7 +20321,7 @@
         <v>2507.16</v>
       </c>
       <c r="F696" s="16" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
@@ -20272,7 +20341,7 @@
         <v>2513.67</v>
       </c>
       <c r="F697" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
@@ -20292,7 +20361,7 @@
         <v>2593.69</v>
       </c>
       <c r="F698" s="16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G698" s="13">
         <f>AVERAGE(E698,E700)</f>
@@ -20324,7 +20393,7 @@
         <v>2604.7800000000002</v>
       </c>
       <c r="F699" s="16" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
@@ -20344,7 +20413,7 @@
         <v>2598.79</v>
       </c>
       <c r="F700" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.2">
@@ -20426,7 +20495,7 @@
         <v>2715.38</v>
       </c>
       <c r="F703" s="16" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G703" s="13">
         <f>AVERAGE(E704,E705)</f>
@@ -20458,7 +20527,7 @@
         <v>2609.15</v>
       </c>
       <c r="F704" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.2">
@@ -20478,7 +20547,7 @@
         <v>2615.44</v>
       </c>
       <c r="F705" s="16" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.2">
@@ -20498,7 +20567,7 @@
         <v>2589.64</v>
       </c>
       <c r="F706" s="16" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G706" s="13">
         <f>AVERAGE(E706,E708)</f>
@@ -20530,7 +20599,7 @@
         <v>2501.0700000000002</v>
       </c>
       <c r="F707" s="16" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.2">
@@ -20550,7 +20619,7 @@
         <v>2588.09</v>
       </c>
       <c r="F708" s="16" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.2">
@@ -20570,7 +20639,7 @@
         <v>2364.96</v>
       </c>
       <c r="F709" s="16" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G709" s="13">
         <f>AVERAGE(E709,E711)</f>
@@ -20602,7 +20671,7 @@
         <v>2349.0700000000002</v>
       </c>
       <c r="F710" s="16" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.2">
@@ -20622,7 +20691,7 @@
         <v>2371.4</v>
       </c>
       <c r="F711" s="16" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.2">
@@ -20642,7 +20711,7 @@
         <v>2489.98</v>
       </c>
       <c r="F712" s="16" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G712" s="13">
         <f>AVERAGE(E712,E713)</f>
@@ -20674,7 +20743,7 @@
         <v>2493.86</v>
       </c>
       <c r="F713" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.2">
@@ -20694,7 +20763,7 @@
         <v>2435.52</v>
       </c>
       <c r="F714" s="16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G714" s="13">
         <f>AVERAGE(E715,E716)</f>
@@ -20726,7 +20795,7 @@
         <v>2463.61</v>
       </c>
       <c r="F715" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.2">
@@ -20746,7 +20815,7 @@
         <v>2457.8000000000002</v>
       </c>
       <c r="F716" s="16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.2">
@@ -20766,7 +20835,7 @@
         <v>2611.8200000000002</v>
       </c>
       <c r="F717" s="16" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G717" s="13">
         <f>AVERAGE(E717,E718)</f>
@@ -20798,7 +20867,7 @@
         <v>2608.4499999999998</v>
       </c>
       <c r="F718" s="16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.2">
@@ -20818,7 +20887,7 @@
         <v>2371.92</v>
       </c>
       <c r="F719" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G719" s="13">
         <f>AVERAGE(E721,E720)</f>
@@ -20850,7 +20919,7 @@
         <v>2393.9699999999998</v>
       </c>
       <c r="F720" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.2">
@@ -20870,7 +20939,7 @@
         <v>2395.33</v>
       </c>
       <c r="F721" s="16" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.2">
@@ -20890,7 +20959,7 @@
         <v>2488.85</v>
       </c>
       <c r="F722" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G722" s="13">
         <f>AVERAGE(E722,E723)</f>
@@ -20922,7 +20991,7 @@
         <v>2484.7199999999998</v>
       </c>
       <c r="F723" s="16" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.2">
@@ -20942,7 +21011,7 @@
         <v>2407.86</v>
       </c>
       <c r="F724" s="16" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G724" s="13">
         <f>AVERAGE(E725:E726)</f>
@@ -20974,7 +21043,7 @@
         <v>2473.7199999999998</v>
       </c>
       <c r="F725" s="16" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.2">
@@ -20994,7 +21063,7 @@
         <v>2478.85</v>
       </c>
       <c r="F726" s="16" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.2">
@@ -21014,7 +21083,7 @@
         <v>2599.69</v>
       </c>
       <c r="F727" s="16" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G727" s="13">
         <f>AVERAGE(E727,E729)</f>
@@ -21046,7 +21115,7 @@
         <v>2614.36</v>
       </c>
       <c r="F728" s="16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.2">
@@ -21066,7 +21135,7 @@
         <v>2597.91</v>
       </c>
       <c r="F729" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.2">
@@ -21168,7 +21237,7 @@
         <v>2609.02</v>
       </c>
       <c r="F733" s="16" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G733" s="13">
         <f>AVERAGE(E733,E734)</f>
@@ -21200,7 +21269,7 @@
         <v>2608.4</v>
       </c>
       <c r="F734" s="16" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.2">
@@ -21220,7 +21289,7 @@
         <v>2590.27</v>
       </c>
       <c r="F735" s="16" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G735" s="13">
         <f>AVERAGE(E735,E737)</f>
@@ -21252,7 +21321,7 @@
         <v>2610.87</v>
       </c>
       <c r="F736" s="16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.2">
@@ -21272,7 +21341,7 @@
         <v>2587.19</v>
       </c>
       <c r="F737" s="16" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.2">
@@ -21292,7 +21361,7 @@
         <v>2519.91</v>
       </c>
       <c r="F738" s="16" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G738" s="13">
         <f>AVERAGE(E739,E740)</f>
@@ -21324,7 +21393,7 @@
         <v>2490.88</v>
       </c>
       <c r="F739" s="16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.2">
@@ -21344,7 +21413,7 @@
         <v>2489.37</v>
       </c>
       <c r="F740" s="16" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.2">
@@ -21364,7 +21433,7 @@
         <v>2480.14</v>
       </c>
       <c r="F741" s="16" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G741" s="13">
         <f>AVERAGE(E742,E743)</f>
@@ -21396,7 +21465,7 @@
         <v>2439.27</v>
       </c>
       <c r="F742" s="16" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.2">
@@ -21416,7 +21485,7 @@
         <v>2441.5500000000002</v>
       </c>
       <c r="F743" s="16" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.2">
@@ -21436,7 +21505,7 @@
         <v>2458.62</v>
       </c>
       <c r="F744" s="16" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G744" s="13">
         <f>AVERAGE(E745,E744)</f>
@@ -21468,7 +21537,7 @@
         <v>2453.62</v>
       </c>
       <c r="F745" s="16" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.2">
@@ -21488,7 +21557,7 @@
         <v>2614.89</v>
       </c>
       <c r="F746" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G746" s="13">
         <f>AVERAGE(E747,E746)</f>
@@ -21520,7 +21589,7 @@
         <v>2612.9699999999998</v>
       </c>
       <c r="F747" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.2">
@@ -21540,7 +21609,7 @@
         <v>2492.29</v>
       </c>
       <c r="F748" s="16" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G748" s="13">
         <f>AVERAGE(E749,E748)</f>
@@ -21572,7 +21641,7 @@
         <v>2493.69</v>
       </c>
       <c r="F749" s="16" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.2">
@@ -21592,7 +21661,7 @@
         <v>2493.7199999999998</v>
       </c>
       <c r="F750" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G750" s="13">
         <f>AVERAGE(E751,E752)</f>
@@ -21624,7 +21693,7 @@
         <v>2508.9699999999998</v>
       </c>
       <c r="F751" s="16" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.2">
@@ -21644,7 +21713,7 @@
         <v>2506.15</v>
       </c>
       <c r="F752" s="16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.2">
@@ -21664,7 +21733,7 @@
         <v>2473.63</v>
       </c>
       <c r="F753" s="16" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G753" s="13">
         <f>AVERAGE(E754,E753)</f>
@@ -21696,7 +21765,7 @@
         <v>2475.8000000000002</v>
       </c>
       <c r="F754" s="16" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.2">
@@ -21716,7 +21785,7 @@
         <v>2585.2199999999998</v>
       </c>
       <c r="F755" s="16" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G755" s="13">
         <f>AVERAGE(E757,E755)</f>
@@ -21748,7 +21817,7 @@
         <v>2636.55</v>
       </c>
       <c r="F756" s="16" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.2">
@@ -21768,7 +21837,7 @@
         <v>2590.46</v>
       </c>
       <c r="F757" s="16" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.2">
@@ -21850,7 +21919,7 @@
         <v>2671.65</v>
       </c>
       <c r="F760" s="35" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G760" s="13">
         <f>AVERAGE(E760,E762)</f>
@@ -21884,7 +21953,7 @@
         <v>2637.11</v>
       </c>
       <c r="F761" s="16" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.2">
@@ -21904,7 +21973,7 @@
         <v>2678.06</v>
       </c>
       <c r="F762" s="16" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.2">
@@ -21924,7 +21993,7 @@
         <v>2623.03</v>
       </c>
       <c r="F763" s="16" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G763" s="13">
         <f>AVERAGE(E763:E765)</f>
@@ -21956,7 +22025,7 @@
         <v>2620.35</v>
       </c>
       <c r="F764" s="16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.2">
@@ -21976,7 +22045,7 @@
         <v>2616.3200000000002</v>
       </c>
       <c r="F765" s="16" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.2">
@@ -21996,7 +22065,7 @@
         <v>2640.62</v>
       </c>
       <c r="F766" s="16" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G766" s="13">
         <f>AVERAGE(E767:E768)</f>
@@ -22028,7 +22097,7 @@
         <v>2618.0300000000002</v>
       </c>
       <c r="F767" s="16" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.2">
@@ -22048,7 +22117,7 @@
         <v>2623.72</v>
       </c>
       <c r="F768" s="16" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.2">
@@ -22068,7 +22137,7 @@
         <v>2621.71</v>
       </c>
       <c r="F769" s="16" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G769" s="13">
         <f>AVERAGE(E769,E771)</f>
@@ -22100,7 +22169,7 @@
         <v>2640.87</v>
       </c>
       <c r="F770" s="16" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.2">
@@ -22120,7 +22189,7 @@
         <v>2626.96</v>
       </c>
       <c r="F771" s="16" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.2">
@@ -22140,7 +22209,7 @@
         <v>2632.38</v>
       </c>
       <c r="F772" s="16" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G772" s="13">
         <f>AVERAGE(E772:E773)</f>
@@ -22172,7 +22241,7 @@
         <v>2629.02</v>
       </c>
       <c r="F773" s="16" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.2">
@@ -22192,7 +22261,7 @@
         <v>2690.53</v>
       </c>
       <c r="F774" s="16" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G774" s="13">
         <f>AVERAGE(E775:E776)</f>
@@ -22224,7 +22293,7 @@
         <v>2679.29</v>
       </c>
       <c r="F775" s="16" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.2">
@@ -22244,7 +22313,7 @@
         <v>2683.11</v>
       </c>
       <c r="F776" s="16" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.2">
@@ -22264,7 +22333,7 @@
         <v>2561.77</v>
       </c>
       <c r="F777" s="16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G777" s="13">
         <f>AVERAGE(E778:E779)</f>
@@ -22296,7 +22365,7 @@
         <v>2576.87</v>
       </c>
       <c r="F778" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.2">
@@ -22316,7 +22385,7 @@
         <v>2579.63</v>
       </c>
       <c r="F779" s="16" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.2">
@@ -22336,7 +22405,7 @@
         <v>2610.11</v>
       </c>
       <c r="F780" s="16" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G780" s="13">
         <f>AVERAGE(E781:E782)</f>
@@ -22368,7 +22437,7 @@
         <v>2587.52</v>
       </c>
       <c r="F781" s="16" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.2">
@@ -22388,7 +22457,7 @@
         <v>2592.56</v>
       </c>
       <c r="F782" s="16" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.2">
@@ -22408,7 +22477,7 @@
         <v>2625.69</v>
       </c>
       <c r="F783" s="16" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G783" s="13">
         <f>AVERAGE(E784:E785)</f>
@@ -22440,7 +22509,7 @@
         <v>2608.31</v>
       </c>
       <c r="F784" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.2">
@@ -22460,7 +22529,7 @@
         <v>2604.85</v>
       </c>
       <c r="F785" s="16" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.2">
@@ -22480,7 +22549,7 @@
         <v>2653.44</v>
       </c>
       <c r="F786" s="16" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G786" s="13">
         <f>AVERAGE(E786,E788)</f>
@@ -22512,7 +22581,7 @@
         <v>2667.65</v>
       </c>
       <c r="F787" s="16" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.2">
@@ -22532,11 +22601,11 @@
         <v>2659.13</v>
       </c>
       <c r="F788" s="16" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L788" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22548,175 +22617,167 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:A33"/>
+      <selection sqref="A1:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>8</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>9</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>96</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>648</v>
+      <c r="A21" s="27" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>649</v>
+      <c r="A22" s="27" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>650</v>
+      <c r="A23" s="27" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>651</v>
+      <c r="A24" s="27" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>652</v>
+      <c r="A25" s="23" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>653</v>
+      <c r="A26" s="23" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>654</v>
+      <c r="A27" s="21" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>655</v>
+      <c r="A28" s="21" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>656</v>
+      <c r="A29" s="21" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>657</v>
-      </c>
+      <c r="A30" s="16"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>658</v>
-      </c>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>659</v>
-      </c>
+      <c r="A32" s="16"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>660</v>
-      </c>
+      <c r="A33" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
